--- a/analyses/6_residences_analysis.xlsx
+++ b/analyses/6_residences_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22340" tabRatio="932" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15960" tabRatio="932" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -54,6 +54,7 @@
     <sheet name="csv_add_on_space_heating_child" sheetId="103" r:id="rId45"/>
     <sheet name="csv_add_on_hot water_child" sheetId="104" r:id="rId46"/>
     <sheet name="csv_hot_water_from_el_add_on" sheetId="106" r:id="rId47"/>
+    <sheet name="csv_export_to_area_analysis" sheetId="107" r:id="rId48"/>
   </sheets>
   <definedNames>
     <definedName name="base_year">Dashboard!$E$12</definedName>
@@ -119,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="870">
   <si>
     <t>Changelog</t>
   </si>
@@ -2375,9 +2376,6 @@
   </si>
   <si>
     <t>updating dashboard button</t>
-  </si>
-  <si>
-    <t>Percent of old houses (built after 1991)</t>
   </si>
   <si>
     <t>Changed the way that the useful demand in heating/cooling share is calculated, regarding the old/new houses split</t>
@@ -2568,9 +2566,6 @@
     <t>output.light</t>
   </si>
   <si>
-    <t>Percent of new houses (built before 1992)</t>
-  </si>
-  <si>
     <t>made Average R-value of a typical old/new residences a fixed dashboard input (it is an assumption)</t>
   </si>
   <si>
@@ -2580,9 +2575,6 @@
     <t>Source analsysis by Quintel, Chael Kruip</t>
   </si>
   <si>
-    <t>Quintel Insulation Source Analysis. Stored in nl.ad</t>
-  </si>
-  <si>
     <t>Converter attributes</t>
   </si>
   <si>
@@ -2742,7 +2734,26 @@
     <t>improved text of intro sheet</t>
   </si>
   <si>
-    <t>The main goal of this analysis is to provide a breakdown of the residential energy consumption. Energy is consumed in the applications space heating, hot water, space cooling, lighting, cooking and electric applications. Furthermore, the energy use within these applications is split over certain technologies (for example: coal, gas and oil heaters in space heating).</t>
+    <t>export_to_area_analysis</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Percent of old houses (built before 1992)</t>
+  </si>
+  <si>
+    <t>Percent of new houses (built after 1991)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The main goal of this analysis is to provide a breakdown of the residential energy consumption. Energy is consumed in the applications space heating, hot water, space cooling, lighting, cooking and electric applications. Furthermore, the energy use within these applications is split over certain technologies (for example: coal, gas and oil heaters in space heating). 
+Note that Solar PV production is not covered by this analysis as that results from the Energy Balance and the Autoproduction table (both available from IEA). To see what solar PV production is for your dataset, open the "2_power_and_heat_plant_analysis", import all the required data (including the Energy Balance and Autoproducer table, which both need to be bought from IEA), and proceed to 'Results by machine' or the 'PV solar' sheets. </t>
+  </si>
+  <si>
+    <t>insulation_level_new_houses_min</t>
+  </si>
+  <si>
+    <t>insulation_level_old_houses_min</t>
   </si>
 </sst>
 </file>
@@ -3985,7 +3996,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2264">
+  <cellStyleXfs count="2266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6252,8 +6263,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="659">
+  <cellXfs count="660">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -7235,9 +7248,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -7348,6 +7358,7 @@
     <xf numFmtId="9" fontId="0" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -7387,8 +7398,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2264">
+  <cellStyles count="2266">
     <cellStyle name="Calculation" xfId="1524" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -8750,6 +8764,7 @@
     <cellStyle name="Followed Hyperlink" xfId="2259" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2261" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2263" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2265" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -9645,6 +9660,7 @@
     <cellStyle name="Hyperlink" xfId="2258" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2260" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2262" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2264" builtinId="8" hidden="1"/>
     <cellStyle name="Input cel" xfId="712"/>
     <cellStyle name="Linked Cell" xfId="818" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14811,10 +14827,10 @@
       <c r="B10" s="172"/>
       <c r="C10" s="173"/>
       <c r="D10" s="173" t="s">
+        <v>756</v>
+      </c>
+      <c r="E10" s="557" t="s">
         <v>757</v>
-      </c>
-      <c r="E10" s="557" t="s">
-        <v>758</v>
       </c>
       <c r="F10" s="158"/>
       <c r="G10" s="158"/>
@@ -14825,7 +14841,7 @@
     <row r="11" spans="1:10">
       <c r="A11" s="164"/>
       <c r="B11" s="562" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C11" s="106"/>
       <c r="D11" s="274">
@@ -14849,16 +14865,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="31" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C13" s="59"/>
       <c r="D13" s="559">
         <f>Dashboard!E103</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E13" s="560">
         <f>Dashboard!E104</f>
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F13" s="554"/>
       <c r="G13" s="164"/>
@@ -14873,16 +14889,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="31" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="559">
+      <c r="D15" s="559" t="e">
         <f>1/D13</f>
-        <v>2</v>
-      </c>
-      <c r="E15" s="560">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" s="560" t="e">
         <f>1/E13</f>
-        <v>0.55555555555555558</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F15" s="554"/>
       <c r="G15" s="164"/>
@@ -14896,16 +14912,16 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="31" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C17" s="59"/>
-      <c r="D17" s="559">
+      <c r="D17" s="559" t="e">
         <f>D11*D15</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="560">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E17" s="560" t="e">
         <f>E11*E15</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F17" s="553"/>
       <c r="G17" s="164"/>
@@ -14920,7 +14936,7 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="31" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="298" t="e">
@@ -18466,7 +18482,7 @@
       <c r="B24" s="467"/>
       <c r="C24" s="467"/>
       <c r="K24" s="657" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="L24" s="658"/>
     </row>
@@ -20375,7 +20391,7 @@
         <v>41512</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D24" s="27">
         <v>2.0699999999999998</v>
@@ -20386,7 +20402,7 @@
         <v>41534</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D25" s="27">
         <v>2.08</v>
@@ -20397,7 +20413,7 @@
         <v>41535</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D26" s="27">
         <v>2.09</v>
@@ -20408,7 +20424,7 @@
         <v>41535</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D27" s="27">
         <v>2.1</v>
@@ -20419,40 +20435,40 @@
         <v>41561</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D28" s="18">
         <v>2.11</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="625">
+      <c r="B29" s="624">
         <v>41562</v>
       </c>
-      <c r="C29" s="626" t="s">
-        <v>822</v>
+      <c r="C29" s="625" t="s">
+        <v>819</v>
       </c>
       <c r="D29" s="18">
         <v>2.12</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="625">
+      <c r="B30" s="624">
         <v>41578</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D30" s="18">
         <v>2.13</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="625">
+      <c r="B31" s="624">
         <v>41618</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D31" s="18">
         <v>2.14</v>
@@ -22371,9 +22387,9 @@
     <row r="5" spans="2:2">
       <c r="B5" s="60"/>
     </row>
-    <row r="6" spans="2:2" ht="45">
+    <row r="6" spans="2:2" ht="90">
       <c r="B6" s="87" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -22902,6 +22918,84 @@
         <v>300</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="33.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="str">
+        <f>Dashboard!O100</f>
+        <v>residences_percentage_old_residences</v>
+      </c>
+      <c r="B3" s="143">
+        <f>Dashboard!E100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="str">
+        <f>Dashboard!O101</f>
+        <v>residences_percentage_new_residences</v>
+      </c>
+      <c r="B4" s="143">
+        <f>Dashboard!E101</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="str">
+        <f>Dashboard!O103</f>
+        <v>insulation_level_old_houses_min</v>
+      </c>
+      <c r="B5" s="645">
+        <f>Dashboard!E103</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="str">
+        <f>Dashboard!O104</f>
+        <v>insulation_level_new_houses_min</v>
+      </c>
+      <c r="B6" s="645">
+        <f>Dashboard!E104</f>
         <v>0</v>
       </c>
     </row>
@@ -23497,7 +23591,7 @@
     <row r="26" spans="2:4" ht="75">
       <c r="B26" s="39"/>
       <c r="C26" s="40" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D26" s="41"/>
     </row>
@@ -23509,10 +23603,10 @@
     <row r="28" spans="2:4" ht="14" customHeight="1">
       <c r="B28" s="39"/>
       <c r="C28" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="14" customHeight="1">
@@ -24683,7 +24777,7 @@
     </row>
     <row r="182" spans="2:3">
       <c r="B182" s="49" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C182" s="43" t="s">
         <v>104</v>
@@ -24722,7 +24816,9 @@
   </sheetPr>
   <dimension ref="B2:P116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -24843,7 +24939,7 @@
       </c>
       <c r="F9" s="564"/>
       <c r="G9" s="564" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H9" s="564"/>
       <c r="I9" s="564" t="s">
@@ -24861,7 +24957,7 @@
       </c>
       <c r="N9" s="15"/>
       <c r="O9" s="464" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="P9" s="465" t="s">
         <v>690</v>
@@ -24882,7 +24978,7 @@
       <c r="K10" s="566" t="s">
         <v>686</v>
       </c>
-      <c r="L10" s="628" t="b">
+      <c r="L10" s="627" t="b">
         <f>IF(COUNTIF(P:P,0)+COUNTIF(P:P,FALSE)=0,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -24931,7 +25027,7 @@
       <c r="K12" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="L12" s="629" t="b">
+      <c r="L12" s="628" t="b">
         <f>IF(COUNTBLANK(E11:E96)-COUNTBLANK(C11:C96)=7,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -25035,7 +25131,7 @@
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="651" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="L17" s="356"/>
       <c r="M17" s="357"/>
@@ -25062,8 +25158,8 @@
     </row>
     <row r="19" spans="2:16" ht="16" customHeight="1" thickBot="1">
       <c r="B19" s="38"/>
-      <c r="C19" s="631" t="s">
-        <v>827</v>
+      <c r="C19" s="630" t="s">
+        <v>824</v>
       </c>
       <c r="D19" s="398"/>
       <c r="E19" s="270"/>
@@ -25072,11 +25168,11 @@
       <c r="H19" s="414"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="633" t="str">
+      <c r="K19" s="632" t="str">
         <f t="array" ref="K19:K25">TRANSPOSE('Final demand per energy carrier'!E75:K75)</f>
         <v>Network gas</v>
       </c>
-      <c r="L19" s="644" t="e">
+      <c r="L19" s="643" t="e">
         <f t="array" ref="L19:L25">TRANSPOSE('Final demand per energy carrier'!E78:K78)</f>
         <v>#DIV/0!</v>
       </c>
@@ -25090,7 +25186,7 @@
     </row>
     <row r="20" spans="2:16" ht="16" thickBot="1">
       <c r="B20" s="38"/>
-      <c r="C20" s="630" t="s">
+      <c r="C20" s="629" t="s">
         <v>77</v>
       </c>
       <c r="D20" s="399" t="s">
@@ -25104,10 +25200,10 @@
       <c r="H20" s="419"/>
       <c r="I20" s="421"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="634" t="str">
+      <c r="K20" s="633" t="str">
         <v>Electricity</v>
       </c>
-      <c r="L20" s="644" t="e">
+      <c r="L20" s="643" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="M20" s="364" t="e">
@@ -25122,7 +25218,7 @@
     </row>
     <row r="21" spans="2:16" ht="16" thickBot="1">
       <c r="B21" s="38"/>
-      <c r="C21" s="630" t="s">
+      <c r="C21" s="629" t="s">
         <v>306</v>
       </c>
       <c r="D21" s="399" t="s">
@@ -25136,10 +25232,10 @@
       <c r="H21" s="419"/>
       <c r="I21" s="421"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="634" t="str">
+      <c r="K21" s="633" t="str">
         <v>Solar thermal</v>
       </c>
-      <c r="L21" s="644" t="e">
+      <c r="L21" s="643" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="M21" s="364" t="e">
@@ -25154,7 +25250,7 @@
     </row>
     <row r="22" spans="2:16" ht="16" thickBot="1">
       <c r="B22" s="38"/>
-      <c r="C22" s="630" t="s">
+      <c r="C22" s="629" t="s">
         <v>89</v>
       </c>
       <c r="D22" s="399" t="s">
@@ -25168,10 +25264,10 @@
       <c r="H22" s="419"/>
       <c r="I22" s="421"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="634" t="str">
+      <c r="K22" s="633" t="str">
         <v>Coal</v>
       </c>
-      <c r="L22" s="644" t="e">
+      <c r="L22" s="643" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="M22" s="364" t="e">
@@ -25186,7 +25282,7 @@
     </row>
     <row r="23" spans="2:16" ht="16" thickBot="1">
       <c r="B23" s="38"/>
-      <c r="C23" s="630" t="s">
+      <c r="C23" s="629" t="s">
         <v>76</v>
       </c>
       <c r="D23" s="399" t="s">
@@ -25200,10 +25296,10 @@
       <c r="H23" s="419"/>
       <c r="I23" s="421"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="634" t="str">
+      <c r="K23" s="633" t="str">
         <v>Oil</v>
       </c>
-      <c r="L23" s="644" t="e">
+      <c r="L23" s="643" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="M23" s="364" t="e">
@@ -25218,7 +25314,7 @@
     </row>
     <row r="24" spans="2:16" ht="16" thickBot="1">
       <c r="B24" s="38"/>
-      <c r="C24" s="630" t="s">
+      <c r="C24" s="629" t="s">
         <v>282</v>
       </c>
       <c r="D24" s="399" t="s">
@@ -25232,10 +25328,10 @@
       <c r="H24" s="419"/>
       <c r="I24" s="421"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="634" t="str">
+      <c r="K24" s="633" t="str">
         <v>Woodpellets</v>
       </c>
-      <c r="L24" s="644" t="e">
+      <c r="L24" s="643" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="M24" s="364" t="e">
@@ -25250,7 +25346,7 @@
     </row>
     <row r="25" spans="2:16" ht="16" thickBot="1">
       <c r="B25" s="38"/>
-      <c r="C25" s="630" t="s">
+      <c r="C25" s="629" t="s">
         <v>402</v>
       </c>
       <c r="D25" s="399" t="s">
@@ -25264,10 +25360,10 @@
       <c r="H25" s="419"/>
       <c r="I25" s="421"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="633" t="str">
+      <c r="K25" s="632" t="str">
         <v>District heat</v>
       </c>
-      <c r="L25" s="644" t="e">
+      <c r="L25" s="643" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="M25" s="364" t="e">
@@ -25300,12 +25396,12 @@
     <row r="27" spans="2:16">
       <c r="B27" s="38"/>
       <c r="C27" s="194" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D27" s="398" t="s">
         <v>214</v>
       </c>
-      <c r="E27" s="632">
+      <c r="E27" s="631">
         <f>E17-SUM(E20:E25)</f>
         <v>0</v>
       </c>
@@ -25317,7 +25413,7 @@
       <c r="K27" s="356" t="s">
         <v>573</v>
       </c>
-      <c r="L27" s="645" t="e">
+      <c r="L27" s="644" t="e">
         <f>IF(ABS(E27)/E17&lt;0.05,TRUE,E27/E17)</f>
         <v>#DIV/0!</v>
       </c>
@@ -25336,7 +25432,7 @@
       <c r="E28" s="267"/>
       <c r="F28" s="267"/>
       <c r="G28" s="429"/>
-      <c r="H28" s="597"/>
+      <c r="H28" s="596"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="361"/>
@@ -25358,10 +25454,10 @@
       <c r="H29" s="149"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="627" t="s">
+      <c r="K29" s="626" t="s">
         <v>191</v>
       </c>
-      <c r="L29" s="636">
+      <c r="L29" s="635">
         <f>IF(SUM(E31:E42)=1,TRUE,SUM(E31:E42))</f>
         <v>0</v>
       </c>
@@ -25378,8 +25474,8 @@
     </row>
     <row r="30" spans="2:16" ht="16" customHeight="1" thickBot="1">
       <c r="B30" s="38"/>
-      <c r="C30" s="631" t="s">
-        <v>862</v>
+      <c r="C30" s="630" t="s">
+        <v>859</v>
       </c>
       <c r="D30" s="398"/>
       <c r="E30" s="257"/>
@@ -25388,7 +25484,7 @@
       <c r="H30" s="149"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="627"/>
+      <c r="K30" s="626"/>
       <c r="L30" s="359"/>
       <c r="M30" s="364"/>
       <c r="N30" s="440"/>
@@ -25397,8 +25493,8 @@
     </row>
     <row r="31" spans="2:16" ht="16" thickBot="1">
       <c r="B31" s="38"/>
-      <c r="C31" s="630" t="s">
-        <v>828</v>
+      <c r="C31" s="629" t="s">
+        <v>825</v>
       </c>
       <c r="D31" s="401"/>
       <c r="E31" s="395"/>
@@ -25418,8 +25514,8 @@
     </row>
     <row r="32" spans="2:16" ht="16" thickBot="1">
       <c r="B32" s="38"/>
-      <c r="C32" s="630" t="s">
-        <v>829</v>
+      <c r="C32" s="629" t="s">
+        <v>826</v>
       </c>
       <c r="D32" s="401"/>
       <c r="E32" s="395"/>
@@ -25439,8 +25535,8 @@
     </row>
     <row r="33" spans="2:16" ht="16" thickBot="1">
       <c r="B33" s="38"/>
-      <c r="C33" s="630" t="s">
-        <v>830</v>
+      <c r="C33" s="629" t="s">
+        <v>827</v>
       </c>
       <c r="D33" s="401"/>
       <c r="E33" s="395"/>
@@ -25460,8 +25556,8 @@
     </row>
     <row r="34" spans="2:16" ht="16" thickBot="1">
       <c r="B34" s="38"/>
-      <c r="C34" s="630" t="s">
-        <v>831</v>
+      <c r="C34" s="629" t="s">
+        <v>828</v>
       </c>
       <c r="D34" s="401"/>
       <c r="E34" s="395"/>
@@ -25472,7 +25568,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="356"/>
       <c r="L34" s="360"/>
-      <c r="M34" s="624"/>
+      <c r="M34" s="623"/>
       <c r="N34" s="440"/>
       <c r="O34" s="456" t="s">
         <v>602</v>
@@ -25481,8 +25577,8 @@
     </row>
     <row r="35" spans="2:16" ht="16" thickBot="1">
       <c r="B35" s="38"/>
-      <c r="C35" s="630" t="s">
-        <v>832</v>
+      <c r="C35" s="629" t="s">
+        <v>829</v>
       </c>
       <c r="D35" s="401"/>
       <c r="E35" s="395"/>
@@ -25502,8 +25598,8 @@
     </row>
     <row r="36" spans="2:16" ht="16" thickBot="1">
       <c r="B36" s="38"/>
-      <c r="C36" s="630" t="s">
-        <v>833</v>
+      <c r="C36" s="629" t="s">
+        <v>830</v>
       </c>
       <c r="D36" s="401"/>
       <c r="E36" s="395"/>
@@ -25523,8 +25619,8 @@
     </row>
     <row r="37" spans="2:16" ht="16" thickBot="1">
       <c r="B37" s="38"/>
-      <c r="C37" s="630" t="s">
-        <v>834</v>
+      <c r="C37" s="629" t="s">
+        <v>831</v>
       </c>
       <c r="D37" s="401"/>
       <c r="E37" s="395"/>
@@ -25544,8 +25640,8 @@
     </row>
     <row r="38" spans="2:16" ht="16" thickBot="1">
       <c r="B38" s="38"/>
-      <c r="C38" s="630" t="s">
-        <v>835</v>
+      <c r="C38" s="629" t="s">
+        <v>832</v>
       </c>
       <c r="D38" s="401"/>
       <c r="E38" s="395"/>
@@ -25565,8 +25661,8 @@
     </row>
     <row r="39" spans="2:16" ht="16" thickBot="1">
       <c r="B39" s="38"/>
-      <c r="C39" s="630" t="s">
-        <v>836</v>
+      <c r="C39" s="629" t="s">
+        <v>833</v>
       </c>
       <c r="D39" s="401"/>
       <c r="E39" s="395"/>
@@ -25588,8 +25684,8 @@
     </row>
     <row r="40" spans="2:16" ht="16" thickBot="1">
       <c r="B40" s="38"/>
-      <c r="C40" s="630" t="s">
-        <v>837</v>
+      <c r="C40" s="629" t="s">
+        <v>834</v>
       </c>
       <c r="D40" s="401"/>
       <c r="E40" s="395"/>
@@ -25601,12 +25697,12 @@
       <c r="K40" s="356" t="s">
         <v>469</v>
       </c>
-      <c r="L40" s="639" t="e">
+      <c r="L40" s="638" t="e">
         <f>'Technology Shares'!F30</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M40" s="357" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="N40" s="75"/>
       <c r="O40" s="461" t="s">
@@ -25616,8 +25712,8 @@
     </row>
     <row r="41" spans="2:16" ht="16" thickBot="1">
       <c r="B41" s="38"/>
-      <c r="C41" s="630" t="s">
-        <v>838</v>
+      <c r="C41" s="629" t="s">
+        <v>835</v>
       </c>
       <c r="D41" s="401"/>
       <c r="E41" s="395"/>
@@ -25629,7 +25725,7 @@
       <c r="K41" s="356" t="s">
         <v>470</v>
       </c>
-      <c r="L41" s="639" t="e">
+      <c r="L41" s="638" t="e">
         <f>'Technology Shares'!F29</f>
         <v>#DIV/0!</v>
       </c>
@@ -25641,7 +25737,7 @@
     </row>
     <row r="42" spans="2:16" ht="16" thickBot="1">
       <c r="B42" s="38"/>
-      <c r="C42" s="630" t="s">
+      <c r="C42" s="629" t="s">
         <v>325</v>
       </c>
       <c r="D42" s="401"/>
@@ -25689,10 +25785,10 @@
       <c r="H44" s="149"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
-      <c r="K44" s="627" t="s">
+      <c r="K44" s="626" t="s">
         <v>191</v>
       </c>
-      <c r="L44" s="636">
+      <c r="L44" s="635">
         <f>IF(SUM(E46:E57)=1,TRUE,SUM(E46:E57))</f>
         <v>0</v>
       </c>
@@ -25709,8 +25805,8 @@
     </row>
     <row r="45" spans="2:16" ht="16" customHeight="1" thickBot="1">
       <c r="B45" s="38"/>
-      <c r="C45" s="631" t="s">
-        <v>861</v>
+      <c r="C45" s="630" t="s">
+        <v>858</v>
       </c>
       <c r="D45" s="398"/>
       <c r="E45" s="261"/>
@@ -25719,7 +25815,7 @@
       <c r="H45" s="149"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
-      <c r="K45" s="627"/>
+      <c r="K45" s="626"/>
       <c r="L45" s="359"/>
       <c r="M45" s="364"/>
       <c r="N45" s="440"/>
@@ -25728,8 +25824,8 @@
     </row>
     <row r="46" spans="2:16" ht="16" thickBot="1">
       <c r="B46" s="38"/>
-      <c r="C46" s="630" t="s">
-        <v>828</v>
+      <c r="C46" s="629" t="s">
+        <v>825</v>
       </c>
       <c r="D46" s="401"/>
       <c r="E46" s="395"/>
@@ -25749,8 +25845,8 @@
     </row>
     <row r="47" spans="2:16" ht="16" thickBot="1">
       <c r="B47" s="38"/>
-      <c r="C47" s="630" t="s">
-        <v>829</v>
+      <c r="C47" s="629" t="s">
+        <v>826</v>
       </c>
       <c r="D47" s="401"/>
       <c r="E47" s="395"/>
@@ -25770,8 +25866,8 @@
     </row>
     <row r="48" spans="2:16" ht="16" thickBot="1">
       <c r="B48" s="38"/>
-      <c r="C48" s="630" t="s">
-        <v>839</v>
+      <c r="C48" s="629" t="s">
+        <v>836</v>
       </c>
       <c r="D48" s="401"/>
       <c r="E48" s="395"/>
@@ -25791,8 +25887,8 @@
     </row>
     <row r="49" spans="2:16" ht="16" thickBot="1">
       <c r="B49" s="38"/>
-      <c r="C49" s="630" t="s">
-        <v>831</v>
+      <c r="C49" s="629" t="s">
+        <v>828</v>
       </c>
       <c r="D49" s="401"/>
       <c r="E49" s="395"/>
@@ -25812,8 +25908,8 @@
     </row>
     <row r="50" spans="2:16" ht="16" thickBot="1">
       <c r="B50" s="38"/>
-      <c r="C50" s="630" t="s">
-        <v>840</v>
+      <c r="C50" s="629" t="s">
+        <v>837</v>
       </c>
       <c r="D50" s="401"/>
       <c r="E50" s="395"/>
@@ -25833,7 +25929,7 @@
     </row>
     <row r="51" spans="2:16" ht="16" thickBot="1">
       <c r="B51" s="38"/>
-      <c r="C51" s="630" t="s">
+      <c r="C51" s="629" t="s">
         <v>387</v>
       </c>
       <c r="D51" s="401"/>
@@ -25854,8 +25950,8 @@
     </row>
     <row r="52" spans="2:16" ht="16" thickBot="1">
       <c r="B52" s="38"/>
-      <c r="C52" s="630" t="s">
-        <v>841</v>
+      <c r="C52" s="629" t="s">
+        <v>838</v>
       </c>
       <c r="D52" s="401"/>
       <c r="E52" s="395"/>
@@ -25875,8 +25971,8 @@
     </row>
     <row r="53" spans="2:16" ht="16" thickBot="1">
       <c r="B53" s="38"/>
-      <c r="C53" s="630" t="s">
-        <v>842</v>
+      <c r="C53" s="629" t="s">
+        <v>839</v>
       </c>
       <c r="D53" s="401"/>
       <c r="E53" s="395"/>
@@ -25896,8 +25992,8 @@
     </row>
     <row r="54" spans="2:16" ht="16" thickBot="1">
       <c r="B54" s="38"/>
-      <c r="C54" s="630" t="s">
-        <v>843</v>
+      <c r="C54" s="629" t="s">
+        <v>840</v>
       </c>
       <c r="D54" s="401"/>
       <c r="E54" s="395"/>
@@ -25917,8 +26013,8 @@
     </row>
     <row r="55" spans="2:16" ht="16" thickBot="1">
       <c r="B55" s="38"/>
-      <c r="C55" s="630" t="s">
-        <v>844</v>
+      <c r="C55" s="629" t="s">
+        <v>841</v>
       </c>
       <c r="D55" s="401"/>
       <c r="E55" s="395"/>
@@ -25938,8 +26034,8 @@
     </row>
     <row r="56" spans="2:16" ht="16" thickBot="1">
       <c r="B56" s="38"/>
-      <c r="C56" s="630" t="s">
-        <v>845</v>
+      <c r="C56" s="629" t="s">
+        <v>842</v>
       </c>
       <c r="D56" s="401"/>
       <c r="E56" s="395"/>
@@ -25959,8 +26055,8 @@
     </row>
     <row r="57" spans="2:16" ht="16" thickBot="1">
       <c r="B57" s="38"/>
-      <c r="C57" s="630" t="s">
-        <v>846</v>
+      <c r="C57" s="629" t="s">
+        <v>843</v>
       </c>
       <c r="D57" s="401"/>
       <c r="E57" s="395"/>
@@ -25985,7 +26081,7 @@
       <c r="E58" s="262"/>
       <c r="F58" s="262"/>
       <c r="G58" s="429"/>
-      <c r="H58" s="597"/>
+      <c r="H58" s="596"/>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="362"/>
@@ -26001,20 +26097,20 @@
       </c>
       <c r="C59" s="59"/>
       <c r="D59" s="402"/>
-      <c r="E59" s="640"/>
-      <c r="F59" s="640"/>
+      <c r="E59" s="639"/>
+      <c r="F59" s="639"/>
       <c r="G59" s="428"/>
       <c r="H59" s="149"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
-      <c r="K59" s="627" t="s">
+      <c r="K59" s="626" t="s">
         <v>191</v>
       </c>
-      <c r="L59" s="636">
+      <c r="L59" s="635">
         <f>IF(SUM(E61:E63)=1,TRUE,SUM(E61:E63))</f>
         <v>0</v>
       </c>
-      <c r="M59" s="635" t="str">
+      <c r="M59" s="634" t="str">
         <f>IF(L59=TRUE," ","Please adjust the percentages on the left. ")</f>
         <v xml:space="preserve">Please adjust the percentages on the left. </v>
       </c>
@@ -26027,27 +26123,27 @@
     </row>
     <row r="60" spans="2:16" ht="16" thickBot="1">
       <c r="B60" s="38"/>
-      <c r="C60" s="631" t="s">
-        <v>860</v>
+      <c r="C60" s="630" t="s">
+        <v>857</v>
       </c>
       <c r="D60" s="402"/>
-      <c r="E60" s="640"/>
-      <c r="F60" s="640"/>
+      <c r="E60" s="639"/>
+      <c r="F60" s="639"/>
       <c r="G60" s="428"/>
       <c r="H60" s="149"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
-      <c r="K60" s="627"/>
+      <c r="K60" s="626"/>
       <c r="L60" s="359"/>
-      <c r="M60" s="638"/>
+      <c r="M60" s="637"/>
       <c r="N60" s="75"/>
       <c r="O60" s="456"/>
       <c r="P60" s="458"/>
     </row>
     <row r="61" spans="2:16" ht="16" thickBot="1">
       <c r="B61" s="38"/>
-      <c r="C61" s="630" t="s">
-        <v>847</v>
+      <c r="C61" s="629" t="s">
+        <v>844</v>
       </c>
       <c r="D61" s="403"/>
       <c r="E61" s="396"/>
@@ -26067,8 +26163,8 @@
     </row>
     <row r="62" spans="2:16" ht="16" thickBot="1">
       <c r="B62" s="38"/>
-      <c r="C62" s="630" t="s">
-        <v>848</v>
+      <c r="C62" s="629" t="s">
+        <v>845</v>
       </c>
       <c r="D62" s="403"/>
       <c r="E62" s="396"/>
@@ -26088,14 +26184,14 @@
     </row>
     <row r="63" spans="2:16" ht="16" thickBot="1">
       <c r="B63" s="38"/>
-      <c r="C63" s="630" t="s">
-        <v>849</v>
+      <c r="C63" s="629" t="s">
+        <v>846</v>
       </c>
       <c r="D63" s="404"/>
       <c r="E63" s="396"/>
       <c r="F63" s="413"/>
       <c r="G63" s="432"/>
-      <c r="H63" s="641"/>
+      <c r="H63" s="640"/>
       <c r="I63" s="423"/>
       <c r="J63" s="8"/>
       <c r="K63" s="356"/>
@@ -26114,7 +26210,7 @@
       <c r="E64" s="262"/>
       <c r="F64" s="262"/>
       <c r="G64" s="429"/>
-      <c r="H64" s="597"/>
+      <c r="H64" s="596"/>
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
       <c r="K64" s="362"/>
@@ -26130,20 +26226,20 @@
       </c>
       <c r="C65" s="194"/>
       <c r="D65" s="398"/>
-      <c r="E65" s="640"/>
+      <c r="E65" s="639"/>
       <c r="F65" s="413"/>
       <c r="G65" s="430"/>
       <c r="H65" s="416"/>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
-      <c r="K65" s="627" t="s">
+      <c r="K65" s="626" t="s">
         <v>191</v>
       </c>
-      <c r="L65" s="636">
+      <c r="L65" s="635">
         <f>IF(SUM(E67:E69)=1,TRUE,SUM(E67:E69))</f>
         <v>0</v>
       </c>
-      <c r="M65" s="635" t="str">
+      <c r="M65" s="634" t="str">
         <f>IF(L65=TRUE," ","Please adjust the percentages on the left. ")</f>
         <v xml:space="preserve">Please adjust the percentages on the left. </v>
       </c>
@@ -26156,27 +26252,27 @@
     </row>
     <row r="66" spans="2:16" ht="16" thickBot="1">
       <c r="B66" s="38"/>
-      <c r="C66" s="631" t="s">
-        <v>859</v>
+      <c r="C66" s="630" t="s">
+        <v>856</v>
       </c>
       <c r="D66" s="398"/>
-      <c r="E66" s="640"/>
+      <c r="E66" s="639"/>
       <c r="F66" s="413"/>
       <c r="G66" s="430"/>
       <c r="H66" s="416"/>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
-      <c r="K66" s="627"/>
+      <c r="K66" s="626"/>
       <c r="L66" s="359"/>
-      <c r="M66" s="638"/>
+      <c r="M66" s="637"/>
       <c r="N66" s="75"/>
       <c r="O66" s="456"/>
       <c r="P66" s="458"/>
     </row>
     <row r="67" spans="2:16" ht="16" thickBot="1">
       <c r="B67" s="38"/>
-      <c r="C67" s="630" t="s">
-        <v>850</v>
+      <c r="C67" s="629" t="s">
+        <v>847</v>
       </c>
       <c r="D67" s="403"/>
       <c r="E67" s="396"/>
@@ -26196,8 +26292,8 @@
     </row>
     <row r="68" spans="2:16" ht="16" thickBot="1">
       <c r="B68" s="38"/>
-      <c r="C68" s="630" t="s">
-        <v>851</v>
+      <c r="C68" s="629" t="s">
+        <v>848</v>
       </c>
       <c r="D68" s="403"/>
       <c r="E68" s="396"/>
@@ -26217,14 +26313,14 @@
     </row>
     <row r="69" spans="2:16" ht="16" thickBot="1">
       <c r="B69" s="38"/>
-      <c r="C69" s="630" t="s">
+      <c r="C69" s="629" t="s">
         <v>100</v>
       </c>
       <c r="D69" s="403"/>
       <c r="E69" s="396"/>
       <c r="F69" s="413"/>
       <c r="G69" s="432"/>
-      <c r="H69" s="641"/>
+      <c r="H69" s="640"/>
       <c r="I69" s="422"/>
       <c r="J69" s="8"/>
       <c r="K69" s="356"/>
@@ -26243,7 +26339,7 @@
       <c r="E70" s="262"/>
       <c r="F70" s="262"/>
       <c r="G70" s="429"/>
-      <c r="H70" s="597"/>
+      <c r="H70" s="596"/>
       <c r="I70" s="10"/>
       <c r="J70" s="10"/>
       <c r="K70" s="362"/>
@@ -26259,20 +26355,20 @@
       </c>
       <c r="C71" s="194"/>
       <c r="D71" s="398"/>
-      <c r="E71" s="640"/>
-      <c r="F71" s="640"/>
+      <c r="E71" s="639"/>
+      <c r="F71" s="639"/>
       <c r="G71" s="428"/>
       <c r="H71" s="149"/>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
-      <c r="K71" s="627" t="s">
+      <c r="K71" s="626" t="s">
         <v>191</v>
       </c>
-      <c r="L71" s="636">
+      <c r="L71" s="635">
         <f>IF(SUM(E73:E77)=1,TRUE,SUM(E73:E77))</f>
         <v>0</v>
       </c>
-      <c r="M71" s="635" t="str">
+      <c r="M71" s="634" t="str">
         <f>IF(L71=TRUE," ","Please adjust the percentages on the left. ")</f>
         <v xml:space="preserve">Please adjust the percentages on the left. </v>
       </c>
@@ -26285,27 +26381,27 @@
     </row>
     <row r="72" spans="2:16" ht="16" thickBot="1">
       <c r="B72" s="38"/>
-      <c r="C72" s="631" t="s">
-        <v>858</v>
+      <c r="C72" s="630" t="s">
+        <v>855</v>
       </c>
       <c r="D72" s="398"/>
-      <c r="E72" s="640"/>
-      <c r="F72" s="640"/>
+      <c r="E72" s="639"/>
+      <c r="F72" s="639"/>
       <c r="G72" s="428"/>
       <c r="H72" s="149"/>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
-      <c r="K72" s="627"/>
+      <c r="K72" s="626"/>
       <c r="L72" s="359"/>
-      <c r="M72" s="638"/>
+      <c r="M72" s="637"/>
       <c r="N72" s="75"/>
       <c r="O72" s="456"/>
       <c r="P72" s="458"/>
     </row>
     <row r="73" spans="2:16" ht="16" thickBot="1">
       <c r="B73" s="38"/>
-      <c r="C73" s="630" t="s">
-        <v>852</v>
+      <c r="C73" s="629" t="s">
+        <v>849</v>
       </c>
       <c r="D73" s="403"/>
       <c r="E73" s="396"/>
@@ -26325,8 +26421,8 @@
     </row>
     <row r="74" spans="2:16" ht="16" thickBot="1">
       <c r="B74" s="38"/>
-      <c r="C74" s="630" t="s">
-        <v>853</v>
+      <c r="C74" s="629" t="s">
+        <v>850</v>
       </c>
       <c r="D74" s="403"/>
       <c r="E74" s="396"/>
@@ -26346,14 +26442,14 @@
     </row>
     <row r="75" spans="2:16" ht="16" thickBot="1">
       <c r="B75" s="38"/>
-      <c r="C75" s="630" t="s">
-        <v>854</v>
+      <c r="C75" s="629" t="s">
+        <v>851</v>
       </c>
       <c r="D75" s="403"/>
       <c r="E75" s="396"/>
       <c r="F75" s="413"/>
       <c r="G75" s="432"/>
-      <c r="H75" s="641"/>
+      <c r="H75" s="640"/>
       <c r="I75" s="422"/>
       <c r="J75" s="8"/>
       <c r="K75" s="356"/>
@@ -26367,14 +26463,14 @@
     </row>
     <row r="76" spans="2:16" ht="16" thickBot="1">
       <c r="B76" s="38"/>
-      <c r="C76" s="630" t="s">
-        <v>855</v>
+      <c r="C76" s="629" t="s">
+        <v>852</v>
       </c>
       <c r="D76" s="403"/>
       <c r="E76" s="396"/>
       <c r="F76" s="413"/>
       <c r="G76" s="432"/>
-      <c r="H76" s="641"/>
+      <c r="H76" s="640"/>
       <c r="I76" s="422"/>
       <c r="J76" s="8"/>
       <c r="K76" s="356"/>
@@ -26388,14 +26484,14 @@
     </row>
     <row r="77" spans="2:16" ht="16" thickBot="1">
       <c r="B77" s="38"/>
-      <c r="C77" s="630" t="s">
-        <v>856</v>
+      <c r="C77" s="629" t="s">
+        <v>853</v>
       </c>
       <c r="D77" s="403"/>
       <c r="E77" s="396"/>
       <c r="F77" s="413"/>
       <c r="G77" s="432"/>
-      <c r="H77" s="641"/>
+      <c r="H77" s="640"/>
       <c r="I77" s="422"/>
       <c r="J77" s="8"/>
       <c r="K77" s="356"/>
@@ -26414,7 +26510,7 @@
       <c r="E78" s="262"/>
       <c r="F78" s="262"/>
       <c r="G78" s="429"/>
-      <c r="H78" s="597"/>
+      <c r="H78" s="596"/>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
       <c r="K78" s="362"/>
@@ -26430,20 +26526,20 @@
       </c>
       <c r="C79" s="194"/>
       <c r="D79" s="398"/>
-      <c r="E79" s="640"/>
-      <c r="F79" s="640"/>
+      <c r="E79" s="639"/>
+      <c r="F79" s="639"/>
       <c r="G79" s="428"/>
       <c r="H79" s="149"/>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
-      <c r="K79" s="627" t="s">
+      <c r="K79" s="626" t="s">
         <v>191</v>
       </c>
-      <c r="L79" s="636">
+      <c r="L79" s="635">
         <f>IF(SUM(E81:E88)=1,TRUE,SUM(E81:E88))</f>
         <v>0</v>
       </c>
-      <c r="M79" s="635" t="str">
+      <c r="M79" s="634" t="str">
         <f>IF(L79=TRUE," ","Please adjust the percentages on the left. ")</f>
         <v xml:space="preserve">Please adjust the percentages on the left. </v>
       </c>
@@ -26456,33 +26552,33 @@
     </row>
     <row r="80" spans="2:16" ht="16" thickBot="1">
       <c r="B80" s="38"/>
-      <c r="C80" s="631" t="s">
-        <v>857</v>
+      <c r="C80" s="630" t="s">
+        <v>854</v>
       </c>
       <c r="D80" s="398"/>
-      <c r="E80" s="640"/>
-      <c r="F80" s="640"/>
+      <c r="E80" s="639"/>
+      <c r="F80" s="639"/>
       <c r="G80" s="428"/>
       <c r="H80" s="149"/>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
-      <c r="K80" s="627"/>
+      <c r="K80" s="626"/>
       <c r="L80" s="359"/>
-      <c r="M80" s="638"/>
+      <c r="M80" s="637"/>
       <c r="N80" s="75"/>
       <c r="O80" s="456"/>
       <c r="P80" s="458"/>
     </row>
     <row r="81" spans="2:16" ht="16" thickBot="1">
       <c r="B81" s="38"/>
-      <c r="C81" s="630" t="s">
+      <c r="C81" s="629" t="s">
         <v>568</v>
       </c>
       <c r="D81" s="403"/>
       <c r="E81" s="396"/>
       <c r="F81" s="413"/>
       <c r="G81" s="437"/>
-      <c r="H81" s="642"/>
+      <c r="H81" s="641"/>
       <c r="I81" s="422"/>
       <c r="J81" s="8"/>
       <c r="K81" s="356"/>
@@ -26496,7 +26592,7 @@
     </row>
     <row r="82" spans="2:16" ht="16" thickBot="1">
       <c r="B82" s="38"/>
-      <c r="C82" s="630" t="s">
+      <c r="C82" s="629" t="s">
         <v>320</v>
       </c>
       <c r="D82" s="403"/>
@@ -26517,7 +26613,7 @@
     </row>
     <row r="83" spans="2:16" ht="16" thickBot="1">
       <c r="B83" s="38"/>
-      <c r="C83" s="630" t="s">
+      <c r="C83" s="629" t="s">
         <v>321</v>
       </c>
       <c r="D83" s="403"/>
@@ -26538,7 +26634,7 @@
     </row>
     <row r="84" spans="2:16" ht="16" thickBot="1">
       <c r="B84" s="38"/>
-      <c r="C84" s="630" t="s">
+      <c r="C84" s="629" t="s">
         <v>322</v>
       </c>
       <c r="D84" s="403"/>
@@ -26559,7 +26655,7 @@
     </row>
     <row r="85" spans="2:16" ht="16" thickBot="1">
       <c r="B85" s="38"/>
-      <c r="C85" s="630" t="s">
+      <c r="C85" s="629" t="s">
         <v>389</v>
       </c>
       <c r="D85" s="403"/>
@@ -26580,7 +26676,7 @@
     </row>
     <row r="86" spans="2:16" ht="16" thickBot="1">
       <c r="B86" s="38"/>
-      <c r="C86" s="630" t="s">
+      <c r="C86" s="629" t="s">
         <v>390</v>
       </c>
       <c r="D86" s="403"/>
@@ -26601,7 +26697,7 @@
     </row>
     <row r="87" spans="2:16" ht="16" thickBot="1">
       <c r="B87" s="38"/>
-      <c r="C87" s="630" t="s">
+      <c r="C87" s="629" t="s">
         <v>391</v>
       </c>
       <c r="D87" s="403"/>
@@ -26622,7 +26718,7 @@
     </row>
     <row r="88" spans="2:16" ht="16" thickBot="1">
       <c r="B88" s="38"/>
-      <c r="C88" s="630" t="s">
+      <c r="C88" s="629" t="s">
         <v>392</v>
       </c>
       <c r="D88" s="403"/>
@@ -26648,7 +26744,7 @@
       <c r="E89" s="267"/>
       <c r="F89" s="267"/>
       <c r="G89" s="429"/>
-      <c r="H89" s="597"/>
+      <c r="H89" s="596"/>
       <c r="I89" s="10"/>
       <c r="J89" s="10"/>
       <c r="K89" s="362"/>
@@ -26681,8 +26777,8 @@
       <c r="D91" s="592"/>
       <c r="E91" s="267"/>
       <c r="F91" s="267"/>
-      <c r="G91" s="597"/>
-      <c r="H91" s="597"/>
+      <c r="G91" s="596"/>
+      <c r="H91" s="596"/>
       <c r="I91" s="10"/>
       <c r="J91" s="10"/>
       <c r="K91" s="362"/>
@@ -26714,15 +26810,15 @@
     <row r="93" spans="2:16" ht="16" thickBot="1">
       <c r="B93" s="38"/>
       <c r="C93" s="71" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D93" s="403" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E93" s="396"/>
       <c r="F93" s="413"/>
       <c r="G93" s="437"/>
-      <c r="H93" s="642"/>
+      <c r="H93" s="641"/>
       <c r="I93" s="422"/>
       <c r="J93" s="8"/>
       <c r="K93" s="356"/>
@@ -26740,7 +26836,7 @@
         <v>717</v>
       </c>
       <c r="D94" s="403" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E94" s="396"/>
       <c r="F94" s="413"/>
@@ -26765,7 +26861,7 @@
       <c r="F95" s="413"/>
       <c r="G95" s="430"/>
       <c r="H95" s="416"/>
-      <c r="I95" s="643"/>
+      <c r="I95" s="642"/>
       <c r="J95" s="8"/>
       <c r="K95" s="356"/>
       <c r="L95" s="356"/>
@@ -26780,7 +26876,7 @@
         <v>716</v>
       </c>
       <c r="D96" s="403" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E96" s="396"/>
       <c r="F96" s="413"/>
@@ -26821,7 +26917,7 @@
       <c r="E98" s="267"/>
       <c r="F98" s="267"/>
       <c r="G98" s="429"/>
-      <c r="H98" s="597"/>
+      <c r="H98" s="596"/>
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
       <c r="K98" s="362"/>
@@ -26844,7 +26940,7 @@
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="587"/>
-      <c r="L99" s="637"/>
+      <c r="L99" s="636"/>
       <c r="M99" s="588"/>
       <c r="N99" s="75"/>
       <c r="O99" s="456"/>
@@ -26853,7 +26949,7 @@
     <row r="100" spans="2:16" ht="16" thickBot="1">
       <c r="B100" s="38"/>
       <c r="C100" s="71" t="s">
-        <v>808</v>
+        <v>865</v>
       </c>
       <c r="D100" s="403"/>
       <c r="E100" s="396"/>
@@ -26862,20 +26958,20 @@
       <c r="H100" s="416"/>
       <c r="I100" s="424"/>
       <c r="J100" s="8"/>
-      <c r="K100" s="627" t="s">
+      <c r="K100" s="626" t="s">
         <v>191</v>
       </c>
-      <c r="L100" s="636">
+      <c r="L100" s="635">
         <f>IF(SUM(E100:E101)=1,TRUE,SUM(E100:E101))</f>
         <v>0</v>
       </c>
-      <c r="M100" s="638" t="str">
+      <c r="M100" s="637" t="str">
         <f>IF(L100=TRUE," ","Please adjust the percentages on the left. ")</f>
         <v xml:space="preserve">Please adjust the percentages on the left. </v>
       </c>
       <c r="N100" s="75"/>
       <c r="O100" s="461" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="P100" s="458">
         <f>IF(L100=TRUE,1,0)</f>
@@ -26885,25 +26981,25 @@
     <row r="101" spans="2:16" ht="16" thickBot="1">
       <c r="B101" s="38"/>
       <c r="C101" s="71" t="s">
-        <v>752</v>
+        <v>866</v>
       </c>
       <c r="D101" s="403"/>
       <c r="E101" s="396"/>
       <c r="F101" s="413"/>
       <c r="G101" s="430"/>
       <c r="H101" s="416"/>
-      <c r="I101" s="425"/>
+      <c r="I101" s="421"/>
       <c r="J101" s="8"/>
       <c r="K101" s="356"/>
       <c r="L101" s="356"/>
       <c r="M101" s="357"/>
       <c r="N101" s="75"/>
       <c r="O101" s="461" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="P101" s="458"/>
     </row>
-    <row r="102" spans="2:16">
+    <row r="102" spans="2:16" ht="16" thickBot="1">
       <c r="B102" s="73"/>
       <c r="C102" s="194"/>
       <c r="D102" s="251"/>
@@ -26916,50 +27012,52 @@
       <c r="K102" s="56"/>
       <c r="L102" s="56"/>
       <c r="M102" s="32"/>
-    </row>
-    <row r="103" spans="2:16" ht="16">
+      <c r="O102" s="20"/>
+      <c r="P102" s="7"/>
+    </row>
+    <row r="103" spans="2:16" ht="17" thickBot="1">
       <c r="B103" s="73"/>
       <c r="C103" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="D103" s="403" t="s">
         <v>755</v>
       </c>
-      <c r="D103" s="403" t="s">
-        <v>756</v>
-      </c>
-      <c r="E103" s="595">
-        <v>0.5</v>
-      </c>
+      <c r="E103" s="659"/>
       <c r="F103" s="413"/>
-      <c r="G103" s="416"/>
+      <c r="G103" s="430"/>
       <c r="H103" s="416"/>
-      <c r="I103" s="17" t="s">
-        <v>812</v>
-      </c>
+      <c r="I103" s="421"/>
       <c r="J103" s="8"/>
       <c r="K103" s="56"/>
       <c r="L103" s="56"/>
       <c r="M103" s="32"/>
-    </row>
-    <row r="104" spans="2:16" ht="16">
+      <c r="O103" s="461" t="s">
+        <v>869</v>
+      </c>
+      <c r="P103" s="7"/>
+    </row>
+    <row r="104" spans="2:16" ht="17" thickBot="1">
       <c r="B104" s="73"/>
       <c r="C104" s="17" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D104" s="403" t="s">
-        <v>756</v>
-      </c>
-      <c r="E104" s="595">
-        <v>1.8</v>
-      </c>
+        <v>755</v>
+      </c>
+      <c r="E104" s="659"/>
       <c r="F104" s="413"/>
-      <c r="G104" s="416"/>
+      <c r="G104" s="430"/>
       <c r="H104" s="416"/>
-      <c r="I104" s="17" t="s">
-        <v>812</v>
-      </c>
+      <c r="I104" s="425"/>
       <c r="J104" s="8"/>
       <c r="K104" s="56"/>
       <c r="L104" s="56"/>
       <c r="M104" s="32"/>
+      <c r="O104" s="461" t="s">
+        <v>868</v>
+      </c>
+      <c r="P104" s="7"/>
     </row>
     <row r="105" spans="2:16" ht="16" thickBot="1">
       <c r="B105" s="589"/>
@@ -26974,6 +27072,8 @@
       <c r="K105" s="594"/>
       <c r="L105" s="594"/>
       <c r="M105" s="78"/>
+      <c r="O105" s="21"/>
+      <c r="P105" s="11"/>
     </row>
     <row r="106" spans="2:16">
       <c r="G106" s="428"/>
@@ -34101,28 +34201,28 @@
       <c r="I2" s="8"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="618" t="s">
+      <c r="B4" s="617" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="619"/>
-      <c r="D4" s="619"/>
-      <c r="E4" s="620"/>
-      <c r="F4" s="622"/>
-      <c r="G4" s="623"/>
-      <c r="H4" s="623"/>
-      <c r="I4" s="623"/>
-      <c r="J4" s="623"/>
-      <c r="K4" s="623"/>
+      <c r="C4" s="618"/>
+      <c r="D4" s="618"/>
+      <c r="E4" s="619"/>
+      <c r="F4" s="621"/>
+      <c r="G4" s="622"/>
+      <c r="H4" s="622"/>
+      <c r="I4" s="622"/>
+      <c r="J4" s="622"/>
+      <c r="K4" s="622"/>
       <c r="L4" s="8"/>
       <c r="M4" s="188"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="596" t="s">
-        <v>816</v>
-      </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="597"/>
-      <c r="E5" s="621"/>
+      <c r="B5" s="595" t="s">
+        <v>813</v>
+      </c>
+      <c r="C5" s="596"/>
+      <c r="D5" s="596"/>
+      <c r="E5" s="620"/>
       <c r="F5" s="499"/>
       <c r="G5" s="149"/>
       <c r="H5" s="149"/>
@@ -34148,53 +34248,53 @@
       </c>
       <c r="C7" s="575"/>
       <c r="D7" s="575"/>
-      <c r="E7" s="609" t="s">
-        <v>815</v>
+      <c r="E7" s="608" t="s">
+        <v>812</v>
       </c>
       <c r="F7" s="568" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G7" s="567"/>
       <c r="H7" s="568"/>
-      <c r="I7" s="600"/>
-      <c r="J7" s="603"/>
-      <c r="K7" s="604"/>
-      <c r="L7" s="604"/>
-      <c r="M7" s="605"/>
+      <c r="I7" s="599"/>
+      <c r="J7" s="602"/>
+      <c r="K7" s="603"/>
+      <c r="L7" s="603"/>
+      <c r="M7" s="604"/>
     </row>
     <row r="8" spans="2:14" ht="30" customHeight="1">
-      <c r="B8" s="598" t="s">
+      <c r="B8" s="597" t="s">
         <v>285</v>
       </c>
-      <c r="C8" s="599" t="s">
+      <c r="C8" s="598" t="s">
         <v>183</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="610" t="s">
+      <c r="E8" s="609" t="s">
         <v>233</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>769</v>
-      </c>
-      <c r="I8" s="601" t="s">
-        <v>814</v>
-      </c>
-      <c r="J8" s="606" t="s">
+      <c r="I8" s="600" t="s">
+        <v>811</v>
+      </c>
+      <c r="J8" s="605" t="s">
         <v>740</v>
       </c>
-      <c r="K8" s="607" t="s">
+      <c r="K8" s="606" t="s">
         <v>741</v>
       </c>
-      <c r="L8" s="607" t="s">
+      <c r="L8" s="606" t="s">
         <v>529</v>
       </c>
-      <c r="M8" s="608" t="s">
+      <c r="M8" s="607" t="s">
         <v>742</v>
       </c>
       <c r="N8" s="269" t="s">
@@ -34205,23 +34305,23 @@
       <c r="B9" s="44"/>
       <c r="C9" s="10"/>
       <c r="D9" s="68"/>
-      <c r="E9" s="610"/>
+      <c r="E9" s="609"/>
       <c r="F9" s="569" t="s">
+        <v>769</v>
+      </c>
+      <c r="G9" s="569" t="s">
         <v>770</v>
       </c>
-      <c r="G9" s="569" t="s">
-        <v>771</v>
-      </c>
       <c r="H9" s="569" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="602"/>
+      <c r="M9" s="601"/>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="49" t="s">
@@ -34247,12 +34347,12 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F11" s="576"/>
       <c r="G11" s="576"/>
       <c r="H11" s="576"/>
-      <c r="I11" s="611"/>
+      <c r="I11" s="610"/>
       <c r="J11" s="222">
         <f>F11</f>
         <v>0</v>
@@ -34274,12 +34374,12 @@
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F12" s="576"/>
       <c r="G12" s="576"/>
       <c r="H12" s="576"/>
-      <c r="I12" s="611"/>
+      <c r="I12" s="610"/>
       <c r="J12" s="222">
         <f>F12</f>
         <v>0</v>
@@ -34301,12 +34401,12 @@
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F13" s="576"/>
       <c r="G13" s="576"/>
       <c r="H13" s="576"/>
-      <c r="I13" s="611"/>
+      <c r="I13" s="610"/>
       <c r="J13" s="222"/>
       <c r="K13" s="228" t="e">
         <f>1/G13</f>
@@ -34328,12 +34428,12 @@
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="19" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F14" s="576"/>
       <c r="G14" s="576"/>
       <c r="H14" s="576"/>
-      <c r="I14" s="611"/>
+      <c r="I14" s="610"/>
       <c r="J14" s="222">
         <f>F14</f>
         <v>0</v>
@@ -34358,12 +34458,12 @@
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="19" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F15" s="576"/>
       <c r="G15" s="576"/>
       <c r="H15" s="576"/>
-      <c r="I15" s="611"/>
+      <c r="I15" s="610"/>
       <c r="J15" s="222">
         <f>F15</f>
         <v>0</v>
@@ -34385,12 +34485,12 @@
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F16" s="576"/>
       <c r="G16" s="576"/>
       <c r="H16" s="576"/>
-      <c r="I16" s="611"/>
+      <c r="I16" s="610"/>
       <c r="J16" s="222"/>
       <c r="K16" s="228" t="e">
         <f>1/G16</f>
@@ -34412,12 +34512,12 @@
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="19" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F17" s="576"/>
       <c r="G17" s="576"/>
       <c r="H17" s="576"/>
-      <c r="I17" s="611"/>
+      <c r="I17" s="610"/>
       <c r="J17" s="222">
         <f>F17</f>
         <v>0</v>
@@ -34439,12 +34539,12 @@
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F18" s="576"/>
       <c r="G18" s="576"/>
       <c r="H18" s="576"/>
-      <c r="I18" s="611"/>
+      <c r="I18" s="610"/>
       <c r="J18" s="222">
         <f>F18</f>
         <v>0</v>
@@ -34466,12 +34566,12 @@
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="19" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F19" s="576"/>
       <c r="G19" s="576"/>
       <c r="H19" s="576"/>
-      <c r="I19" s="611"/>
+      <c r="I19" s="610"/>
       <c r="J19" s="222">
         <f>F19</f>
         <v>0</v>
@@ -34493,12 +34593,12 @@
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F20" s="576"/>
       <c r="G20" s="576"/>
       <c r="H20" s="576"/>
-      <c r="I20" s="611"/>
+      <c r="I20" s="610"/>
       <c r="J20" s="222">
         <f>F20</f>
         <v>0</v>
@@ -34520,12 +34620,12 @@
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="19" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F21" s="576"/>
       <c r="G21" s="576"/>
       <c r="H21" s="576"/>
-      <c r="I21" s="611"/>
+      <c r="I21" s="610"/>
       <c r="J21" s="222">
         <f>F21</f>
         <v>0</v>
@@ -34547,12 +34647,12 @@
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F22" s="576"/>
       <c r="G22" s="576"/>
       <c r="H22" s="576"/>
-      <c r="I22" s="611"/>
+      <c r="I22" s="610"/>
       <c r="J22" s="222"/>
       <c r="K22" s="228" t="e">
         <f>1/G22</f>
@@ -34575,7 +34675,7 @@
       <c r="F23" s="576"/>
       <c r="G23" s="576"/>
       <c r="H23" s="576"/>
-      <c r="I23" s="611"/>
+      <c r="I23" s="610"/>
       <c r="J23" s="222"/>
       <c r="K23" s="228"/>
       <c r="L23" s="71"/>
@@ -34590,7 +34690,7 @@
       <c r="F24" s="577"/>
       <c r="G24" s="577"/>
       <c r="H24" s="577"/>
-      <c r="I24" s="612"/>
+      <c r="I24" s="611"/>
       <c r="J24" s="223"/>
       <c r="K24" s="230"/>
       <c r="L24" s="198"/>
@@ -34607,7 +34707,7 @@
       <c r="F25" s="578"/>
       <c r="G25" s="578"/>
       <c r="H25" s="578"/>
-      <c r="I25" s="613"/>
+      <c r="I25" s="612"/>
       <c r="J25" s="224"/>
       <c r="K25" s="232"/>
       <c r="L25" s="194"/>
@@ -34621,12 +34721,12 @@
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="19" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F26" s="576"/>
       <c r="G26" s="576"/>
       <c r="H26" s="576"/>
-      <c r="I26" s="611"/>
+      <c r="I26" s="610"/>
       <c r="J26" s="222">
         <f>F26</f>
         <v>0</v>
@@ -34648,12 +34748,12 @@
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F27" s="576"/>
       <c r="G27" s="576"/>
       <c r="H27" s="576"/>
-      <c r="I27" s="611"/>
+      <c r="I27" s="610"/>
       <c r="J27" s="222">
         <f>F27</f>
         <v>0</v>
@@ -34675,12 +34775,12 @@
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F28" s="576"/>
       <c r="G28" s="576"/>
       <c r="H28" s="576"/>
-      <c r="I28" s="611"/>
+      <c r="I28" s="610"/>
       <c r="J28" s="222"/>
       <c r="K28" s="228" t="e">
         <f>1/G28</f>
@@ -34702,12 +34802,12 @@
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F29" s="576"/>
       <c r="G29" s="576"/>
       <c r="H29" s="576"/>
-      <c r="I29" s="611"/>
+      <c r="I29" s="610"/>
       <c r="J29" s="222">
         <f>F29</f>
         <v>0</v>
@@ -34732,12 +34832,12 @@
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="19" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F30" s="576"/>
       <c r="G30" s="576"/>
       <c r="H30" s="576"/>
-      <c r="I30" s="611"/>
+      <c r="I30" s="610"/>
       <c r="J30" s="222">
         <f>F30</f>
         <v>0</v>
@@ -34759,12 +34859,12 @@
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="19" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F31" s="576"/>
       <c r="G31" s="576"/>
       <c r="H31" s="576"/>
-      <c r="I31" s="611"/>
+      <c r="I31" s="610"/>
       <c r="J31" s="222"/>
       <c r="K31" s="228" t="e">
         <f>1/G31</f>
@@ -34786,12 +34886,12 @@
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="19" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F32" s="576"/>
       <c r="G32" s="576"/>
       <c r="H32" s="576"/>
-      <c r="I32" s="611"/>
+      <c r="I32" s="610"/>
       <c r="J32" s="222">
         <f t="shared" ref="J32:J37" si="0">F32</f>
         <v>0</v>
@@ -34813,12 +34913,12 @@
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="19" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F33" s="576"/>
       <c r="G33" s="576"/>
       <c r="H33" s="576"/>
-      <c r="I33" s="611"/>
+      <c r="I33" s="610"/>
       <c r="J33" s="222">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -34840,12 +34940,12 @@
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="19" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F34" s="576"/>
       <c r="G34" s="576"/>
       <c r="H34" s="576"/>
-      <c r="I34" s="611"/>
+      <c r="I34" s="610"/>
       <c r="J34" s="222">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -34867,12 +34967,12 @@
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="19" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F35" s="576"/>
       <c r="G35" s="576"/>
       <c r="H35" s="576"/>
-      <c r="I35" s="611"/>
+      <c r="I35" s="610"/>
       <c r="J35" s="222">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -34894,12 +34994,12 @@
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="19" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F36" s="576"/>
       <c r="G36" s="576"/>
       <c r="H36" s="576"/>
-      <c r="I36" s="611"/>
+      <c r="I36" s="610"/>
       <c r="J36" s="222">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -34921,12 +35021,12 @@
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="19" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F37" s="576"/>
       <c r="G37" s="576"/>
       <c r="H37" s="576"/>
-      <c r="I37" s="611"/>
+      <c r="I37" s="610"/>
       <c r="J37" s="222">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -34952,7 +35052,7 @@
       <c r="F38" s="576"/>
       <c r="G38" s="576"/>
       <c r="H38" s="576"/>
-      <c r="I38" s="611"/>
+      <c r="I38" s="610"/>
       <c r="J38" s="222"/>
       <c r="K38" s="228"/>
       <c r="L38" s="71"/>
@@ -34967,7 +35067,7 @@
       <c r="F39" s="578"/>
       <c r="G39" s="578"/>
       <c r="H39" s="578"/>
-      <c r="I39" s="613"/>
+      <c r="I39" s="612"/>
       <c r="J39" s="225"/>
       <c r="K39" s="232"/>
       <c r="L39" s="194"/>
@@ -34984,7 +35084,7 @@
       <c r="F40" s="579"/>
       <c r="G40" s="579"/>
       <c r="H40" s="579"/>
-      <c r="I40" s="614"/>
+      <c r="I40" s="613"/>
       <c r="J40" s="226"/>
       <c r="K40" s="235"/>
       <c r="L40" s="203"/>
@@ -34998,12 +35098,12 @@
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="19" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F41" s="576"/>
       <c r="G41" s="576"/>
       <c r="H41" s="576"/>
-      <c r="I41" s="611"/>
+      <c r="I41" s="610"/>
       <c r="J41" s="222"/>
       <c r="K41" s="228" t="e">
         <f>1/G41</f>
@@ -35025,12 +35125,12 @@
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F42" s="576"/>
       <c r="G42" s="576"/>
       <c r="H42" s="576"/>
-      <c r="I42" s="611"/>
+      <c r="I42" s="610"/>
       <c r="J42" s="222"/>
       <c r="K42" s="228" t="e">
         <f>1/G42</f>
@@ -35052,12 +35152,12 @@
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F43" s="576"/>
       <c r="G43" s="576"/>
       <c r="H43" s="576"/>
-      <c r="I43" s="611"/>
+      <c r="I43" s="610"/>
       <c r="J43" s="222"/>
       <c r="K43" s="228" t="e">
         <f>1/G43</f>
@@ -35080,7 +35180,7 @@
       <c r="F44" s="577"/>
       <c r="G44" s="577"/>
       <c r="H44" s="577"/>
-      <c r="I44" s="612"/>
+      <c r="I44" s="611"/>
       <c r="J44" s="223"/>
       <c r="K44" s="230"/>
       <c r="L44" s="198"/>
@@ -35097,7 +35197,7 @@
       <c r="F45" s="578"/>
       <c r="G45" s="578"/>
       <c r="H45" s="578"/>
-      <c r="I45" s="613"/>
+      <c r="I45" s="612"/>
       <c r="J45" s="224"/>
       <c r="K45" s="232"/>
       <c r="L45" s="194"/>
@@ -35111,12 +35211,12 @@
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="19" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F46" s="576"/>
       <c r="G46" s="576"/>
       <c r="H46" s="576"/>
-      <c r="I46" s="611"/>
+      <c r="I46" s="610"/>
       <c r="J46" s="222">
         <f>F46</f>
         <v>0</v>
@@ -35138,12 +35238,12 @@
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F47" s="576"/>
       <c r="G47" s="576"/>
       <c r="H47" s="576"/>
-      <c r="I47" s="611"/>
+      <c r="I47" s="610"/>
       <c r="J47" s="222">
         <f>F47</f>
         <v>0</v>
@@ -35165,12 +35265,12 @@
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F48" s="576"/>
       <c r="G48" s="576"/>
       <c r="H48" s="576"/>
-      <c r="I48" s="611"/>
+      <c r="I48" s="610"/>
       <c r="J48" s="222">
         <f>F48</f>
         <v>0</v>
@@ -35192,12 +35292,12 @@
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="19" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F49" s="576"/>
       <c r="G49" s="576"/>
       <c r="H49" s="576"/>
-      <c r="I49" s="611"/>
+      <c r="I49" s="610"/>
       <c r="J49" s="222">
         <f>F49</f>
         <v>0</v>
@@ -35219,12 +35319,12 @@
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F50" s="576"/>
       <c r="G50" s="576"/>
       <c r="H50" s="576"/>
-      <c r="I50" s="611"/>
+      <c r="I50" s="610"/>
       <c r="J50" s="222">
         <f>F50</f>
         <v>0</v>
@@ -35243,11 +35343,11 @@
       <c r="B51" s="118"/>
       <c r="C51" s="45"/>
       <c r="D51" s="45"/>
-      <c r="E51" s="615"/>
+      <c r="E51" s="614"/>
       <c r="F51" s="580"/>
       <c r="G51" s="580"/>
       <c r="H51" s="580"/>
-      <c r="I51" s="616"/>
+      <c r="I51" s="615"/>
       <c r="J51" s="227"/>
       <c r="K51" s="237"/>
       <c r="L51" s="238"/>
@@ -35264,7 +35364,7 @@
       <c r="F52" s="578"/>
       <c r="G52" s="578"/>
       <c r="H52" s="578"/>
-      <c r="I52" s="613"/>
+      <c r="I52" s="612"/>
       <c r="J52" s="225"/>
       <c r="K52" s="232"/>
       <c r="L52" s="194"/>
@@ -35278,12 +35378,12 @@
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F53" s="576"/>
       <c r="G53" s="576"/>
       <c r="H53" s="576"/>
-      <c r="I53" s="611"/>
+      <c r="I53" s="610"/>
       <c r="J53" s="222"/>
       <c r="K53" s="228"/>
       <c r="L53" s="71"/>
@@ -35302,12 +35402,12 @@
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F54" s="576"/>
       <c r="G54" s="576"/>
       <c r="H54" s="576"/>
-      <c r="I54" s="611"/>
+      <c r="I54" s="610"/>
       <c r="J54" s="222"/>
       <c r="K54" s="228"/>
       <c r="L54" s="71"/>
@@ -35326,12 +35426,12 @@
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F55" s="576"/>
       <c r="G55" s="576"/>
       <c r="H55" s="576"/>
-      <c r="I55" s="611"/>
+      <c r="I55" s="610"/>
       <c r="J55" s="222"/>
       <c r="K55" s="228"/>
       <c r="L55" s="71"/>
@@ -35351,7 +35451,7 @@
       <c r="F56" s="581"/>
       <c r="G56" s="581"/>
       <c r="H56" s="581"/>
-      <c r="I56" s="617"/>
+      <c r="I56" s="616"/>
       <c r="J56" s="129"/>
       <c r="K56" s="77"/>
       <c r="L56" s="77"/>

--- a/analyses/6_residences_analysis.xlsx
+++ b/analyses/6_residences_analysis.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15960" tabRatio="932" activeTab="6"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15300" tabRatio="932" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="876">
   <si>
     <t>Changelog</t>
   </si>
@@ -2754,6 +2754,24 @@
   </si>
   <si>
     <t>insulation_level_old_houses_min</t>
+  </si>
+  <si>
+    <t>May 23, 2014</t>
+  </si>
+  <si>
+    <t>Increased robustness of technology share calculation if the energy input of a whole share group is zero. An IF statement is used to avoid #DIV/0! errors</t>
+  </si>
+  <si>
+    <t>Increased robustness of aplication share calculation if the energy input of a whole share group is zero. An IF statement is used to avoid #DIV/0! errors</t>
+  </si>
+  <si>
+    <t>May 29, 2014</t>
+  </si>
+  <si>
+    <t>June 3, 2014</t>
+  </si>
+  <si>
+    <t>Correct misstake in application share calculation for district heat</t>
   </si>
 </sst>
 </file>
@@ -3996,7 +4014,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2266">
+  <cellStyleXfs count="2284">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5968,6 +5986,24 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7359,6 +7395,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -7398,11 +7437,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2266">
+  <cellStyles count="2284">
     <cellStyle name="Calculation" xfId="1524" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -8765,6 +8801,15 @@
     <cellStyle name="Followed Hyperlink" xfId="2261" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2263" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2265" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2267" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2269" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2273" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2275" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2277" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2279" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2281" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2283" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -9661,6 +9706,15 @@
     <cellStyle name="Hyperlink" xfId="2260" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2262" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2264" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2266" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2268" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2270" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2272" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2274" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2276" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2278" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2280" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2282" builtinId="8" hidden="1"/>
     <cellStyle name="Input cel" xfId="712"/>
     <cellStyle name="Linked Cell" xfId="818" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13249,7 +13303,7 @@
       </c>
       <c r="C5" s="453">
         <f>MAX(Changelog!D:D)</f>
-        <v>2.14</v>
+        <v>2.17</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -13492,7 +13546,9 @@
   </sheetPr>
   <dimension ref="B2:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -13527,12 +13583,12 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="646" t="s">
+      <c r="B5" s="647" t="s">
         <v>403</v>
       </c>
-      <c r="C5" s="656"/>
-      <c r="D5" s="656"/>
-      <c r="E5" s="647"/>
+      <c r="C5" s="657"/>
+      <c r="D5" s="657"/>
+      <c r="E5" s="648"/>
       <c r="F5" s="157"/>
     </row>
     <row r="6" spans="2:6" ht="16" thickBot="1"/>
@@ -13569,7 +13625,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E9" s="343" t="e">
-        <f>D9/SUM($D$9:$D$10)</f>
+        <f>IF(SUM($D$9:$D$10)=0,1,D9/SUM($D$9:$D$10))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F9" s="8"/>
@@ -13584,7 +13640,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E10" s="343" t="e">
-        <f>D10/SUM($D$9:$D$10)</f>
+        <f>IF(SUM($D$9:$D$10)=0,0,D10/SUM($D$9:$D$10))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F10" s="8"/>
@@ -13614,7 +13670,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E13" s="343" t="e">
-        <f>D13/SUM($D$13:$D$14)</f>
+        <f>IF(SUM($D$13:$D$14)=0,1,D13/SUM($D$13:$D$14))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13628,7 +13684,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E14" s="343" t="e">
-        <f>D14/SUM($D$13:$D$14)</f>
+        <f>IF(SUM($D$13:$D$14)=0,0,D14/SUM($D$13:$D$14))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13657,7 +13713,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E17" s="343" t="e">
-        <f>D17/SUM($D$17:$D$20)</f>
+        <f>IF(SUM($D$17:$D$20)=0,1,D17/SUM($D$17:$D$20))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="8"/>
@@ -13672,7 +13728,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E18" s="343" t="e">
-        <f>D18/SUM($D$17:$D$20)</f>
+        <f>IF(SUM($D$17:$D$20)=0,0,D18/SUM($D$17:$D$20))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="8"/>
@@ -13687,7 +13743,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="343" t="e">
-        <f>D19/SUM($D$17:$D$20)</f>
+        <f>IF(SUM($D$17:$D$20)=0,0,D19/SUM($D$17:$D$20))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F19" s="8"/>
@@ -13702,7 +13758,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E20" s="343" t="e">
-        <f>D20/SUM($D$17:$D$20)</f>
+        <f>IF(SUM($D$17:$D$20)=0,0,D20/SUM($D$17:$D$20))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="8"/>
@@ -13732,7 +13788,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E23" s="343" t="e">
-        <f>D23/SUM($D$23:$D$25)</f>
+        <f>IF(SUM($D$23:$D$25)=0,1,D23/SUM($D$23:$D$25))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="8"/>
@@ -13747,7 +13803,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E24" s="343" t="e">
-        <f>D24/SUM($D$23:$D$25)</f>
+        <f>IF(SUM($D$23:$D$25)=0,0,D24/SUM($D$23:$D$25))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="8"/>
@@ -13762,7 +13818,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E25" s="343" t="e">
-        <f>D25/SUM($D$23:$D$25)</f>
+        <f>IF(SUM($D$23:$D$25)=0,0,D25/SUM($D$23:$D$25))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="8"/>
@@ -13793,7 +13849,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E28" s="343" t="e">
-        <f t="shared" ref="E28:E33" si="0">D28/SUM($D$28:$D$33)</f>
+        <f>IF(SUM($D$28:$D$33)=0,1,D28/SUM($D$28:$D$33))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="8"/>
@@ -13808,7 +13864,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E29" s="343" t="e">
-        <f t="shared" si="0"/>
+        <f>IF(SUM($D$28:$D$33)=0,0,D29/SUM($D$28:$D$33))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="8"/>
@@ -13823,7 +13879,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E30" s="343" t="e">
-        <f t="shared" si="0"/>
+        <f>IF(SUM($D$28:$D$33)=0,0,D30/SUM($D$28:$D$33))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="8"/>
@@ -13838,7 +13894,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E31" s="343" t="e">
-        <f t="shared" si="0"/>
+        <f>IF(SUM($D$28:$D$33)=0,0,D31/SUM($D$28:$D$33))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F31" s="8"/>
@@ -13853,7 +13909,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="343" t="e">
-        <f t="shared" si="0"/>
+        <f>IF(SUM($D$28:$D$33)=0,0,D32/SUM($D$28:$D$33))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F32" s="8"/>
@@ -13868,7 +13924,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E33" s="343" t="e">
-        <f t="shared" si="0"/>
+        <f>IF(SUM($D$28:$D$33)=0,0,D33/SUM($D$28:$D$33))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F33" s="8"/>
@@ -13898,7 +13954,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E36" s="343" t="e">
-        <f>D36/SUM($D$36:$D$37)</f>
+        <f>IF(SUM($D$36:$D$37)=0,1,D36/SUM($D$36:$D$37))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F36" s="8"/>
@@ -13913,7 +13969,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E37" s="343" t="e">
-        <f>D37/SUM($D$36:$D$37)</f>
+        <f>IF(SUM($D$36:$D$37)=0,0,D37/SUM($D$36:$D$37))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F37" s="8"/>
@@ -13946,7 +14002,9 @@
   </sheetPr>
   <dimension ref="B2:G58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -13979,13 +14037,13 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:7" ht="33" customHeight="1">
-      <c r="B5" s="646" t="s">
+      <c r="B5" s="647" t="s">
         <v>565</v>
       </c>
-      <c r="C5" s="656"/>
-      <c r="D5" s="656"/>
-      <c r="E5" s="656"/>
-      <c r="F5" s="647"/>
+      <c r="C5" s="657"/>
+      <c r="D5" s="657"/>
+      <c r="E5" s="657"/>
+      <c r="F5" s="648"/>
       <c r="G5" s="158"/>
     </row>
     <row r="6" spans="2:7" ht="16" thickBot="1"/>
@@ -14028,7 +14086,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F9" s="352" t="e">
-        <f>E9/SUM($E$9:$E$11)</f>
+        <f>IF(SUM($E$9:$E$11)=0,1,E9/SUM($E$9:$E$11))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G9" s="8"/>
@@ -14045,7 +14103,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F10" s="352" t="e">
-        <f t="shared" ref="F10:F11" si="0">E10/SUM($E$9:$E$11)</f>
+        <f>IF(SUM($E$9:$E$11)=0,0,E10/SUM($E$9:$E$11))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G10" s="8"/>
@@ -14062,7 +14120,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F11" s="352" t="e">
-        <f t="shared" si="0"/>
+        <f>IF(SUM($E$9:$E$11)=0,0,E11/SUM($E$9:$E$11))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G11" s="8"/>
@@ -14089,7 +14147,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="352" t="e">
-        <f>E13/SUM($E$13:$E$16)</f>
+        <f>IF(SUM($E$13:$E$16)=0,1,E13/SUM($E$13:$E$16))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G13" s="8"/>
@@ -14106,7 +14164,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F14" s="352" t="e">
-        <f t="shared" ref="F14:F16" si="1">E14/SUM($E$13:$E$16)</f>
+        <f>IF(SUM($E$13:$E$16)=0,0,E14/SUM($E$13:$E$16))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G14" s="8"/>
@@ -14123,7 +14181,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="352" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F15:F16" si="0">IF(SUM($E$13:$E$16)=0,0,E15/SUM($E$13:$E$16))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G15" s="8"/>
@@ -14140,7 +14198,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F16" s="352" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G16" s="8"/>
@@ -14177,7 +14235,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F19" s="352" t="e">
-        <f>E19/SUM($E$19:$E$22)</f>
+        <f>IF(SUM($E$19:$E$22)=0,0,E19/SUM($E$19:$E$22))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G19" s="8"/>
@@ -14194,7 +14252,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="352" t="e">
-        <f t="shared" ref="F20:F22" si="2">E20/SUM($E$19:$E$22)</f>
+        <f>IF(SUM($E$19:$E$22)=0,0,E20/SUM($E$19:$E$22))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G20" s="8"/>
@@ -14211,7 +14269,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="352" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(SUM($E$19:$E$22)=0,0,E21/SUM($E$19:$E$22))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G21" s="8"/>
@@ -14228,7 +14286,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="352" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(SUM($E$19:$E$22)=0,1,E22/SUM($E$19:$E$22))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G22" s="8"/>
@@ -14255,7 +14313,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="352" t="e">
-        <f>E24/SUM($E$24:$E$26)</f>
+        <f>IF(SUM($E$24:$E$26)=0,0,E24/SUM($E$24:$E$26))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="8"/>
@@ -14272,7 +14330,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="352" t="e">
-        <f t="shared" ref="F25:F26" si="3">E25/SUM($E$24:$E$26)</f>
+        <f t="shared" ref="F25" si="1">IF(SUM($E$24:$E$26)=0,0,E25/SUM($E$24:$E$26))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G25" s="8"/>
@@ -14289,7 +14347,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="352" t="e">
-        <f t="shared" si="3"/>
+        <f>IF(SUM($E$24:$E$26)=0,1,E26/SUM($E$24:$E$26))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G26" s="8"/>
@@ -14326,7 +14384,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="352" t="e">
-        <f>E29/SUM($E$29:$E$30)</f>
+        <f>IF(SUM($E$29:$E$30)=0,1,E29/SUM($E$29:$E$30))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G29" s="8"/>
@@ -14343,7 +14401,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="352" t="e">
-        <f>E30/SUM($E$29:$E$30)</f>
+        <f>IF(SUM($E$29:$E$30)=0,0,E30/SUM($E$29:$E$30))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14377,7 +14435,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F33" s="352" t="e">
-        <f>E33/SUM($E$33:$E$35)</f>
+        <f>IF(SUM($E$33:$E$35)=0,1,E33/SUM($E$33:$E$35))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14393,7 +14451,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F34" s="352" t="e">
-        <f t="shared" ref="F34:F35" si="4">E34/SUM($E$33:$E$35)</f>
+        <f t="shared" ref="F34:F35" si="2">IF(SUM($E$33:$E$35)=0,0,E34/SUM($E$33:$E$35))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14409,7 +14467,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F35" s="352" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14443,7 +14501,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F38" s="352" t="e">
-        <f>E38/SUM($E$38:$E$40)</f>
+        <f>IF(SUM($E$38:$E$40)=0,0,E38/SUM($E$38:$E$40))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14459,7 +14517,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F39" s="352" t="e">
-        <f t="shared" ref="F39:F40" si="5">E39/SUM($E$38:$E$40)</f>
+        <f t="shared" ref="F39" si="3">IF(SUM($E$38:$E$40)=0,0,E39/SUM($E$38:$E$40))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14475,7 +14533,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F40" s="352" t="e">
-        <f t="shared" si="5"/>
+        <f>IF(SUM($E$38:$E$40)=0,1,E40/SUM($E$38:$E$40))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14516,7 +14574,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F44" s="352" t="e">
-        <f>E44/SUM($E$44:$E$46)</f>
+        <f>IF(SUM($E$44:$E$46)=0,1,E44/SUM($E$44:$E$46))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14532,7 +14590,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F45" s="352" t="e">
-        <f t="shared" ref="F45:F46" si="6">E45/SUM($E$44:$E$46)</f>
+        <f t="shared" ref="F45:F46" si="4">IF(SUM($E$44:$E$46)=0,0,E45/SUM($E$44:$E$46))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14548,7 +14606,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F46" s="352" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G46" s="8"/>
@@ -14592,9 +14650,9 @@
         <f>'Final demand per energy carrier'!D65</f>
         <v>0</v>
       </c>
-      <c r="F50" s="352" t="e">
-        <f>E50/SUM($E$50:$E$57)</f>
-        <v>#DIV/0!</v>
+      <c r="F50" s="352">
+        <f>IF(SUM($E$50:$E$57)=0,0,E50/SUM($E$50:$E$57))</f>
+        <v>0</v>
       </c>
       <c r="G50" s="8"/>
     </row>
@@ -14609,9 +14667,9 @@
         <f>'Final demand per energy carrier'!D66</f>
         <v>0</v>
       </c>
-      <c r="F51" s="352" t="e">
-        <f>E51/SUM($E$50:$E$57)</f>
-        <v>#DIV/0!</v>
+      <c r="F51" s="352">
+        <f t="shared" ref="F51:F56" si="5">IF(SUM($E$50:$E$57)=0,0,E51/SUM($E$50:$E$57))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:7">
@@ -14625,9 +14683,9 @@
         <f>'Final demand per energy carrier'!D67</f>
         <v>0</v>
       </c>
-      <c r="F52" s="352" t="e">
-        <f t="shared" ref="F52:F57" si="7">E52/SUM($E$50:$E$57)</f>
-        <v>#DIV/0!</v>
+      <c r="F52" s="352">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:7">
@@ -14641,9 +14699,9 @@
         <f>'Final demand per energy carrier'!D68</f>
         <v>0</v>
       </c>
-      <c r="F53" s="352" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="F53" s="352">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:7">
@@ -14657,9 +14715,9 @@
         <f>'Final demand per energy carrier'!D69</f>
         <v>0</v>
       </c>
-      <c r="F54" s="352" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="F54" s="352">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:7">
@@ -14673,9 +14731,9 @@
         <f>'Final demand per energy carrier'!D70</f>
         <v>0</v>
       </c>
-      <c r="F55" s="352" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="F55" s="352">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:7">
@@ -14689,9 +14747,9 @@
         <f>'Final demand per energy carrier'!D71</f>
         <v>0</v>
       </c>
-      <c r="F56" s="352" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="F56" s="352">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:7">
@@ -14705,9 +14763,9 @@
         <f>'Final demand per energy carrier'!D72</f>
         <v>0</v>
       </c>
-      <c r="F57" s="352" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="F57" s="352">
+        <f>IF(SUM($E$50:$E$57)=0,1,E57/SUM($E$50:$E$57))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="16" thickBot="1">
@@ -14765,10 +14823,10 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="646" t="s">
+      <c r="B5" s="647" t="s">
         <v>733</v>
       </c>
-      <c r="C5" s="656"/>
+      <c r="C5" s="657"/>
       <c r="D5" s="20"/>
       <c r="E5" s="8"/>
     </row>
@@ -15134,14 +15192,14 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="2:13" ht="30" customHeight="1">
-      <c r="B5" s="646" t="s">
+      <c r="B5" s="647" t="s">
         <v>284</v>
       </c>
-      <c r="C5" s="656"/>
-      <c r="D5" s="656"/>
-      <c r="E5" s="656"/>
-      <c r="F5" s="656"/>
-      <c r="G5" s="647"/>
+      <c r="C5" s="657"/>
+      <c r="D5" s="657"/>
+      <c r="E5" s="657"/>
+      <c r="F5" s="657"/>
+      <c r="G5" s="648"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -16695,12 +16753,12 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="2:9" s="141" customFormat="1" ht="75" customHeight="1">
-      <c r="B5" s="646" t="s">
+      <c r="B5" s="647" t="s">
         <v>229</v>
       </c>
-      <c r="C5" s="656"/>
-      <c r="D5" s="656"/>
-      <c r="E5" s="647"/>
+      <c r="C5" s="657"/>
+      <c r="D5" s="657"/>
+      <c r="E5" s="648"/>
       <c r="F5" s="157"/>
     </row>
     <row r="6" spans="2:9" ht="16" thickBot="1"/>
@@ -17973,10 +18031,10 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="46" customHeight="1">
-      <c r="B5" s="646" t="s">
+      <c r="B5" s="647" t="s">
         <v>590</v>
       </c>
-      <c r="C5" s="647"/>
+      <c r="C5" s="648"/>
     </row>
     <row r="6" spans="1:7" ht="16" thickBot="1">
       <c r="A6" s="164"/>
@@ -18248,14 +18306,14 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:13" ht="45" customHeight="1">
-      <c r="B5" s="646" t="s">
+      <c r="B5" s="647" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="656"/>
-      <c r="D5" s="656"/>
-      <c r="E5" s="656"/>
-      <c r="F5" s="656"/>
-      <c r="G5" s="647"/>
+      <c r="C5" s="657"/>
+      <c r="D5" s="657"/>
+      <c r="E5" s="657"/>
+      <c r="F5" s="657"/>
+      <c r="G5" s="648"/>
     </row>
     <row r="6" spans="2:13" ht="16" thickBot="1"/>
     <row r="7" spans="2:13">
@@ -18481,10 +18539,10 @@
     <row r="24" spans="2:12" ht="78" customHeight="1">
       <c r="B24" s="467"/>
       <c r="C24" s="467"/>
-      <c r="K24" s="657" t="s">
+      <c r="K24" s="658" t="s">
         <v>818</v>
       </c>
-      <c r="L24" s="658"/>
+      <c r="L24" s="659"/>
     </row>
     <row r="25" spans="2:12">
       <c r="B25" s="467"/>
@@ -18568,11 +18626,11 @@
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:13" ht="38" customHeight="1">
-      <c r="B5" s="646" t="s">
+      <c r="B5" s="647" t="s">
         <v>535</v>
       </c>
-      <c r="C5" s="656"/>
-      <c r="D5" s="647"/>
+      <c r="C5" s="657"/>
+      <c r="D5" s="648"/>
     </row>
     <row r="6" spans="1:13" ht="16" thickBot="1">
       <c r="A6" s="164"/>
@@ -20176,9 +20234,7 @@
   </sheetPr>
   <dimension ref="B2:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -20474,20 +20530,38 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="408"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="18"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="408"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="18"/>
+    <row r="32" spans="2:4" ht="30">
+      <c r="B32" s="408" t="s">
+        <v>870</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>871</v>
+      </c>
+      <c r="D32" s="18">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="30">
+      <c r="B33" s="408" t="s">
+        <v>873</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>872</v>
+      </c>
+      <c r="D33" s="18">
+        <v>2.16</v>
+      </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="408"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="18"/>
+      <c r="B34" s="408" t="s">
+        <v>874</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>875</v>
+      </c>
+      <c r="D34" s="18">
+        <v>2.17</v>
+      </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="19"/>
@@ -21862,9 +21936,9 @@
       <c r="A3" t="s">
         <v>274</v>
       </c>
-      <c r="B3" s="191" t="e">
+      <c r="B3" s="191">
         <f>'Technology Shares'!F50</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D3" s="191"/>
     </row>
@@ -21872,9 +21946,9 @@
       <c r="A4" t="s">
         <v>275</v>
       </c>
-      <c r="B4" s="191" t="e">
+      <c r="B4" s="191">
         <f>'Technology Shares'!F51</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D4" s="191"/>
     </row>
@@ -21882,9 +21956,9 @@
       <c r="A5" t="s">
         <v>279</v>
       </c>
-      <c r="B5" s="191" t="e">
+      <c r="B5" s="191">
         <f>'Technology Shares'!F52</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D5" s="191"/>
     </row>
@@ -21892,9 +21966,9 @@
       <c r="A6" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="191" t="e">
+      <c r="B6" s="191">
         <f>'Technology Shares'!F53</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D6" s="191"/>
     </row>
@@ -21902,9 +21976,9 @@
       <c r="A7" t="s">
         <v>277</v>
       </c>
-      <c r="B7" s="191" t="e">
+      <c r="B7" s="191">
         <f>'Technology Shares'!F54</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D7" s="191"/>
     </row>
@@ -21912,9 +21986,9 @@
       <c r="A8" t="s">
         <v>273</v>
       </c>
-      <c r="B8" s="191" t="e">
+      <c r="B8" s="191">
         <f>'Technology Shares'!F55</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D8" s="191"/>
     </row>
@@ -21922,9 +21996,9 @@
       <c r="A9" t="s">
         <v>278</v>
       </c>
-      <c r="B9" s="191" t="e">
+      <c r="B9" s="191">
         <f>'Technology Shares'!F56</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D9" s="191"/>
     </row>
@@ -21932,9 +22006,9 @@
       <c r="A10" t="s">
         <v>276</v>
       </c>
-      <c r="B10" s="191" t="e">
+      <c r="B10" s="191">
         <f>'Technology Shares'!F57</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="D10" s="191"/>
     </row>
@@ -23449,10 +23523,10 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="2:4" ht="79" customHeight="1">
-      <c r="B5" s="646" t="s">
+      <c r="B5" s="647" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="647"/>
+      <c r="C5" s="648"/>
     </row>
     <row r="6" spans="2:4" ht="16" thickBot="1"/>
     <row r="7" spans="2:4">
@@ -24816,9 +24890,7 @@
   </sheetPr>
   <dimension ref="B2:P116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -24873,12 +24945,12 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="2:16" ht="45" customHeight="1">
-      <c r="B5" s="648" t="s">
+      <c r="B5" s="649" t="s">
         <v>227</v>
       </c>
-      <c r="C5" s="649"/>
-      <c r="D5" s="649"/>
-      <c r="E5" s="650"/>
+      <c r="C5" s="650"/>
+      <c r="D5" s="650"/>
+      <c r="E5" s="651"/>
       <c r="F5" s="410"/>
       <c r="I5" s="457"/>
       <c r="J5" s="10"/>
@@ -25130,7 +25202,7 @@
         <v>465</v>
       </c>
       <c r="J17" s="8"/>
-      <c r="K17" s="651" t="s">
+      <c r="K17" s="652" t="s">
         <v>821</v>
       </c>
       <c r="L17" s="356"/>
@@ -25149,7 +25221,7 @@
       <c r="H18" s="414"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="652"/>
+      <c r="K18" s="653"/>
       <c r="L18" s="420"/>
       <c r="M18" s="357"/>
       <c r="N18" s="75"/>
@@ -27023,7 +27095,7 @@
       <c r="D103" s="403" t="s">
         <v>755</v>
       </c>
-      <c r="E103" s="659"/>
+      <c r="E103" s="646"/>
       <c r="F103" s="413"/>
       <c r="G103" s="430"/>
       <c r="H103" s="416"/>
@@ -27045,7 +27117,7 @@
       <c r="D104" s="403" t="s">
         <v>755</v>
       </c>
-      <c r="E104" s="659"/>
+      <c r="E104" s="646"/>
       <c r="F104" s="413"/>
       <c r="G104" s="430"/>
       <c r="H104" s="416"/>
@@ -27355,13 +27427,13 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1">
-      <c r="B5" s="653"/>
-      <c r="C5" s="654"/>
-      <c r="D5" s="654"/>
-      <c r="E5" s="654"/>
-      <c r="F5" s="654"/>
-      <c r="G5" s="654"/>
-      <c r="H5" s="655"/>
+      <c r="B5" s="654"/>
+      <c r="C5" s="655"/>
+      <c r="D5" s="655"/>
+      <c r="E5" s="655"/>
+      <c r="F5" s="655"/>
+      <c r="G5" s="655"/>
+      <c r="H5" s="656"/>
     </row>
     <row r="6" spans="2:67" ht="15" customHeight="1" thickBot="1">
       <c r="B6" s="2"/>

--- a/analyses/6_residences_analysis.xlsx
+++ b/analyses/6_residences_analysis.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15300" tabRatio="932" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15960" tabRatio="932" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="876">
   <si>
     <t>Changelog</t>
   </si>
@@ -2268,12 +2268,6 @@
   </si>
   <si>
     <t>Added parent_share that fixes problem in the graph https://github.com/quintel/refinery/issues/37</t>
-  </si>
-  <si>
-    <t>Useful heat in space heating coming from electric heater add on (if a household is equipped)</t>
-  </si>
-  <si>
-    <t>Useful heat in hot water preparation coming from electric heater add on (if a household is equipped)</t>
   </si>
   <si>
     <t>results form ETM modelling logic</t>
@@ -2725,12 +2719,6 @@
     <t>Percentage of useful heat in space heating delivered by</t>
   </si>
   <si>
-    <t>Useful heat in space heating delivered from solar thermal panel (if a household is equipped)</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>improved text of intro sheet</t>
   </si>
   <si>
@@ -2738,12 +2726,6 @@
   </si>
   <si>
     <t>value</t>
-  </si>
-  <si>
-    <t>Percent of old houses (built before 1992)</t>
-  </si>
-  <si>
-    <t>Percent of new houses (built after 1991)</t>
   </si>
   <si>
     <t xml:space="preserve">The main goal of this analysis is to provide a breakdown of the residential energy consumption. Energy is consumed in the applications space heating, hot water, space cooling, lighting, cooking and electric applications. Furthermore, the energy use within these applications is split over certain technologies (for example: coal, gas and oil heaters in space heating). 
@@ -2772,6 +2754,24 @@
   </si>
   <si>
     <t>Correct misstake in application share calculation for district heat</t>
+  </si>
+  <si>
+    <t>Percentage of old houses (built before 1992)</t>
+  </si>
+  <si>
+    <t>Percentage of new houses (built after 1991)</t>
+  </si>
+  <si>
+    <t>electricity-driven heat pump (air)</t>
+  </si>
+  <si>
+    <t>Percentage of useful heat in space heating delivered by solar thermal panel (if household is equipped)</t>
+  </si>
+  <si>
+    <t>Percentage of useful heat in hot water delivered by electric heater add on (if household is equipped)</t>
+  </si>
+  <si>
+    <t>Percentage of useful heat in space heating delivered by electric heater add on (if household is equipped)</t>
   </si>
 </sst>
 </file>
@@ -13475,7 +13475,7 @@
     <row r="30" spans="2:4" ht="60">
       <c r="B30" s="20"/>
       <c r="C30" s="470" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D30" s="7"/>
     </row>
@@ -13902,7 +13902,7 @@
     <row r="32" spans="2:6">
       <c r="B32" s="176"/>
       <c r="C32" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D32" s="346">
         <f>SUM('Final demand per energy carrier'!F65:F72)</f>
@@ -13937,7 +13937,7 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="482" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C35" s="342"/>
       <c r="D35" s="348"/>
@@ -14824,7 +14824,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="647" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C5" s="657"/>
       <c r="D5" s="20"/>
@@ -14845,7 +14845,7 @@
     <row r="7" spans="1:10">
       <c r="A7" s="164"/>
       <c r="B7" s="165" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C7" s="166"/>
       <c r="D7" s="167"/>
@@ -14885,10 +14885,10 @@
       <c r="B10" s="172"/>
       <c r="C10" s="173"/>
       <c r="D10" s="173" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E10" s="557" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F10" s="158"/>
       <c r="G10" s="158"/>
@@ -14899,7 +14899,7 @@
     <row r="11" spans="1:10">
       <c r="A11" s="164"/>
       <c r="B11" s="562" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C11" s="106"/>
       <c r="D11" s="274">
@@ -14923,7 +14923,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="31" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C13" s="59"/>
       <c r="D13" s="559">
@@ -14947,7 +14947,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="31" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="559" t="e">
@@ -14970,7 +14970,7 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="31" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="559" t="e">
@@ -14994,7 +14994,7 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="31" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="298" t="e">
@@ -15254,13 +15254,13 @@
         <v>399</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F9" s="65" t="s">
         <v>436</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="H9" s="65" t="s">
         <v>437</v>
@@ -15272,7 +15272,7 @@
         <v>439</v>
       </c>
       <c r="K9" s="113" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -16563,7 +16563,7 @@
     <row r="76" spans="2:13">
       <c r="B76" s="36"/>
       <c r="C76" s="508" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D76" s="509"/>
       <c r="E76" s="507" t="e">
@@ -16599,7 +16599,7 @@
     <row r="77" spans="2:13">
       <c r="B77" s="36"/>
       <c r="C77" s="511" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D77" s="510"/>
       <c r="E77" s="507" t="e">
@@ -16635,7 +16635,7 @@
     <row r="78" spans="2:13">
       <c r="B78" s="36"/>
       <c r="C78" s="512" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D78" s="513"/>
       <c r="E78" s="514" t="e">
@@ -18540,7 +18540,7 @@
       <c r="B24" s="467"/>
       <c r="C24" s="467"/>
       <c r="K24" s="658" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="L24" s="659"/>
     </row>
@@ -18615,7 +18615,7 @@
   <sheetData>
     <row r="2" spans="1:13" ht="20">
       <c r="B2" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -20403,7 +20403,7 @@
         <v>41500</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D20" s="27">
         <v>2.04</v>
@@ -20414,7 +20414,7 @@
         <v>41505</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D21" s="27">
         <v>2.0499999999999998</v>
@@ -20425,7 +20425,7 @@
         <v>41507</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>483</v>
@@ -20436,7 +20436,7 @@
         <v>41507</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D23" s="27">
         <v>2.06</v>
@@ -20447,7 +20447,7 @@
         <v>41512</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D24" s="27">
         <v>2.0699999999999998</v>
@@ -20458,7 +20458,7 @@
         <v>41534</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D25" s="27">
         <v>2.08</v>
@@ -20469,7 +20469,7 @@
         <v>41535</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D26" s="27">
         <v>2.09</v>
@@ -20480,7 +20480,7 @@
         <v>41535</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D27" s="27">
         <v>2.1</v>
@@ -20491,7 +20491,7 @@
         <v>41561</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D28" s="18">
         <v>2.11</v>
@@ -20502,7 +20502,7 @@
         <v>41562</v>
       </c>
       <c r="C29" s="625" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D29" s="18">
         <v>2.12</v>
@@ -20513,7 +20513,7 @@
         <v>41578</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D30" s="18">
         <v>2.13</v>
@@ -20524,7 +20524,7 @@
         <v>41618</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="D31" s="18">
         <v>2.14</v>
@@ -20532,10 +20532,10 @@
     </row>
     <row r="32" spans="2:4" ht="30">
       <c r="B32" s="408" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="D32" s="18">
         <v>2.15</v>
@@ -20543,10 +20543,10 @@
     </row>
     <row r="33" spans="2:4" ht="30">
       <c r="B33" s="408" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="D33" s="18">
         <v>2.16</v>
@@ -20554,10 +20554,10 @@
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="408" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D34" s="18">
         <v>2.17</v>
@@ -21130,7 +21130,7 @@
         <v>493</v>
       </c>
       <c r="B1" s="466" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -21409,7 +21409,7 @@
     </row>
     <row r="13" spans="2:3" ht="28" customHeight="1">
       <c r="B13" s="490" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C13" s="488" t="s">
         <v>225</v>
@@ -21465,7 +21465,7 @@
     </row>
     <row r="20" spans="2:3" ht="28" customHeight="1">
       <c r="B20" s="493" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C20" s="488" t="s">
         <v>223</v>
@@ -21489,7 +21489,7 @@
     </row>
     <row r="23" spans="2:3" ht="28" customHeight="1">
       <c r="B23" s="494" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C23" s="488" t="s">
         <v>224</v>
@@ -21732,7 +21732,7 @@
         <v>709</v>
       </c>
       <c r="C53" s="498" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D53" s="20"/>
     </row>
@@ -22463,7 +22463,7 @@
     </row>
     <row r="6" spans="2:2" ht="90">
       <c r="B6" s="87" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -22520,7 +22520,7 @@
     </row>
     <row r="20" spans="2:2" ht="90">
       <c r="B20" s="86" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
   </sheetData>
@@ -22910,7 +22910,7 @@
         <v>701</v>
       </c>
       <c r="B1" s="466" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -22967,7 +22967,7 @@
         <v>708</v>
       </c>
       <c r="B1" s="466" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -23022,7 +23022,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -23030,7 +23030,7 @@
         <v>532</v>
       </c>
       <c r="B2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -23591,7 +23591,7 @@
     <row r="16" spans="2:4" ht="15" customHeight="1">
       <c r="B16" s="39"/>
       <c r="C16" s="74" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D16" s="41"/>
     </row>
@@ -23606,7 +23606,7 @@
         <v>482</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="14" customHeight="1">
@@ -23627,7 +23627,7 @@
         <v>510</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="14" customHeight="1">
@@ -23636,7 +23636,7 @@
         <v>511</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="14" customHeight="1">
@@ -23645,7 +23645,7 @@
         <v>512</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="14" customHeight="1">
@@ -23654,7 +23654,7 @@
         <v>513</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="14" customHeight="1">
@@ -23665,7 +23665,7 @@
     <row r="26" spans="2:4" ht="75">
       <c r="B26" s="39"/>
       <c r="C26" s="40" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D26" s="41"/>
     </row>
@@ -23677,10 +23677,10 @@
     <row r="28" spans="2:4" ht="14" customHeight="1">
       <c r="B28" s="39"/>
       <c r="C28" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="14" customHeight="1">
@@ -23691,10 +23691,10 @@
     <row r="30" spans="2:4" ht="14" customHeight="1">
       <c r="B30" s="39"/>
       <c r="C30" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="14" customHeight="1">
@@ -23707,21 +23707,21 @@
     <row r="32" spans="2:4" ht="14" customHeight="1">
       <c r="B32" s="39"/>
       <c r="C32" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D32" s="41"/>
     </row>
     <row r="33" spans="2:4" ht="14" customHeight="1">
       <c r="B33" s="39"/>
       <c r="C33" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D33" s="41"/>
     </row>
     <row r="34" spans="2:4" ht="14" customHeight="1">
       <c r="B34" s="39"/>
       <c r="C34" s="17" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D34" s="41"/>
     </row>
@@ -24851,7 +24851,7 @@
     </row>
     <row r="182" spans="2:3">
       <c r="B182" s="49" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C182" s="43" t="s">
         <v>104</v>
@@ -24918,7 +24918,7 @@
         <v>27</v>
       </c>
       <c r="I2" s="454" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="4"/>
@@ -25011,7 +25011,7 @@
       </c>
       <c r="F9" s="564"/>
       <c r="G9" s="564" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="H9" s="564"/>
       <c r="I9" s="564" t="s">
@@ -25029,7 +25029,7 @@
       </c>
       <c r="N9" s="15"/>
       <c r="O9" s="464" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="P9" s="465" t="s">
         <v>690</v>
@@ -25068,7 +25068,7 @@
       <c r="E11" s="71"/>
       <c r="F11" s="194"/>
       <c r="G11" s="23" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -25203,7 +25203,7 @@
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="652" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="L17" s="356"/>
       <c r="M17" s="357"/>
@@ -25231,7 +25231,7 @@
     <row r="19" spans="2:16" ht="16" customHeight="1" thickBot="1">
       <c r="B19" s="38"/>
       <c r="C19" s="630" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D19" s="398"/>
       <c r="E19" s="270"/>
@@ -25468,7 +25468,7 @@
     <row r="27" spans="2:16">
       <c r="B27" s="38"/>
       <c r="C27" s="194" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D27" s="398" t="s">
         <v>214</v>
@@ -25547,7 +25547,7 @@
     <row r="30" spans="2:16" ht="16" customHeight="1" thickBot="1">
       <c r="B30" s="38"/>
       <c r="C30" s="630" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D30" s="398"/>
       <c r="E30" s="257"/>
@@ -25566,7 +25566,7 @@
     <row r="31" spans="2:16" ht="16" thickBot="1">
       <c r="B31" s="38"/>
       <c r="C31" s="629" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D31" s="401"/>
       <c r="E31" s="395"/>
@@ -25587,7 +25587,7 @@
     <row r="32" spans="2:16" ht="16" thickBot="1">
       <c r="B32" s="38"/>
       <c r="C32" s="629" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D32" s="401"/>
       <c r="E32" s="395"/>
@@ -25608,7 +25608,7 @@
     <row r="33" spans="2:16" ht="16" thickBot="1">
       <c r="B33" s="38"/>
       <c r="C33" s="629" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D33" s="401"/>
       <c r="E33" s="395"/>
@@ -25629,7 +25629,7 @@
     <row r="34" spans="2:16" ht="16" thickBot="1">
       <c r="B34" s="38"/>
       <c r="C34" s="629" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D34" s="401"/>
       <c r="E34" s="395"/>
@@ -25650,7 +25650,7 @@
     <row r="35" spans="2:16" ht="16" thickBot="1">
       <c r="B35" s="38"/>
       <c r="C35" s="629" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D35" s="401"/>
       <c r="E35" s="395"/>
@@ -25671,7 +25671,7 @@
     <row r="36" spans="2:16" ht="16" thickBot="1">
       <c r="B36" s="38"/>
       <c r="C36" s="629" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D36" s="401"/>
       <c r="E36" s="395"/>
@@ -25692,7 +25692,7 @@
     <row r="37" spans="2:16" ht="16" thickBot="1">
       <c r="B37" s="38"/>
       <c r="C37" s="629" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D37" s="401"/>
       <c r="E37" s="395"/>
@@ -25713,7 +25713,7 @@
     <row r="38" spans="2:16" ht="16" thickBot="1">
       <c r="B38" s="38"/>
       <c r="C38" s="629" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D38" s="401"/>
       <c r="E38" s="395"/>
@@ -25734,7 +25734,7 @@
     <row r="39" spans="2:16" ht="16" thickBot="1">
       <c r="B39" s="38"/>
       <c r="C39" s="629" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D39" s="401"/>
       <c r="E39" s="395"/>
@@ -25757,7 +25757,7 @@
     <row r="40" spans="2:16" ht="16" thickBot="1">
       <c r="B40" s="38"/>
       <c r="C40" s="629" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D40" s="401"/>
       <c r="E40" s="395"/>
@@ -25774,7 +25774,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M40" s="357" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="N40" s="75"/>
       <c r="O40" s="461" t="s">
@@ -25785,7 +25785,7 @@
     <row r="41" spans="2:16" ht="16" thickBot="1">
       <c r="B41" s="38"/>
       <c r="C41" s="629" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D41" s="401"/>
       <c r="E41" s="395"/>
@@ -25878,7 +25878,7 @@
     <row r="45" spans="2:16" ht="16" customHeight="1" thickBot="1">
       <c r="B45" s="38"/>
       <c r="C45" s="630" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D45" s="398"/>
       <c r="E45" s="261"/>
@@ -25897,7 +25897,7 @@
     <row r="46" spans="2:16" ht="16" thickBot="1">
       <c r="B46" s="38"/>
       <c r="C46" s="629" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D46" s="401"/>
       <c r="E46" s="395"/>
@@ -25918,7 +25918,7 @@
     <row r="47" spans="2:16" ht="16" thickBot="1">
       <c r="B47" s="38"/>
       <c r="C47" s="629" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D47" s="401"/>
       <c r="E47" s="395"/>
@@ -25939,7 +25939,7 @@
     <row r="48" spans="2:16" ht="16" thickBot="1">
       <c r="B48" s="38"/>
       <c r="C48" s="629" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D48" s="401"/>
       <c r="E48" s="395"/>
@@ -25960,7 +25960,7 @@
     <row r="49" spans="2:16" ht="16" thickBot="1">
       <c r="B49" s="38"/>
       <c r="C49" s="629" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D49" s="401"/>
       <c r="E49" s="395"/>
@@ -25981,7 +25981,7 @@
     <row r="50" spans="2:16" ht="16" thickBot="1">
       <c r="B50" s="38"/>
       <c r="C50" s="629" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D50" s="401"/>
       <c r="E50" s="395"/>
@@ -26002,7 +26002,7 @@
     <row r="51" spans="2:16" ht="16" thickBot="1">
       <c r="B51" s="38"/>
       <c r="C51" s="629" t="s">
-        <v>387</v>
+        <v>872</v>
       </c>
       <c r="D51" s="401"/>
       <c r="E51" s="395"/>
@@ -26023,7 +26023,7 @@
     <row r="52" spans="2:16" ht="16" thickBot="1">
       <c r="B52" s="38"/>
       <c r="C52" s="629" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D52" s="401"/>
       <c r="E52" s="395"/>
@@ -26044,7 +26044,7 @@
     <row r="53" spans="2:16" ht="16" thickBot="1">
       <c r="B53" s="38"/>
       <c r="C53" s="629" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D53" s="401"/>
       <c r="E53" s="395"/>
@@ -26065,7 +26065,7 @@
     <row r="54" spans="2:16" ht="16" thickBot="1">
       <c r="B54" s="38"/>
       <c r="C54" s="629" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D54" s="401"/>
       <c r="E54" s="395"/>
@@ -26086,7 +26086,7 @@
     <row r="55" spans="2:16" ht="16" thickBot="1">
       <c r="B55" s="38"/>
       <c r="C55" s="629" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D55" s="401"/>
       <c r="E55" s="395"/>
@@ -26107,7 +26107,7 @@
     <row r="56" spans="2:16" ht="16" thickBot="1">
       <c r="B56" s="38"/>
       <c r="C56" s="629" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D56" s="401"/>
       <c r="E56" s="395"/>
@@ -26128,7 +26128,7 @@
     <row r="57" spans="2:16" ht="16" thickBot="1">
       <c r="B57" s="38"/>
       <c r="C57" s="629" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D57" s="401"/>
       <c r="E57" s="395"/>
@@ -26196,7 +26196,7 @@
     <row r="60" spans="2:16" ht="16" thickBot="1">
       <c r="B60" s="38"/>
       <c r="C60" s="630" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D60" s="402"/>
       <c r="E60" s="639"/>
@@ -26215,7 +26215,7 @@
     <row r="61" spans="2:16" ht="16" thickBot="1">
       <c r="B61" s="38"/>
       <c r="C61" s="629" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D61" s="403"/>
       <c r="E61" s="396"/>
@@ -26236,7 +26236,7 @@
     <row r="62" spans="2:16" ht="16" thickBot="1">
       <c r="B62" s="38"/>
       <c r="C62" s="629" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D62" s="403"/>
       <c r="E62" s="396"/>
@@ -26257,7 +26257,7 @@
     <row r="63" spans="2:16" ht="16" thickBot="1">
       <c r="B63" s="38"/>
       <c r="C63" s="629" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D63" s="404"/>
       <c r="E63" s="396"/>
@@ -26325,7 +26325,7 @@
     <row r="66" spans="2:16" ht="16" thickBot="1">
       <c r="B66" s="38"/>
       <c r="C66" s="630" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D66" s="398"/>
       <c r="E66" s="639"/>
@@ -26344,7 +26344,7 @@
     <row r="67" spans="2:16" ht="16" thickBot="1">
       <c r="B67" s="38"/>
       <c r="C67" s="629" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D67" s="403"/>
       <c r="E67" s="396"/>
@@ -26365,7 +26365,7 @@
     <row r="68" spans="2:16" ht="16" thickBot="1">
       <c r="B68" s="38"/>
       <c r="C68" s="629" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D68" s="403"/>
       <c r="E68" s="396"/>
@@ -26454,7 +26454,7 @@
     <row r="72" spans="2:16" ht="16" thickBot="1">
       <c r="B72" s="38"/>
       <c r="C72" s="630" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D72" s="398"/>
       <c r="E72" s="639"/>
@@ -26473,7 +26473,7 @@
     <row r="73" spans="2:16" ht="16" thickBot="1">
       <c r="B73" s="38"/>
       <c r="C73" s="629" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D73" s="403"/>
       <c r="E73" s="396"/>
@@ -26494,7 +26494,7 @@
     <row r="74" spans="2:16" ht="16" thickBot="1">
       <c r="B74" s="38"/>
       <c r="C74" s="629" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D74" s="403"/>
       <c r="E74" s="396"/>
@@ -26515,7 +26515,7 @@
     <row r="75" spans="2:16" ht="16" thickBot="1">
       <c r="B75" s="38"/>
       <c r="C75" s="629" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D75" s="403"/>
       <c r="E75" s="396"/>
@@ -26536,7 +26536,7 @@
     <row r="76" spans="2:16" ht="16" thickBot="1">
       <c r="B76" s="38"/>
       <c r="C76" s="629" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D76" s="403"/>
       <c r="E76" s="396"/>
@@ -26557,7 +26557,7 @@
     <row r="77" spans="2:16" ht="16" thickBot="1">
       <c r="B77" s="38"/>
       <c r="C77" s="629" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D77" s="403"/>
       <c r="E77" s="396"/>
@@ -26625,7 +26625,7 @@
     <row r="80" spans="2:16" ht="16" thickBot="1">
       <c r="B80" s="38"/>
       <c r="C80" s="630" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D80" s="398"/>
       <c r="E80" s="639"/>
@@ -26882,11 +26882,9 @@
     <row r="93" spans="2:16" ht="16" thickBot="1">
       <c r="B93" s="38"/>
       <c r="C93" s="71" t="s">
-        <v>860</v>
-      </c>
-      <c r="D93" s="403" t="s">
-        <v>861</v>
-      </c>
+        <v>873</v>
+      </c>
+      <c r="D93" s="403"/>
       <c r="E93" s="396"/>
       <c r="F93" s="413"/>
       <c r="G93" s="437"/>
@@ -26905,11 +26903,9 @@
     <row r="94" spans="2:16" ht="16" thickBot="1">
       <c r="B94" s="38"/>
       <c r="C94" s="71" t="s">
-        <v>717</v>
-      </c>
-      <c r="D94" s="403" t="s">
-        <v>861</v>
-      </c>
+        <v>874</v>
+      </c>
+      <c r="D94" s="403"/>
       <c r="E94" s="396"/>
       <c r="F94" s="413"/>
       <c r="G94" s="430"/>
@@ -26945,11 +26941,9 @@
     <row r="96" spans="2:16" ht="16" thickBot="1">
       <c r="B96" s="38"/>
       <c r="C96" s="71" t="s">
-        <v>716</v>
-      </c>
-      <c r="D96" s="403" t="s">
-        <v>861</v>
-      </c>
+        <v>875</v>
+      </c>
+      <c r="D96" s="403"/>
       <c r="E96" s="396"/>
       <c r="F96" s="413"/>
       <c r="G96" s="430"/>
@@ -27021,7 +27015,7 @@
     <row r="100" spans="2:16" ht="16" thickBot="1">
       <c r="B100" s="38"/>
       <c r="C100" s="71" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="D100" s="403"/>
       <c r="E100" s="396"/>
@@ -27053,7 +27047,7 @@
     <row r="101" spans="2:16" ht="16" thickBot="1">
       <c r="B101" s="38"/>
       <c r="C101" s="71" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="D101" s="403"/>
       <c r="E101" s="396"/>
@@ -27090,10 +27084,10 @@
     <row r="103" spans="2:16" ht="17" thickBot="1">
       <c r="B103" s="73"/>
       <c r="C103" s="17" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D103" s="403" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E103" s="646"/>
       <c r="F103" s="413"/>
@@ -27105,17 +27099,17 @@
       <c r="L103" s="56"/>
       <c r="M103" s="32"/>
       <c r="O103" s="461" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="P103" s="7"/>
     </row>
     <row r="104" spans="2:16" ht="17" thickBot="1">
       <c r="B104" s="73"/>
       <c r="C104" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="D104" s="403" t="s">
         <v>753</v>
-      </c>
-      <c r="D104" s="403" t="s">
-        <v>755</v>
       </c>
       <c r="E104" s="646"/>
       <c r="F104" s="413"/>
@@ -27127,7 +27121,7 @@
       <c r="L104" s="56"/>
       <c r="M104" s="32"/>
       <c r="O104" s="461" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="P104" s="7"/>
     </row>
@@ -27409,7 +27403,7 @@
   <sheetData>
     <row r="2" spans="2:67" ht="20">
       <c r="B2" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="3" spans="2:67" ht="15" customHeight="1">
@@ -34290,7 +34284,7 @@
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="595" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C5" s="596"/>
       <c r="D5" s="596"/>
@@ -34321,10 +34315,10 @@
       <c r="C7" s="575"/>
       <c r="D7" s="575"/>
       <c r="E7" s="608" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F7" s="568" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G7" s="567"/>
       <c r="H7" s="568"/>
@@ -34346,28 +34340,28 @@
         <v>233</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="I8" s="600" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="J8" s="605" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="K8" s="606" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="L8" s="606" t="s">
         <v>529</v>
       </c>
       <c r="M8" s="607" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="N8" s="269" t="s">
         <v>368</v>
@@ -34379,16 +34373,16 @@
       <c r="D9" s="68"/>
       <c r="E9" s="609"/>
       <c r="F9" s="569" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G9" s="569" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="H9" s="569" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="10"/>
@@ -34419,7 +34413,7 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="19" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F11" s="576"/>
       <c r="G11" s="576"/>
@@ -34446,7 +34440,7 @@
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="19" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F12" s="576"/>
       <c r="G12" s="576"/>
@@ -34473,7 +34467,7 @@
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="19" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F13" s="576"/>
       <c r="G13" s="576"/>
@@ -34500,7 +34494,7 @@
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="19" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F14" s="576"/>
       <c r="G14" s="576"/>
@@ -34530,7 +34524,7 @@
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="19" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F15" s="576"/>
       <c r="G15" s="576"/>
@@ -34557,7 +34551,7 @@
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="19" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F16" s="576"/>
       <c r="G16" s="576"/>
@@ -34584,7 +34578,7 @@
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="19" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F17" s="576"/>
       <c r="G17" s="576"/>
@@ -34611,7 +34605,7 @@
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="19" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F18" s="576"/>
       <c r="G18" s="576"/>
@@ -34638,7 +34632,7 @@
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="19" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F19" s="576"/>
       <c r="G19" s="576"/>
@@ -34665,7 +34659,7 @@
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="19" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F20" s="576"/>
       <c r="G20" s="576"/>
@@ -34692,7 +34686,7 @@
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="19" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F21" s="576"/>
       <c r="G21" s="576"/>
@@ -34719,7 +34713,7 @@
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="19" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F22" s="576"/>
       <c r="G22" s="576"/>
@@ -34793,7 +34787,7 @@
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="19" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F26" s="576"/>
       <c r="G26" s="576"/>
@@ -34820,7 +34814,7 @@
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="19" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F27" s="576"/>
       <c r="G27" s="576"/>
@@ -34847,7 +34841,7 @@
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="19" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F28" s="576"/>
       <c r="G28" s="576"/>
@@ -34874,7 +34868,7 @@
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="19" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F29" s="576"/>
       <c r="G29" s="576"/>
@@ -34904,7 +34898,7 @@
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="19" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F30" s="576"/>
       <c r="G30" s="576"/>
@@ -34931,7 +34925,7 @@
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="19" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F31" s="576"/>
       <c r="G31" s="576"/>
@@ -34958,7 +34952,7 @@
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="19" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F32" s="576"/>
       <c r="G32" s="576"/>
@@ -34985,7 +34979,7 @@
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="19" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F33" s="576"/>
       <c r="G33" s="576"/>
@@ -35012,7 +35006,7 @@
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="19" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F34" s="576"/>
       <c r="G34" s="576"/>
@@ -35039,7 +35033,7 @@
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="19" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F35" s="576"/>
       <c r="G35" s="576"/>
@@ -35066,7 +35060,7 @@
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="19" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F36" s="576"/>
       <c r="G36" s="576"/>
@@ -35093,7 +35087,7 @@
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="19" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F37" s="576"/>
       <c r="G37" s="576"/>
@@ -35170,7 +35164,7 @@
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="19" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F41" s="576"/>
       <c r="G41" s="576"/>
@@ -35197,7 +35191,7 @@
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="19" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F42" s="576"/>
       <c r="G42" s="576"/>
@@ -35224,7 +35218,7 @@
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="19" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F43" s="576"/>
       <c r="G43" s="576"/>
@@ -35283,7 +35277,7 @@
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="19" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F46" s="576"/>
       <c r="G46" s="576"/>
@@ -35310,7 +35304,7 @@
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="19" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F47" s="576"/>
       <c r="G47" s="576"/>
@@ -35337,7 +35331,7 @@
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="19" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F48" s="576"/>
       <c r="G48" s="576"/>
@@ -35364,7 +35358,7 @@
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="19" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F49" s="576"/>
       <c r="G49" s="576"/>
@@ -35391,7 +35385,7 @@
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="19" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F50" s="576"/>
       <c r="G50" s="576"/>
@@ -35450,7 +35444,7 @@
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="19" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F53" s="576"/>
       <c r="G53" s="576"/>
@@ -35474,7 +35468,7 @@
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="19" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F54" s="576"/>
       <c r="G54" s="576"/>
@@ -35498,7 +35492,7 @@
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="19" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F55" s="576"/>
       <c r="G55" s="576"/>

--- a/analyses/6_residences_analysis.xlsx
+++ b/analyses/6_residences_analysis.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15960" tabRatio="932" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="16140" tabRatio="932" firstSheet="20" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -33,28 +33,27 @@
     <sheet name="csv_cooling_electricity" sheetId="68" r:id="rId24"/>
     <sheet name="csv_heating_network_gas" sheetId="69" r:id="rId25"/>
     <sheet name="csv_heating_electricity" sheetId="70" r:id="rId26"/>
-    <sheet name="csv_heating_heat_pump" sheetId="78" r:id="rId27"/>
-    <sheet name="csv_water_network_gas" sheetId="71" r:id="rId28"/>
-    <sheet name="csv_water_electricity" sheetId="72" r:id="rId29"/>
-    <sheet name="csv_cooking_electricity" sheetId="73" r:id="rId30"/>
-    <sheet name="csv_lighting_electricity" sheetId="74" r:id="rId31"/>
-    <sheet name="csv_appliances_electricity" sheetId="75" r:id="rId32"/>
-    <sheet name="csv_solar_thermal_heater" sheetId="79" r:id="rId33"/>
-    <sheet name="csv_cooling_old-new" sheetId="76" r:id="rId34"/>
-    <sheet name="csv_heating_old-new" sheetId="77" r:id="rId35"/>
-    <sheet name="csv_cooling_insulation_old" sheetId="91" r:id="rId36"/>
-    <sheet name="csv_cooling_insulation_new" sheetId="92" r:id="rId37"/>
-    <sheet name="csv_heating_insulation_new" sheetId="93" r:id="rId38"/>
-    <sheet name="csv_heating_insulation_old" sheetId="94" r:id="rId39"/>
-    <sheet name="csv_heating_micro_chp_gas" sheetId="95" r:id="rId40"/>
-    <sheet name="csv_water_micro_chp_gas" sheetId="96" r:id="rId41"/>
-    <sheet name="csv_water_fuell_cell_gas" sheetId="97" r:id="rId42"/>
-    <sheet name="csv_solar_space_heating_chld" sheetId="101" r:id="rId43"/>
-    <sheet name="csv_solar_hot_water_chld" sheetId="102" r:id="rId44"/>
-    <sheet name="csv_add_on_space_heating_child" sheetId="103" r:id="rId45"/>
-    <sheet name="csv_add_on_hot water_child" sheetId="104" r:id="rId46"/>
-    <sheet name="csv_hot_water_from_el_add_on" sheetId="106" r:id="rId47"/>
-    <sheet name="csv_export_to_area_analysis" sheetId="107" r:id="rId48"/>
+    <sheet name="csv_water_network_gas" sheetId="71" r:id="rId27"/>
+    <sheet name="csv_water_electricity" sheetId="72" r:id="rId28"/>
+    <sheet name="csv_cooking_electricity" sheetId="73" r:id="rId29"/>
+    <sheet name="csv_lighting_electricity" sheetId="74" r:id="rId30"/>
+    <sheet name="csv_appliances_electricity" sheetId="75" r:id="rId31"/>
+    <sheet name="csv_solar_thermal_heater" sheetId="79" r:id="rId32"/>
+    <sheet name="csv_cooling_old-new" sheetId="76" r:id="rId33"/>
+    <sheet name="csv_heating_old-new" sheetId="77" r:id="rId34"/>
+    <sheet name="csv_cooling_insulation_old" sheetId="91" r:id="rId35"/>
+    <sheet name="csv_cooling_insulation_new" sheetId="92" r:id="rId36"/>
+    <sheet name="csv_heating_insulation_new" sheetId="93" r:id="rId37"/>
+    <sheet name="csv_heating_insulation_old" sheetId="94" r:id="rId38"/>
+    <sheet name="csv_heating_micro_chp_gas" sheetId="95" r:id="rId39"/>
+    <sheet name="csv_water_micro_chp_gas" sheetId="96" r:id="rId40"/>
+    <sheet name="csv_water_fuell_cell_gas" sheetId="97" r:id="rId41"/>
+    <sheet name="csv_solar_space_heating_chld" sheetId="101" r:id="rId42"/>
+    <sheet name="csv_solar_hot_water_chld" sheetId="102" r:id="rId43"/>
+    <sheet name="csv_add_on_space_heating_child" sheetId="103" r:id="rId44"/>
+    <sheet name="csv_solar_heater_and_p2h_parent" sheetId="104" r:id="rId45"/>
+    <sheet name="csv_hot_water_p2h_child" sheetId="106" r:id="rId46"/>
+    <sheet name="csv_export_to_area_analysis" sheetId="107" r:id="rId47"/>
   </sheets>
   <definedNames>
     <definedName name="base_year">Dashboard!$E$12</definedName>
@@ -120,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="876">
   <si>
     <t>Changelog</t>
   </si>
@@ -1025,9 +1024,6 @@
     <t>households_useful_demand_for_hot_water_for_houses_with_add_on</t>
   </si>
   <si>
-    <t>households_useful_demand_for_space_heating_after_insulation_for_houses_with_add_on</t>
-  </si>
-  <si>
     <t>households_water_heater_solar_thermal</t>
   </si>
   <si>
@@ -1601,9 +1597,6 @@
     <t>residences_final_demand_for_space_heating_electricity_parent_share</t>
   </si>
   <si>
-    <t>residences_space_heater_heatpump_add_on_electricity_parent_share</t>
-  </si>
-  <si>
     <t>residences_final_demand_for_hot_water_network_gas_parent_share</t>
   </si>
   <si>
@@ -2225,12 +2218,6 @@
     <t>households_useful_demand_for_space_heating_after_insulation_and_solar_heater_and_add_on</t>
   </si>
   <si>
-    <t>residences_useful_demand_for_hot_water_for_houses_with_add_on_child_share</t>
-  </si>
-  <si>
-    <t>households_useful_demand_for_hot_water_after_solar_heater_and_add_on</t>
-  </si>
-  <si>
     <t>Added child shares for the converters that recreive energy from solar thermal and electric add on converters</t>
   </si>
   <si>
@@ -2244,9 +2231,6 @@
   </si>
   <si>
     <t>Heater characterization (solar thermal, el. add-on)</t>
-  </si>
-  <si>
-    <t>residences_useful_demand_for_hot_water_after_solar_heater_and_add_on_parent_share</t>
   </si>
   <si>
     <t>csv_hot_water_from_el_add_on</t>
@@ -2772,6 +2756,21 @@
   </si>
   <si>
     <t>Percentage of useful heat in space heating delivered by electric heater add on (if household is equipped)</t>
+  </si>
+  <si>
+    <t>residences_useful_demand_for_hot_water_after_solar_heater_and_p2h_parent_share</t>
+  </si>
+  <si>
+    <t>households_useful_demand_for_hot_water_for_houses_with_p2h</t>
+  </si>
+  <si>
+    <t>residences_useful_demand_for_hot_water_for_houses_with_p2h_child_share</t>
+  </si>
+  <si>
+    <t>households_flexibility_p2h_electricity</t>
+  </si>
+  <si>
+    <t>households_useful_demand_for_hot_water_after_solar_heater_and_p2h</t>
   </si>
 </sst>
 </file>
@@ -4014,7 +4013,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2284">
+  <cellStyleXfs count="2294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6301,8 +6300,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="660">
+  <cellXfs count="661">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -7398,6 +7407,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -7438,7 +7448,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2284">
+  <cellStyles count="2294">
     <cellStyle name="Calculation" xfId="1524" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -8810,6 +8820,11 @@
     <cellStyle name="Followed Hyperlink" xfId="2279" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2281" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2283" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2285" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2287" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2293" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -9715,6 +9730,11 @@
     <cellStyle name="Hyperlink" xfId="2278" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2280" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2282" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2284" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2286" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2288" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2290" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2292" builtinId="8" hidden="1"/>
     <cellStyle name="Input cel" xfId="712"/>
     <cellStyle name="Linked Cell" xfId="818" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13309,7 +13329,7 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="146" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C6" s="147">
         <f>Dashboard!E11</f>
@@ -13319,7 +13339,7 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="146" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C7" s="148">
         <f>Dashboard!E12</f>
@@ -13404,7 +13424,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="22" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>217</v>
@@ -13475,7 +13495,7 @@
     <row r="30" spans="2:4" ht="60">
       <c r="B30" s="20"/>
       <c r="C30" s="470" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="D30" s="7"/>
     </row>
@@ -13570,7 +13590,7 @@
   <sheetData>
     <row r="2" spans="2:6" ht="20">
       <c r="B2" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -13583,24 +13603,24 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="647" t="s">
-        <v>403</v>
-      </c>
-      <c r="C5" s="657"/>
-      <c r="D5" s="657"/>
-      <c r="E5" s="648"/>
+      <c r="B5" s="648" t="s">
+        <v>402</v>
+      </c>
+      <c r="C5" s="658"/>
+      <c r="D5" s="658"/>
+      <c r="E5" s="649"/>
       <c r="F5" s="157"/>
     </row>
     <row r="6" spans="2:6" ht="16" thickBot="1"/>
     <row r="7" spans="2:6" ht="30">
       <c r="B7" s="154" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C7" s="485" t="s">
         <v>285</v>
       </c>
       <c r="D7" s="130" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E7" s="131" t="s">
         <v>283</v>
@@ -13633,7 +13653,7 @@
     <row r="10" spans="2:6">
       <c r="B10" s="176"/>
       <c r="C10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D10" s="346" t="e">
         <f>SUM('Final demand per energy carrier'!H30:H41)</f>
@@ -13677,7 +13697,7 @@
     <row r="14" spans="2:6">
       <c r="B14" s="176"/>
       <c r="C14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D14" s="346" t="e">
         <f>SUM('Final demand per energy carrier'!I30:I41)</f>
@@ -13696,7 +13716,7 @@
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="174" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C16" s="342"/>
       <c r="D16" s="348"/>
@@ -13721,7 +13741,7 @@
     <row r="18" spans="2:6">
       <c r="B18" s="176"/>
       <c r="C18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D18" s="346" t="e">
         <f>SUM('Final demand per energy carrier'!E30:E41)</f>
@@ -13771,7 +13791,7 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="174" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C22" s="342"/>
       <c r="D22" s="348"/>
@@ -13796,7 +13816,7 @@
     <row r="24" spans="2:6">
       <c r="B24" s="176"/>
       <c r="C24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D24" s="346" t="e">
         <f>SUM('Final demand per energy carrier'!J30:J41)</f>
@@ -13857,7 +13877,7 @@
     <row r="29" spans="2:6">
       <c r="B29" s="176"/>
       <c r="C29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D29" s="346" t="e">
         <f>SUM('Final demand per energy carrier'!F30:F41)</f>
@@ -13902,7 +13922,7 @@
     <row r="32" spans="2:6">
       <c r="B32" s="176"/>
       <c r="C32" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="D32" s="346">
         <f>SUM('Final demand per energy carrier'!F65:F72)</f>
@@ -13937,7 +13957,7 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="482" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C35" s="342"/>
       <c r="D35" s="348"/>
@@ -13962,7 +13982,7 @@
     <row r="37" spans="2:6">
       <c r="B37" s="176"/>
       <c r="C37" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D37" s="346" t="e">
         <f>SUM('Final demand per energy carrier'!K30:K41)</f>
@@ -14022,7 +14042,7 @@
   <sheetData>
     <row r="2" spans="2:7" ht="20">
       <c r="B2" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -14037,13 +14057,13 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:7" ht="33" customHeight="1">
-      <c r="B5" s="647" t="s">
-        <v>565</v>
-      </c>
-      <c r="C5" s="657"/>
-      <c r="D5" s="657"/>
-      <c r="E5" s="657"/>
-      <c r="F5" s="648"/>
+      <c r="B5" s="648" t="s">
+        <v>563</v>
+      </c>
+      <c r="C5" s="658"/>
+      <c r="D5" s="658"/>
+      <c r="E5" s="658"/>
+      <c r="F5" s="649"/>
       <c r="G5" s="158"/>
     </row>
     <row r="6" spans="2:7" ht="16" thickBot="1"/>
@@ -14052,14 +14072,14 @@
         <v>285</v>
       </c>
       <c r="C7" s="159" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D7" s="132"/>
       <c r="E7" s="130" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F7" s="131" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -14075,7 +14095,7 @@
     <row r="9" spans="2:7">
       <c r="B9" s="176"/>
       <c r="C9" s="59" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D9" s="17" t="str">
         <f>technical_specs!C19</f>
@@ -14213,7 +14233,7 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="176" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C18" s="194"/>
       <c r="D18" s="8"/>
@@ -14224,7 +14244,7 @@
     <row r="19" spans="2:7">
       <c r="B19" s="38"/>
       <c r="C19" s="59" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D19" s="17" t="str">
         <f>technical_specs!C26</f>
@@ -14362,7 +14382,7 @@
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="176" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C28" s="194"/>
       <c r="D28" s="8"/>
@@ -14621,7 +14641,7 @@
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="176" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C48" s="194"/>
       <c r="D48" s="8"/>
@@ -14811,7 +14831,7 @@
   <sheetData>
     <row r="2" spans="1:10" ht="20">
       <c r="B2" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14823,10 +14843,10 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="647" t="s">
-        <v>731</v>
-      </c>
-      <c r="C5" s="657"/>
+      <c r="B5" s="648" t="s">
+        <v>726</v>
+      </c>
+      <c r="C5" s="658"/>
       <c r="D5" s="20"/>
       <c r="E5" s="8"/>
     </row>
@@ -14845,7 +14865,7 @@
     <row r="7" spans="1:10">
       <c r="A7" s="164"/>
       <c r="B7" s="165" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C7" s="166"/>
       <c r="D7" s="167"/>
@@ -14885,10 +14905,10 @@
       <c r="B10" s="172"/>
       <c r="C10" s="173"/>
       <c r="D10" s="173" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="E10" s="557" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="F10" s="158"/>
       <c r="G10" s="158"/>
@@ -14899,7 +14919,7 @@
     <row r="11" spans="1:10">
       <c r="A11" s="164"/>
       <c r="B11" s="562" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="C11" s="106"/>
       <c r="D11" s="274">
@@ -14923,7 +14943,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="31" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C13" s="59"/>
       <c r="D13" s="559">
@@ -14947,7 +14967,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="31" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="559" t="e">
@@ -14970,7 +14990,7 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="31" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="559" t="e">
@@ -14994,7 +15014,7 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="31" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="298" t="e">
@@ -15192,14 +15212,14 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="2:13" ht="30" customHeight="1">
-      <c r="B5" s="647" t="s">
+      <c r="B5" s="648" t="s">
         <v>284</v>
       </c>
-      <c r="C5" s="657"/>
-      <c r="D5" s="657"/>
-      <c r="E5" s="657"/>
-      <c r="F5" s="657"/>
-      <c r="G5" s="648"/>
+      <c r="C5" s="658"/>
+      <c r="D5" s="658"/>
+      <c r="E5" s="658"/>
+      <c r="F5" s="658"/>
+      <c r="G5" s="649"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -15251,28 +15271,28 @@
         <v>98</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="F9" s="65" t="s">
+        <v>435</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>738</v>
+      </c>
+      <c r="H9" s="65" t="s">
         <v>436</v>
       </c>
-      <c r="G9" s="65" t="s">
-        <v>743</v>
-      </c>
-      <c r="H9" s="65" t="s">
+      <c r="I9" s="65" t="s">
         <v>437</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="J9" s="65" t="s">
         <v>438</v>
       </c>
-      <c r="J9" s="65" t="s">
-        <v>439</v>
-      </c>
       <c r="K9" s="113" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -16316,7 +16336,7 @@
     </row>
     <row r="64" spans="2:13">
       <c r="B64" s="49" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C64" s="155"/>
       <c r="D64" s="155"/>
@@ -16332,7 +16352,7 @@
     <row r="65" spans="2:13">
       <c r="B65" s="73"/>
       <c r="C65" s="397" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D65" s="179">
         <f>Dashboard!E81</f>
@@ -16354,7 +16374,7 @@
     <row r="66" spans="2:13">
       <c r="B66" s="73"/>
       <c r="C66" s="397" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D66" s="179">
         <f>Dashboard!E82</f>
@@ -16376,7 +16396,7 @@
     <row r="67" spans="2:13">
       <c r="B67" s="73"/>
       <c r="C67" s="397" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D67" s="179">
         <f>Dashboard!E83</f>
@@ -16398,7 +16418,7 @@
     <row r="68" spans="2:13">
       <c r="B68" s="73"/>
       <c r="C68" s="397" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D68" s="179">
         <f>Dashboard!E84</f>
@@ -16420,7 +16440,7 @@
     <row r="69" spans="2:13">
       <c r="B69" s="73"/>
       <c r="C69" s="397" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D69" s="308">
         <f>Dashboard!E85</f>
@@ -16442,7 +16462,7 @@
     <row r="70" spans="2:13">
       <c r="B70" s="73"/>
       <c r="C70" s="397" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D70" s="179">
         <f>Dashboard!E86</f>
@@ -16464,7 +16484,7 @@
     <row r="71" spans="2:13">
       <c r="B71" s="73"/>
       <c r="C71" s="397" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D71" s="179">
         <f>Dashboard!E87</f>
@@ -16486,7 +16506,7 @@
     <row r="72" spans="2:13">
       <c r="B72" s="73"/>
       <c r="C72" s="238" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D72" s="276">
         <f>Dashboard!E88</f>
@@ -16533,12 +16553,12 @@
     </row>
     <row r="75" spans="2:13">
       <c r="B75" s="306" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C75" s="53"/>
       <c r="D75" s="53"/>
       <c r="E75" s="517" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F75" s="302" t="s">
         <v>106</v>
@@ -16553,17 +16573,17 @@
         <v>208</v>
       </c>
       <c r="J75" s="302" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K75" s="303" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L75" s="31"/>
     </row>
     <row r="76" spans="2:13">
       <c r="B76" s="36"/>
       <c r="C76" s="508" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D76" s="509"/>
       <c r="E76" s="507" t="e">
@@ -16599,7 +16619,7 @@
     <row r="77" spans="2:13">
       <c r="B77" s="36"/>
       <c r="C77" s="511" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D77" s="510"/>
       <c r="E77" s="507" t="e">
@@ -16635,7 +16655,7 @@
     <row r="78" spans="2:13">
       <c r="B78" s="36"/>
       <c r="C78" s="512" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="D78" s="513"/>
       <c r="E78" s="514" t="e">
@@ -16740,7 +16760,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="20">
       <c r="B2" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -16753,18 +16773,18 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="2:9" s="141" customFormat="1" ht="75" customHeight="1">
-      <c r="B5" s="647" t="s">
+      <c r="B5" s="648" t="s">
         <v>229</v>
       </c>
-      <c r="C5" s="657"/>
-      <c r="D5" s="657"/>
-      <c r="E5" s="648"/>
+      <c r="C5" s="658"/>
+      <c r="D5" s="658"/>
+      <c r="E5" s="649"/>
       <c r="F5" s="157"/>
     </row>
     <row r="6" spans="2:9" ht="16" thickBot="1"/>
     <row r="7" spans="2:9">
       <c r="B7" s="28" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="29"/>
@@ -16792,13 +16812,13 @@
         <v>183</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F9" s="82" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G9" s="82" t="s">
         <v>193</v>
@@ -17157,7 +17177,7 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="49" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="187"/>
@@ -17846,7 +17866,7 @@
     </row>
     <row r="55" spans="2:9">
       <c r="B55" s="38" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -17859,7 +17879,7 @@
     <row r="56" spans="2:9">
       <c r="B56" s="31"/>
       <c r="C56" s="184" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D56" s="184"/>
       <c r="E56" s="184"/>
@@ -17874,7 +17894,7 @@
     <row r="57" spans="2:9">
       <c r="B57" s="31"/>
       <c r="C57" s="184" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D57" s="184"/>
       <c r="E57" s="184"/>
@@ -17889,7 +17909,7 @@
     <row r="58" spans="2:9">
       <c r="B58" s="31"/>
       <c r="C58" s="184" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D58" s="184"/>
       <c r="E58" s="184"/>
@@ -17904,7 +17924,7 @@
     <row r="59" spans="2:9">
       <c r="B59" s="31"/>
       <c r="C59" s="184" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D59" s="184"/>
       <c r="E59" s="184"/>
@@ -17919,7 +17939,7 @@
     <row r="60" spans="2:9">
       <c r="B60" s="31"/>
       <c r="C60" s="184" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D60" s="184"/>
       <c r="E60" s="184"/>
@@ -17934,7 +17954,7 @@
     <row r="61" spans="2:9">
       <c r="B61" s="31"/>
       <c r="C61" s="184" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D61" s="184"/>
       <c r="E61" s="184"/>
@@ -17949,7 +17969,7 @@
     <row r="62" spans="2:9">
       <c r="B62" s="31"/>
       <c r="C62" s="184" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D62" s="184"/>
       <c r="E62" s="184"/>
@@ -17964,7 +17984,7 @@
     <row r="63" spans="2:9">
       <c r="B63" s="31"/>
       <c r="C63" s="184" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D63" s="184"/>
       <c r="E63" s="184"/>
@@ -18021,7 +18041,7 @@
   <sheetData>
     <row r="2" spans="1:7" ht="20">
       <c r="B2" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -18031,10 +18051,10 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="46" customHeight="1">
-      <c r="B5" s="647" t="s">
-        <v>590</v>
-      </c>
-      <c r="C5" s="648"/>
+      <c r="B5" s="648" t="s">
+        <v>588</v>
+      </c>
+      <c r="C5" s="649"/>
     </row>
     <row r="6" spans="1:7" ht="16" thickBot="1">
       <c r="A6" s="164"/>
@@ -18046,7 +18066,7 @@
     <row r="7" spans="1:7">
       <c r="A7" s="164"/>
       <c r="B7" s="165" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C7" s="166"/>
       <c r="D7" s="167"/>
@@ -18078,13 +18098,13 @@
         <v>Electrical efficiency</v>
       </c>
       <c r="E9" s="68" t="s">
+        <v>524</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>525</v>
+      </c>
+      <c r="G9" s="214" t="s">
         <v>526</v>
-      </c>
-      <c r="F9" s="68" t="s">
-        <v>527</v>
-      </c>
-      <c r="G9" s="214" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -18306,14 +18326,14 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:13" ht="45" customHeight="1">
-      <c r="B5" s="647" t="s">
+      <c r="B5" s="648" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="657"/>
-      <c r="D5" s="657"/>
-      <c r="E5" s="657"/>
-      <c r="F5" s="657"/>
-      <c r="G5" s="648"/>
+      <c r="C5" s="658"/>
+      <c r="D5" s="658"/>
+      <c r="E5" s="658"/>
+      <c r="F5" s="658"/>
+      <c r="G5" s="649"/>
     </row>
     <row r="6" spans="2:13" ht="16" thickBot="1"/>
     <row r="7" spans="2:13">
@@ -18358,7 +18378,7 @@
         <v>208</v>
       </c>
       <c r="F9" s="65" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G9" s="65" t="s">
         <v>105</v>
@@ -18373,10 +18393,10 @@
         <v>107</v>
       </c>
       <c r="K9" s="475" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="L9" s="113" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -18440,35 +18460,35 @@
     </row>
     <row r="12" spans="2:13" s="371" customFormat="1" ht="27" customHeight="1">
       <c r="B12" s="152" t="s">
+        <v>375</v>
+      </c>
+      <c r="C12" s="372" t="s">
+        <v>379</v>
+      </c>
+      <c r="D12" s="372" t="s">
         <v>376</v>
       </c>
-      <c r="C12" s="372" t="s">
+      <c r="E12" s="372" t="s">
         <v>380</v>
       </c>
-      <c r="D12" s="372" t="s">
+      <c r="F12" s="372" t="s">
+        <v>381</v>
+      </c>
+      <c r="G12" s="372" t="s">
+        <v>378</v>
+      </c>
+      <c r="H12" s="372" t="s">
+        <v>382</v>
+      </c>
+      <c r="I12" s="541" t="s">
         <v>377</v>
       </c>
-      <c r="E12" s="372" t="s">
-        <v>381</v>
-      </c>
-      <c r="F12" s="372" t="s">
-        <v>382</v>
-      </c>
-      <c r="G12" s="372" t="s">
-        <v>379</v>
-      </c>
-      <c r="H12" s="372" t="s">
+      <c r="J12" s="372" t="s">
         <v>383</v>
-      </c>
-      <c r="I12" s="541" t="s">
-        <v>378</v>
-      </c>
-      <c r="J12" s="372" t="s">
-        <v>384</v>
       </c>
       <c r="K12" s="478"/>
       <c r="L12" s="472" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M12" s="370"/>
     </row>
@@ -18487,13 +18507,13 @@
     </row>
     <row r="16" spans="2:13">
       <c r="K16" s="365" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L16" s="366"/>
     </row>
     <row r="17" spans="2:12">
       <c r="K17" s="367" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="L17" s="368"/>
     </row>
@@ -18513,13 +18533,13 @@
     </row>
     <row r="20" spans="2:12">
       <c r="K20" s="367" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="L20" s="368"/>
     </row>
     <row r="21" spans="2:12">
       <c r="K21" s="367" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L21" s="368"/>
     </row>
@@ -18529,7 +18549,7 @@
     </row>
     <row r="23" spans="2:12">
       <c r="K23" s="369" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L23" s="393">
         <f>K11-Final_demand_residences</f>
@@ -18539,10 +18559,10 @@
     <row r="24" spans="2:12" ht="78" customHeight="1">
       <c r="B24" s="467"/>
       <c r="C24" s="467"/>
-      <c r="K24" s="658" t="s">
-        <v>816</v>
-      </c>
-      <c r="L24" s="659"/>
+      <c r="K24" s="659" t="s">
+        <v>811</v>
+      </c>
+      <c r="L24" s="660"/>
     </row>
     <row r="25" spans="2:12">
       <c r="B25" s="467"/>
@@ -18615,7 +18635,7 @@
   <sheetData>
     <row r="2" spans="1:13" ht="20">
       <c r="B2" s="2" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -18626,11 +18646,11 @@
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:13" ht="38" customHeight="1">
-      <c r="B5" s="647" t="s">
-        <v>535</v>
-      </c>
-      <c r="C5" s="657"/>
-      <c r="D5" s="648"/>
+      <c r="B5" s="648" t="s">
+        <v>533</v>
+      </c>
+      <c r="C5" s="658"/>
+      <c r="D5" s="649"/>
     </row>
     <row r="6" spans="1:13" ht="16" thickBot="1">
       <c r="A6" s="164"/>
@@ -18645,7 +18665,7 @@
     <row r="7" spans="1:13">
       <c r="A7" s="164"/>
       <c r="B7" s="165" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C7" s="166"/>
       <c r="D7" s="167"/>
@@ -18671,19 +18691,19 @@
         <v>183</v>
       </c>
       <c r="D9" s="218" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E9" s="218" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F9" s="218" t="s">
         <v>215</v>
       </c>
       <c r="G9" s="218" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H9" s="219" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -19094,7 +19114,7 @@
     <row r="25" spans="1:13">
       <c r="A25" s="164"/>
       <c r="B25" s="170" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C25" s="173"/>
       <c r="D25" s="245"/>
@@ -20125,15 +20145,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -20187,15 +20207,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -20282,7 +20302,7 @@
         <v>41484</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D7" s="27">
         <v>1</v>
@@ -20293,7 +20313,7 @@
         <v>41485</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D8" s="27">
         <v>1.01</v>
@@ -20302,7 +20322,7 @@
     <row r="9" spans="2:4">
       <c r="B9" s="19"/>
       <c r="C9" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D9" s="27"/>
     </row>
@@ -20311,14 +20331,14 @@
         <v>41486</v>
       </c>
       <c r="C10" s="71" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D10" s="27"/>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="116"/>
       <c r="C11" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D11" s="27"/>
     </row>
@@ -20327,7 +20347,7 @@
         <v>41490</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D12" s="27">
         <v>2</v>
@@ -20336,21 +20356,21 @@
     <row r="13" spans="2:4">
       <c r="B13" s="19"/>
       <c r="C13" s="17" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D13" s="27"/>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="19"/>
       <c r="C14" s="17" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D14" s="27"/>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="19"/>
       <c r="C15" s="40" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D15" s="27"/>
     </row>
@@ -20359,7 +20379,7 @@
         <v>41491</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D16" s="27">
         <v>2.0099999999999998</v>
@@ -20370,7 +20390,7 @@
         <v>41492</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D17" s="27">
         <v>2.02</v>
@@ -20381,7 +20401,7 @@
         <v>41494</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D18" s="27">
         <v>2.02</v>
@@ -20392,7 +20412,7 @@
         <v>41495</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D19" s="27">
         <v>2.0299999999999998</v>
@@ -20403,7 +20423,7 @@
         <v>41500</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D20" s="27">
         <v>2.04</v>
@@ -20414,7 +20434,7 @@
         <v>41505</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="D21" s="27">
         <v>2.0499999999999998</v>
@@ -20425,10 +20445,10 @@
         <v>41507</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="30">
@@ -20436,7 +20456,7 @@
         <v>41507</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D23" s="27">
         <v>2.06</v>
@@ -20447,7 +20467,7 @@
         <v>41512</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D24" s="27">
         <v>2.0699999999999998</v>
@@ -20458,7 +20478,7 @@
         <v>41534</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="D25" s="27">
         <v>2.08</v>
@@ -20469,7 +20489,7 @@
         <v>41535</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="D26" s="27">
         <v>2.09</v>
@@ -20480,7 +20500,7 @@
         <v>41535</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="D27" s="27">
         <v>2.1</v>
@@ -20491,7 +20511,7 @@
         <v>41561</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="D28" s="18">
         <v>2.11</v>
@@ -20502,7 +20522,7 @@
         <v>41562</v>
       </c>
       <c r="C29" s="625" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="D29" s="18">
         <v>2.12</v>
@@ -20513,7 +20533,7 @@
         <v>41578</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="D30" s="18">
         <v>2.13</v>
@@ -20524,7 +20544,7 @@
         <v>41618</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="D31" s="18">
         <v>2.14</v>
@@ -20532,10 +20552,10 @@
     </row>
     <row r="32" spans="2:4" ht="30">
       <c r="B32" s="408" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="D32" s="18">
         <v>2.15</v>
@@ -20543,10 +20563,10 @@
     </row>
     <row r="33" spans="2:4" ht="30">
       <c r="B33" s="408" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="D33" s="18">
         <v>2.16</v>
@@ -20554,10 +20574,10 @@
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="408" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="D34" s="18">
         <v>2.17</v>
@@ -20603,20 +20623,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B3" s="191" t="e">
         <f>'Application Shares'!E20</f>
@@ -20689,20 +20709,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B3" s="191" t="e">
         <f>'Application Shares'!E23</f>
@@ -20711,7 +20731,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B4" s="191" t="e">
         <f>'Application Shares'!E24</f>
@@ -20720,7 +20740,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B5" s="191" t="e">
         <f>'Application Shares'!E25</f>
@@ -20757,15 +20777,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -20852,15 +20872,15 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -20914,15 +20934,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -20982,15 +21002,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -21050,15 +21070,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -21110,52 +21130,71 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet27" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet28" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="76.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B1" s="466" t="s">
-        <v>724</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B3" s="191">
-        <v>0</v>
+        <v>259</v>
+      </c>
+      <c r="B3" s="191" t="e">
+        <f>'Technology Shares'!F19</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="C3" s="143"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B4" s="191">
-        <v>1</v>
+        <v>260</v>
+      </c>
+      <c r="B4" s="191" t="e">
+        <f>'Technology Shares'!F20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C4" s="143"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="191" t="e">
+        <f>'Technology Shares'!F21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C5" s="143"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="191" t="e">
+        <f>'Technology Shares'!F22</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -21170,86 +21209,6 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet28" enableFormatConditionsCalculation="0">
-    <tabColor theme="7" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="64.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B3" s="191" t="e">
-        <f>'Technology Shares'!F19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C3" s="143"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B4" s="191" t="e">
-        <f>'Technology Shares'!F20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C4" s="143"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B5" s="191" t="e">
-        <f>'Technology Shares'!F21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C5" s="143"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B6" s="191" t="e">
-        <f>'Technology Shares'!F22</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet29" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -21268,15 +21227,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="142" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="142" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -21303,6 +21262,74 @@
       </c>
       <c r="B5" s="191" t="e">
         <f>'Technology Shares'!F26</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet30" enableFormatConditionsCalculation="0">
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="75.5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="191" t="e">
+        <f>'Technology Shares'!F38</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" s="191" t="e">
+        <f>'Technology Shares'!F39</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" s="191" t="e">
+        <f>'Technology Shares'!F40</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -21369,10 +21396,10 @@
     </row>
     <row r="8" spans="2:3" ht="28" customHeight="1">
       <c r="B8" s="486" t="s">
+        <v>471</v>
+      </c>
+      <c r="C8" s="489" t="s">
         <v>472</v>
-      </c>
-      <c r="C8" s="489" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="28" customHeight="1">
@@ -21388,7 +21415,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="488" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="28" customHeight="1">
@@ -21409,7 +21436,7 @@
     </row>
     <row r="13" spans="2:3" ht="28" customHeight="1">
       <c r="B13" s="490" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C13" s="488" t="s">
         <v>225</v>
@@ -21433,26 +21460,26 @@
     </row>
     <row r="16" spans="2:3" ht="28" customHeight="1">
       <c r="B16" s="495" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C16" s="496" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="28" customHeight="1">
       <c r="B17" s="495" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C17" s="496" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="28" customHeight="1">
       <c r="B18" s="495" t="s">
+        <v>479</v>
+      </c>
+      <c r="C18" s="496" t="s">
         <v>480</v>
-      </c>
-      <c r="C18" s="496" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="28" customHeight="1">
@@ -21460,12 +21487,12 @@
         <v>184</v>
       </c>
       <c r="C19" s="488" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="28" customHeight="1">
       <c r="B20" s="493" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C20" s="488" t="s">
         <v>223</v>
@@ -21473,10 +21500,10 @@
     </row>
     <row r="21" spans="2:3" ht="28" customHeight="1">
       <c r="B21" s="492" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C21" s="496" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="28" customHeight="1">
@@ -21484,12 +21511,12 @@
         <v>213</v>
       </c>
       <c r="C22" s="488" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="28" customHeight="1">
       <c r="B23" s="494" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="C23" s="488" t="s">
         <v>224</v>
@@ -21497,259 +21524,259 @@
     </row>
     <row r="24" spans="2:3" ht="28" customHeight="1">
       <c r="B24" s="497" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C24" s="488" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="28" customHeight="1">
       <c r="B25" s="497" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C25" s="488" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="28" customHeight="1">
       <c r="B26" s="497" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C26" s="488" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="28" customHeight="1">
       <c r="B27" s="497" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C27" s="488" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="28" customHeight="1">
       <c r="B28" s="497" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C28" s="488" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="28" customHeight="1">
       <c r="B29" s="497" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C29" s="488" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="28" customHeight="1">
       <c r="B30" s="497" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C30" s="488" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="28" customHeight="1">
       <c r="B31" s="497" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C31" s="488" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="28" customHeight="1">
       <c r="B32" s="497" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C32" s="488" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="28" customHeight="1">
       <c r="B33" s="497" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C33" s="488" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="28" customHeight="1">
       <c r="B34" s="497" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C34" s="488" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="28" customHeight="1">
       <c r="B35" s="497" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C35" s="488" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="28" customHeight="1">
       <c r="B36" s="497" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C36" s="488" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="28" customHeight="1">
       <c r="B37" s="497" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C37" s="488" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="28" customHeight="1">
       <c r="B38" s="497" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C38" s="488" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="28" customHeight="1">
       <c r="B39" s="497" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C39" s="488" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="28" customHeight="1">
       <c r="B40" s="497" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C40" s="488" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="28" customHeight="1">
       <c r="B41" s="497" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C41" s="488" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="28" customHeight="1">
       <c r="B42" s="497" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C42" s="488" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="28" customHeight="1">
       <c r="B43" s="497" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C43" s="488" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="28" customHeight="1">
       <c r="B44" s="497" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C44" s="488" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="28" customHeight="1">
       <c r="B45" s="497" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C45" s="488" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="28" customHeight="1">
       <c r="B46" s="497" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C46" s="488" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="28" customHeight="1">
       <c r="B47" s="497" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C47" s="488" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="28" customHeight="1">
       <c r="B48" s="497" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C48" s="488" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="28" customHeight="1">
       <c r="B49" s="497" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C49" s="488" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="28" customHeight="1">
       <c r="B50" s="497" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C50" s="488" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="28" customHeight="1">
       <c r="B51" s="497" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C51" s="488" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="28" customHeight="1">
       <c r="B52" s="497" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C52" s="488" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="28" customHeight="1">
       <c r="B53" s="497" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C53" s="498" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="2:4" ht="28" customHeight="1">
       <c r="B54" s="497" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C54" s="488" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="28" customHeight="1">
       <c r="B55" s="497" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C55" s="488" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -21764,74 +21791,6 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet30" enableFormatConditionsCalculation="0">
-    <tabColor theme="7" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="75.5" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B3" s="191" t="e">
-        <f>'Technology Shares'!F38</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B4" s="191" t="e">
-        <f>'Technology Shares'!F39</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B5" s="191" t="e">
-        <f>'Technology Shares'!F40</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -21850,15 +21809,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="142" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -21899,7 +21858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -21921,15 +21880,15 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -22023,7 +21982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet33" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -22042,20 +22001,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B3" s="191" t="e">
         <f>'Technology Shares'!F29</f>
@@ -22064,7 +22023,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B4" s="191" t="e">
         <f>'Technology Shares'!F30</f>
@@ -22082,7 +22041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet34" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -22101,15 +22060,15 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -22143,7 +22102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet35" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -22162,15 +22121,15 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -22204,7 +22163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet36" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -22223,15 +22182,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -22244,7 +22203,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B4" s="191">
         <v>0</v>
@@ -22261,7 +22220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet37" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -22280,15 +22239,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -22301,7 +22260,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B4" s="191">
         <v>0</v>
@@ -22318,7 +22277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet38" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -22337,15 +22296,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -22358,7 +22317,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B4" s="209">
         <v>0</v>
@@ -22375,7 +22334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet39" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -22394,15 +22353,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -22415,10 +22374,69 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B4" s="209">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet40" enableFormatConditionsCalculation="0">
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="55.5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B3" s="191" t="e">
+        <f>'Electricity producer Shares'!G11</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="191" t="e">
+        <f>'Electricity producer Shares'!F11</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -22463,7 +22481,7 @@
     </row>
     <row r="6" spans="2:2" ht="90">
       <c r="B6" s="87" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -22479,32 +22497,32 @@
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="102" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="102" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="102" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="102" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="102" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="102" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="16" spans="2:2">
@@ -22520,7 +22538,7 @@
     </row>
     <row r="20" spans="2:2" ht="90">
       <c r="B20" s="86" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -22535,65 +22553,6 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet40" enableFormatConditionsCalculation="0">
-    <tabColor theme="7" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="55.5" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>514</v>
-      </c>
-      <c r="B3" s="191" t="e">
-        <f>'Electricity producer Shares'!G11</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="191" t="e">
-        <f>'Electricity producer Shares'!F11</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet41" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -22612,20 +22571,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B3" s="191" t="e">
         <f>'Electricity producer Shares'!G12</f>
@@ -22652,7 +22611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet42" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -22671,20 +22630,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B3" s="191" t="e">
         <f>'Electricity producer Shares'!G13</f>
@@ -22711,7 +22670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet43" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -22730,20 +22689,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" s="191">
         <f>Dashboard!E93</f>
@@ -22752,7 +22711,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B4" s="191">
         <f>1-B3</f>
@@ -22770,7 +22729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet44" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -22789,20 +22748,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" s="191">
         <f>Dashboard!E94</f>
@@ -22811,7 +22770,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B4" s="191">
         <f>1-B3</f>
@@ -22829,7 +22788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet45" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -22848,15 +22807,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -22870,10 +22829,68 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B4" s="191">
         <f>1-B3</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet46" enableFormatConditionsCalculation="0">
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="72.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B1" s="466" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>872</v>
+      </c>
+      <c r="B3" s="647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>695</v>
+      </c>
+      <c r="B4" s="191">
         <v>1</v>
       </c>
     </row>
@@ -22890,50 +22907,48 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet46" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet47" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="68.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>701</v>
+    <row r="1" spans="1:3">
+      <c r="A1" s="452" t="s">
+        <v>873</v>
       </c>
       <c r="B1" s="466" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B3" s="191">
+        <v>874</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="143"/>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>702</v>
-      </c>
-      <c r="B4" s="191">
+        <v>875</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
     </row>
@@ -22949,64 +22964,6 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet47" enableFormatConditionsCalculation="0">
-    <tabColor theme="7" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="82" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="452" t="s">
-        <v>708</v>
-      </c>
-      <c r="B1" s="466" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>697</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="143"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -23022,15 +22979,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -23477,7 +23434,7 @@
     </row>
     <row r="54" spans="96:96">
       <c r="CR54" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -23499,7 +23456,9 @@
   </sheetPr>
   <dimension ref="B2:F185"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -23523,10 +23482,10 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="2:4" ht="79" customHeight="1">
-      <c r="B5" s="647" t="s">
+      <c r="B5" s="648" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="648"/>
+      <c r="C5" s="649"/>
     </row>
     <row r="6" spans="2:4" ht="16" thickBot="1"/>
     <row r="7" spans="2:4">
@@ -23562,7 +23521,7 @@
     <row r="11" spans="2:4" ht="30">
       <c r="B11" s="31"/>
       <c r="C11" s="40" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D11" s="41"/>
     </row>
@@ -23591,7 +23550,7 @@
     <row r="16" spans="2:4" ht="15" customHeight="1">
       <c r="B16" s="39"/>
       <c r="C16" s="74" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D16" s="41"/>
     </row>
@@ -23603,10 +23562,10 @@
     <row r="18" spans="2:4" ht="16" customHeight="1">
       <c r="B18" s="39"/>
       <c r="C18" s="74" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="14" customHeight="1">
@@ -23617,44 +23576,44 @@
     <row r="20" spans="2:4" ht="47" customHeight="1">
       <c r="B20" s="39"/>
       <c r="C20" s="74" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D20" s="41"/>
     </row>
     <row r="21" spans="2:4" ht="14" customHeight="1">
       <c r="B21" s="39"/>
       <c r="C21" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="14" customHeight="1">
       <c r="B22" s="39"/>
       <c r="C22" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="14" customHeight="1">
       <c r="B23" s="39"/>
       <c r="C23" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="14" customHeight="1">
       <c r="B24" s="39"/>
       <c r="C24" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="14" customHeight="1">
@@ -23665,7 +23624,7 @@
     <row r="26" spans="2:4" ht="75">
       <c r="B26" s="39"/>
       <c r="C26" s="40" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="D26" s="41"/>
     </row>
@@ -23677,10 +23636,10 @@
     <row r="28" spans="2:4" ht="14" customHeight="1">
       <c r="B28" s="39"/>
       <c r="C28" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="14" customHeight="1">
@@ -23691,10 +23650,10 @@
     <row r="30" spans="2:4" ht="14" customHeight="1">
       <c r="B30" s="39"/>
       <c r="C30" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="14" customHeight="1">
@@ -23707,21 +23666,21 @@
     <row r="32" spans="2:4" ht="14" customHeight="1">
       <c r="B32" s="39"/>
       <c r="C32" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="D32" s="41"/>
     </row>
     <row r="33" spans="2:4" ht="14" customHeight="1">
       <c r="B33" s="39"/>
       <c r="C33" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="D33" s="41"/>
     </row>
     <row r="34" spans="2:4" ht="14" customHeight="1">
       <c r="B34" s="39"/>
       <c r="C34" s="17" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D34" s="41"/>
     </row>
@@ -23779,7 +23738,7 @@
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="38" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="37"/>
@@ -23790,7 +23749,7 @@
         <v>87</v>
       </c>
       <c r="D45" s="197" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="46" spans="2:4">
@@ -23799,7 +23758,7 @@
         <v>280</v>
       </c>
       <c r="D46" s="197" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="47" spans="2:4">
@@ -23808,7 +23767,7 @@
         <v>90</v>
       </c>
       <c r="D47" s="197" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48" spans="2:4">
@@ -23817,7 +23776,7 @@
         <v>88</v>
       </c>
       <c r="D48" s="197" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="49" spans="2:6">
@@ -23826,7 +23785,7 @@
         <v>281</v>
       </c>
       <c r="D49" s="197" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="50" spans="2:6">
@@ -23835,7 +23794,7 @@
         <v>210</v>
       </c>
       <c r="D50" s="197" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="51" spans="2:6">
@@ -23856,7 +23815,7 @@
         <v>286</v>
       </c>
       <c r="D53" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F53" s="8"/>
     </row>
@@ -23866,7 +23825,7 @@
         <v>91</v>
       </c>
       <c r="D54" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F54" s="8"/>
     </row>
@@ -23876,7 +23835,7 @@
         <v>287</v>
       </c>
       <c r="D55" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F55" s="8"/>
     </row>
@@ -23886,7 +23845,7 @@
         <v>288</v>
       </c>
       <c r="D56" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F56" s="8"/>
     </row>
@@ -23896,17 +23855,17 @@
         <v>289</v>
       </c>
       <c r="D57" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F57" s="8"/>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="73"/>
       <c r="C58" s="71" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D58" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F58" s="8"/>
     </row>
@@ -23916,17 +23875,17 @@
         <v>290</v>
       </c>
       <c r="D59" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F59" s="8"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="73"/>
       <c r="C60" s="71" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D60" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F60" s="8"/>
     </row>
@@ -23936,7 +23895,7 @@
         <v>297</v>
       </c>
       <c r="D61" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F61" s="8"/>
     </row>
@@ -23946,7 +23905,7 @@
         <v>298</v>
       </c>
       <c r="D62" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F62" s="8"/>
     </row>
@@ -23956,17 +23915,17 @@
         <v>299</v>
       </c>
       <c r="D63" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F63" s="8"/>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="73"/>
       <c r="C64" s="71" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D64" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F64" s="8"/>
     </row>
@@ -23987,120 +23946,120 @@
     <row r="67" spans="2:6">
       <c r="B67" s="73"/>
       <c r="C67" s="71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D67" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F67" s="8"/>
     </row>
     <row r="68" spans="2:6">
       <c r="B68" s="73"/>
       <c r="C68" s="71" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D68" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F68" s="8"/>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" s="73"/>
       <c r="C69" s="71" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D69" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F69" s="8"/>
     </row>
     <row r="70" spans="2:6">
       <c r="B70" s="73"/>
       <c r="C70" s="71" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D70" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F70" s="8"/>
     </row>
     <row r="71" spans="2:6">
       <c r="B71" s="73"/>
       <c r="C71" s="71" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D71" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F71" s="8"/>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" s="73"/>
       <c r="C72" s="71" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D72" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F72" s="8"/>
     </row>
     <row r="73" spans="2:6">
       <c r="B73" s="73"/>
       <c r="C73" s="71" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D73" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F73" s="8"/>
     </row>
     <row r="74" spans="2:6">
       <c r="B74" s="73"/>
       <c r="C74" s="71" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D74" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F74" s="8"/>
     </row>
     <row r="75" spans="2:6">
       <c r="B75" s="73"/>
       <c r="C75" s="71" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D75" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F75" s="8"/>
     </row>
     <row r="76" spans="2:6">
       <c r="B76" s="73"/>
       <c r="C76" s="71" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D76" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F76" s="8"/>
     </row>
     <row r="77" spans="2:6">
       <c r="B77" s="73"/>
       <c r="C77" s="71" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D77" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F77" s="8"/>
     </row>
     <row r="78" spans="2:6">
       <c r="B78" s="73"/>
       <c r="C78" s="71" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D78" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F78" s="8"/>
     </row>
@@ -24124,17 +24083,17 @@
         <v>185</v>
       </c>
       <c r="D81" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F81" s="8"/>
     </row>
     <row r="82" spans="2:6">
       <c r="B82" s="73"/>
       <c r="C82" s="71" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D82" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F82" s="8"/>
     </row>
@@ -24144,7 +24103,7 @@
         <v>186</v>
       </c>
       <c r="D83" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F83" s="8"/>
     </row>
@@ -24165,20 +24124,20 @@
     <row r="86" spans="2:6">
       <c r="B86" s="38"/>
       <c r="C86" s="71" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D86" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F86" s="8"/>
     </row>
     <row r="87" spans="2:6">
       <c r="B87" s="73"/>
       <c r="C87" s="71" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D87" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F87" s="8"/>
     </row>
@@ -24188,7 +24147,7 @@
         <v>92</v>
       </c>
       <c r="D88" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F88" s="8"/>
     </row>
@@ -24212,7 +24171,7 @@
         <v>94</v>
       </c>
       <c r="D91" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F91" s="8"/>
     </row>
@@ -24233,50 +24192,50 @@
     <row r="94" spans="2:6">
       <c r="B94" s="73"/>
       <c r="C94" s="71" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D94" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F94" s="8"/>
     </row>
     <row r="95" spans="2:6">
       <c r="B95" s="73"/>
       <c r="C95" s="71" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D95" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F95" s="8"/>
     </row>
     <row r="96" spans="2:6">
       <c r="B96" s="73"/>
       <c r="C96" s="71" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D96" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F96" s="8"/>
     </row>
     <row r="97" spans="2:6">
       <c r="B97" s="73"/>
       <c r="C97" s="71" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D97" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F97" s="8"/>
     </row>
     <row r="98" spans="2:6">
       <c r="B98" s="73"/>
       <c r="C98" s="71" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D98" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F98" s="8"/>
     </row>
@@ -24288,7 +24247,7 @@
     </row>
     <row r="100" spans="2:6">
       <c r="B100" s="48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C100" s="203"/>
       <c r="D100" s="204"/>
@@ -24297,80 +24256,80 @@
     <row r="101" spans="2:6">
       <c r="B101" s="73"/>
       <c r="C101" s="71" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D101" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F101" s="8"/>
     </row>
     <row r="102" spans="2:6">
       <c r="B102" s="73"/>
       <c r="C102" s="71" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D102" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F102" s="8"/>
     </row>
     <row r="103" spans="2:6">
       <c r="B103" s="73"/>
       <c r="C103" s="71" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D103" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F103" s="8"/>
     </row>
     <row r="104" spans="2:6">
       <c r="B104" s="73"/>
       <c r="C104" s="71" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D104" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F104" s="8"/>
     </row>
     <row r="105" spans="2:6">
       <c r="B105" s="73"/>
       <c r="C105" s="71" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D105" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F105" s="8"/>
     </row>
     <row r="106" spans="2:6">
       <c r="B106" s="73"/>
       <c r="C106" s="71" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D106" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F106" s="8"/>
     </row>
     <row r="107" spans="2:6">
       <c r="B107" s="73"/>
       <c r="C107" s="71" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D107" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F107" s="8"/>
     </row>
     <row r="108" spans="2:6">
       <c r="B108" s="73"/>
       <c r="C108" s="71" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D108" s="202" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F108" s="8"/>
     </row>
@@ -24388,7 +24347,7 @@
     </row>
     <row r="111" spans="2:6">
       <c r="B111" s="38" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C111" s="194"/>
       <c r="D111" s="446"/>
@@ -24397,7 +24356,7 @@
     <row r="112" spans="2:6">
       <c r="B112" s="38"/>
       <c r="C112" s="397" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D112" s="447"/>
       <c r="F112" s="8"/>
@@ -24405,7 +24364,7 @@
     <row r="113" spans="2:6">
       <c r="B113" s="38"/>
       <c r="C113" s="397" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D113" s="447"/>
       <c r="F113" s="8"/>
@@ -24419,7 +24378,7 @@
     <row r="115" spans="2:6">
       <c r="B115" s="38"/>
       <c r="C115" s="397" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D115" s="447"/>
       <c r="F115" s="8"/>
@@ -24438,7 +24397,7 @@
     </row>
     <row r="118" spans="2:6">
       <c r="B118" s="38" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C118" s="72"/>
       <c r="D118" s="446"/>
@@ -24447,20 +24406,20 @@
     <row r="119" spans="2:6">
       <c r="B119" s="38"/>
       <c r="C119" s="397" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D119" s="451" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F119" s="8"/>
     </row>
     <row r="120" spans="2:6">
       <c r="B120" s="38"/>
       <c r="C120" s="397" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D120" s="451" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F120" s="8"/>
     </row>
@@ -24473,20 +24432,20 @@
     <row r="122" spans="2:6">
       <c r="B122" s="38"/>
       <c r="C122" s="397" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D122" s="451" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F122" s="8"/>
     </row>
     <row r="123" spans="2:6">
       <c r="B123" s="38"/>
       <c r="C123" s="397" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D123" s="451" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F123" s="8"/>
     </row>
@@ -24499,20 +24458,20 @@
     <row r="125" spans="2:6">
       <c r="B125" s="38"/>
       <c r="C125" s="397" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D125" s="451" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F125" s="8"/>
     </row>
     <row r="126" spans="2:6">
       <c r="B126" s="38"/>
       <c r="C126" s="397" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D126" s="451" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F126" s="8"/>
     </row>
@@ -24635,7 +24594,7 @@
     </row>
     <row r="146" spans="2:3">
       <c r="B146" s="38" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C146" s="43" t="s">
         <v>207</v>
@@ -24851,7 +24810,7 @@
     </row>
     <row r="182" spans="2:3">
       <c r="B182" s="49" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="C182" s="43" t="s">
         <v>104</v>
@@ -24890,7 +24849,7 @@
   </sheetPr>
   <dimension ref="B2:P116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -24918,7 +24877,7 @@
         <v>27</v>
       </c>
       <c r="I2" s="454" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="4"/>
@@ -24945,12 +24904,12 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="2:16" ht="45" customHeight="1">
-      <c r="B5" s="649" t="s">
+      <c r="B5" s="650" t="s">
         <v>227</v>
       </c>
-      <c r="C5" s="650"/>
-      <c r="D5" s="650"/>
-      <c r="E5" s="651"/>
+      <c r="C5" s="651"/>
+      <c r="D5" s="651"/>
+      <c r="E5" s="652"/>
       <c r="F5" s="410"/>
       <c r="I5" s="457"/>
       <c r="J5" s="10"/>
@@ -25011,7 +24970,7 @@
       </c>
       <c r="F9" s="564"/>
       <c r="G9" s="564" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="H9" s="564"/>
       <c r="I9" s="564" t="s">
@@ -25029,10 +24988,10 @@
       </c>
       <c r="N9" s="15"/>
       <c r="O9" s="464" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="P9" s="465" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="10" spans="2:16">
@@ -25048,7 +25007,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="566" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="L10" s="627" t="b">
         <f>IF(COUNTIF(P:P,0)+COUNTIF(P:P,FALSE)=0,TRUE,FALSE)</f>
@@ -25062,13 +25021,13 @@
     <row r="11" spans="2:16">
       <c r="B11" s="36"/>
       <c r="C11" s="71" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D11" s="436"/>
       <c r="E11" s="71"/>
       <c r="F11" s="194"/>
       <c r="G11" s="23" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -25078,20 +25037,20 @@
       <c r="M11" s="355"/>
       <c r="N11" s="438"/>
       <c r="O11" s="456" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="P11" s="458"/>
     </row>
     <row r="12" spans="2:16">
       <c r="B12" s="36"/>
       <c r="C12" s="71" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D12" s="436"/>
       <c r="E12" s="71"/>
       <c r="F12" s="194"/>
       <c r="G12" s="23" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
@@ -25106,7 +25065,7 @@
       <c r="M12" s="355"/>
       <c r="N12" s="438"/>
       <c r="O12" s="456" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="P12" s="458">
         <f>IF(L12=TRUE,1,0)</f>
@@ -25186,7 +25145,7 @@
     <row r="17" spans="2:16" ht="15" customHeight="1">
       <c r="B17" s="31"/>
       <c r="C17" s="71" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D17" s="436" t="s">
         <v>214</v>
@@ -25199,11 +25158,11 @@
       <c r="G17" s="427"/>
       <c r="H17" s="419"/>
       <c r="I17" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J17" s="8"/>
-      <c r="K17" s="652" t="s">
-        <v>819</v>
+      <c r="K17" s="653" t="s">
+        <v>814</v>
       </c>
       <c r="L17" s="356"/>
       <c r="M17" s="357"/>
@@ -25221,7 +25180,7 @@
       <c r="H18" s="414"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="653"/>
+      <c r="K18" s="654"/>
       <c r="L18" s="420"/>
       <c r="M18" s="357"/>
       <c r="N18" s="75"/>
@@ -25231,7 +25190,7 @@
     <row r="19" spans="2:16" ht="16" customHeight="1" thickBot="1">
       <c r="B19" s="38"/>
       <c r="C19" s="630" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="D19" s="398"/>
       <c r="E19" s="270"/>
@@ -25267,7 +25226,7 @@
       <c r="E20" s="394"/>
       <c r="F20" s="411"/>
       <c r="G20" s="427" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H20" s="419"/>
       <c r="I20" s="421"/>
@@ -25284,14 +25243,14 @@
       </c>
       <c r="N20" s="75"/>
       <c r="O20" s="456" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="P20" s="458"/>
     </row>
     <row r="21" spans="2:16" ht="16" thickBot="1">
       <c r="B21" s="38"/>
       <c r="C21" s="629" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D21" s="399" t="s">
         <v>214</v>
@@ -25299,7 +25258,7 @@
       <c r="E21" s="394"/>
       <c r="F21" s="411"/>
       <c r="G21" s="427" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H21" s="419"/>
       <c r="I21" s="421"/>
@@ -25316,7 +25275,7 @@
       </c>
       <c r="N21" s="75"/>
       <c r="O21" s="456" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="P21" s="458"/>
     </row>
@@ -25331,7 +25290,7 @@
       <c r="E22" s="394"/>
       <c r="F22" s="411"/>
       <c r="G22" s="427" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H22" s="419"/>
       <c r="I22" s="421"/>
@@ -25348,7 +25307,7 @@
       </c>
       <c r="N22" s="75"/>
       <c r="O22" s="456" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="P22" s="458"/>
     </row>
@@ -25363,7 +25322,7 @@
       <c r="E23" s="394"/>
       <c r="F23" s="411"/>
       <c r="G23" s="427" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H23" s="419"/>
       <c r="I23" s="421"/>
@@ -25380,7 +25339,7 @@
       </c>
       <c r="N23" s="75"/>
       <c r="O23" s="456" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="P23" s="458"/>
     </row>
@@ -25395,7 +25354,7 @@
       <c r="E24" s="394"/>
       <c r="F24" s="411"/>
       <c r="G24" s="427" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H24" s="419"/>
       <c r="I24" s="421"/>
@@ -25412,14 +25371,14 @@
       </c>
       <c r="N24" s="75"/>
       <c r="O24" s="456" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="P24" s="458"/>
     </row>
     <row r="25" spans="2:16" ht="16" thickBot="1">
       <c r="B25" s="38"/>
       <c r="C25" s="629" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D25" s="399" t="s">
         <v>214</v>
@@ -25427,7 +25386,7 @@
       <c r="E25" s="394"/>
       <c r="F25" s="411"/>
       <c r="G25" s="427" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H25" s="419"/>
       <c r="I25" s="421"/>
@@ -25444,7 +25403,7 @@
       </c>
       <c r="N25" s="75"/>
       <c r="O25" s="456" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="P25" s="458"/>
     </row>
@@ -25468,7 +25427,7 @@
     <row r="27" spans="2:16">
       <c r="B27" s="38"/>
       <c r="C27" s="194" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="D27" s="398" t="s">
         <v>214</v>
@@ -25483,7 +25442,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="356" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L27" s="644" t="e">
         <f>IF(ABS(E27)/E17&lt;0.05,TRUE,E27/E17)</f>
@@ -25547,7 +25506,7 @@
     <row r="30" spans="2:16" ht="16" customHeight="1" thickBot="1">
       <c r="B30" s="38"/>
       <c r="C30" s="630" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="D30" s="398"/>
       <c r="E30" s="257"/>
@@ -25566,7 +25525,7 @@
     <row r="31" spans="2:16" ht="16" thickBot="1">
       <c r="B31" s="38"/>
       <c r="C31" s="629" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="D31" s="401"/>
       <c r="E31" s="395"/>
@@ -25580,14 +25539,14 @@
       <c r="M31" s="364"/>
       <c r="N31" s="440"/>
       <c r="O31" s="456" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="P31" s="458"/>
     </row>
     <row r="32" spans="2:16" ht="16" thickBot="1">
       <c r="B32" s="38"/>
       <c r="C32" s="629" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="D32" s="401"/>
       <c r="E32" s="395"/>
@@ -25601,14 +25560,14 @@
       <c r="M32" s="364"/>
       <c r="N32" s="440"/>
       <c r="O32" s="456" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="P32" s="458"/>
     </row>
     <row r="33" spans="2:16" ht="16" thickBot="1">
       <c r="B33" s="38"/>
       <c r="C33" s="629" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="D33" s="401"/>
       <c r="E33" s="395"/>
@@ -25622,14 +25581,14 @@
       <c r="M33" s="364"/>
       <c r="N33" s="440"/>
       <c r="O33" s="456" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="P33" s="458"/>
     </row>
     <row r="34" spans="2:16" ht="16" thickBot="1">
       <c r="B34" s="38"/>
       <c r="C34" s="629" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="D34" s="401"/>
       <c r="E34" s="395"/>
@@ -25643,14 +25602,14 @@
       <c r="M34" s="623"/>
       <c r="N34" s="440"/>
       <c r="O34" s="456" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="P34" s="458"/>
     </row>
     <row r="35" spans="2:16" ht="16" thickBot="1">
       <c r="B35" s="38"/>
       <c r="C35" s="629" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="D35" s="401"/>
       <c r="E35" s="395"/>
@@ -25664,14 +25623,14 @@
       <c r="M35" s="357"/>
       <c r="N35" s="75"/>
       <c r="O35" s="456" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="P35" s="458"/>
     </row>
     <row r="36" spans="2:16" ht="16" thickBot="1">
       <c r="B36" s="38"/>
       <c r="C36" s="629" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="D36" s="401"/>
       <c r="E36" s="395"/>
@@ -25685,14 +25644,14 @@
       <c r="M36" s="357"/>
       <c r="N36" s="75"/>
       <c r="O36" s="456" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="P36" s="458"/>
     </row>
     <row r="37" spans="2:16" ht="16" thickBot="1">
       <c r="B37" s="38"/>
       <c r="C37" s="629" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="D37" s="401"/>
       <c r="E37" s="395"/>
@@ -25706,14 +25665,14 @@
       <c r="M37" s="357"/>
       <c r="N37" s="75"/>
       <c r="O37" s="456" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="P37" s="458"/>
     </row>
     <row r="38" spans="2:16" ht="16" thickBot="1">
       <c r="B38" s="38"/>
       <c r="C38" s="629" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="D38" s="401"/>
       <c r="E38" s="395"/>
@@ -25727,14 +25686,14 @@
       <c r="M38" s="357"/>
       <c r="N38" s="75"/>
       <c r="O38" s="461" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="P38" s="458"/>
     </row>
     <row r="39" spans="2:16" ht="16" thickBot="1">
       <c r="B39" s="38"/>
       <c r="C39" s="629" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="D39" s="401"/>
       <c r="E39" s="395"/>
@@ -25744,20 +25703,20 @@
       <c r="I39" s="421"/>
       <c r="J39" s="8"/>
       <c r="K39" s="356" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L39" s="359"/>
       <c r="M39" s="357"/>
       <c r="N39" s="75"/>
       <c r="O39" s="461" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="P39" s="458"/>
     </row>
     <row r="40" spans="2:16" ht="16" thickBot="1">
       <c r="B40" s="38"/>
       <c r="C40" s="629" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="D40" s="401"/>
       <c r="E40" s="395"/>
@@ -25767,25 +25726,25 @@
       <c r="I40" s="421"/>
       <c r="J40" s="8"/>
       <c r="K40" s="356" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L40" s="638" t="e">
         <f>'Technology Shares'!F30</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M40" s="357" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="N40" s="75"/>
       <c r="O40" s="461" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="P40" s="458"/>
     </row>
     <row r="41" spans="2:16" ht="16" thickBot="1">
       <c r="B41" s="38"/>
       <c r="C41" s="629" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="D41" s="401"/>
       <c r="E41" s="395"/>
@@ -25795,7 +25754,7 @@
       <c r="I41" s="421"/>
       <c r="J41" s="8"/>
       <c r="K41" s="356" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L41" s="638" t="e">
         <f>'Technology Shares'!F29</f>
@@ -25803,14 +25762,14 @@
       </c>
       <c r="M41" s="364"/>
       <c r="O41" s="461" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="P41" s="458"/>
     </row>
     <row r="42" spans="2:16" ht="16" thickBot="1">
       <c r="B42" s="38"/>
       <c r="C42" s="629" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D42" s="401"/>
       <c r="E42" s="395"/>
@@ -25824,7 +25783,7 @@
       <c r="M42" s="357"/>
       <c r="N42" s="75"/>
       <c r="O42" s="461" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="P42" s="458"/>
     </row>
@@ -25847,7 +25806,7 @@
     </row>
     <row r="44" spans="2:16" ht="16" customHeight="1">
       <c r="B44" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C44" s="194"/>
       <c r="D44" s="398"/>
@@ -25878,7 +25837,7 @@
     <row r="45" spans="2:16" ht="16" customHeight="1" thickBot="1">
       <c r="B45" s="38"/>
       <c r="C45" s="630" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="D45" s="398"/>
       <c r="E45" s="261"/>
@@ -25897,7 +25856,7 @@
     <row r="46" spans="2:16" ht="16" thickBot="1">
       <c r="B46" s="38"/>
       <c r="C46" s="629" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="D46" s="401"/>
       <c r="E46" s="395"/>
@@ -25911,14 +25870,14 @@
       <c r="M46" s="357"/>
       <c r="N46" s="440"/>
       <c r="O46" s="456" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="P46" s="458"/>
     </row>
     <row r="47" spans="2:16" ht="16" thickBot="1">
       <c r="B47" s="38"/>
       <c r="C47" s="629" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="D47" s="401"/>
       <c r="E47" s="395"/>
@@ -25932,14 +25891,14 @@
       <c r="M47" s="32"/>
       <c r="N47" s="440"/>
       <c r="O47" s="456" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="P47" s="458"/>
     </row>
     <row r="48" spans="2:16" ht="16" thickBot="1">
       <c r="B48" s="38"/>
       <c r="C48" s="629" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="D48" s="401"/>
       <c r="E48" s="395"/>
@@ -25953,14 +25912,14 @@
       <c r="M48" s="32"/>
       <c r="N48" s="440"/>
       <c r="O48" s="456" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="P48" s="458"/>
     </row>
     <row r="49" spans="2:16" ht="16" thickBot="1">
       <c r="B49" s="38"/>
       <c r="C49" s="629" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="D49" s="401"/>
       <c r="E49" s="395"/>
@@ -25974,14 +25933,14 @@
       <c r="M49" s="32"/>
       <c r="N49" s="440"/>
       <c r="O49" s="456" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="P49" s="458"/>
     </row>
     <row r="50" spans="2:16" ht="16" thickBot="1">
       <c r="B50" s="38"/>
       <c r="C50" s="629" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="D50" s="401"/>
       <c r="E50" s="395"/>
@@ -25995,14 +25954,14 @@
       <c r="M50" s="32"/>
       <c r="N50" s="75"/>
       <c r="O50" s="456" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="P50" s="458"/>
     </row>
     <row r="51" spans="2:16" ht="16" thickBot="1">
       <c r="B51" s="38"/>
       <c r="C51" s="629" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="D51" s="401"/>
       <c r="E51" s="395"/>
@@ -26016,14 +25975,14 @@
       <c r="M51" s="32"/>
       <c r="N51" s="75"/>
       <c r="O51" s="456" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="P51" s="458"/>
     </row>
     <row r="52" spans="2:16" ht="16" thickBot="1">
       <c r="B52" s="38"/>
       <c r="C52" s="629" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="D52" s="401"/>
       <c r="E52" s="395"/>
@@ -26037,14 +25996,14 @@
       <c r="M52" s="357"/>
       <c r="N52" s="75"/>
       <c r="O52" s="456" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="P52" s="458"/>
     </row>
     <row r="53" spans="2:16" ht="16" thickBot="1">
       <c r="B53" s="38"/>
       <c r="C53" s="629" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="D53" s="401"/>
       <c r="E53" s="395"/>
@@ -26058,14 +26017,14 @@
       <c r="M53" s="357"/>
       <c r="N53" s="75"/>
       <c r="O53" s="461" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="P53" s="458"/>
     </row>
     <row r="54" spans="2:16" ht="16" thickBot="1">
       <c r="B54" s="38"/>
       <c r="C54" s="629" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="D54" s="401"/>
       <c r="E54" s="395"/>
@@ -26079,14 +26038,14 @@
       <c r="M54" s="357"/>
       <c r="N54" s="75"/>
       <c r="O54" s="461" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="P54" s="458"/>
     </row>
     <row r="55" spans="2:16" ht="16" thickBot="1">
       <c r="B55" s="38"/>
       <c r="C55" s="629" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="D55" s="401"/>
       <c r="E55" s="395"/>
@@ -26100,14 +26059,14 @@
       <c r="M55" s="357"/>
       <c r="N55" s="75"/>
       <c r="O55" s="461" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="P55" s="458"/>
     </row>
     <row r="56" spans="2:16" ht="16" thickBot="1">
       <c r="B56" s="38"/>
       <c r="C56" s="629" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="D56" s="401"/>
       <c r="E56" s="395"/>
@@ -26121,14 +26080,14 @@
       <c r="M56" s="357"/>
       <c r="N56" s="75"/>
       <c r="O56" s="461" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="P56" s="458"/>
     </row>
     <row r="57" spans="2:16" ht="16" thickBot="1">
       <c r="B57" s="38"/>
       <c r="C57" s="629" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D57" s="401"/>
       <c r="E57" s="395"/>
@@ -26142,7 +26101,7 @@
       <c r="M57" s="357"/>
       <c r="N57" s="75"/>
       <c r="O57" s="461" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="P57" s="458"/>
     </row>
@@ -26196,7 +26155,7 @@
     <row r="60" spans="2:16" ht="16" thickBot="1">
       <c r="B60" s="38"/>
       <c r="C60" s="630" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D60" s="402"/>
       <c r="E60" s="639"/>
@@ -26215,7 +26174,7 @@
     <row r="61" spans="2:16" ht="16" thickBot="1">
       <c r="B61" s="38"/>
       <c r="C61" s="629" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="D61" s="403"/>
       <c r="E61" s="396"/>
@@ -26229,14 +26188,14 @@
       <c r="M61" s="357"/>
       <c r="N61" s="75"/>
       <c r="O61" s="461" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="P61" s="458"/>
     </row>
     <row r="62" spans="2:16" ht="16" thickBot="1">
       <c r="B62" s="38"/>
       <c r="C62" s="629" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="D62" s="403"/>
       <c r="E62" s="396"/>
@@ -26250,14 +26209,14 @@
       <c r="M62" s="357"/>
       <c r="N62" s="75"/>
       <c r="O62" s="461" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="P62" s="458"/>
     </row>
     <row r="63" spans="2:16" ht="16" thickBot="1">
       <c r="B63" s="38"/>
       <c r="C63" s="629" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="D63" s="404"/>
       <c r="E63" s="396"/>
@@ -26271,7 +26230,7 @@
       <c r="M63" s="357"/>
       <c r="N63" s="75"/>
       <c r="O63" s="463" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="P63" s="458"/>
     </row>
@@ -26325,7 +26284,7 @@
     <row r="66" spans="2:16" ht="16" thickBot="1">
       <c r="B66" s="38"/>
       <c r="C66" s="630" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="D66" s="398"/>
       <c r="E66" s="639"/>
@@ -26344,7 +26303,7 @@
     <row r="67" spans="2:16" ht="16" thickBot="1">
       <c r="B67" s="38"/>
       <c r="C67" s="629" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="D67" s="403"/>
       <c r="E67" s="396"/>
@@ -26358,14 +26317,14 @@
       <c r="M67" s="357"/>
       <c r="N67" s="75"/>
       <c r="O67" s="461" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="P67" s="458"/>
     </row>
     <row r="68" spans="2:16" ht="16" thickBot="1">
       <c r="B68" s="38"/>
       <c r="C68" s="629" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D68" s="403"/>
       <c r="E68" s="396"/>
@@ -26379,7 +26338,7 @@
       <c r="M68" s="357"/>
       <c r="N68" s="75"/>
       <c r="O68" s="461" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="P68" s="458"/>
     </row>
@@ -26400,7 +26359,7 @@
       <c r="M69" s="357"/>
       <c r="N69" s="75"/>
       <c r="O69" s="463" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="P69" s="458"/>
     </row>
@@ -26454,7 +26413,7 @@
     <row r="72" spans="2:16" ht="16" thickBot="1">
       <c r="B72" s="38"/>
       <c r="C72" s="630" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="D72" s="398"/>
       <c r="E72" s="639"/>
@@ -26473,7 +26432,7 @@
     <row r="73" spans="2:16" ht="16" thickBot="1">
       <c r="B73" s="38"/>
       <c r="C73" s="629" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="D73" s="403"/>
       <c r="E73" s="396"/>
@@ -26487,14 +26446,14 @@
       <c r="M73" s="357"/>
       <c r="N73" s="75"/>
       <c r="O73" s="461" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="P73" s="458"/>
     </row>
     <row r="74" spans="2:16" ht="16" thickBot="1">
       <c r="B74" s="38"/>
       <c r="C74" s="629" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="D74" s="403"/>
       <c r="E74" s="396"/>
@@ -26508,14 +26467,14 @@
       <c r="M74" s="357"/>
       <c r="N74" s="75"/>
       <c r="O74" s="461" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="P74" s="458"/>
     </row>
     <row r="75" spans="2:16" ht="16" thickBot="1">
       <c r="B75" s="38"/>
       <c r="C75" s="629" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="D75" s="403"/>
       <c r="E75" s="396"/>
@@ -26529,14 +26488,14 @@
       <c r="M75" s="357"/>
       <c r="N75" s="75"/>
       <c r="O75" s="463" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="P75" s="458"/>
     </row>
     <row r="76" spans="2:16" ht="16" thickBot="1">
       <c r="B76" s="38"/>
       <c r="C76" s="629" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D76" s="403"/>
       <c r="E76" s="396"/>
@@ -26550,14 +26509,14 @@
       <c r="M76" s="357"/>
       <c r="N76" s="75"/>
       <c r="O76" s="463" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="P76" s="458"/>
     </row>
     <row r="77" spans="2:16" ht="16" thickBot="1">
       <c r="B77" s="38"/>
       <c r="C77" s="629" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="D77" s="403"/>
       <c r="E77" s="396"/>
@@ -26571,7 +26530,7 @@
       <c r="M77" s="357"/>
       <c r="N77" s="75"/>
       <c r="O77" s="463" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="P77" s="458"/>
     </row>
@@ -26594,7 +26553,7 @@
     </row>
     <row r="79" spans="2:16">
       <c r="B79" s="38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C79" s="194"/>
       <c r="D79" s="398"/>
@@ -26625,7 +26584,7 @@
     <row r="80" spans="2:16" ht="16" thickBot="1">
       <c r="B80" s="38"/>
       <c r="C80" s="630" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="D80" s="398"/>
       <c r="E80" s="639"/>
@@ -26644,7 +26603,7 @@
     <row r="81" spans="2:16" ht="16" thickBot="1">
       <c r="B81" s="38"/>
       <c r="C81" s="629" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D81" s="403"/>
       <c r="E81" s="396"/>
@@ -26658,14 +26617,14 @@
       <c r="M81" s="357"/>
       <c r="N81" s="75"/>
       <c r="O81" s="463" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="P81" s="458"/>
     </row>
     <row r="82" spans="2:16" ht="16" thickBot="1">
       <c r="B82" s="38"/>
       <c r="C82" s="629" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D82" s="403"/>
       <c r="E82" s="396"/>
@@ -26679,14 +26638,14 @@
       <c r="M82" s="357"/>
       <c r="N82" s="75"/>
       <c r="O82" s="461" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="P82" s="458"/>
     </row>
     <row r="83" spans="2:16" ht="16" thickBot="1">
       <c r="B83" s="38"/>
       <c r="C83" s="629" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D83" s="403"/>
       <c r="E83" s="396"/>
@@ -26700,14 +26659,14 @@
       <c r="M83" s="357"/>
       <c r="N83" s="75"/>
       <c r="O83" s="461" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="P83" s="458"/>
     </row>
     <row r="84" spans="2:16" ht="16" thickBot="1">
       <c r="B84" s="38"/>
       <c r="C84" s="629" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D84" s="403"/>
       <c r="E84" s="396"/>
@@ -26721,14 +26680,14 @@
       <c r="M84" s="357"/>
       <c r="N84" s="75"/>
       <c r="O84" s="461" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="P84" s="458"/>
     </row>
     <row r="85" spans="2:16" ht="16" thickBot="1">
       <c r="B85" s="38"/>
       <c r="C85" s="629" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D85" s="403"/>
       <c r="E85" s="396"/>
@@ -26742,14 +26701,14 @@
       <c r="M85" s="357"/>
       <c r="N85" s="75"/>
       <c r="O85" s="461" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="P85" s="458"/>
     </row>
     <row r="86" spans="2:16" ht="16" thickBot="1">
       <c r="B86" s="38"/>
       <c r="C86" s="629" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D86" s="403"/>
       <c r="E86" s="396"/>
@@ -26763,14 +26722,14 @@
       <c r="M86" s="357"/>
       <c r="N86" s="75"/>
       <c r="O86" s="461" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="P86" s="458"/>
     </row>
     <row r="87" spans="2:16" ht="16" thickBot="1">
       <c r="B87" s="38"/>
       <c r="C87" s="629" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D87" s="403"/>
       <c r="E87" s="396"/>
@@ -26784,14 +26743,14 @@
       <c r="M87" s="357"/>
       <c r="N87" s="75"/>
       <c r="O87" s="461" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="P87" s="458"/>
     </row>
     <row r="88" spans="2:16" ht="16" thickBot="1">
       <c r="B88" s="38"/>
       <c r="C88" s="629" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D88" s="403"/>
       <c r="E88" s="396"/>
@@ -26805,7 +26764,7 @@
       <c r="M88" s="357"/>
       <c r="N88" s="75"/>
       <c r="O88" s="461" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="P88" s="458"/>
     </row>
@@ -26862,7 +26821,7 @@
     </row>
     <row r="92" spans="2:16" ht="16" thickBot="1">
       <c r="B92" s="38" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C92" s="194"/>
       <c r="D92" s="398"/>
@@ -26882,7 +26841,7 @@
     <row r="93" spans="2:16" ht="16" thickBot="1">
       <c r="B93" s="38"/>
       <c r="C93" s="71" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="D93" s="403"/>
       <c r="E93" s="396"/>
@@ -26896,14 +26855,14 @@
       <c r="M93" s="357"/>
       <c r="N93" s="75"/>
       <c r="O93" s="463" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="P93" s="458"/>
     </row>
     <row r="94" spans="2:16" ht="16" thickBot="1">
       <c r="B94" s="38"/>
       <c r="C94" s="71" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="D94" s="403"/>
       <c r="E94" s="396"/>
@@ -26917,7 +26876,7 @@
       <c r="M94" s="357"/>
       <c r="N94" s="75"/>
       <c r="O94" s="463" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="P94" s="458"/>
     </row>
@@ -26941,7 +26900,7 @@
     <row r="96" spans="2:16" ht="16" thickBot="1">
       <c r="B96" s="38"/>
       <c r="C96" s="71" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="D96" s="403"/>
       <c r="E96" s="396"/>
@@ -26955,7 +26914,7 @@
       <c r="M96" s="357"/>
       <c r="N96" s="75"/>
       <c r="O96" s="463" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="P96" s="458"/>
     </row>
@@ -26995,7 +26954,7 @@
     </row>
     <row r="99" spans="2:16" ht="16" thickBot="1">
       <c r="B99" s="48" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C99" s="203"/>
       <c r="D99" s="583"/>
@@ -27015,7 +26974,7 @@
     <row r="100" spans="2:16" ht="16" thickBot="1">
       <c r="B100" s="38"/>
       <c r="C100" s="71" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D100" s="403"/>
       <c r="E100" s="396"/>
@@ -27037,7 +26996,7 @@
       </c>
       <c r="N100" s="75"/>
       <c r="O100" s="461" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="P100" s="458">
         <f>IF(L100=TRUE,1,0)</f>
@@ -27047,7 +27006,7 @@
     <row r="101" spans="2:16" ht="16" thickBot="1">
       <c r="B101" s="38"/>
       <c r="C101" s="71" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="D101" s="403"/>
       <c r="E101" s="396"/>
@@ -27061,7 +27020,7 @@
       <c r="M101" s="357"/>
       <c r="N101" s="75"/>
       <c r="O101" s="461" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="P101" s="458"/>
     </row>
@@ -27084,10 +27043,10 @@
     <row r="103" spans="2:16" ht="17" thickBot="1">
       <c r="B103" s="73"/>
       <c r="C103" s="17" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D103" s="403" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E103" s="646"/>
       <c r="F103" s="413"/>
@@ -27099,17 +27058,17 @@
       <c r="L103" s="56"/>
       <c r="M103" s="32"/>
       <c r="O103" s="461" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="P103" s="7"/>
     </row>
     <row r="104" spans="2:16" ht="17" thickBot="1">
       <c r="B104" s="73"/>
       <c r="C104" s="17" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="D104" s="403" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E104" s="646"/>
       <c r="F104" s="413"/>
@@ -27121,7 +27080,7 @@
       <c r="L104" s="56"/>
       <c r="M104" s="32"/>
       <c r="O104" s="461" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="P104" s="7"/>
     </row>
@@ -27403,7 +27362,7 @@
   <sheetData>
     <row r="2" spans="2:67" ht="20">
       <c r="B2" s="2" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="3" spans="2:67" ht="15" customHeight="1">
@@ -27421,13 +27380,13 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1">
-      <c r="B5" s="654"/>
-      <c r="C5" s="655"/>
-      <c r="D5" s="655"/>
-      <c r="E5" s="655"/>
-      <c r="F5" s="655"/>
-      <c r="G5" s="655"/>
-      <c r="H5" s="656"/>
+      <c r="B5" s="655"/>
+      <c r="C5" s="656"/>
+      <c r="D5" s="656"/>
+      <c r="E5" s="656"/>
+      <c r="F5" s="656"/>
+      <c r="G5" s="656"/>
+      <c r="H5" s="657"/>
     </row>
     <row r="6" spans="2:67" ht="15" customHeight="1" thickBot="1">
       <c r="B6" s="2"/>
@@ -27473,22 +27432,22 @@
         <v>48</v>
       </c>
       <c r="O7" s="374" t="s">
+        <v>534</v>
+      </c>
+      <c r="P7" s="374" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q7" s="374" t="s">
         <v>536</v>
       </c>
-      <c r="P7" s="374" t="s">
+      <c r="R7" s="374" t="s">
         <v>537</v>
-      </c>
-      <c r="Q7" s="374" t="s">
-        <v>538</v>
-      </c>
-      <c r="R7" s="374" t="s">
-        <v>539</v>
       </c>
       <c r="S7" s="374" t="s">
         <v>43</v>
       </c>
       <c r="T7" s="374" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="U7" s="374" t="s">
         <v>50</v>
@@ -27560,13 +27519,13 @@
         <v>72</v>
       </c>
       <c r="AR7" s="374" t="s">
+        <v>539</v>
+      </c>
+      <c r="AS7" s="374" t="s">
+        <v>540</v>
+      </c>
+      <c r="AT7" s="374" t="s">
         <v>541</v>
-      </c>
-      <c r="AS7" s="374" t="s">
-        <v>542</v>
-      </c>
-      <c r="AT7" s="374" t="s">
-        <v>543</v>
       </c>
       <c r="AU7" s="374" t="s">
         <v>74</v>
@@ -27575,13 +27534,13 @@
         <v>73</v>
       </c>
       <c r="AW7" s="374" t="s">
+        <v>542</v>
+      </c>
+      <c r="AX7" s="374" t="s">
+        <v>543</v>
+      </c>
+      <c r="AY7" s="374" t="s">
         <v>544</v>
-      </c>
-      <c r="AX7" s="374" t="s">
-        <v>545</v>
-      </c>
-      <c r="AY7" s="374" t="s">
-        <v>546</v>
       </c>
       <c r="AZ7" s="374" t="s">
         <v>75</v>
@@ -27590,34 +27549,34 @@
         <v>104</v>
       </c>
       <c r="BB7" s="374" t="s">
+        <v>545</v>
+      </c>
+      <c r="BC7" s="374" t="s">
+        <v>546</v>
+      </c>
+      <c r="BD7" s="374" t="s">
         <v>547</v>
       </c>
-      <c r="BC7" s="374" t="s">
+      <c r="BE7" s="374" t="s">
         <v>548</v>
       </c>
-      <c r="BD7" s="374" t="s">
+      <c r="BF7" s="374" t="s">
         <v>549</v>
       </c>
-      <c r="BE7" s="374" t="s">
+      <c r="BG7" s="374" t="s">
         <v>550</v>
-      </c>
-      <c r="BF7" s="374" t="s">
-        <v>551</v>
-      </c>
-      <c r="BG7" s="374" t="s">
-        <v>552</v>
       </c>
       <c r="BH7" s="374" t="s">
         <v>105</v>
       </c>
       <c r="BI7" s="374" t="s">
+        <v>551</v>
+      </c>
+      <c r="BJ7" s="374" t="s">
+        <v>552</v>
+      </c>
+      <c r="BK7" s="374" t="s">
         <v>553</v>
-      </c>
-      <c r="BJ7" s="374" t="s">
-        <v>554</v>
-      </c>
-      <c r="BK7" s="374" t="s">
-        <v>555</v>
       </c>
       <c r="BL7" s="374" t="s">
         <v>106</v>
@@ -27629,7 +27588,7 @@
         <v>101</v>
       </c>
       <c r="BO7" s="376" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="2:67">
@@ -29034,7 +28993,7 @@
     </row>
     <row r="28" spans="2:67">
       <c r="B28" s="381" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -29104,7 +29063,7 @@
     </row>
     <row r="29" spans="2:67">
       <c r="B29" s="381" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -29174,7 +29133,7 @@
     </row>
     <row r="30" spans="2:67">
       <c r="B30" s="381" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -29244,7 +29203,7 @@
     </row>
     <row r="31" spans="2:67">
       <c r="B31" s="381" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -29314,7 +29273,7 @@
     </row>
     <row r="32" spans="2:67">
       <c r="B32" s="381" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -29384,7 +29343,7 @@
     </row>
     <row r="33" spans="2:67">
       <c r="B33" s="381" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -29524,7 +29483,7 @@
     </row>
     <row r="35" spans="2:67">
       <c r="B35" s="381" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -29594,7 +29553,7 @@
     </row>
     <row r="36" spans="2:67">
       <c r="B36" s="381" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -30084,7 +30043,7 @@
     </row>
     <row r="43" spans="2:67">
       <c r="B43" s="381" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -30154,7 +30113,7 @@
     </row>
     <row r="44" spans="2:67">
       <c r="B44" s="381" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
@@ -30294,7 +30253,7 @@
     </row>
     <row r="46" spans="2:67">
       <c r="B46" s="381" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
@@ -30364,7 +30323,7 @@
     </row>
     <row r="47" spans="2:67">
       <c r="B47" s="381" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -30434,7 +30393,7 @@
     </row>
     <row r="48" spans="2:67">
       <c r="B48" s="381" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -30504,7 +30463,7 @@
     </row>
     <row r="49" spans="2:67">
       <c r="B49" s="381" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
@@ -30574,7 +30533,7 @@
     </row>
     <row r="50" spans="2:67">
       <c r="B50" s="381" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
@@ -30714,7 +30673,7 @@
     </row>
     <row r="52" spans="2:67">
       <c r="B52" s="381" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
@@ -34284,7 +34243,7 @@
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="595" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="C5" s="596"/>
       <c r="D5" s="596"/>
@@ -34310,15 +34269,15 @@
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="574" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C7" s="575"/>
       <c r="D7" s="575"/>
       <c r="E7" s="608" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="F7" s="568" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="G7" s="567"/>
       <c r="H7" s="568"/>
@@ -34340,31 +34299,31 @@
         <v>233</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="I8" s="600" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="J8" s="605" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="K8" s="606" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="L8" s="606" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M8" s="607" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="N8" s="269" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1">
@@ -34373,16 +34332,16 @@
       <c r="D9" s="68"/>
       <c r="E9" s="609"/>
       <c r="F9" s="569" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="G9" s="569" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="H9" s="569" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="10"/>
@@ -34409,11 +34368,11 @@
     <row r="11" spans="2:14">
       <c r="B11" s="49"/>
       <c r="C11" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="19" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="F11" s="576"/>
       <c r="G11" s="576"/>
@@ -34430,17 +34389,17 @@
         <v>0</v>
       </c>
       <c r="N11" s="269" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="49"/>
       <c r="C12" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="19" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F12" s="576"/>
       <c r="G12" s="576"/>
@@ -34457,17 +34416,17 @@
         <v>0</v>
       </c>
       <c r="N12" s="269" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="2:14">
       <c r="B13" s="49"/>
       <c r="C13" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="19" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="F13" s="576"/>
       <c r="G13" s="576"/>
@@ -34484,17 +34443,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N13" s="269" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="2:14">
       <c r="B14" s="49"/>
       <c r="C14" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="19" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="F14" s="576"/>
       <c r="G14" s="576"/>
@@ -34514,17 +34473,17 @@
         <v>0</v>
       </c>
       <c r="N14" s="269" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="2:14">
       <c r="B15" s="49"/>
       <c r="C15" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="19" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="F15" s="576"/>
       <c r="G15" s="576"/>
@@ -34541,17 +34500,17 @@
         <v>0</v>
       </c>
       <c r="N15" s="269" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="67"/>
       <c r="C16" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="19" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="F16" s="576"/>
       <c r="G16" s="576"/>
@@ -34568,17 +34527,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N16" s="269" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="67"/>
       <c r="C17" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="19" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="F17" s="576"/>
       <c r="G17" s="576"/>
@@ -34595,17 +34554,17 @@
         <v>0</v>
       </c>
       <c r="N17" s="269" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="67"/>
       <c r="C18" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="19" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="F18" s="576"/>
       <c r="G18" s="576"/>
@@ -34622,17 +34581,17 @@
         <v>0</v>
       </c>
       <c r="N18" s="269" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="67"/>
       <c r="C19" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="19" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="F19" s="576"/>
       <c r="G19" s="576"/>
@@ -34649,17 +34608,17 @@
         <v>0</v>
       </c>
       <c r="N19" s="269" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="67"/>
       <c r="C20" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="19" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="F20" s="576"/>
       <c r="G20" s="576"/>
@@ -34676,17 +34635,17 @@
         <v>0</v>
       </c>
       <c r="N20" s="269" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="67"/>
       <c r="C21" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="19" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="F21" s="576"/>
       <c r="G21" s="576"/>
@@ -34703,17 +34662,17 @@
         <v>0</v>
       </c>
       <c r="N21" s="269" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="2:14">
       <c r="B22" s="67"/>
       <c r="C22" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="19" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F22" s="576"/>
       <c r="G22" s="576"/>
@@ -34730,7 +34689,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N22" s="269" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="2:14">
@@ -34765,7 +34724,7 @@
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="49" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -34783,11 +34742,11 @@
     <row r="26" spans="2:14">
       <c r="B26" s="49"/>
       <c r="C26" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="19" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="F26" s="576"/>
       <c r="G26" s="576"/>
@@ -34804,17 +34763,17 @@
         <v>0</v>
       </c>
       <c r="N26" s="269" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="2:14">
       <c r="B27" s="49"/>
       <c r="C27" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="19" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F27" s="576"/>
       <c r="G27" s="576"/>
@@ -34831,17 +34790,17 @@
         <v>0</v>
       </c>
       <c r="N27" s="269" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="2:14">
       <c r="B28" s="49"/>
       <c r="C28" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="19" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="F28" s="576"/>
       <c r="G28" s="576"/>
@@ -34858,17 +34817,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="269" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="49"/>
       <c r="C29" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="19" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="F29" s="576"/>
       <c r="G29" s="576"/>
@@ -34888,17 +34847,17 @@
         <v>0</v>
       </c>
       <c r="N29" s="269" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="2:14">
       <c r="B30" s="49"/>
       <c r="C30" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="19" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="F30" s="576"/>
       <c r="G30" s="576"/>
@@ -34915,17 +34874,17 @@
         <v>0</v>
       </c>
       <c r="N30" s="269" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="2:14">
       <c r="B31" s="67"/>
       <c r="C31" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="19" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="F31" s="576"/>
       <c r="G31" s="576"/>
@@ -34942,17 +34901,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N31" s="269" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="67"/>
       <c r="C32" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="19" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F32" s="576"/>
       <c r="G32" s="576"/>
@@ -34969,17 +34928,17 @@
         <v>0</v>
       </c>
       <c r="N32" s="269" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="2:14">
       <c r="B33" s="67"/>
       <c r="C33" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="19" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="F33" s="576"/>
       <c r="G33" s="576"/>
@@ -34996,17 +34955,17 @@
         <v>0</v>
       </c>
       <c r="N33" s="269" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="2:14">
       <c r="B34" s="67"/>
       <c r="C34" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="19" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="F34" s="576"/>
       <c r="G34" s="576"/>
@@ -35023,17 +34982,17 @@
         <v>0</v>
       </c>
       <c r="N34" s="269" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" spans="2:14">
       <c r="B35" s="67"/>
       <c r="C35" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="19" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="F35" s="576"/>
       <c r="G35" s="576"/>
@@ -35050,17 +35009,17 @@
         <v>0</v>
       </c>
       <c r="N35" s="269" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36" spans="2:14">
       <c r="B36" s="67"/>
       <c r="C36" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="19" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F36" s="576"/>
       <c r="G36" s="576"/>
@@ -35077,17 +35036,17 @@
         <v>0</v>
       </c>
       <c r="N36" s="269" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="2:14">
       <c r="B37" s="67"/>
       <c r="C37" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="19" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="F37" s="576"/>
       <c r="G37" s="576"/>
@@ -35107,7 +35066,7 @@
         <v>0</v>
       </c>
       <c r="N37" s="269" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="2:14">
@@ -35160,11 +35119,11 @@
     <row r="41" spans="2:14">
       <c r="B41" s="67"/>
       <c r="C41" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="19" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F41" s="576"/>
       <c r="G41" s="576"/>
@@ -35181,17 +35140,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N41" s="269" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="2:14">
       <c r="B42" s="67"/>
       <c r="C42" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="19" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="F42" s="576"/>
       <c r="G42" s="576"/>
@@ -35208,17 +35167,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N42" s="269" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="2:14">
       <c r="B43" s="67"/>
       <c r="C43" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="19" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="F43" s="576"/>
       <c r="G43" s="576"/>
@@ -35235,7 +35194,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N43" s="269" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44" spans="2:14">
@@ -35273,11 +35232,11 @@
     <row r="46" spans="2:14">
       <c r="B46" s="49"/>
       <c r="C46" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="19" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="F46" s="576"/>
       <c r="G46" s="576"/>
@@ -35294,17 +35253,17 @@
         <v>0</v>
       </c>
       <c r="N46" s="269" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47" spans="2:14">
       <c r="B47" s="49"/>
       <c r="C47" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="19" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F47" s="576"/>
       <c r="G47" s="576"/>
@@ -35321,17 +35280,17 @@
         <v>0</v>
       </c>
       <c r="N47" s="269" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="48" spans="2:14">
       <c r="B48" s="49"/>
       <c r="C48" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="19" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="F48" s="576"/>
       <c r="G48" s="576"/>
@@ -35348,17 +35307,17 @@
         <v>0</v>
       </c>
       <c r="N48" s="269" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="2:14">
       <c r="B49" s="49"/>
       <c r="C49" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="19" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="F49" s="576"/>
       <c r="G49" s="576"/>
@@ -35375,17 +35334,17 @@
         <v>0</v>
       </c>
       <c r="N49" s="269" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="2:14">
       <c r="B50" s="67"/>
       <c r="C50" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="19" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="F50" s="576"/>
       <c r="G50" s="576"/>
@@ -35402,7 +35361,7 @@
         <v>0</v>
       </c>
       <c r="N50" s="269" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51" spans="2:14">
@@ -35444,7 +35403,7 @@
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="19" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="F53" s="576"/>
       <c r="G53" s="576"/>
@@ -35458,17 +35417,17 @@
         <v>0</v>
       </c>
       <c r="N53" s="269" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="2:14">
       <c r="B54" s="67"/>
       <c r="C54" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="19" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="F54" s="576"/>
       <c r="G54" s="576"/>
@@ -35482,7 +35441,7 @@
         <v>0</v>
       </c>
       <c r="N54" s="269" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55" spans="2:14">
@@ -35492,7 +35451,7 @@
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="19" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="F55" s="576"/>
       <c r="G55" s="576"/>
@@ -35506,7 +35465,7 @@
         <v>0</v>
       </c>
       <c r="N55" s="269" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="2:14" ht="16" thickBot="1">

--- a/analyses/6_residences_analysis.xlsx
+++ b/analyses/6_residences_analysis.xlsx
@@ -57,45 +57,45 @@
   <definedNames>
     <definedName name="base_year">Dashboard!$E$12</definedName>
     <definedName name="country">Dashboard!$E$11</definedName>
-    <definedName name="Eff_cooking_biomass">technical_specs!$O$51</definedName>
-    <definedName name="Eff_cooking_electric">technical_specs!$O$48</definedName>
-    <definedName name="Eff_cooking_gas">technical_specs!$O$47</definedName>
-    <definedName name="Eff_cooking_halogen">technical_specs!$O$49</definedName>
-    <definedName name="Eff_cooking_induction">technical_specs!$O$50</definedName>
-    <definedName name="Eff_cooling_airco">technical_specs!$O$44</definedName>
-    <definedName name="Eff_cooling_pump_air">technical_specs!$O$43</definedName>
-    <definedName name="Eff_cooling_pump_ground">technical_specs!$O$42</definedName>
-    <definedName name="Eff_hot_water_coal">technical_specs!$O$36</definedName>
-    <definedName name="Eff_hot_water_combi_boiler">technical_specs!$O$26</definedName>
-    <definedName name="Eff_hot_water_district">technical_specs!$O$30</definedName>
-    <definedName name="Eff_hot_water_electric">technical_specs!$O$33</definedName>
-    <definedName name="Eff_hot_water_fuel_cell">technical_specs!$O$37</definedName>
-    <definedName name="Eff_hot_water_gas">technical_specs!$O$34</definedName>
-    <definedName name="Eff_hot_water_hhp_gas">technical_specs!$O$39</definedName>
-    <definedName name="Eff_hot_water_hhp_heatpump">technical_specs!$O$38</definedName>
-    <definedName name="Eff_hot_water_micro_CHP">technical_specs!$O$29</definedName>
-    <definedName name="Eff_hot_water_oil">technical_specs!$O$35</definedName>
-    <definedName name="Eff_hot_water_pump_air">technical_specs!$O$31</definedName>
-    <definedName name="Eff_hot_water_pump_ground">technical_specs!$O$28</definedName>
-    <definedName name="Eff_hot_water_solar_thermal_panel">technical_specs!$O$27</definedName>
-    <definedName name="Eff_hot_water_woodpellets">technical_specs!$O$32</definedName>
-    <definedName name="Eff_lighting_fluorescent">technical_specs!$O$55</definedName>
-    <definedName name="Eff_lighting_incandescent">technical_specs!$O$54</definedName>
-    <definedName name="Eff_lighting_led">technical_specs!$O$56</definedName>
-    <definedName name="Eff_space_heating_coal">technical_specs!$O$21</definedName>
-    <definedName name="Eff_space_heating_combi_boiler">technical_specs!$O$11</definedName>
-    <definedName name="Eff_space_heating_district">technical_specs!$O$15</definedName>
-    <definedName name="Eff_space_heating_electric">technical_specs!$O$18</definedName>
-    <definedName name="Eff_space_heating_gas">technical_specs!$O$19</definedName>
-    <definedName name="Eff_space_heating_hhp_gas">technical_specs!$O$23</definedName>
-    <definedName name="Eff_space_heating_hhp_heatpump">technical_specs!$O$22</definedName>
-    <definedName name="Eff_space_heating_micro_CHP">technical_specs!$O$14</definedName>
-    <definedName name="Eff_space_heating_oil">technical_specs!$O$20</definedName>
-    <definedName name="Eff_space_heating_pump_add_on">technical_specs!$O$22</definedName>
-    <definedName name="Eff_space_heating_pump_air">technical_specs!$O$16</definedName>
-    <definedName name="Eff_space_heating_pump_ground">technical_specs!$O$13</definedName>
-    <definedName name="Eff_space_heating_solar_thermal">technical_specs!$O$12</definedName>
-    <definedName name="Eff_space_heating_woodpellets">technical_specs!$O$17</definedName>
+    <definedName name="Eff_cooking_biomass">technical_specs!$P$51</definedName>
+    <definedName name="Eff_cooking_electric">technical_specs!$P$48</definedName>
+    <definedName name="Eff_cooking_gas">technical_specs!$P$47</definedName>
+    <definedName name="Eff_cooking_halogen">technical_specs!$P$49</definedName>
+    <definedName name="Eff_cooking_induction">technical_specs!$P$50</definedName>
+    <definedName name="Eff_cooling_airco">technical_specs!$P$44</definedName>
+    <definedName name="Eff_cooling_pump_air">technical_specs!$P$43</definedName>
+    <definedName name="Eff_cooling_pump_ground">technical_specs!$P$42</definedName>
+    <definedName name="Eff_hot_water_coal">technical_specs!$P$36</definedName>
+    <definedName name="Eff_hot_water_combi_boiler">technical_specs!$P$26</definedName>
+    <definedName name="Eff_hot_water_district">technical_specs!$P$30</definedName>
+    <definedName name="Eff_hot_water_electric">technical_specs!$P$33</definedName>
+    <definedName name="Eff_hot_water_fuel_cell">technical_specs!$P$37</definedName>
+    <definedName name="Eff_hot_water_gas">technical_specs!$P$34</definedName>
+    <definedName name="Eff_hot_water_hhp_gas">technical_specs!$P$39</definedName>
+    <definedName name="Eff_hot_water_hhp_heatpump">technical_specs!$P$38</definedName>
+    <definedName name="Eff_hot_water_micro_CHP">technical_specs!$P$29</definedName>
+    <definedName name="Eff_hot_water_oil">technical_specs!$P$35</definedName>
+    <definedName name="Eff_hot_water_pump_air">technical_specs!$P$31</definedName>
+    <definedName name="Eff_hot_water_pump_ground">technical_specs!$P$28</definedName>
+    <definedName name="Eff_hot_water_solar_thermal_panel">technical_specs!$P$27</definedName>
+    <definedName name="Eff_hot_water_woodpellets">technical_specs!$P$32</definedName>
+    <definedName name="Eff_lighting_fluorescent">technical_specs!$P$55</definedName>
+    <definedName name="Eff_lighting_incandescent">technical_specs!$P$54</definedName>
+    <definedName name="Eff_lighting_led">technical_specs!$P$56</definedName>
+    <definedName name="Eff_space_heating_coal">technical_specs!$P$21</definedName>
+    <definedName name="Eff_space_heating_combi_boiler">technical_specs!$P$11</definedName>
+    <definedName name="Eff_space_heating_district">technical_specs!$P$15</definedName>
+    <definedName name="Eff_space_heating_electric">technical_specs!$P$18</definedName>
+    <definedName name="Eff_space_heating_gas">technical_specs!$P$19</definedName>
+    <definedName name="Eff_space_heating_hhp_gas">technical_specs!$P$23</definedName>
+    <definedName name="Eff_space_heating_hhp_heatpump">technical_specs!$P$22</definedName>
+    <definedName name="Eff_space_heating_micro_CHP">technical_specs!$P$14</definedName>
+    <definedName name="Eff_space_heating_oil">technical_specs!$P$20</definedName>
+    <definedName name="Eff_space_heating_pump_add_on">technical_specs!$P$22</definedName>
+    <definedName name="Eff_space_heating_pump_air">technical_specs!$P$16</definedName>
+    <definedName name="Eff_space_heating_pump_ground">technical_specs!$P$13</definedName>
+    <definedName name="Eff_space_heating_solar_thermal">technical_specs!$P$12</definedName>
+    <definedName name="Eff_space_heating_woodpellets">technical_specs!$P$17</definedName>
     <definedName name="Final_demand_appliances">Dashboard!$E$25</definedName>
     <definedName name="Final_demand_coal">'Fuel aggregation'!$C$11</definedName>
     <definedName name="Final_demand_cooking">Dashboard!$E$24</definedName>
@@ -112,7 +112,7 @@
     <definedName name="Final_demand_space_heating">Dashboard!$E$20</definedName>
     <definedName name="Final_demand_woodpellets">'Fuel aggregation'!$F$11</definedName>
   </definedNames>
-  <calcPr calcId="140000" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="893">
   <si>
     <t>Changelog</t>
   </si>
@@ -2761,9 +2761,6 @@
     <t>network gas input</t>
   </si>
   <si>
-    <t>Input share network_gas</t>
-  </si>
-  <si>
     <t>Percentage of useful demand delivered per subtechnology (same as column D except for HHP)</t>
   </si>
   <si>
@@ -2819,6 +2816,15 @@
   </si>
   <si>
     <t>Percentage of useful heat in hot water delivered by solar thermal panel (if household is equipped)</t>
+  </si>
+  <si>
+    <t>heat efficiency gas subtechnology</t>
+  </si>
+  <si>
+    <t>output.useable_heat.network_gas</t>
+  </si>
+  <si>
+    <t>Heat output share network_gas</t>
   </si>
 </sst>
 </file>
@@ -15930,7 +15936,7 @@
     <row r="26" spans="2:13">
       <c r="B26" s="49"/>
       <c r="C26" s="276" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D26" s="640" t="e">
         <f>'Technology split final demand'!I22</f>
@@ -15952,7 +15958,7 @@
     <row r="27" spans="2:13">
       <c r="B27" s="49"/>
       <c r="C27" s="277" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D27" s="637" t="e">
         <f>'Technology split final demand'!I23</f>
@@ -15974,7 +15980,7 @@
     <row r="28" spans="2:13">
       <c r="B28" s="278"/>
       <c r="C28" s="639" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D28" s="155"/>
       <c r="E28" s="297"/>
@@ -17150,7 +17156,7 @@
         <v>462</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F9" s="82" t="s">
         <v>525</v>
@@ -17532,7 +17538,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="182">
-        <f>D22*(1-technical_specs!N23)</f>
+        <f>D22*(1-technical_specs!O23)</f>
         <v>0</v>
       </c>
       <c r="F22" s="561" t="e">
@@ -17560,7 +17566,7 @@
       </c>
       <c r="D23" s="182"/>
       <c r="E23" s="182">
-        <f>D22*technical_specs!N23</f>
+        <f>D22*technical_specs!O23</f>
         <v>0</v>
       </c>
       <c r="F23" s="561">
@@ -17989,7 +17995,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="182">
-        <f>D38*(1-technical_specs!N39)</f>
+        <f>D38*(1-technical_specs!O39)</f>
         <v>0</v>
       </c>
       <c r="F38" s="561" t="e">
@@ -18017,7 +18023,7 @@
       </c>
       <c r="D39" s="182"/>
       <c r="E39" s="182">
-        <f>D38*technical_specs!N39</f>
+        <f>D38*technical_specs!O39</f>
         <v>0</v>
       </c>
       <c r="F39" s="561">
@@ -18672,11 +18678,11 @@
         <v>Technology</v>
       </c>
       <c r="C9" s="68" t="str">
-        <f>technical_specs!K8</f>
+        <f>technical_specs!L8</f>
         <v>Heating efficiency</v>
       </c>
       <c r="D9" s="68" t="str">
-        <f>technical_specs!M8</f>
+        <f>technical_specs!N8</f>
         <v>Electrical efficiency</v>
       </c>
       <c r="E9" s="68" t="s">
@@ -18705,11 +18711,11 @@
         <v>Micro CHP (gas-fired)) (space heating)</v>
       </c>
       <c r="C11" s="210">
-        <f>technical_specs!K14</f>
+        <f>technical_specs!L14</f>
         <v>0</v>
       </c>
       <c r="D11" s="210">
-        <f>technical_specs!M14</f>
+        <f>technical_specs!N14</f>
         <v>0</v>
       </c>
       <c r="E11" s="210">
@@ -18732,11 +18738,11 @@
         <v>Micro CHP (gas-fired)) (hot water)</v>
       </c>
       <c r="C12" s="210">
-        <f>technical_specs!K29</f>
+        <f>technical_specs!L29</f>
         <v>0</v>
       </c>
       <c r="D12" s="210">
-        <f>technical_specs!M29</f>
+        <f>technical_specs!N29</f>
         <v>0</v>
       </c>
       <c r="E12" s="210">
@@ -18759,11 +18765,11 @@
         <v>Fuel Cell (hot water)</v>
       </c>
       <c r="C13" s="210">
-        <f>technical_specs!K37</f>
+        <f>technical_specs!L37</f>
         <v>0</v>
       </c>
       <c r="D13" s="210">
-        <f>technical_specs!M37</f>
+        <f>technical_specs!N37</f>
         <v>0</v>
       </c>
       <c r="E13" s="210">
@@ -19285,7 +19291,7 @@
         <v>215</v>
       </c>
       <c r="G9" s="217" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H9" s="217" t="s">
         <v>642</v>
@@ -19323,7 +19329,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F11" s="281">
-        <f>technical_specs!O11</f>
+        <f>technical_specs!P11</f>
         <v>0</v>
       </c>
       <c r="G11" s="644" t="e">
@@ -19357,7 +19363,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F12" s="281">
-        <f>technical_specs!O12</f>
+        <f>technical_specs!P12</f>
         <v>0</v>
       </c>
       <c r="G12" s="644" t="e">
@@ -19391,7 +19397,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="281" t="e">
-        <f>technical_specs!O13</f>
+        <f>technical_specs!P13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G13" s="644" t="e">
@@ -19425,7 +19431,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F14" s="281">
-        <f>technical_specs!O14</f>
+        <f>technical_specs!P14</f>
         <v>0</v>
       </c>
       <c r="G14" s="644" t="e">
@@ -19459,7 +19465,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="281">
-        <f>technical_specs!O15</f>
+        <f>technical_specs!P15</f>
         <v>0</v>
       </c>
       <c r="G15" s="644" t="e">
@@ -19493,7 +19499,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F16" s="281" t="e">
-        <f>technical_specs!O16</f>
+        <f>technical_specs!P16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G16" s="644" t="e">
@@ -19527,7 +19533,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="281">
-        <f>technical_specs!O17</f>
+        <f>technical_specs!P17</f>
         <v>0</v>
       </c>
       <c r="G17" s="644" t="e">
@@ -19561,7 +19567,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="281">
-        <f>technical_specs!O18</f>
+        <f>technical_specs!P18</f>
         <v>0</v>
       </c>
       <c r="G18" s="644" t="e">
@@ -19595,7 +19601,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F19" s="281">
-        <f>technical_specs!O19</f>
+        <f>technical_specs!P19</f>
         <v>0</v>
       </c>
       <c r="G19" s="644" t="e">
@@ -19629,7 +19635,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="281">
-        <f>technical_specs!O20</f>
+        <f>technical_specs!P20</f>
         <v>0</v>
       </c>
       <c r="G20" s="644" t="e">
@@ -19665,7 +19671,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="281">
-        <f>technical_specs!O21</f>
+        <f>technical_specs!P21</f>
         <v>0</v>
       </c>
       <c r="G21" s="644" t="e">
@@ -19701,7 +19707,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="281" t="e">
-        <f>technical_specs!O22</f>
+        <f>technical_specs!P22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G22" s="644" t="e">
@@ -19737,7 +19743,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="283">
-        <f>technical_specs!O23</f>
+        <f>technical_specs!P23</f>
         <v>0</v>
       </c>
       <c r="G23" s="645" t="e">
@@ -19805,7 +19811,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="281">
-        <f>technical_specs!O26</f>
+        <f>technical_specs!P26</f>
         <v>0</v>
       </c>
       <c r="G26" s="644" t="e">
@@ -19841,7 +19847,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="281">
-        <f>technical_specs!O27</f>
+        <f>technical_specs!P27</f>
         <v>0</v>
       </c>
       <c r="G27" s="644" t="e">
@@ -19877,7 +19883,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="281" t="e">
-        <f>technical_specs!O28</f>
+        <f>technical_specs!P28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G28" s="644" t="e">
@@ -19913,7 +19919,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="281">
-        <f>technical_specs!O29</f>
+        <f>technical_specs!P29</f>
         <v>0</v>
       </c>
       <c r="G29" s="644" t="e">
@@ -19949,7 +19955,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="281">
-        <f>technical_specs!O30</f>
+        <f>technical_specs!P30</f>
         <v>0</v>
       </c>
       <c r="G30" s="644" t="e">
@@ -19985,7 +19991,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F31" s="281" t="e">
-        <f>technical_specs!O31</f>
+        <f>technical_specs!P31</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G31" s="644" t="e">
@@ -20021,7 +20027,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F32" s="281">
-        <f>technical_specs!O32</f>
+        <f>technical_specs!P32</f>
         <v>0</v>
       </c>
       <c r="G32" s="644" t="e">
@@ -20057,7 +20063,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F33" s="281">
-        <f>technical_specs!O33</f>
+        <f>technical_specs!P33</f>
         <v>0</v>
       </c>
       <c r="G33" s="644" t="e">
@@ -20093,7 +20099,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F34" s="281">
-        <f>technical_specs!O34</f>
+        <f>technical_specs!P34</f>
         <v>0</v>
       </c>
       <c r="G34" s="644" t="e">
@@ -20129,7 +20135,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F35" s="281">
-        <f>technical_specs!O35</f>
+        <f>technical_specs!P35</f>
         <v>0</v>
       </c>
       <c r="G35" s="644" t="e">
@@ -20165,7 +20171,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F36" s="281">
-        <f>technical_specs!O36</f>
+        <f>technical_specs!P36</f>
         <v>0</v>
       </c>
       <c r="G36" s="644" t="e">
@@ -20201,7 +20207,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F37" s="281">
-        <f>technical_specs!O37</f>
+        <f>technical_specs!P37</f>
         <v>0</v>
       </c>
       <c r="G37" s="644" t="e">
@@ -20237,7 +20243,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F38" s="281" t="e">
-        <f>technical_specs!O38</f>
+        <f>technical_specs!P38</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G38" s="644" t="e">
@@ -20273,7 +20279,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F39" s="283">
-        <f>technical_specs!O39</f>
+        <f>technical_specs!P39</f>
         <v>0</v>
       </c>
       <c r="G39" s="645" t="e">
@@ -20356,7 +20362,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F43" s="281" t="e">
-        <f>technical_specs!O42</f>
+        <f>technical_specs!P42</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G43" s="644" t="e">
@@ -20392,7 +20398,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F44" s="281" t="e">
-        <f>technical_specs!O43</f>
+        <f>technical_specs!P43</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G44" s="644" t="e">
@@ -20428,7 +20434,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F45" s="283" t="e">
-        <f>technical_specs!O44</f>
+        <f>technical_specs!P44</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G45" s="644" t="e">
@@ -20511,7 +20517,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F49" s="281">
-        <f>technical_specs!O47</f>
+        <f>technical_specs!P47</f>
         <v>0</v>
       </c>
       <c r="G49" s="644" t="e">
@@ -20547,7 +20553,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F50" s="281">
-        <f>technical_specs!O48</f>
+        <f>technical_specs!P48</f>
         <v>0</v>
       </c>
       <c r="G50" s="644" t="e">
@@ -20583,7 +20589,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F51" s="281">
-        <f>technical_specs!O49</f>
+        <f>technical_specs!P49</f>
         <v>0</v>
       </c>
       <c r="G51" s="644" t="e">
@@ -20619,7 +20625,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F52" s="281">
-        <f>technical_specs!O50</f>
+        <f>technical_specs!P50</f>
         <v>0</v>
       </c>
       <c r="G52" s="644" t="e">
@@ -20655,7 +20661,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F53" s="283">
-        <f>technical_specs!O51</f>
+        <f>technical_specs!P51</f>
         <v>0</v>
       </c>
       <c r="G53" s="644" t="e">
@@ -20738,7 +20744,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F57" s="281">
-        <f>technical_specs!O54</f>
+        <f>technical_specs!P54</f>
         <v>0</v>
       </c>
       <c r="G57" s="644" t="e">
@@ -20774,7 +20780,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F58" s="281">
-        <f>technical_specs!O55</f>
+        <f>technical_specs!P55</f>
         <v>0</v>
       </c>
       <c r="G58" s="644" t="e">
@@ -20810,7 +20816,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F59" s="283">
-        <f>technical_specs!O56</f>
+        <f>technical_specs!P56</f>
         <v>0</v>
       </c>
       <c r="G59" s="645" t="e">
@@ -21422,10 +21428,10 @@
     </row>
     <row r="35" spans="2:4" ht="30">
       <c r="B35" s="19" t="s">
+        <v>887</v>
+      </c>
+      <c r="C35" s="40" t="s">
         <v>888</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>889</v>
       </c>
       <c r="D35" s="18">
         <v>2.1800000000000002</v>
@@ -22051,7 +22057,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B7" s="190" t="e">
         <f>'Technology Shares'!F24</f>
@@ -22128,7 +22134,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B6" s="190" t="e">
         <f>'Technology Shares'!F29</f>
@@ -25655,7 +25661,7 @@
   </sheetPr>
   <dimension ref="B2:P115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
       <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
@@ -26591,7 +26597,7 @@
       <c r="M42" s="351"/>
       <c r="N42" s="75"/>
       <c r="O42" s="454" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="P42" s="451"/>
     </row>
@@ -26930,7 +26936,7 @@
       <c r="M58" s="351"/>
       <c r="N58" s="75"/>
       <c r="O58" s="454" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="P58" s="451"/>
     </row>
@@ -27691,7 +27697,7 @@
     <row r="95" spans="2:16" ht="16" thickBot="1">
       <c r="B95" s="38"/>
       <c r="C95" s="71" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D95" s="397"/>
       <c r="E95" s="390"/>
@@ -34980,10 +34986,10 @@
   <sheetPr codeName="Sheet9" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:P58"/>
+  <dimension ref="B2:Q58"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -34994,19 +35000,20 @@
     <col min="4" max="4" width="16.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="64.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="17.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="22.83203125" style="119" customWidth="1"/>
-    <col min="16" max="16" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="29" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="17.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="22.83203125" style="119" customWidth="1"/>
+    <col min="17" max="17" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="20">
+    <row r="2" spans="2:17" ht="20">
       <c r="B2" s="63" t="s">
         <v>188</v>
       </c>
@@ -35018,8 +35025,9 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-    </row>
-    <row r="4" spans="2:16">
+      <c r="K2" s="8"/>
+    </row>
+    <row r="4" spans="2:17">
       <c r="B4" s="607" t="s">
         <v>79</v>
       </c>
@@ -35033,11 +35041,12 @@
       <c r="J4" s="612"/>
       <c r="K4" s="612"/>
       <c r="L4" s="612"/>
-      <c r="M4" s="8"/>
+      <c r="M4" s="612"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="187"/>
-    </row>
-    <row r="5" spans="2:16">
+      <c r="O4" s="8"/>
+      <c r="P4" s="187"/>
+    </row>
+    <row r="5" spans="2:17">
       <c r="B5" s="585" t="s">
         <v>797</v>
       </c>
@@ -35053,9 +35062,10 @@
       <c r="L5" s="149"/>
       <c r="M5" s="149"/>
       <c r="N5" s="149"/>
-      <c r="O5" s="187"/>
-    </row>
-    <row r="6" spans="2:16" ht="16" thickBot="1">
+      <c r="O5" s="149"/>
+      <c r="P5" s="187"/>
+    </row>
+    <row r="6" spans="2:17" ht="16" thickBot="1">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -35065,8 +35075,9 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="2:16">
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="2:17">
       <c r="B7" s="564" t="s">
         <v>643</v>
       </c>
@@ -35078,17 +35089,18 @@
       <c r="F7" s="558" t="s">
         <v>794</v>
       </c>
-      <c r="G7" s="557"/>
+      <c r="G7" s="558"/>
       <c r="H7" s="557"/>
-      <c r="I7" s="558"/>
-      <c r="J7" s="589"/>
-      <c r="K7" s="592"/>
-      <c r="L7" s="593"/>
+      <c r="I7" s="557"/>
+      <c r="J7" s="558"/>
+      <c r="K7" s="589"/>
+      <c r="L7" s="592"/>
       <c r="M7" s="593"/>
       <c r="N7" s="593"/>
-      <c r="O7" s="594"/>
-    </row>
-    <row r="8" spans="2:16" ht="30" customHeight="1">
+      <c r="O7" s="593"/>
+      <c r="P7" s="594"/>
+    </row>
+    <row r="8" spans="2:17" ht="30" customHeight="1">
       <c r="B8" s="587" t="s">
         <v>284</v>
       </c>
@@ -35103,37 +35115,40 @@
         <v>752</v>
       </c>
       <c r="G8" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>756</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>870</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="J8" s="590" t="s">
+      <c r="K8" s="590" t="s">
         <v>795</v>
       </c>
-      <c r="K8" s="595" t="s">
+      <c r="L8" s="595" t="s">
         <v>725</v>
       </c>
-      <c r="L8" s="596" t="s">
+      <c r="M8" s="596" t="s">
         <v>726</v>
       </c>
-      <c r="M8" s="596" t="s">
+      <c r="N8" s="596" t="s">
         <v>524</v>
       </c>
-      <c r="N8" s="596" t="s">
-        <v>871</v>
-      </c>
-      <c r="O8" s="597" t="s">
+      <c r="O8" s="596" t="s">
+        <v>892</v>
+      </c>
+      <c r="P8" s="597" t="s">
         <v>727</v>
       </c>
-      <c r="P8" s="268" t="s">
+      <c r="Q8" s="268" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="15" customHeight="1">
+    <row r="9" spans="2:17" ht="15" customHeight="1">
       <c r="B9" s="44"/>
       <c r="C9" s="10"/>
       <c r="D9" s="68"/>
@@ -35142,24 +35157,27 @@
         <v>754</v>
       </c>
       <c r="G9" s="559" t="s">
+        <v>891</v>
+      </c>
+      <c r="H9" s="559" t="s">
         <v>755</v>
       </c>
-      <c r="H9" s="559" t="s">
+      <c r="I9" s="559" t="s">
         <v>869</v>
       </c>
-      <c r="I9" s="559" t="s">
+      <c r="J9" s="559" t="s">
         <v>751</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>790</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="10"/>
+      <c r="L9" s="21"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="591"/>
-    </row>
-    <row r="10" spans="2:16">
+      <c r="O9" s="10"/>
+      <c r="P9" s="591"/>
+    </row>
+    <row r="10" spans="2:17">
       <c r="B10" s="49" t="s">
         <v>77</v>
       </c>
@@ -35170,15 +35188,16 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="70"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="138"/>
-      <c r="P10" s="268"/>
-    </row>
-    <row r="11" spans="2:16">
+      <c r="O10" s="8"/>
+      <c r="P10" s="138"/>
+      <c r="Q10" s="268"/>
+    </row>
+    <row r="11" spans="2:17">
       <c r="B11" s="49"/>
       <c r="C11" s="17" t="s">
         <v>409</v>
@@ -35191,23 +35210,24 @@
       <c r="G11" s="566"/>
       <c r="H11" s="566"/>
       <c r="I11" s="566"/>
-      <c r="J11" s="600"/>
-      <c r="K11" s="221">
+      <c r="J11" s="566"/>
+      <c r="K11" s="600"/>
+      <c r="L11" s="221">
         <f>F11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="227"/>
-      <c r="M11" s="71"/>
+      <c r="M11" s="227"/>
       <c r="N11" s="71"/>
-      <c r="O11" s="228">
-        <f>K11</f>
+      <c r="O11" s="71"/>
+      <c r="P11" s="228">
+        <f>L11</f>
         <v>0</v>
       </c>
-      <c r="P11" s="268" t="s">
+      <c r="Q11" s="268" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:17">
       <c r="B12" s="49"/>
       <c r="C12" s="17" t="s">
         <v>415</v>
@@ -35220,23 +35240,24 @@
       <c r="G12" s="566"/>
       <c r="H12" s="566"/>
       <c r="I12" s="566"/>
-      <c r="J12" s="600"/>
-      <c r="K12" s="221">
+      <c r="J12" s="566"/>
+      <c r="K12" s="600"/>
+      <c r="L12" s="221">
         <f>F12</f>
         <v>0</v>
       </c>
-      <c r="L12" s="227"/>
-      <c r="M12" s="71"/>
+      <c r="M12" s="227"/>
       <c r="N12" s="71"/>
-      <c r="O12" s="228">
-        <f>K12</f>
+      <c r="O12" s="71"/>
+      <c r="P12" s="228">
+        <f>L12</f>
         <v>0</v>
       </c>
-      <c r="P12" s="268" t="s">
+      <c r="Q12" s="268" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:17">
       <c r="B13" s="49"/>
       <c r="C13" s="17" t="s">
         <v>411</v>
@@ -35249,23 +35270,24 @@
       <c r="G13" s="566"/>
       <c r="H13" s="566"/>
       <c r="I13" s="566"/>
-      <c r="J13" s="600"/>
-      <c r="K13" s="221"/>
-      <c r="L13" s="227" t="e">
-        <f>1/G13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" s="71"/>
+      <c r="J13" s="566"/>
+      <c r="K13" s="600"/>
+      <c r="L13" s="221"/>
+      <c r="M13" s="227" t="e">
+        <f>1/H13</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N13" s="71"/>
-      <c r="O13" s="228" t="e">
-        <f>L13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P13" s="268" t="s">
+      <c r="O13" s="71"/>
+      <c r="P13" s="228" t="e">
+        <f>M13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q13" s="268" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:17">
       <c r="B14" s="49"/>
       <c r="C14" s="17" t="s">
         <v>429</v>
@@ -35278,26 +35300,27 @@
       <c r="G14" s="566"/>
       <c r="H14" s="566"/>
       <c r="I14" s="566"/>
-      <c r="J14" s="600"/>
-      <c r="K14" s="221">
+      <c r="J14" s="566"/>
+      <c r="K14" s="600"/>
+      <c r="L14" s="221">
         <f>F14</f>
         <v>0</v>
       </c>
-      <c r="L14" s="227"/>
-      <c r="M14" s="493">
-        <f>I14</f>
+      <c r="M14" s="227"/>
+      <c r="N14" s="493">
+        <f>J14</f>
         <v>0</v>
       </c>
-      <c r="N14" s="493"/>
-      <c r="O14" s="228">
-        <f>K14</f>
+      <c r="O14" s="493"/>
+      <c r="P14" s="228">
+        <f>L14</f>
         <v>0</v>
       </c>
-      <c r="P14" s="268" t="s">
+      <c r="Q14" s="268" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:17">
       <c r="B15" s="49"/>
       <c r="C15" s="17" t="s">
         <v>414</v>
@@ -35310,23 +35333,24 @@
       <c r="G15" s="566"/>
       <c r="H15" s="566"/>
       <c r="I15" s="566"/>
-      <c r="J15" s="600"/>
-      <c r="K15" s="221">
+      <c r="J15" s="566"/>
+      <c r="K15" s="600"/>
+      <c r="L15" s="221">
         <f>F15</f>
         <v>0</v>
       </c>
-      <c r="L15" s="227"/>
-      <c r="M15" s="71"/>
+      <c r="M15" s="227"/>
       <c r="N15" s="71"/>
-      <c r="O15" s="228">
-        <f>K15</f>
+      <c r="O15" s="71"/>
+      <c r="P15" s="228">
+        <f>L15</f>
         <v>0</v>
       </c>
-      <c r="P15" s="268" t="s">
+      <c r="Q15" s="268" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:17">
       <c r="B16" s="67"/>
       <c r="C16" s="17" t="s">
         <v>416</v>
@@ -35339,23 +35363,24 @@
       <c r="G16" s="566"/>
       <c r="H16" s="566"/>
       <c r="I16" s="566"/>
-      <c r="J16" s="600"/>
-      <c r="K16" s="221"/>
-      <c r="L16" s="227" t="e">
-        <f>1/G16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M16" s="71"/>
+      <c r="J16" s="566"/>
+      <c r="K16" s="600"/>
+      <c r="L16" s="221"/>
+      <c r="M16" s="227" t="e">
+        <f>1/H16</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N16" s="71"/>
-      <c r="O16" s="228" t="e">
-        <f>L16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P16" s="268" t="s">
+      <c r="O16" s="71"/>
+      <c r="P16" s="228" t="e">
+        <f>M16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q16" s="268" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:17">
       <c r="B17" s="67"/>
       <c r="C17" s="17" t="s">
         <v>418</v>
@@ -35368,23 +35393,24 @@
       <c r="G17" s="566"/>
       <c r="H17" s="566"/>
       <c r="I17" s="566"/>
-      <c r="J17" s="600"/>
-      <c r="K17" s="221">
+      <c r="J17" s="566"/>
+      <c r="K17" s="600"/>
+      <c r="L17" s="221">
         <f>F17</f>
         <v>0</v>
       </c>
-      <c r="L17" s="227"/>
-      <c r="M17" s="71"/>
+      <c r="M17" s="227"/>
       <c r="N17" s="71"/>
-      <c r="O17" s="228">
-        <f>K17</f>
+      <c r="O17" s="71"/>
+      <c r="P17" s="228">
+        <f>L17</f>
         <v>0</v>
       </c>
-      <c r="P17" s="268" t="s">
+      <c r="Q17" s="268" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:17">
       <c r="B18" s="67"/>
       <c r="C18" s="17" t="s">
         <v>419</v>
@@ -35397,23 +35423,24 @@
       <c r="G18" s="566"/>
       <c r="H18" s="566"/>
       <c r="I18" s="566"/>
-      <c r="J18" s="600"/>
-      <c r="K18" s="221">
+      <c r="J18" s="566"/>
+      <c r="K18" s="600"/>
+      <c r="L18" s="221">
         <f>F18</f>
         <v>0</v>
       </c>
-      <c r="L18" s="227"/>
-      <c r="M18" s="71"/>
+      <c r="M18" s="227"/>
       <c r="N18" s="71"/>
-      <c r="O18" s="228">
-        <f>K18</f>
+      <c r="O18" s="71"/>
+      <c r="P18" s="228">
+        <f>L18</f>
         <v>0</v>
       </c>
-      <c r="P18" s="268" t="s">
+      <c r="Q18" s="268" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:17">
       <c r="B19" s="67"/>
       <c r="C19" s="17" t="s">
         <v>420</v>
@@ -35426,23 +35453,24 @@
       <c r="G19" s="566"/>
       <c r="H19" s="566"/>
       <c r="I19" s="566"/>
-      <c r="J19" s="600"/>
-      <c r="K19" s="221">
+      <c r="J19" s="566"/>
+      <c r="K19" s="600"/>
+      <c r="L19" s="221">
         <f>F19</f>
         <v>0</v>
       </c>
-      <c r="L19" s="227"/>
-      <c r="M19" s="71"/>
+      <c r="M19" s="227"/>
       <c r="N19" s="71"/>
-      <c r="O19" s="228">
-        <f>K19</f>
+      <c r="O19" s="71"/>
+      <c r="P19" s="228">
+        <f>L19</f>
         <v>0</v>
       </c>
-      <c r="P19" s="268" t="s">
+      <c r="Q19" s="268" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:17">
       <c r="B20" s="67"/>
       <c r="C20" s="17" t="s">
         <v>421</v>
@@ -35455,23 +35483,24 @@
       <c r="G20" s="566"/>
       <c r="H20" s="566"/>
       <c r="I20" s="566"/>
-      <c r="J20" s="600"/>
-      <c r="K20" s="221">
+      <c r="J20" s="566"/>
+      <c r="K20" s="600"/>
+      <c r="L20" s="221">
         <f>F20</f>
         <v>0</v>
       </c>
-      <c r="L20" s="227"/>
-      <c r="M20" s="71"/>
+      <c r="M20" s="227"/>
       <c r="N20" s="71"/>
-      <c r="O20" s="228">
-        <f>K20</f>
+      <c r="O20" s="71"/>
+      <c r="P20" s="228">
+        <f>L20</f>
         <v>0</v>
       </c>
-      <c r="P20" s="268" t="s">
+      <c r="Q20" s="268" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:17">
       <c r="B21" s="67"/>
       <c r="C21" s="17" t="s">
         <v>422</v>
@@ -35484,26 +35513,27 @@
       <c r="G21" s="566"/>
       <c r="H21" s="566"/>
       <c r="I21" s="566"/>
-      <c r="J21" s="600"/>
-      <c r="K21" s="221">
+      <c r="J21" s="566"/>
+      <c r="K21" s="600"/>
+      <c r="L21" s="221">
         <f>F21</f>
         <v>0</v>
       </c>
-      <c r="L21" s="227"/>
-      <c r="M21" s="71"/>
+      <c r="M21" s="227"/>
       <c r="N21" s="71"/>
-      <c r="O21" s="228">
-        <f>K21</f>
+      <c r="O21" s="71"/>
+      <c r="P21" s="228">
+        <f>L21</f>
         <v>0</v>
       </c>
-      <c r="P21" s="268" t="s">
+      <c r="Q21" s="268" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:17">
       <c r="B22" s="67"/>
       <c r="C22" s="17" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="19" t="s">
@@ -35513,68 +35543,73 @@
       <c r="G22" s="566"/>
       <c r="H22" s="566"/>
       <c r="I22" s="566"/>
-      <c r="J22" s="600"/>
-      <c r="K22" s="221"/>
-      <c r="L22" s="227" t="e">
-        <f>(1-H22)/G22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" s="71"/>
+      <c r="J22" s="566"/>
+      <c r="K22" s="600"/>
+      <c r="L22" s="221"/>
+      <c r="M22" s="227" t="e">
+        <f>(1-I22)/H22</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N22" s="71"/>
-      <c r="O22" s="228" t="e">
-        <f>L22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P22" s="268" t="s">
+      <c r="O22" s="71"/>
+      <c r="P22" s="228" t="e">
+        <f>M22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q22" s="268" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:17">
       <c r="B23" s="67"/>
       <c r="C23" s="17" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="19"/>
       <c r="F23" s="566">
-        <f>F22</f>
+        <f t="shared" ref="F23:K23" si="0">F22</f>
         <v>0</v>
       </c>
       <c r="G23" s="566">
-        <f>G22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23" s="566">
-        <f>H22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23" s="566">
-        <f>I22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="600">
-        <f>J22</f>
+      <c r="J23" s="566">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="221">
-        <f>F23</f>
+      <c r="K23" s="600">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="227"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="566">
-        <f>H23</f>
+      <c r="L23" s="221">
+        <f>G23</f>
         <v>0</v>
       </c>
-      <c r="O23" s="228">
-        <f>K23</f>
+      <c r="M23" s="227"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="566">
+        <f>I23*G23</f>
         <v>0</v>
       </c>
-      <c r="P23" s="268" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16">
+      <c r="P23" s="228">
+        <f>L23</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="268" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17">
       <c r="B24" s="44"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -35583,15 +35618,16 @@
       <c r="G24" s="567"/>
       <c r="H24" s="567"/>
       <c r="I24" s="567"/>
-      <c r="J24" s="601"/>
-      <c r="K24" s="222"/>
-      <c r="L24" s="229"/>
-      <c r="M24" s="197"/>
+      <c r="J24" s="567"/>
+      <c r="K24" s="601"/>
+      <c r="L24" s="222"/>
+      <c r="M24" s="229"/>
       <c r="N24" s="197"/>
-      <c r="O24" s="230"/>
-      <c r="P24" s="220"/>
-    </row>
-    <row r="25" spans="2:16">
+      <c r="O24" s="197"/>
+      <c r="P24" s="230"/>
+      <c r="Q24" s="220"/>
+    </row>
+    <row r="25" spans="2:17">
       <c r="B25" s="49" t="s">
         <v>304</v>
       </c>
@@ -35602,15 +35638,16 @@
       <c r="G25" s="568"/>
       <c r="H25" s="568"/>
       <c r="I25" s="568"/>
-      <c r="J25" s="602"/>
-      <c r="K25" s="223"/>
-      <c r="L25" s="231"/>
-      <c r="M25" s="193"/>
+      <c r="J25" s="568"/>
+      <c r="K25" s="602"/>
+      <c r="L25" s="223"/>
+      <c r="M25" s="231"/>
       <c r="N25" s="193"/>
-      <c r="O25" s="232"/>
-      <c r="P25" s="220"/>
-    </row>
-    <row r="26" spans="2:16">
+      <c r="O25" s="193"/>
+      <c r="P25" s="232"/>
+      <c r="Q25" s="220"/>
+    </row>
+    <row r="26" spans="2:17">
       <c r="B26" s="49"/>
       <c r="C26" s="17" t="s">
         <v>410</v>
@@ -35623,23 +35660,24 @@
       <c r="G26" s="566"/>
       <c r="H26" s="566"/>
       <c r="I26" s="566"/>
-      <c r="J26" s="600"/>
-      <c r="K26" s="221">
+      <c r="J26" s="566"/>
+      <c r="K26" s="600"/>
+      <c r="L26" s="221">
         <f>F26</f>
         <v>0</v>
       </c>
-      <c r="L26" s="227"/>
-      <c r="M26" s="71"/>
+      <c r="M26" s="227"/>
       <c r="N26" s="71"/>
-      <c r="O26" s="228">
-        <f>K26</f>
+      <c r="O26" s="71"/>
+      <c r="P26" s="228">
+        <f>L26</f>
         <v>0</v>
       </c>
-      <c r="P26" s="268" t="s">
+      <c r="Q26" s="268" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:17">
       <c r="B27" s="49"/>
       <c r="C27" s="17" t="s">
         <v>412</v>
@@ -35652,23 +35690,24 @@
       <c r="G27" s="566"/>
       <c r="H27" s="566"/>
       <c r="I27" s="566"/>
-      <c r="J27" s="600"/>
-      <c r="K27" s="221">
+      <c r="J27" s="566"/>
+      <c r="K27" s="600"/>
+      <c r="L27" s="221">
         <f>F27</f>
         <v>0</v>
       </c>
-      <c r="L27" s="209"/>
-      <c r="M27" s="142"/>
+      <c r="M27" s="209"/>
       <c r="N27" s="142"/>
-      <c r="O27" s="228">
-        <f>K27</f>
+      <c r="O27" s="142"/>
+      <c r="P27" s="228">
+        <f>L27</f>
         <v>0</v>
       </c>
-      <c r="P27" s="268" t="s">
+      <c r="Q27" s="268" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:17">
       <c r="B28" s="49"/>
       <c r="C28" s="17" t="s">
         <v>431</v>
@@ -35681,23 +35720,24 @@
       <c r="G28" s="566"/>
       <c r="H28" s="566"/>
       <c r="I28" s="566"/>
-      <c r="J28" s="600"/>
-      <c r="K28" s="221"/>
-      <c r="L28" s="227" t="e">
-        <f>1/G28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="71"/>
+      <c r="J28" s="566"/>
+      <c r="K28" s="600"/>
+      <c r="L28" s="221"/>
+      <c r="M28" s="227" t="e">
+        <f>1/H28</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N28" s="71"/>
-      <c r="O28" s="228" t="e">
-        <f>L28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P28" s="268" t="s">
+      <c r="O28" s="71"/>
+      <c r="P28" s="228" t="e">
+        <f>M28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q28" s="268" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:17">
       <c r="B29" s="49"/>
       <c r="C29" s="17" t="s">
         <v>430</v>
@@ -35710,26 +35750,27 @@
       <c r="G29" s="566"/>
       <c r="H29" s="566"/>
       <c r="I29" s="566"/>
-      <c r="J29" s="600"/>
-      <c r="K29" s="221">
+      <c r="J29" s="566"/>
+      <c r="K29" s="600"/>
+      <c r="L29" s="221">
         <f>F29</f>
         <v>0</v>
       </c>
-      <c r="L29" s="227"/>
-      <c r="M29" s="493">
-        <f>I29</f>
+      <c r="M29" s="227"/>
+      <c r="N29" s="493">
+        <f>J29</f>
         <v>0</v>
       </c>
-      <c r="N29" s="493"/>
-      <c r="O29" s="228">
-        <f>K29</f>
+      <c r="O29" s="493"/>
+      <c r="P29" s="228">
+        <f>L29</f>
         <v>0</v>
       </c>
-      <c r="P29" s="268" t="s">
+      <c r="Q29" s="268" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:17">
       <c r="B30" s="49"/>
       <c r="C30" s="17" t="s">
         <v>413</v>
@@ -35742,23 +35783,24 @@
       <c r="G30" s="566"/>
       <c r="H30" s="566"/>
       <c r="I30" s="566"/>
-      <c r="J30" s="600"/>
-      <c r="K30" s="221">
+      <c r="J30" s="566"/>
+      <c r="K30" s="600"/>
+      <c r="L30" s="221">
         <f>F30</f>
         <v>0</v>
       </c>
-      <c r="L30" s="227"/>
-      <c r="M30" s="71"/>
+      <c r="M30" s="227"/>
       <c r="N30" s="71"/>
-      <c r="O30" s="228">
-        <f>K30</f>
+      <c r="O30" s="71"/>
+      <c r="P30" s="228">
+        <f>L30</f>
         <v>0</v>
       </c>
-      <c r="P30" s="268" t="s">
+      <c r="Q30" s="268" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:17">
       <c r="B31" s="67"/>
       <c r="C31" s="17" t="s">
         <v>417</v>
@@ -35771,23 +35813,24 @@
       <c r="G31" s="566"/>
       <c r="H31" s="566"/>
       <c r="I31" s="566"/>
-      <c r="J31" s="600"/>
-      <c r="K31" s="221"/>
-      <c r="L31" s="227" t="e">
-        <f>1/G31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31" s="71"/>
+      <c r="J31" s="566"/>
+      <c r="K31" s="600"/>
+      <c r="L31" s="221"/>
+      <c r="M31" s="227" t="e">
+        <f>1/H31</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N31" s="71"/>
-      <c r="O31" s="228" t="e">
-        <f>L31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P31" s="268" t="s">
+      <c r="O31" s="71"/>
+      <c r="P31" s="228" t="e">
+        <f>M31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q31" s="268" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:17">
       <c r="B32" s="67"/>
       <c r="C32" s="17" t="s">
         <v>423</v>
@@ -35800,23 +35843,24 @@
       <c r="G32" s="566"/>
       <c r="H32" s="566"/>
       <c r="I32" s="566"/>
-      <c r="J32" s="600"/>
-      <c r="K32" s="221">
-        <f t="shared" ref="K32:K37" si="0">F32</f>
+      <c r="J32" s="566"/>
+      <c r="K32" s="600"/>
+      <c r="L32" s="221">
+        <f t="shared" ref="L32:L37" si="1">F32</f>
         <v>0</v>
       </c>
-      <c r="L32" s="227"/>
-      <c r="M32" s="71"/>
+      <c r="M32" s="227"/>
       <c r="N32" s="71"/>
-      <c r="O32" s="228">
-        <f t="shared" ref="O32:O36" si="1">K32</f>
+      <c r="O32" s="71"/>
+      <c r="P32" s="228">
+        <f t="shared" ref="P32:P36" si="2">L32</f>
         <v>0</v>
       </c>
-      <c r="P32" s="268" t="s">
+      <c r="Q32" s="268" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:17">
       <c r="B33" s="67"/>
       <c r="C33" s="17" t="s">
         <v>424</v>
@@ -35829,23 +35873,24 @@
       <c r="G33" s="566"/>
       <c r="H33" s="566"/>
       <c r="I33" s="566"/>
-      <c r="J33" s="600"/>
-      <c r="K33" s="221">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="227"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="228">
+      <c r="J33" s="566"/>
+      <c r="K33" s="600"/>
+      <c r="L33" s="221">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P33" s="268" t="s">
+      <c r="M33" s="227"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="228">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="268" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:17">
       <c r="B34" s="67"/>
       <c r="C34" s="17" t="s">
         <v>425</v>
@@ -35858,23 +35903,24 @@
       <c r="G34" s="566"/>
       <c r="H34" s="566"/>
       <c r="I34" s="566"/>
-      <c r="J34" s="600"/>
-      <c r="K34" s="221">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="227"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="228">
+      <c r="J34" s="566"/>
+      <c r="K34" s="600"/>
+      <c r="L34" s="221">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P34" s="268" t="s">
+      <c r="M34" s="227"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="228">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="268" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:17">
       <c r="B35" s="67"/>
       <c r="C35" s="17" t="s">
         <v>426</v>
@@ -35887,23 +35933,24 @@
       <c r="G35" s="566"/>
       <c r="H35" s="566"/>
       <c r="I35" s="566"/>
-      <c r="J35" s="600"/>
-      <c r="K35" s="221">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="227"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="228">
+      <c r="J35" s="566"/>
+      <c r="K35" s="600"/>
+      <c r="L35" s="221">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P35" s="268" t="s">
+      <c r="M35" s="227"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="228">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="268" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:17">
       <c r="B36" s="67"/>
       <c r="C36" s="17" t="s">
         <v>427</v>
@@ -35916,23 +35963,24 @@
       <c r="G36" s="566"/>
       <c r="H36" s="566"/>
       <c r="I36" s="566"/>
-      <c r="J36" s="600"/>
-      <c r="K36" s="221">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="227"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="228">
+      <c r="J36" s="566"/>
+      <c r="K36" s="600"/>
+      <c r="L36" s="221">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P36" s="268" t="s">
+      <c r="M36" s="227"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="228">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="268" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:17">
       <c r="B37" s="67"/>
       <c r="C37" s="17" t="s">
         <v>428</v>
@@ -35945,100 +35993,106 @@
       <c r="G37" s="566"/>
       <c r="H37" s="566"/>
       <c r="I37" s="566"/>
-      <c r="J37" s="600"/>
-      <c r="K37" s="221">
-        <f t="shared" si="0"/>
+      <c r="J37" s="566"/>
+      <c r="K37" s="600"/>
+      <c r="L37" s="221">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L37" s="227"/>
-      <c r="M37" s="493">
-        <f>I37</f>
+      <c r="M37" s="227"/>
+      <c r="N37" s="493">
+        <f>J37</f>
         <v>0</v>
       </c>
-      <c r="N37" s="493"/>
-      <c r="O37" s="228">
-        <f>K37</f>
+      <c r="O37" s="493"/>
+      <c r="P37" s="228">
+        <f>L37</f>
         <v>0</v>
       </c>
-      <c r="P37" s="268" t="s">
+      <c r="Q37" s="268" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:17">
       <c r="B38" s="67"/>
       <c r="C38" s="17" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="19" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F38" s="566"/>
       <c r="G38" s="566"/>
       <c r="H38" s="566"/>
       <c r="I38" s="566"/>
-      <c r="J38" s="600"/>
-      <c r="K38" s="221"/>
-      <c r="L38" s="227" t="e">
-        <f>(1-H38)/G38</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M38" s="493"/>
+      <c r="J38" s="566"/>
+      <c r="K38" s="600"/>
+      <c r="L38" s="221"/>
+      <c r="M38" s="227" t="e">
+        <f>(1-I38)/H38</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N38" s="493"/>
-      <c r="O38" s="228" t="e">
-        <f>L38</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P38" s="268" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16">
+      <c r="O38" s="493"/>
+      <c r="P38" s="228" t="e">
+        <f>M38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q38" s="268" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17">
       <c r="B39" s="67"/>
       <c r="C39" s="17" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="19"/>
       <c r="F39" s="566">
-        <f>F38</f>
+        <f t="shared" ref="F39:K39" si="3">F38</f>
         <v>0</v>
       </c>
       <c r="G39" s="566">
-        <f>G38</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H39" s="566">
-        <f>H38</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I39" s="566">
-        <f>I38</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J39" s="600">
-        <f>J38</f>
+      <c r="J39" s="566">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K39" s="221">
-        <f>F39</f>
+      <c r="K39" s="600">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L39" s="227"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="566">
-        <f>H39</f>
+      <c r="L39" s="221">
+        <f>G39</f>
         <v>0</v>
       </c>
-      <c r="O39" s="228">
-        <f>K39</f>
+      <c r="M39" s="227"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="566">
+        <f>I39*G39</f>
         <v>0</v>
       </c>
-      <c r="P39" s="268" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16">
+      <c r="P39" s="228">
+        <f>L39</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="268" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17">
       <c r="B40" s="31"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -36047,15 +36101,16 @@
       <c r="G40" s="568"/>
       <c r="H40" s="568"/>
       <c r="I40" s="568"/>
-      <c r="J40" s="602"/>
-      <c r="K40" s="224"/>
-      <c r="L40" s="231"/>
-      <c r="M40" s="193"/>
+      <c r="J40" s="568"/>
+      <c r="K40" s="602"/>
+      <c r="L40" s="224"/>
+      <c r="M40" s="231"/>
       <c r="N40" s="193"/>
-      <c r="O40" s="233"/>
-      <c r="P40" s="220"/>
-    </row>
-    <row r="41" spans="2:16">
+      <c r="O40" s="193"/>
+      <c r="P40" s="233"/>
+      <c r="Q40" s="220"/>
+    </row>
+    <row r="41" spans="2:17">
       <c r="B41" s="48" t="s">
         <v>89</v>
       </c>
@@ -36066,15 +36121,16 @@
       <c r="G41" s="569"/>
       <c r="H41" s="569"/>
       <c r="I41" s="569"/>
-      <c r="J41" s="603"/>
-      <c r="K41" s="225"/>
-      <c r="L41" s="234"/>
-      <c r="M41" s="202"/>
+      <c r="J41" s="569"/>
+      <c r="K41" s="603"/>
+      <c r="L41" s="225"/>
+      <c r="M41" s="234"/>
       <c r="N41" s="202"/>
-      <c r="O41" s="235"/>
-      <c r="P41" s="220"/>
-    </row>
-    <row r="42" spans="2:16">
+      <c r="O41" s="202"/>
+      <c r="P41" s="235"/>
+      <c r="Q41" s="220"/>
+    </row>
+    <row r="42" spans="2:17">
       <c r="B42" s="67"/>
       <c r="C42" s="17" t="s">
         <v>345</v>
@@ -36087,23 +36143,24 @@
       <c r="G42" s="566"/>
       <c r="H42" s="566"/>
       <c r="I42" s="566"/>
-      <c r="J42" s="600"/>
-      <c r="K42" s="221"/>
-      <c r="L42" s="227" t="e">
-        <f>1/G42</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M42" s="71"/>
+      <c r="J42" s="566"/>
+      <c r="K42" s="600"/>
+      <c r="L42" s="221"/>
+      <c r="M42" s="227" t="e">
+        <f>1/H42</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N42" s="71"/>
-      <c r="O42" s="228" t="e">
-        <f>L42</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P42" s="268" t="s">
+      <c r="O42" s="71"/>
+      <c r="P42" s="228" t="e">
+        <f>M42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q42" s="268" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:17">
       <c r="B43" s="67"/>
       <c r="C43" s="17" t="s">
         <v>344</v>
@@ -36116,23 +36173,24 @@
       <c r="G43" s="566"/>
       <c r="H43" s="566"/>
       <c r="I43" s="566"/>
-      <c r="J43" s="600"/>
-      <c r="K43" s="221"/>
-      <c r="L43" s="227" t="e">
-        <f>1/G43</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M43" s="71"/>
+      <c r="J43" s="566"/>
+      <c r="K43" s="600"/>
+      <c r="L43" s="221"/>
+      <c r="M43" s="227" t="e">
+        <f>1/H43</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N43" s="71"/>
-      <c r="O43" s="228" t="e">
-        <f>L43</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P43" s="268" t="s">
+      <c r="O43" s="71"/>
+      <c r="P43" s="228" t="e">
+        <f>M43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q43" s="268" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:17">
       <c r="B44" s="67"/>
       <c r="C44" s="17" t="s">
         <v>346</v>
@@ -36145,23 +36203,24 @@
       <c r="G44" s="566"/>
       <c r="H44" s="566"/>
       <c r="I44" s="566"/>
-      <c r="J44" s="600"/>
-      <c r="K44" s="221"/>
-      <c r="L44" s="227" t="e">
-        <f>1/G44</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M44" s="71"/>
+      <c r="J44" s="566"/>
+      <c r="K44" s="600"/>
+      <c r="L44" s="221"/>
+      <c r="M44" s="227" t="e">
+        <f>1/H44</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N44" s="71"/>
-      <c r="O44" s="228" t="e">
-        <f>L44</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P44" s="268" t="s">
+      <c r="O44" s="71"/>
+      <c r="P44" s="228" t="e">
+        <f>M44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q44" s="268" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:17">
       <c r="B45" s="44"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -36170,15 +36229,16 @@
       <c r="G45" s="567"/>
       <c r="H45" s="567"/>
       <c r="I45" s="567"/>
-      <c r="J45" s="601"/>
-      <c r="K45" s="222"/>
-      <c r="L45" s="229"/>
-      <c r="M45" s="197"/>
+      <c r="J45" s="567"/>
+      <c r="K45" s="601"/>
+      <c r="L45" s="222"/>
+      <c r="M45" s="229"/>
       <c r="N45" s="197"/>
-      <c r="O45" s="230"/>
-      <c r="P45" s="220"/>
-    </row>
-    <row r="46" spans="2:16">
+      <c r="O45" s="197"/>
+      <c r="P45" s="230"/>
+      <c r="Q45" s="220"/>
+    </row>
+    <row r="46" spans="2:17">
       <c r="B46" s="49" t="s">
         <v>281</v>
       </c>
@@ -36189,15 +36249,16 @@
       <c r="G46" s="568"/>
       <c r="H46" s="568"/>
       <c r="I46" s="568"/>
-      <c r="J46" s="602"/>
-      <c r="K46" s="223"/>
-      <c r="L46" s="231"/>
-      <c r="M46" s="193"/>
+      <c r="J46" s="568"/>
+      <c r="K46" s="602"/>
+      <c r="L46" s="223"/>
+      <c r="M46" s="231"/>
       <c r="N46" s="193"/>
-      <c r="O46" s="232"/>
-      <c r="P46" s="220"/>
-    </row>
-    <row r="47" spans="2:16">
+      <c r="O46" s="193"/>
+      <c r="P46" s="232"/>
+      <c r="Q46" s="220"/>
+    </row>
+    <row r="47" spans="2:17">
       <c r="B47" s="49"/>
       <c r="C47" s="17" t="s">
         <v>355</v>
@@ -36210,23 +36271,24 @@
       <c r="G47" s="566"/>
       <c r="H47" s="566"/>
       <c r="I47" s="566"/>
-      <c r="J47" s="600"/>
-      <c r="K47" s="221">
+      <c r="J47" s="566"/>
+      <c r="K47" s="600"/>
+      <c r="L47" s="221">
         <f>F47</f>
         <v>0</v>
       </c>
-      <c r="L47" s="227"/>
-      <c r="M47" s="71"/>
+      <c r="M47" s="227"/>
       <c r="N47" s="71"/>
-      <c r="O47" s="228">
-        <f>K47</f>
+      <c r="O47" s="71"/>
+      <c r="P47" s="228">
+        <f>L47</f>
         <v>0</v>
       </c>
-      <c r="P47" s="268" t="s">
+      <c r="Q47" s="268" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:17">
       <c r="B48" s="49"/>
       <c r="C48" s="17" t="s">
         <v>405</v>
@@ -36239,23 +36301,24 @@
       <c r="G48" s="566"/>
       <c r="H48" s="566"/>
       <c r="I48" s="566"/>
-      <c r="J48" s="600"/>
-      <c r="K48" s="221">
+      <c r="J48" s="566"/>
+      <c r="K48" s="600"/>
+      <c r="L48" s="221">
         <f>F48</f>
         <v>0</v>
       </c>
-      <c r="L48" s="227"/>
-      <c r="M48" s="71"/>
+      <c r="M48" s="227"/>
       <c r="N48" s="71"/>
-      <c r="O48" s="228">
-        <f t="shared" ref="O48:O51" si="2">K48</f>
+      <c r="O48" s="71"/>
+      <c r="P48" s="228">
+        <f t="shared" ref="P48:P51" si="4">L48</f>
         <v>0</v>
       </c>
-      <c r="P48" s="268" t="s">
+      <c r="Q48" s="268" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="49" spans="2:16">
+    <row r="49" spans="2:17">
       <c r="B49" s="49"/>
       <c r="C49" s="17" t="s">
         <v>356</v>
@@ -36268,23 +36331,24 @@
       <c r="G49" s="566"/>
       <c r="H49" s="566"/>
       <c r="I49" s="566"/>
-      <c r="J49" s="600"/>
-      <c r="K49" s="221">
+      <c r="J49" s="566"/>
+      <c r="K49" s="600"/>
+      <c r="L49" s="221">
         <f>F49</f>
         <v>0</v>
       </c>
-      <c r="L49" s="227"/>
-      <c r="M49" s="71"/>
+      <c r="M49" s="227"/>
       <c r="N49" s="71"/>
-      <c r="O49" s="228">
-        <f t="shared" si="2"/>
+      <c r="O49" s="71"/>
+      <c r="P49" s="228">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P49" s="268" t="s">
+      <c r="Q49" s="268" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="50" spans="2:16">
+    <row r="50" spans="2:17">
       <c r="B50" s="49"/>
       <c r="C50" s="17" t="s">
         <v>357</v>
@@ -36297,23 +36361,24 @@
       <c r="G50" s="566"/>
       <c r="H50" s="566"/>
       <c r="I50" s="566"/>
-      <c r="J50" s="600"/>
-      <c r="K50" s="221">
+      <c r="J50" s="566"/>
+      <c r="K50" s="600"/>
+      <c r="L50" s="221">
         <f>F50</f>
         <v>0</v>
       </c>
-      <c r="L50" s="227"/>
-      <c r="M50" s="71"/>
+      <c r="M50" s="227"/>
       <c r="N50" s="71"/>
-      <c r="O50" s="228">
-        <f t="shared" si="2"/>
+      <c r="O50" s="71"/>
+      <c r="P50" s="228">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P50" s="268" t="s">
+      <c r="Q50" s="268" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="51" spans="2:16">
+    <row r="51" spans="2:17">
       <c r="B51" s="67"/>
       <c r="C51" s="17" t="s">
         <v>358</v>
@@ -36326,23 +36391,24 @@
       <c r="G51" s="566"/>
       <c r="H51" s="566"/>
       <c r="I51" s="566"/>
-      <c r="J51" s="600"/>
-      <c r="K51" s="221">
+      <c r="J51" s="566"/>
+      <c r="K51" s="600"/>
+      <c r="L51" s="221">
         <f>F51</f>
         <v>0</v>
       </c>
-      <c r="L51" s="227"/>
-      <c r="M51" s="71"/>
+      <c r="M51" s="227"/>
       <c r="N51" s="71"/>
-      <c r="O51" s="228">
-        <f t="shared" si="2"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="228">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P51" s="268" t="s">
+      <c r="Q51" s="268" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="52" spans="2:16">
+    <row r="52" spans="2:17">
       <c r="B52" s="118"/>
       <c r="C52" s="45"/>
       <c r="D52" s="45"/>
@@ -36351,15 +36417,16 @@
       <c r="G52" s="570"/>
       <c r="H52" s="570"/>
       <c r="I52" s="570"/>
-      <c r="J52" s="605"/>
-      <c r="K52" s="226"/>
-      <c r="L52" s="236"/>
-      <c r="M52" s="237"/>
+      <c r="J52" s="570"/>
+      <c r="K52" s="605"/>
+      <c r="L52" s="226"/>
+      <c r="M52" s="236"/>
       <c r="N52" s="237"/>
-      <c r="O52" s="238"/>
-      <c r="P52" s="220"/>
-    </row>
-    <row r="53" spans="2:16">
+      <c r="O52" s="237"/>
+      <c r="P52" s="238"/>
+      <c r="Q52" s="220"/>
+    </row>
+    <row r="53" spans="2:17">
       <c r="B53" s="38" t="s">
         <v>76</v>
       </c>
@@ -36370,15 +36437,16 @@
       <c r="G53" s="568"/>
       <c r="H53" s="568"/>
       <c r="I53" s="568"/>
-      <c r="J53" s="602"/>
-      <c r="K53" s="224"/>
-      <c r="L53" s="231"/>
-      <c r="M53" s="193"/>
+      <c r="J53" s="568"/>
+      <c r="K53" s="602"/>
+      <c r="L53" s="224"/>
+      <c r="M53" s="231"/>
       <c r="N53" s="193"/>
-      <c r="O53" s="233"/>
-      <c r="P53" s="220"/>
-    </row>
-    <row r="54" spans="2:16">
+      <c r="O53" s="193"/>
+      <c r="P53" s="233"/>
+      <c r="Q53" s="220"/>
+    </row>
+    <row r="54" spans="2:17">
       <c r="B54" s="67"/>
       <c r="C54" s="17" t="s">
         <v>99</v>
@@ -36391,20 +36459,21 @@
       <c r="G54" s="566"/>
       <c r="H54" s="566"/>
       <c r="I54" s="566"/>
-      <c r="J54" s="600"/>
-      <c r="K54" s="221"/>
-      <c r="L54" s="227"/>
-      <c r="M54" s="71"/>
+      <c r="J54" s="566"/>
+      <c r="K54" s="600"/>
+      <c r="L54" s="221"/>
+      <c r="M54" s="227"/>
       <c r="N54" s="71"/>
-      <c r="O54" s="560">
-        <f>J54</f>
+      <c r="O54" s="71"/>
+      <c r="P54" s="560">
+        <f>K54</f>
         <v>0</v>
       </c>
-      <c r="P54" s="268" t="s">
+      <c r="Q54" s="268" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="55" spans="2:16">
+    <row r="55" spans="2:17">
       <c r="B55" s="67"/>
       <c r="C55" s="17" t="s">
         <v>351</v>
@@ -36417,20 +36486,21 @@
       <c r="G55" s="566"/>
       <c r="H55" s="566"/>
       <c r="I55" s="566"/>
-      <c r="J55" s="600"/>
-      <c r="K55" s="221"/>
-      <c r="L55" s="227"/>
-      <c r="M55" s="71"/>
+      <c r="J55" s="566"/>
+      <c r="K55" s="600"/>
+      <c r="L55" s="221"/>
+      <c r="M55" s="227"/>
       <c r="N55" s="71"/>
-      <c r="O55" s="560">
-        <f>J55</f>
+      <c r="O55" s="71"/>
+      <c r="P55" s="560">
+        <f>K55</f>
         <v>0</v>
       </c>
-      <c r="P55" s="268" t="s">
+      <c r="Q55" s="268" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="56" spans="2:16">
+    <row r="56" spans="2:17">
       <c r="B56" s="67"/>
       <c r="C56" s="17" t="s">
         <v>100</v>
@@ -36443,20 +36513,21 @@
       <c r="G56" s="566"/>
       <c r="H56" s="566"/>
       <c r="I56" s="566"/>
-      <c r="J56" s="600"/>
-      <c r="K56" s="221"/>
-      <c r="L56" s="227"/>
-      <c r="M56" s="71"/>
+      <c r="J56" s="566"/>
+      <c r="K56" s="600"/>
+      <c r="L56" s="221"/>
+      <c r="M56" s="227"/>
       <c r="N56" s="71"/>
-      <c r="O56" s="560">
-        <f>J56</f>
+      <c r="O56" s="71"/>
+      <c r="P56" s="560">
+        <f>K56</f>
         <v>0</v>
       </c>
-      <c r="P56" s="268" t="s">
+      <c r="Q56" s="268" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="57" spans="2:16" ht="16" thickBot="1">
+    <row r="57" spans="2:17" ht="16" thickBot="1">
       <c r="B57" s="47"/>
       <c r="C57" s="77"/>
       <c r="D57" s="77"/>
@@ -36465,25 +36536,27 @@
       <c r="G57" s="571"/>
       <c r="H57" s="571"/>
       <c r="I57" s="571"/>
-      <c r="J57" s="606"/>
-      <c r="K57" s="129"/>
-      <c r="L57" s="77"/>
+      <c r="J57" s="571"/>
+      <c r="K57" s="606"/>
+      <c r="L57" s="129"/>
       <c r="M57" s="77"/>
       <c r="N57" s="77"/>
-      <c r="O57" s="139"/>
-    </row>
-    <row r="58" spans="2:16">
+      <c r="O57" s="77"/>
+      <c r="P57" s="139"/>
+    </row>
+    <row r="58" spans="2:17">
       <c r="F58" s="572"/>
       <c r="G58" s="572"/>
       <c r="H58" s="572"/>
       <c r="I58" s="572"/>
       <c r="J58" s="572"/>
+      <c r="K58" s="572"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="O31 O13:O16" formula="1"/>
+    <ignoredError sqref="P31 P13:P16" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/analyses/6_residences_analysis.xlsx
+++ b/analyses/6_residences_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCBBC84-92C4-A947-AF16-024196262BF0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5243A92-8D52-5E41-9EF9-F5140E3D40E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34760" windowHeight="28340" tabRatio="932" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34760" windowHeight="28340" tabRatio="932" firstSheet="33" activeTab="37" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -50,12 +50,10 @@
     <sheet name="csv_heating_insulation_semi_det" sheetId="110" r:id="rId35"/>
     <sheet name="csv_heating_insulation_terraced" sheetId="111" r:id="rId36"/>
     <sheet name="csv_solar_hot_water_chld" sheetId="102" r:id="rId37"/>
-    <sheet name="csv_solar_heater_and_p2h_parent" sheetId="104" r:id="rId38"/>
-    <sheet name="csv_hot_water_p2h_child" sheetId="106" r:id="rId39"/>
-    <sheet name="csv_export_to_area_analysis" sheetId="107" r:id="rId40"/>
+    <sheet name="csv_export_to_area_analysis" sheetId="107" r:id="rId38"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId41"/>
+    <externalReference r:id="rId39"/>
   </externalReferences>
   <definedNames>
     <definedName name="base_year">Dashboard!$E$12</definedName>
@@ -120,6 +118,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -128,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="864">
   <si>
     <t>Changelog</t>
   </si>
@@ -2114,9 +2118,6 @@
   </si>
   <si>
     <t>Automatically import/export analysis data</t>
-  </si>
-  <si>
-    <t>This is a fixed share, manually set to 1/0 !!</t>
   </si>
   <si>
     <t xml:space="preserve">This is a parent_share that is required for making the graph work. Theoretically, it could be removed, as it does not add extra information. </t>
@@ -2492,21 +2493,6 @@
     <t>electricity-driven heat pump (air)</t>
   </si>
   <si>
-    <t>residences_useful_demand_for_hot_water_after_solar_heater_and_p2h_parent_share</t>
-  </si>
-  <si>
-    <t>households_useful_demand_for_hot_water_for_houses_with_p2h</t>
-  </si>
-  <si>
-    <t>residences_useful_demand_for_hot_water_for_houses_with_p2h_child_share</t>
-  </si>
-  <si>
-    <t>households_flexibility_p2h_electricity</t>
-  </si>
-  <si>
-    <t>households_useful_demand_for_hot_water_after_solar_heater_and_p2h</t>
-  </si>
-  <si>
     <t>households_space_heater_hybrid_heatpump_air_water_electricity.converter</t>
   </si>
   <si>
@@ -2732,13 +2718,13 @@
     <t>average_heat_demand_terraced_houses</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Electric Heat Pump (ground)</t>
   </si>
   <si>
     <t>Electric Heat Pump  (ground)</t>
+  </si>
+  <si>
+    <t>nl</t>
   </si>
 </sst>
 </file>
@@ -6431,7 +6417,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="669">
+  <cellXfs count="666">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -7148,7 +7134,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -7170,7 +7155,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -7485,7 +7469,6 @@
     <xf numFmtId="9" fontId="0" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -9985,7 +9968,7 @@
     <cellStyle name="Linked Cell" xfId="818" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="713" xr:uid="{00000000-0005-0000-0000-00005F090000}"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="714" xr:uid="{00000000-0005-0000-0000-000061090000}"/>
     <cellStyle name="Percent 3" xfId="892" xr:uid="{00000000-0005-0000-0000-000062090000}"/>
     <cellStyle name="Warning Text 3" xfId="715" xr:uid="{00000000-0005-0000-0000-000063090000}"/>
@@ -13332,7 +13315,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13401,7 +13384,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13470,7 +13453,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13861,7 +13844,7 @@
       </c>
       <c r="C4" s="4" t="str">
         <f>"Residence analysis "&amp;C6&amp;" "&amp;C7</f>
-        <v>Residence analysis example 2011</v>
+        <v>Residence analysis nl 2015</v>
       </c>
       <c r="D4" s="5"/>
     </row>
@@ -13869,7 +13852,7 @@
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="437">
+      <c r="C5" s="436">
         <f>MAX(Changelog!D:D)</f>
         <v>2.2000000000000002</v>
       </c>
@@ -13881,7 +13864,7 @@
       </c>
       <c r="C6" s="146" t="str">
         <f>Dashboard!E11</f>
-        <v>example</v>
+        <v>nl</v>
       </c>
       <c r="D6" s="7"/>
     </row>
@@ -13891,7 +13874,7 @@
       </c>
       <c r="C7" s="147">
         <f>Dashboard!E12</f>
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -14030,7 +14013,7 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="21"/>
-      <c r="C27" s="453"/>
+      <c r="C27" s="451"/>
       <c r="D27" s="11"/>
     </row>
     <row r="29" spans="2:4">
@@ -14042,8 +14025,8 @@
     </row>
     <row r="30" spans="2:4" ht="68">
       <c r="B30" s="20"/>
-      <c r="C30" s="454" t="s">
-        <v>668</v>
+      <c r="C30" s="452" t="s">
+        <v>667</v>
       </c>
       <c r="D30" s="7"/>
     </row>
@@ -14146,12 +14129,12 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="656" t="s">
+      <c r="B5" s="653" t="s">
         <v>383</v>
       </c>
-      <c r="C5" s="666"/>
-      <c r="D5" s="666"/>
-      <c r="E5" s="657"/>
+      <c r="C5" s="663"/>
+      <c r="D5" s="663"/>
+      <c r="E5" s="654"/>
       <c r="F5" s="156"/>
     </row>
     <row r="6" spans="2:6" ht="17" thickBot="1"/>
@@ -14159,7 +14142,7 @@
       <c r="B7" s="153" t="s">
         <v>387</v>
       </c>
-      <c r="C7" s="469" t="s">
+      <c r="C7" s="467" t="s">
         <v>281</v>
       </c>
       <c r="D7" s="129" t="s">
@@ -14312,7 +14295,7 @@
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="464"/>
+      <c r="B20" s="462"/>
       <c r="C20" t="s">
         <v>278</v>
       </c>
@@ -14465,7 +14448,7 @@
     <row r="32" spans="2:6">
       <c r="B32" s="174"/>
       <c r="C32" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D32" s="331">
         <f>SUM('Final demand per energy carrier'!F61:F68)</f>
@@ -14493,14 +14476,14 @@
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="465"/>
+      <c r="B34" s="463"/>
       <c r="D34" s="332"/>
       <c r="E34" s="329"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="466" t="s">
-        <v>673</v>
+      <c r="B35" s="464" t="s">
+        <v>672</v>
       </c>
       <c r="C35" s="327"/>
       <c r="D35" s="333"/>
@@ -14538,7 +14521,7 @@
       <c r="F37" s="8"/>
     </row>
     <row r="38" spans="2:6" ht="17" thickBot="1">
-      <c r="B38" s="467"/>
+      <c r="B38" s="465"/>
       <c r="C38" s="77"/>
       <c r="D38" s="128"/>
       <c r="E38" s="78"/>
@@ -14595,13 +14578,13 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:7" ht="33" customHeight="1">
-      <c r="B5" s="656" t="s">
+      <c r="B5" s="653" t="s">
         <v>523</v>
       </c>
-      <c r="C5" s="666"/>
-      <c r="D5" s="666"/>
-      <c r="E5" s="666"/>
-      <c r="F5" s="657"/>
+      <c r="C5" s="663"/>
+      <c r="D5" s="663"/>
+      <c r="E5" s="663"/>
+      <c r="F5" s="654"/>
       <c r="G5" s="157"/>
     </row>
     <row r="6" spans="2:7" ht="17" thickBot="1"/>
@@ -14624,7 +14607,7 @@
       <c r="B8" s="172" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="468"/>
+      <c r="C8" s="466"/>
       <c r="D8" s="155"/>
       <c r="E8" s="326"/>
       <c r="F8" s="104"/>
@@ -15363,10 +15346,10 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="656" t="s">
-        <v>669</v>
-      </c>
-      <c r="C5" s="666"/>
+      <c r="B5" s="653" t="s">
+        <v>668</v>
+      </c>
+      <c r="C5" s="663"/>
       <c r="D5" s="20"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -15391,14 +15374,14 @@
     <row r="7" spans="1:13">
       <c r="A7" s="163"/>
       <c r="B7" s="164" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C7" s="165"/>
       <c r="D7" s="166"/>
       <c r="E7" s="166"/>
       <c r="F7" s="166"/>
       <c r="G7" s="166"/>
-      <c r="H7" s="536"/>
+      <c r="H7" s="534"/>
       <c r="I7" s="59"/>
       <c r="J7" s="59"/>
       <c r="K7" s="191"/>
@@ -15413,7 +15396,7 @@
       <c r="E8" s="159"/>
       <c r="F8" s="159"/>
       <c r="G8" s="159"/>
-      <c r="H8" s="537"/>
+      <c r="H8" s="535"/>
       <c r="I8" s="59"/>
       <c r="J8" s="59"/>
       <c r="K8" s="191"/>
@@ -15428,7 +15411,7 @@
       <c r="E9" s="159"/>
       <c r="F9" s="159"/>
       <c r="G9" s="159"/>
-      <c r="H9" s="537"/>
+      <c r="H9" s="535"/>
       <c r="I9" s="59"/>
       <c r="J9" s="59"/>
       <c r="K9" s="191"/>
@@ -15440,19 +15423,19 @@
       <c r="B10" s="170"/>
       <c r="C10" s="171"/>
       <c r="D10" s="171" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="E10" s="171" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="F10" s="171" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="G10" s="171" t="s">
-        <v>857</v>
-      </c>
-      <c r="H10" s="538" t="s">
-        <v>839</v>
+        <v>851</v>
+      </c>
+      <c r="H10" s="536" t="s">
+        <v>833</v>
       </c>
       <c r="I10" s="157"/>
       <c r="J10" s="157"/>
@@ -15462,8 +15445,8 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="163"/>
-      <c r="B11" s="541" t="s">
-        <v>688</v>
+      <c r="B11" s="539" t="s">
+        <v>687</v>
       </c>
       <c r="C11" s="105"/>
       <c r="D11" s="264">
@@ -15486,7 +15469,7 @@
         <f>Dashboard!E97</f>
         <v>0</v>
       </c>
-      <c r="I11" s="534"/>
+      <c r="I11" s="532"/>
       <c r="J11" s="163"/>
     </row>
     <row r="12" spans="1:13">
@@ -15502,30 +15485,30 @@
     </row>
     <row r="13" spans="1:13">
       <c r="B13" s="31" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C13" s="59"/>
-      <c r="D13" s="539">
+      <c r="D13" s="537">
         <f>Dashboard!E101</f>
         <v>0</v>
       </c>
-      <c r="E13" s="539">
+      <c r="E13" s="537">
         <f>Dashboard!E102</f>
         <v>0</v>
       </c>
-      <c r="F13" s="539">
+      <c r="F13" s="537">
         <f>Dashboard!E103</f>
         <v>0</v>
       </c>
-      <c r="G13" s="539">
+      <c r="G13" s="537">
         <f>Dashboard!E104</f>
         <v>0</v>
       </c>
-      <c r="H13" s="539">
+      <c r="H13" s="537">
         <f>Dashboard!E105</f>
         <v>0</v>
       </c>
-      <c r="I13" s="535"/>
+      <c r="I13" s="533"/>
       <c r="J13" s="163"/>
     </row>
     <row r="14" spans="1:13">
@@ -15552,7 +15535,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="31" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C16" s="59"/>
       <c r="D16" s="286" t="e">
@@ -15585,7 +15568,7 @@
       <c r="E17" s="160"/>
       <c r="F17" s="160"/>
       <c r="G17" s="160"/>
-      <c r="H17" s="540"/>
+      <c r="H17" s="538"/>
       <c r="I17" s="163"/>
       <c r="J17" s="163"/>
     </row>
@@ -15745,7 +15728,7 @@
   </sheetPr>
   <dimension ref="B2:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
@@ -15802,14 +15785,14 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="2:13" ht="30" customHeight="1">
-      <c r="B5" s="656" t="s">
+      <c r="B5" s="653" t="s">
         <v>280</v>
       </c>
-      <c r="C5" s="666"/>
-      <c r="D5" s="666"/>
-      <c r="E5" s="666"/>
-      <c r="F5" s="666"/>
-      <c r="G5" s="657"/>
+      <c r="C5" s="663"/>
+      <c r="D5" s="663"/>
+      <c r="E5" s="663"/>
+      <c r="F5" s="663"/>
+      <c r="G5" s="654"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -15864,13 +15847,13 @@
         <v>379</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F9" s="65" t="s">
         <v>411</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H9" s="65" t="s">
         <v>412</v>
@@ -15882,22 +15865,22 @@
         <v>414</v>
       </c>
       <c r="K9" s="112" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="528"/>
-      <c r="D10" s="528"/>
-      <c r="E10" s="529"/>
-      <c r="F10" s="529"/>
-      <c r="G10" s="529"/>
-      <c r="H10" s="529"/>
-      <c r="I10" s="529"/>
-      <c r="J10" s="529"/>
-      <c r="K10" s="530"/>
+      <c r="C10" s="526"/>
+      <c r="D10" s="526"/>
+      <c r="E10" s="527"/>
+      <c r="F10" s="527"/>
+      <c r="G10" s="527"/>
+      <c r="H10" s="527"/>
+      <c r="I10" s="527"/>
+      <c r="J10" s="527"/>
+      <c r="K10" s="528"/>
     </row>
     <row r="11" spans="2:13" s="72" customFormat="1">
       <c r="B11" s="73"/>
@@ -15905,31 +15888,31 @@
         <v>95</v>
       </c>
       <c r="D11" s="428"/>
-      <c r="E11" s="533">
+      <c r="E11" s="531">
         <f>Final_demand_gas</f>
         <v>0</v>
       </c>
-      <c r="F11" s="531">
+      <c r="F11" s="529">
         <f>Final_demand_electricity</f>
         <v>0</v>
       </c>
-      <c r="G11" s="531">
+      <c r="G11" s="529">
         <f>Final_demand_solar_thermal</f>
         <v>0</v>
       </c>
-      <c r="H11" s="531">
+      <c r="H11" s="529">
         <f>Final_demand_coal</f>
         <v>0</v>
       </c>
-      <c r="I11" s="531">
+      <c r="I11" s="529">
         <f>Final_demand_oil</f>
         <v>0</v>
       </c>
-      <c r="J11" s="531">
+      <c r="J11" s="529">
         <f>Final_demand_woodpellets</f>
         <v>0</v>
       </c>
-      <c r="K11" s="532">
+      <c r="K11" s="530">
         <f>Final_demand_heat</f>
         <v>0</v>
       </c>
@@ -16184,9 +16167,9 @@
     <row r="24" spans="2:13">
       <c r="B24" s="49"/>
       <c r="C24" s="267" t="s">
-        <v>804</v>
-      </c>
-      <c r="D24" s="625" t="e">
+        <v>798</v>
+      </c>
+      <c r="D24" s="622" t="e">
         <f>'Technology split final demand'!I20</f>
         <v>#DIV/0!</v>
       </c>
@@ -16206,9 +16189,9 @@
     <row r="25" spans="2:13">
       <c r="B25" s="49"/>
       <c r="C25" s="268" t="s">
-        <v>799</v>
-      </c>
-      <c r="D25" s="622" t="e">
+        <v>793</v>
+      </c>
+      <c r="D25" s="619" t="e">
         <f>'Technology split final demand'!I21</f>
         <v>#DIV/0!</v>
       </c>
@@ -16227,8 +16210,8 @@
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="269"/>
-      <c r="C26" s="624" t="s">
-        <v>805</v>
+      <c r="C26" s="621" t="s">
+        <v>799</v>
       </c>
       <c r="D26" s="154"/>
       <c r="E26" s="288"/>
@@ -16451,7 +16434,7 @@
         <f>'Technology split final demand'!C33</f>
         <v>Hybrid heatpump, heatpump part (hot water)</v>
       </c>
-      <c r="D37" s="625" t="e">
+      <c r="D37" s="622" t="e">
         <f>'Technology split final demand'!I33</f>
         <v>#DIV/0!</v>
       </c>
@@ -16879,16 +16862,16 @@
         <f>Dashboard!E77</f>
         <v>0</v>
       </c>
-      <c r="E61" s="488"/>
-      <c r="F61" s="490">
+      <c r="E61" s="486"/>
+      <c r="F61" s="488">
         <f t="shared" ref="F61:F68" si="0">D61*Final_demand_appliances</f>
         <v>0</v>
       </c>
-      <c r="G61" s="490"/>
-      <c r="H61" s="490"/>
-      <c r="I61" s="490"/>
-      <c r="J61" s="490"/>
-      <c r="K61" s="485"/>
+      <c r="G61" s="488"/>
+      <c r="H61" s="488"/>
+      <c r="I61" s="488"/>
+      <c r="J61" s="488"/>
+      <c r="K61" s="483"/>
       <c r="L61" s="31"/>
       <c r="M61" s="175"/>
     </row>
@@ -16901,16 +16884,16 @@
         <f>Dashboard!E78</f>
         <v>0</v>
       </c>
-      <c r="E62" s="488"/>
-      <c r="F62" s="490">
+      <c r="E62" s="486"/>
+      <c r="F62" s="488">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G62" s="490"/>
-      <c r="H62" s="490"/>
-      <c r="I62" s="490"/>
-      <c r="J62" s="490"/>
-      <c r="K62" s="486"/>
+      <c r="G62" s="488"/>
+      <c r="H62" s="488"/>
+      <c r="I62" s="488"/>
+      <c r="J62" s="488"/>
+      <c r="K62" s="484"/>
       <c r="L62" s="31"/>
       <c r="M62" s="175"/>
     </row>
@@ -16923,16 +16906,16 @@
         <f>Dashboard!E79</f>
         <v>0</v>
       </c>
-      <c r="E63" s="488"/>
-      <c r="F63" s="490">
+      <c r="E63" s="486"/>
+      <c r="F63" s="488">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G63" s="490"/>
-      <c r="H63" s="490"/>
-      <c r="I63" s="490"/>
-      <c r="J63" s="490"/>
-      <c r="K63" s="486"/>
+      <c r="G63" s="488"/>
+      <c r="H63" s="488"/>
+      <c r="I63" s="488"/>
+      <c r="J63" s="488"/>
+      <c r="K63" s="484"/>
       <c r="L63" s="31"/>
       <c r="M63" s="175"/>
     </row>
@@ -16945,16 +16928,16 @@
         <f>Dashboard!E80</f>
         <v>0</v>
       </c>
-      <c r="E64" s="488"/>
-      <c r="F64" s="490">
+      <c r="E64" s="486"/>
+      <c r="F64" s="488">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G64" s="490"/>
-      <c r="H64" s="490"/>
-      <c r="I64" s="490"/>
-      <c r="J64" s="490"/>
-      <c r="K64" s="486"/>
+      <c r="G64" s="488"/>
+      <c r="H64" s="488"/>
+      <c r="I64" s="488"/>
+      <c r="J64" s="488"/>
+      <c r="K64" s="484"/>
       <c r="L64" s="31"/>
       <c r="M64" s="175"/>
     </row>
@@ -16967,16 +16950,16 @@
         <f>Dashboard!E81</f>
         <v>0</v>
       </c>
-      <c r="E65" s="488"/>
-      <c r="F65" s="490">
+      <c r="E65" s="486"/>
+      <c r="F65" s="488">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G65" s="490"/>
-      <c r="H65" s="490"/>
-      <c r="I65" s="490"/>
-      <c r="J65" s="490"/>
-      <c r="K65" s="486"/>
+      <c r="G65" s="488"/>
+      <c r="H65" s="488"/>
+      <c r="I65" s="488"/>
+      <c r="J65" s="488"/>
+      <c r="K65" s="484"/>
       <c r="L65" s="31"/>
       <c r="M65" s="175"/>
     </row>
@@ -16989,16 +16972,16 @@
         <f>Dashboard!E82</f>
         <v>0</v>
       </c>
-      <c r="E66" s="488"/>
-      <c r="F66" s="490">
+      <c r="E66" s="486"/>
+      <c r="F66" s="488">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G66" s="490"/>
-      <c r="H66" s="490"/>
-      <c r="I66" s="490"/>
-      <c r="J66" s="490"/>
-      <c r="K66" s="486"/>
+      <c r="G66" s="488"/>
+      <c r="H66" s="488"/>
+      <c r="I66" s="488"/>
+      <c r="J66" s="488"/>
+      <c r="K66" s="484"/>
       <c r="L66" s="31"/>
       <c r="M66" s="175"/>
     </row>
@@ -17011,16 +16994,16 @@
         <f>Dashboard!E83</f>
         <v>0</v>
       </c>
-      <c r="E67" s="488"/>
-      <c r="F67" s="490">
+      <c r="E67" s="486"/>
+      <c r="F67" s="488">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G67" s="490"/>
-      <c r="H67" s="490"/>
-      <c r="I67" s="490"/>
-      <c r="J67" s="490"/>
-      <c r="K67" s="486"/>
+      <c r="G67" s="488"/>
+      <c r="H67" s="488"/>
+      <c r="I67" s="488"/>
+      <c r="J67" s="488"/>
+      <c r="K67" s="484"/>
       <c r="L67" s="31"/>
       <c r="M67" s="175"/>
     </row>
@@ -17033,16 +17016,16 @@
         <f>Dashboard!E84</f>
         <v>0</v>
       </c>
-      <c r="E68" s="489"/>
-      <c r="F68" s="487">
+      <c r="E68" s="487"/>
+      <c r="F68" s="485">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G68" s="487"/>
-      <c r="H68" s="487"/>
-      <c r="I68" s="487"/>
-      <c r="J68" s="487"/>
-      <c r="K68" s="487"/>
+      <c r="G68" s="485"/>
+      <c r="H68" s="485"/>
+      <c r="I68" s="485"/>
+      <c r="J68" s="485"/>
+      <c r="K68" s="485"/>
       <c r="L68" s="31"/>
     </row>
     <row r="69" spans="2:13">
@@ -17077,7 +17060,7 @@
       </c>
       <c r="C71" s="53"/>
       <c r="D71" s="53"/>
-      <c r="E71" s="501" t="s">
+      <c r="E71" s="499" t="s">
         <v>388</v>
       </c>
       <c r="F71" s="288" t="s">
@@ -17102,11 +17085,11 @@
     </row>
     <row r="72" spans="2:13">
       <c r="B72" s="36"/>
-      <c r="C72" s="492" t="s">
-        <v>682</v>
-      </c>
-      <c r="D72" s="493"/>
-      <c r="E72" s="491" t="e">
+      <c r="C72" s="490" t="s">
+        <v>681</v>
+      </c>
+      <c r="D72" s="491"/>
+      <c r="E72" s="489" t="e">
         <f>SUM(E15:E69)</f>
         <v>#DIV/0!</v>
       </c>
@@ -17135,11 +17118,11 @@
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="36"/>
-      <c r="C73" s="495" t="s">
-        <v>684</v>
-      </c>
-      <c r="D73" s="494"/>
-      <c r="E73" s="491" t="e">
+      <c r="C73" s="493" t="s">
+        <v>683</v>
+      </c>
+      <c r="D73" s="492"/>
+      <c r="E73" s="489" t="e">
         <f>E11-E72</f>
         <v>#DIV/0!</v>
       </c>
@@ -17168,32 +17151,32 @@
     </row>
     <row r="74" spans="2:13">
       <c r="B74" s="36"/>
-      <c r="C74" s="496" t="s">
-        <v>683</v>
-      </c>
-      <c r="D74" s="497"/>
-      <c r="E74" s="498" t="e">
+      <c r="C74" s="494" t="s">
+        <v>682</v>
+      </c>
+      <c r="D74" s="495"/>
+      <c r="E74" s="496" t="e">
         <f>E73/E11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F74" s="499" t="e">
+      <c r="F74" s="497" t="e">
         <f>F73/F11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G74" s="499"/>
-      <c r="H74" s="499" t="e">
+      <c r="G74" s="497"/>
+      <c r="H74" s="497" t="e">
         <f>H73/H11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I74" s="499" t="e">
+      <c r="I74" s="497" t="e">
         <f>I73/I11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J74" s="499" t="e">
+      <c r="J74" s="497" t="e">
         <f>J73/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K74" s="500" t="e">
+      <c r="K74" s="498" t="e">
         <f>K73/K11</f>
         <v>#DIV/0!</v>
       </c>
@@ -17201,8 +17184,8 @@
     </row>
     <row r="75" spans="2:13">
       <c r="B75" s="36"/>
-      <c r="C75" s="495"/>
-      <c r="D75" s="495"/>
+      <c r="C75" s="493"/>
+      <c r="D75" s="493"/>
       <c r="E75" s="293"/>
       <c r="F75" s="293"/>
       <c r="G75" s="293"/>
@@ -17282,13 +17265,13 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:10" s="140" customFormat="1" ht="75" customHeight="1">
-      <c r="B5" s="656" t="s">
+      <c r="B5" s="653" t="s">
         <v>229</v>
       </c>
-      <c r="C5" s="666"/>
-      <c r="D5" s="666"/>
-      <c r="E5" s="666"/>
-      <c r="F5" s="657"/>
+      <c r="C5" s="663"/>
+      <c r="D5" s="663"/>
+      <c r="E5" s="663"/>
+      <c r="F5" s="654"/>
       <c r="G5" s="156"/>
     </row>
     <row r="6" spans="2:10" ht="17" thickBot="1"/>
@@ -17327,7 +17310,7 @@
         <v>441</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="F9" s="82" t="s">
         <v>488</v>
@@ -17370,7 +17353,7 @@
         <f>D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="550">
+      <c r="F11" s="548">
         <f>Eff_space_heating_combi_boiler</f>
         <v>0</v>
       </c>
@@ -17381,7 +17364,7 @@
         <f>E11/F11*G11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="623" t="e">
+      <c r="I11" s="620" t="e">
         <f t="shared" ref="I11:I21" si="0">H11/SUM($H$11:$H$21)</f>
         <v>#DIV/0!</v>
       </c>
@@ -17401,7 +17384,7 @@
         <f t="shared" ref="E12:E19" si="1">D12</f>
         <v>0</v>
       </c>
-      <c r="F12" s="550" t="e">
+      <c r="F12" s="548" t="e">
         <f>Eff_space_heating_pump_ground</f>
         <v>#DIV/0!</v>
       </c>
@@ -17412,7 +17395,7 @@
         <f t="shared" ref="H12:H21" si="2">E12/F12*G12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="623" t="e">
+      <c r="I12" s="620" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -17432,7 +17415,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F13" s="550">
+      <c r="F13" s="548">
         <f>Eff_space_heating_district</f>
         <v>0</v>
       </c>
@@ -17443,7 +17426,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="623" t="e">
+      <c r="I13" s="620" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -17463,7 +17446,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="550" t="e">
+      <c r="F14" s="548" t="e">
         <f>Eff_space_heating_pump_air</f>
         <v>#DIV/0!</v>
       </c>
@@ -17474,7 +17457,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="623" t="e">
+      <c r="I14" s="620" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -17494,7 +17477,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F15" s="550">
+      <c r="F15" s="548">
         <f>Eff_space_heating_woodpellets</f>
         <v>0</v>
       </c>
@@ -17505,7 +17488,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="623" t="e">
+      <c r="I15" s="620" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -17525,7 +17508,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="550">
+      <c r="F16" s="548">
         <f>Eff_space_heating_electric</f>
         <v>0</v>
       </c>
@@ -17536,7 +17519,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="623" t="e">
+      <c r="I16" s="620" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -17556,7 +17539,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="550">
+      <c r="F17" s="548">
         <f>Eff_space_heating_gas</f>
         <v>0</v>
       </c>
@@ -17567,7 +17550,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="623" t="e">
+      <c r="I17" s="620" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -17587,7 +17570,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F18" s="550">
+      <c r="F18" s="548">
         <f>Eff_space_heating_oil</f>
         <v>0</v>
       </c>
@@ -17598,7 +17581,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="623" t="e">
+      <c r="I18" s="620" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -17618,7 +17601,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="550">
+      <c r="F19" s="548">
         <f>Eff_space_heating_coal</f>
         <v>0</v>
       </c>
@@ -17629,7 +17612,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="623" t="e">
+      <c r="I19" s="620" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -17649,7 +17632,7 @@
         <f>D20*(1-technical_specs!O21)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="550" t="e">
+      <c r="F20" s="548" t="e">
         <f>Eff_space_heating_hhp_heatpump</f>
         <v>#DIV/0!</v>
       </c>
@@ -17660,7 +17643,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="623" t="e">
+      <c r="I20" s="620" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -17677,7 +17660,7 @@
         <f>D20*technical_specs!O21</f>
         <v>0</v>
       </c>
-      <c r="F21" s="550">
+      <c r="F21" s="548">
         <f>Eff_space_heating_hhp_gas</f>
         <v>0</v>
       </c>
@@ -17688,7 +17671,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="623" t="e">
+      <c r="I21" s="620" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -17699,7 +17682,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="186"/>
       <c r="E22" s="186"/>
-      <c r="F22" s="552"/>
+      <c r="F22" s="550"/>
       <c r="G22" s="207"/>
       <c r="H22" s="301"/>
       <c r="I22" s="284"/>
@@ -17712,7 +17695,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="184"/>
       <c r="E23" s="184"/>
-      <c r="F23" s="551"/>
+      <c r="F23" s="549"/>
       <c r="G23" s="58"/>
       <c r="H23" s="300"/>
       <c r="I23" s="285"/>
@@ -17732,7 +17715,7 @@
         <f>D24</f>
         <v>0</v>
       </c>
-      <c r="F24" s="550">
+      <c r="F24" s="548">
         <f>Eff_hot_water_combi_boiler</f>
         <v>0</v>
       </c>
@@ -17743,7 +17726,7 @@
         <f>E24/F24*G24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="623" t="e">
+      <c r="I24" s="620" t="e">
         <f t="shared" ref="I24:I34" si="3">H24/SUM($H$24:$H$34)</f>
         <v>#DIV/0!</v>
       </c>
@@ -17763,7 +17746,7 @@
         <f t="shared" ref="E25:E32" si="4">D25</f>
         <v>0</v>
       </c>
-      <c r="F25" s="550" t="e">
+      <c r="F25" s="548" t="e">
         <f>Eff_hot_water_pump_ground</f>
         <v>#DIV/0!</v>
       </c>
@@ -17774,7 +17757,7 @@
         <f t="shared" ref="H25:H34" si="5">E25/F25*G25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="623" t="e">
+      <c r="I25" s="620" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -17794,7 +17777,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F26" s="550">
+      <c r="F26" s="548">
         <f>Eff_hot_water_district</f>
         <v>0</v>
       </c>
@@ -17805,7 +17788,7 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="623" t="e">
+      <c r="I26" s="620" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -17825,7 +17808,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F27" s="550" t="e">
+      <c r="F27" s="548" t="e">
         <f>Eff_hot_water_pump_air</f>
         <v>#DIV/0!</v>
       </c>
@@ -17836,7 +17819,7 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="623" t="e">
+      <c r="I27" s="620" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -17856,7 +17839,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F28" s="550">
+      <c r="F28" s="548">
         <f>Eff_hot_water_woodpellets</f>
         <v>0</v>
       </c>
@@ -17867,7 +17850,7 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="623" t="e">
+      <c r="I28" s="620" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -17887,7 +17870,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F29" s="550">
+      <c r="F29" s="548">
         <f>Eff_hot_water_electric</f>
         <v>0</v>
       </c>
@@ -17898,7 +17881,7 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="623" t="e">
+      <c r="I29" s="620" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -17918,7 +17901,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F30" s="550">
+      <c r="F30" s="548">
         <f>Eff_hot_water_gas</f>
         <v>0</v>
       </c>
@@ -17929,7 +17912,7 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="623" t="e">
+      <c r="I30" s="620" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -17949,7 +17932,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F31" s="550">
+      <c r="F31" s="548">
         <f>Eff_hot_water_oil</f>
         <v>0</v>
       </c>
@@ -17960,7 +17943,7 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="623" t="e">
+      <c r="I31" s="620" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -17980,7 +17963,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F32" s="550">
+      <c r="F32" s="548">
         <f>Eff_hot_water_coal</f>
         <v>0</v>
       </c>
@@ -17991,7 +17974,7 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="623" t="e">
+      <c r="I32" s="620" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -18011,7 +17994,7 @@
         <f>D33*(1-technical_specs!O34)</f>
         <v>0</v>
       </c>
-      <c r="F33" s="550" t="e">
+      <c r="F33" s="548" t="e">
         <f>Eff_hot_water_hhp_heatpump</f>
         <v>#DIV/0!</v>
       </c>
@@ -18022,7 +18005,7 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="623" t="e">
+      <c r="I33" s="620" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -18039,7 +18022,7 @@
         <f>D33*technical_specs!O34</f>
         <v>0</v>
       </c>
-      <c r="F34" s="550">
+      <c r="F34" s="548">
         <f>Eff_hot_water_hhp_gas</f>
         <v>0</v>
       </c>
@@ -18050,7 +18033,7 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="623" t="e">
+      <c r="I34" s="620" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -18061,7 +18044,7 @@
       <c r="C35" s="10"/>
       <c r="D35" s="186"/>
       <c r="E35" s="186"/>
-      <c r="F35" s="552"/>
+      <c r="F35" s="550"/>
       <c r="G35" s="187"/>
       <c r="H35" s="301"/>
       <c r="I35" s="284"/>
@@ -18074,7 +18057,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="184"/>
       <c r="E36" s="184"/>
-      <c r="F36" s="551"/>
+      <c r="F36" s="549"/>
       <c r="G36" s="185"/>
       <c r="H36" s="300"/>
       <c r="I36" s="285"/>
@@ -18094,7 +18077,7 @@
         <f>D37</f>
         <v>0</v>
       </c>
-      <c r="F37" s="550" t="e">
+      <c r="F37" s="548" t="e">
         <f>Eff_cooling_pump_ground</f>
         <v>#DIV/0!</v>
       </c>
@@ -18123,7 +18106,7 @@
         <f t="shared" ref="E38:E39" si="6">D38</f>
         <v>0</v>
       </c>
-      <c r="F38" s="550" t="e">
+      <c r="F38" s="548" t="e">
         <f>Eff_cooling_pump_air</f>
         <v>#DIV/0!</v>
       </c>
@@ -18152,7 +18135,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F39" s="550" t="e">
+      <c r="F39" s="548" t="e">
         <f>Eff_cooling_airco</f>
         <v>#DIV/0!</v>
       </c>
@@ -18172,7 +18155,7 @@
       <c r="C40" s="10"/>
       <c r="D40" s="186"/>
       <c r="E40" s="186"/>
-      <c r="F40" s="552"/>
+      <c r="F40" s="550"/>
       <c r="G40" s="187"/>
       <c r="H40" s="301"/>
       <c r="I40" s="284"/>
@@ -18185,7 +18168,7 @@
       <c r="C41" s="8"/>
       <c r="D41" s="184"/>
       <c r="E41" s="184"/>
-      <c r="F41" s="551"/>
+      <c r="F41" s="549"/>
       <c r="G41" s="185"/>
       <c r="H41" s="300"/>
       <c r="I41" s="285"/>
@@ -18205,7 +18188,7 @@
         <f>D42</f>
         <v>0</v>
       </c>
-      <c r="F42" s="550">
+      <c r="F42" s="548">
         <f>Eff_cooking_gas</f>
         <v>0</v>
       </c>
@@ -18234,7 +18217,7 @@
         <f t="shared" ref="E43:E46" si="9">D43</f>
         <v>0</v>
       </c>
-      <c r="F43" s="550">
+      <c r="F43" s="548">
         <f>Eff_cooking_electric</f>
         <v>0</v>
       </c>
@@ -18263,7 +18246,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F44" s="550">
+      <c r="F44" s="548">
         <f>Eff_cooking_halogen</f>
         <v>0</v>
       </c>
@@ -18292,7 +18275,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F45" s="550">
+      <c r="F45" s="548">
         <f>Eff_cooking_induction</f>
         <v>0</v>
       </c>
@@ -18321,7 +18304,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F46" s="550">
+      <c r="F46" s="548">
         <f>Eff_cooking_biomass</f>
         <v>0</v>
       </c>
@@ -18341,7 +18324,7 @@
       <c r="C47" s="10"/>
       <c r="D47" s="186"/>
       <c r="E47" s="186"/>
-      <c r="F47" s="552"/>
+      <c r="F47" s="550"/>
       <c r="G47" s="187"/>
       <c r="H47" s="301"/>
       <c r="I47" s="284"/>
@@ -18354,7 +18337,7 @@
       <c r="C48" s="8"/>
       <c r="D48" s="184"/>
       <c r="E48" s="184"/>
-      <c r="F48" s="551"/>
+      <c r="F48" s="549"/>
       <c r="G48" s="185"/>
       <c r="H48" s="300"/>
       <c r="I48" s="285"/>
@@ -18374,7 +18357,7 @@
         <f>D49</f>
         <v>0</v>
       </c>
-      <c r="F49" s="550">
+      <c r="F49" s="548">
         <f>Eff_lighting_incandescent</f>
         <v>0</v>
       </c>
@@ -18403,7 +18386,7 @@
         <f t="shared" ref="E50:E51" si="12">D50</f>
         <v>0</v>
       </c>
-      <c r="F50" s="550">
+      <c r="F50" s="548">
         <f>Eff_lighting_fluorescent</f>
         <v>0</v>
       </c>
@@ -18432,7 +18415,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F51" s="550">
+      <c r="F51" s="548">
         <f>Eff_lighting_led</f>
         <v>0</v>
       </c>
@@ -18673,14 +18656,14 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:13" ht="45" customHeight="1">
-      <c r="B5" s="656" t="s">
+      <c r="B5" s="653" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="666"/>
-      <c r="D5" s="666"/>
-      <c r="E5" s="666"/>
-      <c r="F5" s="666"/>
-      <c r="G5" s="657"/>
+      <c r="C5" s="663"/>
+      <c r="D5" s="663"/>
+      <c r="E5" s="663"/>
+      <c r="F5" s="663"/>
+      <c r="G5" s="654"/>
     </row>
     <row r="6" spans="2:13" ht="17" thickBot="1"/>
     <row r="7" spans="2:13">
@@ -18695,7 +18678,7 @@
       <c r="H7" s="52"/>
       <c r="I7" s="52"/>
       <c r="J7" s="52"/>
-      <c r="K7" s="458"/>
+      <c r="K7" s="456"/>
       <c r="L7" s="30"/>
     </row>
     <row r="8" spans="2:13">
@@ -18739,7 +18722,7 @@
       <c r="J9" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="459" t="s">
+      <c r="K9" s="457" t="s">
         <v>536</v>
       </c>
       <c r="L9" s="112" t="s">
@@ -18756,7 +18739,7 @@
       <c r="H10" s="66"/>
       <c r="I10" s="66"/>
       <c r="J10" s="66"/>
-      <c r="K10" s="460"/>
+      <c r="K10" s="458"/>
       <c r="L10" s="113"/>
     </row>
     <row r="11" spans="2:13" ht="34">
@@ -18795,11 +18778,11 @@
         <f>'Corrected energy balance step 2'!BM82</f>
         <v>0</v>
       </c>
-      <c r="K11" s="461">
+      <c r="K11" s="459">
         <f>SUM(C11:J11)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="455">
+      <c r="L11" s="453">
         <f>'Corrected energy balance step 2'!BN82</f>
         <v>0</v>
       </c>
@@ -18827,14 +18810,14 @@
       <c r="H12" s="357" t="s">
         <v>365</v>
       </c>
-      <c r="I12" s="525" t="s">
+      <c r="I12" s="523" t="s">
         <v>360</v>
       </c>
       <c r="J12" s="357" t="s">
         <v>366</v>
       </c>
-      <c r="K12" s="462"/>
-      <c r="L12" s="456" t="s">
+      <c r="K12" s="460"/>
+      <c r="L12" s="454" t="s">
         <v>367</v>
       </c>
       <c r="M12" s="355"/>
@@ -18849,8 +18832,8 @@
       <c r="H13" s="114"/>
       <c r="I13" s="114"/>
       <c r="J13" s="114"/>
-      <c r="K13" s="463"/>
-      <c r="L13" s="457"/>
+      <c r="K13" s="461"/>
+      <c r="L13" s="455"/>
     </row>
     <row r="16" spans="2:13">
       <c r="K16" s="350" t="s">
@@ -18904,27 +18887,27 @@
       </c>
     </row>
     <row r="24" spans="2:12" ht="78" customHeight="1">
-      <c r="B24" s="451"/>
-      <c r="C24" s="451"/>
-      <c r="K24" s="667" t="s">
-        <v>740</v>
-      </c>
-      <c r="L24" s="668"/>
+      <c r="B24" s="449"/>
+      <c r="C24" s="449"/>
+      <c r="K24" s="664" t="s">
+        <v>739</v>
+      </c>
+      <c r="L24" s="665"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="451"/>
-      <c r="C25" s="451"/>
+      <c r="B25" s="449"/>
+      <c r="C25" s="449"/>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="451"/>
-      <c r="C26" s="451"/>
-      <c r="D26" s="451"/>
+      <c r="B26" s="449"/>
+      <c r="C26" s="449"/>
+      <c r="D26" s="449"/>
     </row>
     <row r="27" spans="2:12">
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="2:12">
-      <c r="K28" s="452"/>
+      <c r="K28" s="450"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -18977,7 +18960,7 @@
   <sheetData>
     <row r="2" spans="1:14" ht="21">
       <c r="B2" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -18988,11 +18971,11 @@
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:14" ht="38" customHeight="1">
-      <c r="B5" s="656" t="s">
+      <c r="B5" s="653" t="s">
         <v>493</v>
       </c>
-      <c r="C5" s="666"/>
-      <c r="D5" s="657"/>
+      <c r="C5" s="663"/>
+      <c r="D5" s="654"/>
     </row>
     <row r="6" spans="1:14" ht="17" thickBot="1">
       <c r="A6" s="163"/>
@@ -19045,7 +19028,7 @@
         <v>215</v>
       </c>
       <c r="G9" s="210" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="H9" s="210" t="s">
         <v>596</v>
@@ -19064,8 +19047,8 @@
       <c r="E10" s="276"/>
       <c r="F10" s="276"/>
       <c r="G10" s="276"/>
-      <c r="H10" s="626"/>
-      <c r="I10" s="627"/>
+      <c r="H10" s="623"/>
+      <c r="I10" s="624"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="163"/>
@@ -19086,15 +19069,15 @@
         <f>technical_specs!P11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="629" t="e">
+      <c r="G11" s="626" t="e">
         <f>F11*E11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="628" t="e">
+      <c r="H11" s="625" t="e">
         <f>G11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="526" t="e">
+      <c r="I11" s="524" t="e">
         <f t="shared" ref="I11:I21" si="1">H11/SUM($H$11:$H$21)</f>
         <v>#DIV/0!</v>
       </c>
@@ -19120,7 +19103,7 @@
         <f>technical_specs!P12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="629" t="e">
+      <c r="G12" s="626" t="e">
         <f t="shared" ref="G12:G21" si="2">F12*E12</f>
         <v>#DIV/0!</v>
       </c>
@@ -19154,7 +19137,7 @@
         <f>technical_specs!P13</f>
         <v>0</v>
       </c>
-      <c r="G13" s="629" t="e">
+      <c r="G13" s="626" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19188,7 +19171,7 @@
         <f>technical_specs!P14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="629" t="e">
+      <c r="G14" s="626" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19222,7 +19205,7 @@
         <f>technical_specs!P15</f>
         <v>0</v>
       </c>
-      <c r="G15" s="629" t="e">
+      <c r="G15" s="626" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19256,7 +19239,7 @@
         <f>technical_specs!P16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="629" t="e">
+      <c r="G16" s="626" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19290,7 +19273,7 @@
         <f>technical_specs!P17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="629" t="e">
+      <c r="G17" s="626" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19324,7 +19307,7 @@
         <f>technical_specs!P18</f>
         <v>0</v>
       </c>
-      <c r="G18" s="629" t="e">
+      <c r="G18" s="626" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19360,7 +19343,7 @@
         <f>technical_specs!P19</f>
         <v>0</v>
       </c>
-      <c r="G19" s="629" t="e">
+      <c r="G19" s="626" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19396,7 +19379,7 @@
         <f>technical_specs!P20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="629" t="e">
+      <c r="G20" s="626" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19432,7 +19415,7 @@
         <f>technical_specs!P21</f>
         <v>0</v>
       </c>
-      <c r="G21" s="630" t="e">
+      <c r="G21" s="627" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19456,7 +19439,7 @@
       <c r="D22" s="237"/>
       <c r="E22" s="237"/>
       <c r="F22" s="237"/>
-      <c r="G22" s="631"/>
+      <c r="G22" s="628"/>
       <c r="H22" s="237"/>
       <c r="I22" s="232"/>
       <c r="K22" s="212"/>
@@ -19473,7 +19456,7 @@
       <c r="D23" s="237"/>
       <c r="E23" s="237"/>
       <c r="F23" s="237"/>
-      <c r="G23" s="631"/>
+      <c r="G23" s="628"/>
       <c r="H23" s="237"/>
       <c r="I23" s="232"/>
       <c r="K23" s="212"/>
@@ -19500,7 +19483,7 @@
         <f>technical_specs!P24</f>
         <v>0</v>
       </c>
-      <c r="G24" s="629" t="e">
+      <c r="G24" s="626" t="e">
         <f>F24*E24</f>
         <v>#DIV/0!</v>
       </c>
@@ -19536,7 +19519,7 @@
         <f>technical_specs!P25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="629" t="e">
+      <c r="G25" s="626" t="e">
         <f t="shared" ref="G25:G34" si="7">F25*E25</f>
         <v>#DIV/0!</v>
       </c>
@@ -19572,7 +19555,7 @@
         <f>technical_specs!P26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="629" t="e">
+      <c r="G26" s="626" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -19608,7 +19591,7 @@
         <f>technical_specs!P27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="629" t="e">
+      <c r="G27" s="626" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -19644,7 +19627,7 @@
         <f>technical_specs!P28</f>
         <v>0</v>
       </c>
-      <c r="G28" s="629" t="e">
+      <c r="G28" s="626" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -19680,7 +19663,7 @@
         <f>technical_specs!P29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="629" t="e">
+      <c r="G29" s="626" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -19716,7 +19699,7 @@
         <f>technical_specs!P30</f>
         <v>0</v>
       </c>
-      <c r="G30" s="629" t="e">
+      <c r="G30" s="626" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -19752,7 +19735,7 @@
         <f>technical_specs!P31</f>
         <v>0</v>
       </c>
-      <c r="G31" s="629" t="e">
+      <c r="G31" s="626" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -19788,7 +19771,7 @@
         <f>technical_specs!P32</f>
         <v>0</v>
       </c>
-      <c r="G32" s="629" t="e">
+      <c r="G32" s="626" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -19824,7 +19807,7 @@
         <f>technical_specs!P33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G33" s="629" t="e">
+      <c r="G33" s="626" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -19860,7 +19843,7 @@
         <f>technical_specs!P34</f>
         <v>0</v>
       </c>
-      <c r="G34" s="630" t="e">
+      <c r="G34" s="627" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -19879,13 +19862,13 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="163"/>
-      <c r="B35" s="519"/>
+      <c r="B35" s="517"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="502"/>
-      <c r="E35" s="503"/>
-      <c r="F35" s="503"/>
-      <c r="G35" s="632"/>
-      <c r="H35" s="504"/>
+      <c r="D35" s="500"/>
+      <c r="E35" s="501"/>
+      <c r="F35" s="501"/>
+      <c r="G35" s="629"/>
+      <c r="H35" s="502"/>
       <c r="I35" s="271"/>
       <c r="K35" s="212"/>
       <c r="L35" s="212"/>
@@ -19894,14 +19877,14 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="163"/>
-      <c r="B36" s="520"/>
-      <c r="C36" s="521"/>
-      <c r="D36" s="522"/>
-      <c r="E36" s="522"/>
-      <c r="F36" s="522"/>
-      <c r="G36" s="633"/>
-      <c r="H36" s="523"/>
-      <c r="I36" s="524"/>
+      <c r="B36" s="518"/>
+      <c r="C36" s="519"/>
+      <c r="D36" s="520"/>
+      <c r="E36" s="520"/>
+      <c r="F36" s="520"/>
+      <c r="G36" s="630"/>
+      <c r="H36" s="521"/>
+      <c r="I36" s="522"/>
       <c r="K36" s="212"/>
       <c r="L36" s="212"/>
       <c r="M36" s="212"/>
@@ -19916,7 +19899,7 @@
       <c r="D37" s="280"/>
       <c r="E37" s="280"/>
       <c r="F37" s="280"/>
-      <c r="G37" s="634"/>
+      <c r="G37" s="631"/>
       <c r="H37" s="281"/>
       <c r="I37" s="282"/>
       <c r="K37" s="212"/>
@@ -19943,7 +19926,7 @@
         <f>technical_specs!P37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="629" t="e">
+      <c r="G38" s="626" t="e">
         <f>F38*E38</f>
         <v>#DIV/0!</v>
       </c>
@@ -19979,7 +19962,7 @@
         <f>technical_specs!P38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="629" t="e">
+      <c r="G39" s="626" t="e">
         <f t="shared" ref="G39:G40" si="10">F39*E39</f>
         <v>#DIV/0!</v>
       </c>
@@ -20015,7 +19998,7 @@
         <f>technical_specs!P39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G40" s="629" t="e">
+      <c r="G40" s="626" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
@@ -20036,12 +20019,12 @@
       <c r="A41" s="163"/>
       <c r="B41" s="169"/>
       <c r="C41" s="4"/>
-      <c r="D41" s="511"/>
-      <c r="E41" s="512"/>
-      <c r="F41" s="511"/>
-      <c r="G41" s="635"/>
-      <c r="H41" s="513"/>
-      <c r="I41" s="514"/>
+      <c r="D41" s="509"/>
+      <c r="E41" s="510"/>
+      <c r="F41" s="509"/>
+      <c r="G41" s="632"/>
+      <c r="H41" s="511"/>
+      <c r="I41" s="512"/>
       <c r="K41" s="212"/>
       <c r="L41" s="212"/>
       <c r="M41" s="212"/>
@@ -20050,13 +20033,13 @@
     <row r="42" spans="1:14">
       <c r="A42" s="163"/>
       <c r="B42" s="170"/>
-      <c r="C42" s="515"/>
-      <c r="D42" s="516"/>
-      <c r="E42" s="516"/>
-      <c r="F42" s="516"/>
-      <c r="G42" s="636"/>
-      <c r="H42" s="517"/>
-      <c r="I42" s="518"/>
+      <c r="C42" s="513"/>
+      <c r="D42" s="514"/>
+      <c r="E42" s="514"/>
+      <c r="F42" s="514"/>
+      <c r="G42" s="633"/>
+      <c r="H42" s="515"/>
+      <c r="I42" s="516"/>
       <c r="K42" s="212"/>
       <c r="L42" s="212"/>
       <c r="M42" s="212"/>
@@ -20071,7 +20054,7 @@
       <c r="D43" s="280"/>
       <c r="E43" s="280"/>
       <c r="F43" s="280"/>
-      <c r="G43" s="634"/>
+      <c r="G43" s="631"/>
       <c r="H43" s="281"/>
       <c r="I43" s="282"/>
       <c r="K43" s="212"/>
@@ -20098,7 +20081,7 @@
         <f>technical_specs!P42</f>
         <v>0</v>
       </c>
-      <c r="G44" s="629" t="e">
+      <c r="G44" s="626" t="e">
         <f>F44*E44</f>
         <v>#DIV/0!</v>
       </c>
@@ -20134,7 +20117,7 @@
         <f>technical_specs!P43</f>
         <v>0</v>
       </c>
-      <c r="G45" s="629" t="e">
+      <c r="G45" s="626" t="e">
         <f t="shared" ref="G45:G48" si="13">F45*E45</f>
         <v>#DIV/0!</v>
       </c>
@@ -20170,7 +20153,7 @@
         <f>technical_specs!P44</f>
         <v>0</v>
       </c>
-      <c r="G46" s="629" t="e">
+      <c r="G46" s="626" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -20206,7 +20189,7 @@
         <f>technical_specs!P45</f>
         <v>0</v>
       </c>
-      <c r="G47" s="629" t="e">
+      <c r="G47" s="626" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -20242,7 +20225,7 @@
         <f>technical_specs!P46</f>
         <v>0</v>
       </c>
-      <c r="G48" s="629" t="e">
+      <c r="G48" s="626" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -20263,12 +20246,12 @@
       <c r="A49" s="163"/>
       <c r="B49" s="169"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="511"/>
-      <c r="E49" s="512"/>
-      <c r="F49" s="511"/>
-      <c r="G49" s="635"/>
-      <c r="H49" s="513"/>
-      <c r="I49" s="514"/>
+      <c r="D49" s="509"/>
+      <c r="E49" s="510"/>
+      <c r="F49" s="509"/>
+      <c r="G49" s="632"/>
+      <c r="H49" s="511"/>
+      <c r="I49" s="512"/>
       <c r="K49" s="212"/>
       <c r="L49" s="212"/>
       <c r="M49" s="212"/>
@@ -20277,13 +20260,13 @@
     <row r="50" spans="1:14">
       <c r="A50" s="163"/>
       <c r="B50" s="173"/>
-      <c r="C50" s="507"/>
-      <c r="D50" s="508"/>
-      <c r="E50" s="508"/>
-      <c r="F50" s="508"/>
-      <c r="G50" s="637"/>
-      <c r="H50" s="509"/>
-      <c r="I50" s="510"/>
+      <c r="C50" s="505"/>
+      <c r="D50" s="506"/>
+      <c r="E50" s="506"/>
+      <c r="F50" s="506"/>
+      <c r="G50" s="634"/>
+      <c r="H50" s="507"/>
+      <c r="I50" s="508"/>
       <c r="K50" s="212"/>
       <c r="L50" s="212"/>
       <c r="M50" s="212"/>
@@ -20298,7 +20281,7 @@
       <c r="D51" s="280"/>
       <c r="E51" s="280"/>
       <c r="F51" s="280"/>
-      <c r="G51" s="634"/>
+      <c r="G51" s="631"/>
       <c r="H51" s="281"/>
       <c r="I51" s="282"/>
       <c r="K51" s="212"/>
@@ -20325,7 +20308,7 @@
         <f>technical_specs!P49</f>
         <v>0</v>
       </c>
-      <c r="G52" s="629" t="e">
+      <c r="G52" s="626" t="e">
         <f>F52*E52</f>
         <v>#DIV/0!</v>
       </c>
@@ -20361,7 +20344,7 @@
         <f>technical_specs!P50</f>
         <v>0</v>
       </c>
-      <c r="G53" s="629" t="e">
+      <c r="G53" s="626" t="e">
         <f t="shared" ref="G53:G54" si="16">F53*E53</f>
         <v>#DIV/0!</v>
       </c>
@@ -20397,7 +20380,7 @@
         <f>technical_specs!P51</f>
         <v>0</v>
       </c>
-      <c r="G54" s="630" t="e">
+      <c r="G54" s="627" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
@@ -20418,11 +20401,11 @@
       <c r="A55" s="163"/>
       <c r="B55" s="169"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="502"/>
-      <c r="E55" s="503"/>
-      <c r="F55" s="502"/>
-      <c r="G55" s="632"/>
-      <c r="H55" s="504"/>
+      <c r="D55" s="500"/>
+      <c r="E55" s="501"/>
+      <c r="F55" s="500"/>
+      <c r="G55" s="629"/>
+      <c r="H55" s="502"/>
       <c r="I55" s="271"/>
       <c r="K55" s="212"/>
       <c r="L55" s="212"/>
@@ -20432,13 +20415,13 @@
     <row r="56" spans="1:14" ht="17" thickBot="1">
       <c r="A56" s="163"/>
       <c r="B56" s="80"/>
-      <c r="C56" s="505"/>
-      <c r="D56" s="505"/>
-      <c r="E56" s="505"/>
-      <c r="F56" s="505"/>
-      <c r="G56" s="638"/>
-      <c r="H56" s="505"/>
-      <c r="I56" s="506"/>
+      <c r="C56" s="503"/>
+      <c r="D56" s="503"/>
+      <c r="E56" s="503"/>
+      <c r="F56" s="503"/>
+      <c r="G56" s="635"/>
+      <c r="H56" s="503"/>
+      <c r="I56" s="504"/>
       <c r="K56" s="212"/>
       <c r="L56" s="212"/>
       <c r="M56" s="212"/>
@@ -20589,7 +20572,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A16">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20910,7 +20893,7 @@
         <v>41500</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D20" s="27">
         <v>2.04</v>
@@ -20921,7 +20904,7 @@
         <v>41505</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D21" s="27">
         <v>2.0499999999999998</v>
@@ -20932,7 +20915,7 @@
         <v>41507</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>455</v>
@@ -20943,7 +20926,7 @@
         <v>41507</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D23" s="27">
         <v>2.06</v>
@@ -20954,7 +20937,7 @@
         <v>41512</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D24" s="27">
         <v>2.0699999999999998</v>
@@ -20965,7 +20948,7 @@
         <v>41534</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D25" s="27">
         <v>2.08</v>
@@ -20976,7 +20959,7 @@
         <v>41535</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D26" s="27">
         <v>2.09</v>
@@ -20987,7 +20970,7 @@
         <v>41535</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D27" s="27">
         <v>2.1</v>
@@ -20998,40 +20981,40 @@
         <v>41561</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D28" s="18">
         <v>2.11</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="17">
-      <c r="B29" s="602">
+      <c r="B29" s="600">
         <v>41562</v>
       </c>
-      <c r="C29" s="603" t="s">
-        <v>741</v>
+      <c r="C29" s="601" t="s">
+        <v>740</v>
       </c>
       <c r="D29" s="18">
         <v>2.12</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="17">
-      <c r="B30" s="602">
+      <c r="B30" s="600">
         <v>41578</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D30" s="18">
         <v>2.13</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="17">
-      <c r="B31" s="602">
+      <c r="B31" s="600">
         <v>41618</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D31" s="18">
         <v>2.14</v>
@@ -21039,10 +21022,10 @@
     </row>
     <row r="32" spans="2:4" ht="34">
       <c r="B32" s="393" t="s">
+        <v>779</v>
+      </c>
+      <c r="C32" s="40" t="s">
         <v>780</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>781</v>
       </c>
       <c r="D32" s="18">
         <v>2.15</v>
@@ -21050,10 +21033,10 @@
     </row>
     <row r="33" spans="2:4" ht="34">
       <c r="B33" s="393" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D33" s="18">
         <v>2.16</v>
@@ -21061,10 +21044,10 @@
     </row>
     <row r="34" spans="2:4" ht="17">
       <c r="B34" s="393" t="s">
+        <v>783</v>
+      </c>
+      <c r="C34" s="40" t="s">
         <v>784</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>785</v>
       </c>
       <c r="D34" s="18">
         <v>2.17</v>
@@ -21072,10 +21055,10 @@
     </row>
     <row r="35" spans="2:4" ht="34">
       <c r="B35" s="19" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="D35" s="18">
         <v>2.1800000000000002</v>
@@ -21083,10 +21066,10 @@
     </row>
     <row r="36" spans="2:4" ht="51">
       <c r="B36" s="19" t="s">
-        <v>820</v>
-      </c>
-      <c r="C36" s="639" t="s">
-        <v>859</v>
+        <v>814</v>
+      </c>
+      <c r="C36" s="636" t="s">
+        <v>853</v>
       </c>
       <c r="D36" s="18">
         <v>2.19</v>
@@ -21094,10 +21077,10 @@
     </row>
     <row r="37" spans="2:4" ht="34">
       <c r="B37" s="19" t="s">
-        <v>820</v>
-      </c>
-      <c r="C37" s="639" t="s">
-        <v>860</v>
+        <v>814</v>
+      </c>
+      <c r="C37" s="636" t="s">
+        <v>854</v>
       </c>
       <c r="D37" s="18">
         <v>2.2000000000000002</v>
@@ -21437,7 +21420,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B5" s="188" t="e">
         <f>'Technology Shares'!F11</f>
@@ -21509,7 +21492,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B6" s="188" t="e">
         <f>'Technology Shares'!F16</f>
@@ -21573,7 +21556,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="B5" s="188" t="e">
         <f>'Technology Shares'!F21</f>
@@ -21645,7 +21628,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="B6" s="188" t="e">
         <f>'Technology Shares'!F26</f>
@@ -21821,395 +21804,395 @@
       <c r="C5" s="16"/>
     </row>
     <row r="6" spans="2:3" ht="28" customHeight="1">
-      <c r="B6" s="470" t="s">
+      <c r="B6" s="468" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="471" t="s">
+      <c r="C6" s="469" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="28" customHeight="1">
-      <c r="B7" s="470" t="s">
+      <c r="B7" s="468" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="472" t="s">
+      <c r="C7" s="470" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="28" customHeight="1">
-      <c r="B8" s="470" t="s">
+      <c r="B8" s="468" t="s">
         <v>444</v>
       </c>
-      <c r="C8" s="473" t="s">
+      <c r="C8" s="471" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="28" customHeight="1">
-      <c r="B9" s="470" t="s">
+      <c r="B9" s="468" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="472" t="s">
+      <c r="C9" s="470" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="28" customHeight="1">
-      <c r="B10" s="470" t="s">
+      <c r="B10" s="468" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="472" t="s">
+      <c r="C10" s="470" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="28" customHeight="1">
-      <c r="B11" s="470" t="s">
+      <c r="B11" s="468" t="s">
         <v>199</v>
       </c>
-      <c r="C11" s="472" t="s">
+      <c r="C11" s="470" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="28" customHeight="1">
-      <c r="B12" s="470" t="s">
+      <c r="B12" s="468" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="472" t="s">
+      <c r="C12" s="470" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="28" customHeight="1">
-      <c r="B13" s="474" t="s">
-        <v>666</v>
-      </c>
-      <c r="C13" s="472" t="s">
+      <c r="B13" s="472" t="s">
+        <v>665</v>
+      </c>
+      <c r="C13" s="470" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="28" customHeight="1">
-      <c r="B14" s="474" t="s">
+      <c r="B14" s="472" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="472" t="s">
+      <c r="C14" s="470" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="28" customHeight="1">
-      <c r="B15" s="475" t="s">
+      <c r="B15" s="473" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="472" t="s">
+      <c r="C15" s="470" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="28" customHeight="1">
-      <c r="B16" s="479" t="s">
+      <c r="B16" s="477" t="s">
         <v>448</v>
       </c>
-      <c r="C16" s="480" t="s">
+      <c r="C16" s="478" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="28" customHeight="1">
-      <c r="B17" s="479" t="s">
+      <c r="B17" s="477" t="s">
         <v>449</v>
       </c>
-      <c r="C17" s="480" t="s">
+      <c r="C17" s="478" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="28" customHeight="1">
-      <c r="B18" s="479" t="s">
+      <c r="B18" s="477" t="s">
         <v>452</v>
       </c>
-      <c r="C18" s="480" t="s">
+      <c r="C18" s="478" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="28" customHeight="1">
-      <c r="B19" s="477" t="s">
+      <c r="B19" s="475" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="472" t="s">
+      <c r="C19" s="470" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="28" customHeight="1">
-      <c r="B20" s="477" t="s">
-        <v>671</v>
-      </c>
-      <c r="C20" s="472" t="s">
+      <c r="B20" s="475" t="s">
+        <v>670</v>
+      </c>
+      <c r="C20" s="470" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="28" customHeight="1">
-      <c r="B21" s="476" t="s">
+      <c r="B21" s="474" t="s">
         <v>485</v>
       </c>
-      <c r="C21" s="480" t="s">
+      <c r="C21" s="478" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="28" customHeight="1">
-      <c r="B22" s="477" t="s">
+      <c r="B22" s="475" t="s">
         <v>213</v>
       </c>
-      <c r="C22" s="472" t="s">
+      <c r="C22" s="470" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="28" customHeight="1">
-      <c r="B23" s="478" t="s">
-        <v>665</v>
-      </c>
-      <c r="C23" s="472" t="s">
+      <c r="B23" s="476" t="s">
+        <v>664</v>
+      </c>
+      <c r="C23" s="470" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="28" customHeight="1">
-      <c r="B24" s="481" t="s">
+      <c r="B24" s="479" t="s">
         <v>599</v>
       </c>
-      <c r="C24" s="472" t="s">
+      <c r="C24" s="470" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="28" customHeight="1">
-      <c r="B25" s="481" t="s">
+      <c r="B25" s="479" t="s">
         <v>600</v>
       </c>
-      <c r="C25" s="472" t="s">
+      <c r="C25" s="470" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="28" customHeight="1">
-      <c r="B26" s="481" t="s">
+      <c r="B26" s="479" t="s">
         <v>601</v>
       </c>
-      <c r="C26" s="472" t="s">
+      <c r="C26" s="470" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="28" customHeight="1">
-      <c r="B27" s="481" t="s">
+      <c r="B27" s="479" t="s">
         <v>602</v>
       </c>
-      <c r="C27" s="472" t="s">
+      <c r="C27" s="470" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="28" customHeight="1">
-      <c r="B28" s="481" t="s">
+      <c r="B28" s="479" t="s">
         <v>603</v>
       </c>
-      <c r="C28" s="472" t="s">
+      <c r="C28" s="470" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="28" customHeight="1">
-      <c r="B29" s="481" t="s">
+      <c r="B29" s="479" t="s">
         <v>604</v>
       </c>
-      <c r="C29" s="472" t="s">
+      <c r="C29" s="470" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="28" customHeight="1">
-      <c r="B30" s="481" t="s">
+      <c r="B30" s="479" t="s">
         <v>605</v>
       </c>
-      <c r="C30" s="472" t="s">
+      <c r="C30" s="470" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="28" customHeight="1">
-      <c r="B31" s="481" t="s">
+      <c r="B31" s="479" t="s">
         <v>606</v>
       </c>
-      <c r="C31" s="472" t="s">
+      <c r="C31" s="470" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="28" customHeight="1">
-      <c r="B32" s="481" t="s">
+      <c r="B32" s="479" t="s">
         <v>607</v>
       </c>
-      <c r="C32" s="472" t="s">
+      <c r="C32" s="470" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="28" customHeight="1">
-      <c r="B33" s="481" t="s">
+      <c r="B33" s="479" t="s">
         <v>608</v>
       </c>
-      <c r="C33" s="472" t="s">
+      <c r="C33" s="470" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="28" customHeight="1">
-      <c r="B34" s="481" t="s">
+      <c r="B34" s="479" t="s">
         <v>609</v>
       </c>
-      <c r="C34" s="472" t="s">
+      <c r="C34" s="470" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="28" customHeight="1">
-      <c r="B35" s="481" t="s">
+      <c r="B35" s="479" t="s">
         <v>610</v>
       </c>
-      <c r="C35" s="472" t="s">
+      <c r="C35" s="470" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="28" customHeight="1">
-      <c r="B36" s="481" t="s">
+      <c r="B36" s="479" t="s">
         <v>611</v>
       </c>
-      <c r="C36" s="472" t="s">
+      <c r="C36" s="470" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="28" customHeight="1">
-      <c r="B37" s="481" t="s">
+      <c r="B37" s="479" t="s">
         <v>612</v>
       </c>
-      <c r="C37" s="472" t="s">
+      <c r="C37" s="470" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="28" customHeight="1">
-      <c r="B38" s="481" t="s">
+      <c r="B38" s="479" t="s">
         <v>613</v>
       </c>
-      <c r="C38" s="472" t="s">
+      <c r="C38" s="470" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="28" customHeight="1">
-      <c r="B39" s="481" t="s">
+      <c r="B39" s="479" t="s">
         <v>614</v>
       </c>
-      <c r="C39" s="472" t="s">
+      <c r="C39" s="470" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="28" customHeight="1">
-      <c r="B40" s="481" t="s">
+      <c r="B40" s="479" t="s">
         <v>615</v>
       </c>
-      <c r="C40" s="472" t="s">
+      <c r="C40" s="470" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="28" customHeight="1">
-      <c r="B41" s="481" t="s">
+      <c r="B41" s="479" t="s">
         <v>616</v>
       </c>
-      <c r="C41" s="472" t="s">
+      <c r="C41" s="470" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="28" customHeight="1">
-      <c r="B42" s="481" t="s">
+      <c r="B42" s="479" t="s">
         <v>617</v>
       </c>
-      <c r="C42" s="472" t="s">
+      <c r="C42" s="470" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="28" customHeight="1">
-      <c r="B43" s="481" t="s">
+      <c r="B43" s="479" t="s">
         <v>618</v>
       </c>
-      <c r="C43" s="472" t="s">
+      <c r="C43" s="470" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="28" customHeight="1">
-      <c r="B44" s="481" t="s">
+      <c r="B44" s="479" t="s">
         <v>619</v>
       </c>
-      <c r="C44" s="472" t="s">
+      <c r="C44" s="470" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="28" customHeight="1">
-      <c r="B45" s="481" t="s">
+      <c r="B45" s="479" t="s">
         <v>620</v>
       </c>
-      <c r="C45" s="472" t="s">
+      <c r="C45" s="470" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="28" customHeight="1">
-      <c r="B46" s="481" t="s">
+      <c r="B46" s="479" t="s">
         <v>621</v>
       </c>
-      <c r="C46" s="472" t="s">
+      <c r="C46" s="470" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="28" customHeight="1">
-      <c r="B47" s="481" t="s">
+      <c r="B47" s="479" t="s">
         <v>622</v>
       </c>
-      <c r="C47" s="472" t="s">
+      <c r="C47" s="470" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="28" customHeight="1">
-      <c r="B48" s="481" t="s">
+      <c r="B48" s="479" t="s">
         <v>623</v>
       </c>
-      <c r="C48" s="472" t="s">
+      <c r="C48" s="470" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="28" customHeight="1">
-      <c r="B49" s="481" t="s">
+      <c r="B49" s="479" t="s">
         <v>639</v>
       </c>
-      <c r="C49" s="472" t="s">
+      <c r="C49" s="470" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="28" customHeight="1">
-      <c r="B50" s="481" t="s">
+      <c r="B50" s="479" t="s">
         <v>640</v>
       </c>
-      <c r="C50" s="472" t="s">
+      <c r="C50" s="470" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="28" customHeight="1">
-      <c r="B51" s="481" t="s">
+      <c r="B51" s="479" t="s">
         <v>641</v>
       </c>
-      <c r="C51" s="472" t="s">
+      <c r="C51" s="470" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="28" customHeight="1">
-      <c r="B52" s="481" t="s">
+      <c r="B52" s="479" t="s">
         <v>649</v>
       </c>
-      <c r="C52" s="482" t="s">
-        <v>663</v>
+      <c r="C52" s="480" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="28" customHeight="1">
-      <c r="B53" s="481" t="s">
+      <c r="B53" s="479" t="s">
         <v>624</v>
       </c>
-      <c r="C53" s="472" t="s">
+      <c r="C53" s="470" t="s">
         <v>472</v>
       </c>
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="2:4" ht="28" customHeight="1">
-      <c r="B54" s="481" t="s">
+      <c r="B54" s="479" t="s">
         <v>625</v>
       </c>
-      <c r="C54" s="472" t="s">
+      <c r="C54" s="470" t="s">
         <v>473</v>
       </c>
     </row>
@@ -22369,7 +22352,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="B3" s="188" t="e">
         <f>'Houses Shares'!D16</f>
@@ -22380,7 +22363,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="B4" s="188" t="e">
         <f>'Houses Shares'!E16</f>
@@ -22389,7 +22372,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="B5" s="188" t="e">
         <f>'Houses Shares'!F16</f>
@@ -22398,7 +22381,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B6" s="188" t="e">
         <f>'Houses Shares'!G16</f>
@@ -22407,7 +22390,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="B7" s="188" t="e">
         <f>1-SUM(B3:B6)</f>
@@ -22439,7 +22422,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -22452,7 +22435,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="B3" s="206">
         <v>1</v>
@@ -22460,7 +22443,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="B4" s="206">
         <v>0</v>
@@ -22489,7 +22472,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -22502,7 +22485,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="B3" s="206">
         <v>1</v>
@@ -22510,7 +22493,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="B4" s="206">
         <v>0</v>
@@ -22539,7 +22522,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -22552,7 +22535,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="B3" s="206">
         <v>1</v>
@@ -22560,7 +22543,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="B4" s="206">
         <v>0</v>
@@ -22589,7 +22572,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -22602,7 +22585,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B3" s="206">
         <v>1</v>
@@ -22610,7 +22593,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="B4" s="206">
         <v>0</v>
@@ -22639,7 +22622,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -22652,7 +22635,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="B3" s="206">
         <v>1</v>
@@ -22660,7 +22643,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="B4" s="206">
         <v>0</v>
@@ -22727,26 +22710,24 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
-  <sheetPr codeName="Sheet46">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+  <sheetPr codeName="Sheet36">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="72.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>787</v>
-      </c>
-      <c r="B1" s="450" t="s">
-        <v>662</v>
+        <v>776</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -22754,76 +22735,52 @@
         <v>490</v>
       </c>
       <c r="B2" t="s">
-        <v>491</v>
+        <v>777</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>788</v>
-      </c>
-      <c r="B3" s="621">
+        <v>832</v>
+      </c>
+      <c r="B3" s="142">
+        <f>Dashboard!E93</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>642</v>
-      </c>
-      <c r="B4" s="188">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
-  <sheetPr codeName="Sheet47">
-    <tabColor theme="7" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="65.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="436" t="s">
-        <v>789</v>
-      </c>
-      <c r="B1" s="450" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>790</v>
-      </c>
-      <c r="B3">
+        <v>829</v>
+      </c>
+      <c r="B4" s="142">
+        <f>Dashboard!E94</f>
         <v>0</v>
       </c>
-      <c r="C3" s="142"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>791</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>831</v>
+      </c>
+      <c r="B5" s="142">
+        <f>Dashboard!E95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>830</v>
+      </c>
+      <c r="B6" s="142">
+        <f>Dashboard!E96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>828</v>
+      </c>
+      <c r="B7" s="142">
+        <f>Dashboard!E97</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22863,7 +22820,7 @@
     </row>
     <row r="6" spans="2:2" ht="102">
       <c r="B6" s="86" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -22920,87 +22877,7 @@
     </row>
     <row r="20" spans="2:2" ht="102">
       <c r="B20" s="85" t="s">
-        <v>674</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
-  <sheetPr codeName="Sheet36">
-    <tabColor theme="7" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="43.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B2" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>838</v>
-      </c>
-      <c r="B3" s="142">
-        <f>Dashboard!E93</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>835</v>
-      </c>
-      <c r="B4" s="142">
-        <f>Dashboard!E94</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>837</v>
-      </c>
-      <c r="B5" s="142">
-        <f>Dashboard!E95</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>836</v>
-      </c>
-      <c r="B6" s="142">
-        <f>Dashboard!E96</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>834</v>
-      </c>
-      <c r="B7" s="142">
-        <f>Dashboard!E97</f>
-        <v>0</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -23445,10 +23322,10 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="2:4" ht="79" customHeight="1">
-      <c r="B5" s="656" t="s">
+      <c r="B5" s="653" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="657"/>
+      <c r="C5" s="654"/>
     </row>
     <row r="6" spans="2:4" ht="17" thickBot="1"/>
     <row r="7" spans="2:4">
@@ -23587,7 +23464,7 @@
     <row r="26" spans="2:4" ht="85">
       <c r="B26" s="39"/>
       <c r="C26" s="40" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D26" s="41"/>
     </row>
@@ -23599,10 +23476,10 @@
     <row r="28" spans="2:4" ht="14" customHeight="1">
       <c r="B28" s="39"/>
       <c r="C28" t="s">
+        <v>729</v>
+      </c>
+      <c r="D28" s="41" t="s">
         <v>730</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="14" customHeight="1">
@@ -24553,7 +24430,7 @@
     </row>
     <row r="145" spans="2:3">
       <c r="B145" s="44"/>
-      <c r="C145" s="527"/>
+      <c r="C145" s="525"/>
     </row>
     <row r="146" spans="2:3">
       <c r="B146" s="38" t="s">
@@ -24571,7 +24448,7 @@
     </row>
     <row r="148" spans="2:3">
       <c r="B148" s="110"/>
-      <c r="C148" s="527"/>
+      <c r="C148" s="525"/>
     </row>
     <row r="149" spans="2:3">
       <c r="B149" s="38" t="s">
@@ -24715,7 +24592,7 @@
     </row>
     <row r="172" spans="2:3">
       <c r="B172" s="44"/>
-      <c r="C172" s="527"/>
+      <c r="C172" s="525"/>
     </row>
     <row r="173" spans="2:3">
       <c r="B173" s="38" t="s">
@@ -24769,11 +24646,11 @@
     </row>
     <row r="181" spans="2:3">
       <c r="B181" s="110"/>
-      <c r="C181" s="527"/>
+      <c r="C181" s="525"/>
     </row>
     <row r="182" spans="2:3">
       <c r="B182" s="49" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C182" s="43" t="s">
         <v>104</v>
@@ -24807,9 +24684,7 @@
   </sheetPr>
   <dimension ref="B2:P117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -24836,7 +24711,7 @@
       <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="438" t="s">
+      <c r="I2" s="437" t="s">
         <v>661</v>
       </c>
       <c r="J2" s="13"/>
@@ -24845,7 +24720,7 @@
     </row>
     <row r="3" spans="2:16">
       <c r="B3" s="255"/>
-      <c r="I3" s="439"/>
+      <c r="I3" s="438"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="7"/>
@@ -24858,20 +24733,20 @@
       <c r="D4" s="241"/>
       <c r="E4" s="257"/>
       <c r="F4" s="239"/>
-      <c r="I4" s="440"/>
+      <c r="I4" s="439"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="2:16" ht="45" customHeight="1">
-      <c r="B5" s="658" t="s">
+      <c r="B5" s="655" t="s">
         <v>227</v>
       </c>
-      <c r="C5" s="659"/>
-      <c r="D5" s="659"/>
-      <c r="E5" s="660"/>
+      <c r="C5" s="656"/>
+      <c r="D5" s="656"/>
+      <c r="E5" s="657"/>
       <c r="F5" s="395"/>
-      <c r="I5" s="441"/>
+      <c r="I5" s="440"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="11"/>
@@ -24895,8 +24770,8 @@
       <c r="L7" s="52"/>
       <c r="M7" s="30"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="443"/>
-      <c r="P7" s="444"/>
+      <c r="O7" s="442"/>
+      <c r="P7" s="443"/>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="73"/>
@@ -24912,31 +24787,31 @@
       <c r="L8" s="8"/>
       <c r="M8" s="32"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="440"/>
-      <c r="P8" s="442"/>
+      <c r="O8" s="439"/>
+      <c r="P8" s="441"/>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="542" t="s">
+      <c r="B9" s="540" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="543" t="s">
+      <c r="C9" s="541" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="543" t="s">
+      <c r="D9" s="541" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="543" t="s">
+      <c r="E9" s="541" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="543"/>
-      <c r="G9" s="543" t="s">
-        <v>691</v>
-      </c>
-      <c r="H9" s="543"/>
-      <c r="I9" s="543" t="s">
+      <c r="F9" s="541"/>
+      <c r="G9" s="541" t="s">
+        <v>690</v>
+      </c>
+      <c r="H9" s="541"/>
+      <c r="I9" s="541" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="543"/>
+      <c r="J9" s="541"/>
       <c r="K9" s="54" t="s">
         <v>84</v>
       </c>
@@ -24947,15 +24822,15 @@
         <v>79</v>
       </c>
       <c r="N9" s="15"/>
-      <c r="O9" s="448" t="s">
-        <v>737</v>
-      </c>
-      <c r="P9" s="449" t="s">
+      <c r="O9" s="447" t="s">
+        <v>736</v>
+      </c>
+      <c r="P9" s="448" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="544" t="s">
+      <c r="B10" s="542" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="15"/>
@@ -24966,17 +24841,17 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="545" t="s">
+      <c r="K10" s="543" t="s">
         <v>634</v>
       </c>
-      <c r="L10" s="605" t="b">
+      <c r="L10" s="603" t="b">
         <f>IF(COUNTIF(P:P,0)+COUNTIF(P:P,FALSE)=0,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M10" s="61"/>
       <c r="N10" s="15"/>
-      <c r="O10" s="440"/>
-      <c r="P10" s="442"/>
+      <c r="O10" s="439"/>
+      <c r="P10" s="441"/>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="36"/>
@@ -24985,7 +24860,7 @@
       </c>
       <c r="D11" s="421"/>
       <c r="E11" s="71" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F11" s="191"/>
       <c r="G11" s="23" t="s">
@@ -24998,10 +24873,10 @@
       <c r="L11" s="56"/>
       <c r="M11" s="340"/>
       <c r="N11" s="423"/>
-      <c r="O11" s="440" t="s">
+      <c r="O11" s="439" t="s">
         <v>637</v>
       </c>
-      <c r="P11" s="442"/>
+      <c r="P11" s="441"/>
     </row>
     <row r="12" spans="2:16">
       <c r="B12" s="36"/>
@@ -25010,7 +24885,7 @@
       </c>
       <c r="D12" s="421"/>
       <c r="E12" s="71">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="F12" s="191"/>
       <c r="G12" s="23" t="s">
@@ -25022,16 +24897,16 @@
       <c r="K12" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="L12" s="606" t="b">
+      <c r="L12" s="604" t="b">
         <f>IF(COUNTBLANK(E11:E89)-COUNTBLANK(C11:C89)=7,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M12" s="340"/>
       <c r="N12" s="423"/>
-      <c r="O12" s="440" t="s">
+      <c r="O12" s="439" t="s">
         <v>636</v>
       </c>
-      <c r="P12" s="442">
+      <c r="P12" s="441">
         <f>IF(L12=TRUE,1,0)</f>
         <v>0</v>
       </c>
@@ -25050,8 +24925,8 @@
       <c r="L13" s="120"/>
       <c r="M13" s="340"/>
       <c r="N13" s="423"/>
-      <c r="O13" s="440"/>
-      <c r="P13" s="442"/>
+      <c r="O13" s="439"/>
+      <c r="P13" s="441"/>
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="36"/>
@@ -25067,8 +24942,8 @@
       <c r="L14" s="120"/>
       <c r="M14" s="139"/>
       <c r="N14" s="424"/>
-      <c r="O14" s="440"/>
-      <c r="P14" s="442"/>
+      <c r="O14" s="439"/>
+      <c r="P14" s="441"/>
     </row>
     <row r="15" spans="2:16">
       <c r="B15" s="33"/>
@@ -25084,8 +24959,8 @@
       <c r="L15" s="54"/>
       <c r="M15" s="55"/>
       <c r="N15" s="15"/>
-      <c r="O15" s="440"/>
-      <c r="P15" s="442"/>
+      <c r="O15" s="439"/>
+      <c r="P15" s="441"/>
     </row>
     <row r="16" spans="2:16">
       <c r="B16" s="38" t="s">
@@ -25103,8 +24978,8 @@
       <c r="L16" s="60"/>
       <c r="M16" s="61"/>
       <c r="N16" s="15"/>
-      <c r="O16" s="440"/>
-      <c r="P16" s="442"/>
+      <c r="O16" s="439"/>
+      <c r="P16" s="441"/>
     </row>
     <row r="17" spans="2:16" ht="15" customHeight="1">
       <c r="B17" s="31"/>
@@ -25125,14 +25000,14 @@
         <v>440</v>
       </c>
       <c r="J17" s="8"/>
-      <c r="K17" s="661" t="s">
-        <v>743</v>
+      <c r="K17" s="658" t="s">
+        <v>742</v>
       </c>
       <c r="L17" s="341"/>
       <c r="M17" s="342"/>
       <c r="N17" s="75"/>
-      <c r="O17" s="440"/>
-      <c r="P17" s="442"/>
+      <c r="O17" s="439"/>
+      <c r="P17" s="441"/>
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="38"/>
@@ -25144,17 +25019,17 @@
       <c r="H18" s="399"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="662"/>
+      <c r="K18" s="659"/>
       <c r="L18" s="405"/>
       <c r="M18" s="342"/>
       <c r="N18" s="75"/>
-      <c r="O18" s="440"/>
-      <c r="P18" s="442"/>
+      <c r="O18" s="439"/>
+      <c r="P18" s="441"/>
     </row>
     <row r="19" spans="2:16" ht="16" customHeight="1" thickBot="1">
       <c r="B19" s="38"/>
-      <c r="C19" s="608" t="s">
-        <v>745</v>
+      <c r="C19" s="606" t="s">
+        <v>744</v>
       </c>
       <c r="D19" s="383"/>
       <c r="E19" s="262"/>
@@ -25163,11 +25038,11 @@
       <c r="H19" s="399"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="610" t="str">
+      <c r="K19" s="608" t="str">
         <f t="array" ref="K19:K25">TRANSPOSE('Final demand per energy carrier'!E71:K71)</f>
         <v>Network gas</v>
       </c>
-      <c r="L19" s="619" t="e">
+      <c r="L19" s="617" t="e">
         <f t="array" ref="L19:L25">TRANSPOSE('Final demand per energy carrier'!E74:K74)</f>
         <v>#DIV/0!</v>
       </c>
@@ -25176,12 +25051,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N19" s="75"/>
-      <c r="O19" s="440"/>
-      <c r="P19" s="442"/>
+      <c r="O19" s="439"/>
+      <c r="P19" s="441"/>
     </row>
     <row r="20" spans="2:16" ht="17" thickBot="1">
       <c r="B20" s="38"/>
-      <c r="C20" s="607" t="s">
+      <c r="C20" s="605" t="s">
         <v>77</v>
       </c>
       <c r="D20" s="384" t="s">
@@ -25195,10 +25070,10 @@
       <c r="H20" s="404"/>
       <c r="I20" s="406"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="611" t="str">
+      <c r="K20" s="609" t="str">
         <v>Electricity</v>
       </c>
-      <c r="L20" s="619" t="e">
+      <c r="L20" s="617" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="M20" s="349" t="e">
@@ -25206,14 +25081,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N20" s="75"/>
-      <c r="O20" s="440" t="s">
+      <c r="O20" s="439" t="s">
         <v>550</v>
       </c>
-      <c r="P20" s="442"/>
+      <c r="P20" s="441"/>
     </row>
     <row r="21" spans="2:16" ht="17" thickBot="1">
       <c r="B21" s="38"/>
-      <c r="C21" s="607" t="s">
+      <c r="C21" s="605" t="s">
         <v>293</v>
       </c>
       <c r="D21" s="384" t="s">
@@ -25227,24 +25102,24 @@
       <c r="H21" s="404"/>
       <c r="I21" s="406"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="611" t="str">
+      <c r="K21" s="609" t="str">
         <v>Solar thermal</v>
       </c>
-      <c r="L21" s="619">
+      <c r="L21" s="617">
         <v>0</v>
       </c>
       <c r="M21" s="349" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="N21" s="75"/>
-      <c r="O21" s="440" t="s">
+      <c r="O21" s="439" t="s">
         <v>551</v>
       </c>
-      <c r="P21" s="442"/>
+      <c r="P21" s="441"/>
     </row>
     <row r="22" spans="2:16" ht="17" thickBot="1">
       <c r="B22" s="38"/>
-      <c r="C22" s="607" t="s">
+      <c r="C22" s="605" t="s">
         <v>89</v>
       </c>
       <c r="D22" s="384" t="s">
@@ -25258,10 +25133,10 @@
       <c r="H22" s="404"/>
       <c r="I22" s="406"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="611" t="str">
+      <c r="K22" s="609" t="str">
         <v>Coal</v>
       </c>
-      <c r="L22" s="619" t="e">
+      <c r="L22" s="617" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="M22" s="349" t="e">
@@ -25269,14 +25144,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N22" s="75"/>
-      <c r="O22" s="440" t="s">
+      <c r="O22" s="439" t="s">
         <v>552</v>
       </c>
-      <c r="P22" s="442"/>
+      <c r="P22" s="441"/>
     </row>
     <row r="23" spans="2:16" ht="17" thickBot="1">
       <c r="B23" s="38"/>
-      <c r="C23" s="607" t="s">
+      <c r="C23" s="605" t="s">
         <v>76</v>
       </c>
       <c r="D23" s="384" t="s">
@@ -25290,10 +25165,10 @@
       <c r="H23" s="404"/>
       <c r="I23" s="406"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="611" t="str">
+      <c r="K23" s="609" t="str">
         <v>Oil</v>
       </c>
-      <c r="L23" s="619" t="e">
+      <c r="L23" s="617" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="M23" s="349" t="e">
@@ -25301,14 +25176,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N23" s="75"/>
-      <c r="O23" s="440" t="s">
+      <c r="O23" s="439" t="s">
         <v>553</v>
       </c>
-      <c r="P23" s="442"/>
+      <c r="P23" s="441"/>
     </row>
     <row r="24" spans="2:16" ht="17" thickBot="1">
       <c r="B24" s="38"/>
-      <c r="C24" s="607" t="s">
+      <c r="C24" s="605" t="s">
         <v>278</v>
       </c>
       <c r="D24" s="384" t="s">
@@ -25322,10 +25197,10 @@
       <c r="H24" s="404"/>
       <c r="I24" s="406"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="611" t="str">
+      <c r="K24" s="609" t="str">
         <v>Woodpellets</v>
       </c>
-      <c r="L24" s="619" t="e">
+      <c r="L24" s="617" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="M24" s="349" t="e">
@@ -25333,14 +25208,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="75"/>
-      <c r="O24" s="440" t="s">
+      <c r="O24" s="439" t="s">
         <v>554</v>
       </c>
-      <c r="P24" s="442"/>
+      <c r="P24" s="441"/>
     </row>
     <row r="25" spans="2:16" ht="17" thickBot="1">
       <c r="B25" s="38"/>
-      <c r="C25" s="607" t="s">
+      <c r="C25" s="605" t="s">
         <v>382</v>
       </c>
       <c r="D25" s="384" t="s">
@@ -25354,10 +25229,10 @@
       <c r="H25" s="404"/>
       <c r="I25" s="406"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="610" t="str">
+      <c r="K25" s="608" t="str">
         <v>District heat</v>
       </c>
-      <c r="L25" s="619" t="e">
+      <c r="L25" s="617" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="M25" s="349" t="e">
@@ -25365,10 +25240,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N25" s="75"/>
-      <c r="O25" s="440" t="s">
+      <c r="O25" s="439" t="s">
         <v>555</v>
       </c>
-      <c r="P25" s="442"/>
+      <c r="P25" s="441"/>
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="38"/>
@@ -25384,18 +25259,18 @@
       <c r="L26" s="345"/>
       <c r="M26" s="342"/>
       <c r="N26" s="75"/>
-      <c r="O26" s="440"/>
-      <c r="P26" s="442"/>
+      <c r="O26" s="439"/>
+      <c r="P26" s="441"/>
     </row>
     <row r="27" spans="2:16" ht="17">
       <c r="B27" s="38"/>
       <c r="C27" s="191" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D27" s="383" t="s">
         <v>214</v>
       </c>
-      <c r="E27" s="609">
+      <c r="E27" s="607">
         <f>E17-SUM(E20:E25)</f>
         <v>0</v>
       </c>
@@ -25407,7 +25282,7 @@
       <c r="K27" s="341" t="s">
         <v>531</v>
       </c>
-      <c r="L27" s="620" t="e">
+      <c r="L27" s="618" t="e">
         <f>IF(ABS(E27)/E17&lt;0.05,TRUE,E27/E17)</f>
         <v>#DIV/0!</v>
       </c>
@@ -25416,8 +25291,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="75"/>
-      <c r="O27" s="440"/>
-      <c r="P27" s="442"/>
+      <c r="O27" s="439"/>
+      <c r="P27" s="441"/>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="110"/>
@@ -25426,15 +25301,15 @@
       <c r="E28" s="259"/>
       <c r="F28" s="259"/>
       <c r="G28" s="414"/>
-      <c r="H28" s="575"/>
+      <c r="H28" s="573"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="346"/>
       <c r="L28" s="346"/>
       <c r="M28" s="343"/>
       <c r="N28" s="75"/>
-      <c r="O28" s="440"/>
-      <c r="P28" s="442"/>
+      <c r="O28" s="439"/>
+      <c r="P28" s="441"/>
     </row>
     <row r="29" spans="2:16" ht="16" customHeight="1">
       <c r="B29" s="38" t="s">
@@ -25448,10 +25323,10 @@
       <c r="H29" s="148"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="604" t="s">
+      <c r="K29" s="602" t="s">
         <v>191</v>
       </c>
-      <c r="L29" s="613">
+      <c r="L29" s="611">
         <f>IF(SUM(E31:E40)=1,TRUE,SUM(E31:E40))</f>
         <v>0</v>
       </c>
@@ -25460,16 +25335,16 @@
         <v xml:space="preserve">Please adjust the percentages on the left. You might find it usefule to temporarily define one share as '1-sum( all others )' </v>
       </c>
       <c r="N29" s="425"/>
-      <c r="O29" s="440"/>
-      <c r="P29" s="442">
+      <c r="O29" s="439"/>
+      <c r="P29" s="441">
         <f>IF(L29=TRUE,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="16" customHeight="1" thickBot="1">
       <c r="B30" s="38"/>
-      <c r="C30" s="608" t="s">
-        <v>775</v>
+      <c r="C30" s="606" t="s">
+        <v>774</v>
       </c>
       <c r="D30" s="383"/>
       <c r="E30" s="249"/>
@@ -25478,17 +25353,17 @@
       <c r="H30" s="148"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="604"/>
+      <c r="K30" s="602"/>
       <c r="L30" s="344"/>
       <c r="M30" s="349"/>
       <c r="N30" s="425"/>
-      <c r="O30" s="440"/>
-      <c r="P30" s="442"/>
+      <c r="O30" s="439"/>
+      <c r="P30" s="441"/>
     </row>
     <row r="31" spans="2:16" ht="17" thickBot="1">
       <c r="B31" s="38"/>
-      <c r="C31" s="607" t="s">
-        <v>746</v>
+      <c r="C31" s="605" t="s">
+        <v>745</v>
       </c>
       <c r="D31" s="386"/>
       <c r="E31" s="380"/>
@@ -25501,15 +25376,15 @@
       <c r="L31" s="344"/>
       <c r="M31" s="349"/>
       <c r="N31" s="425"/>
-      <c r="O31" s="440" t="s">
+      <c r="O31" s="439" t="s">
         <v>556</v>
       </c>
-      <c r="P31" s="442"/>
+      <c r="P31" s="441"/>
     </row>
     <row r="32" spans="2:16" ht="17" thickBot="1">
       <c r="B32" s="38"/>
-      <c r="C32" s="607" t="s">
-        <v>868</v>
+      <c r="C32" s="605" t="s">
+        <v>861</v>
       </c>
       <c r="D32" s="386"/>
       <c r="E32" s="380"/>
@@ -25522,15 +25397,15 @@
       <c r="L32" s="344"/>
       <c r="M32" s="349"/>
       <c r="N32" s="425"/>
-      <c r="O32" s="440" t="s">
+      <c r="O32" s="439" t="s">
         <v>557</v>
       </c>
-      <c r="P32" s="442"/>
+      <c r="P32" s="441"/>
     </row>
     <row r="33" spans="2:16" ht="17" thickBot="1">
       <c r="B33" s="38"/>
-      <c r="C33" s="607" t="s">
-        <v>747</v>
+      <c r="C33" s="605" t="s">
+        <v>746</v>
       </c>
       <c r="D33" s="386"/>
       <c r="E33" s="380"/>
@@ -25543,15 +25418,15 @@
       <c r="L33" s="344"/>
       <c r="M33" s="342"/>
       <c r="N33" s="75"/>
-      <c r="O33" s="440" t="s">
+      <c r="O33" s="439" t="s">
         <v>560</v>
       </c>
-      <c r="P33" s="442"/>
+      <c r="P33" s="441"/>
     </row>
     <row r="34" spans="2:16" ht="17" thickBot="1">
       <c r="B34" s="38"/>
-      <c r="C34" s="607" t="s">
-        <v>748</v>
+      <c r="C34" s="605" t="s">
+        <v>747</v>
       </c>
       <c r="D34" s="386"/>
       <c r="E34" s="380"/>
@@ -25564,15 +25439,15 @@
       <c r="L34" s="344"/>
       <c r="M34" s="342"/>
       <c r="N34" s="75"/>
-      <c r="O34" s="440" t="s">
+      <c r="O34" s="439" t="s">
         <v>558</v>
       </c>
-      <c r="P34" s="442"/>
+      <c r="P34" s="441"/>
     </row>
     <row r="35" spans="2:16" ht="17" thickBot="1">
       <c r="B35" s="38"/>
-      <c r="C35" s="607" t="s">
-        <v>749</v>
+      <c r="C35" s="605" t="s">
+        <v>748</v>
       </c>
       <c r="D35" s="386"/>
       <c r="E35" s="380"/>
@@ -25585,15 +25460,15 @@
       <c r="L35" s="344"/>
       <c r="M35" s="342"/>
       <c r="N35" s="75"/>
-      <c r="O35" s="440" t="s">
+      <c r="O35" s="439" t="s">
         <v>559</v>
       </c>
-      <c r="P35" s="442"/>
+      <c r="P35" s="441"/>
     </row>
     <row r="36" spans="2:16" ht="17" thickBot="1">
       <c r="B36" s="38"/>
-      <c r="C36" s="607" t="s">
-        <v>750</v>
+      <c r="C36" s="605" t="s">
+        <v>749</v>
       </c>
       <c r="D36" s="386"/>
       <c r="E36" s="380"/>
@@ -25606,15 +25481,15 @@
       <c r="L36" s="344"/>
       <c r="M36" s="342"/>
       <c r="N36" s="75"/>
-      <c r="O36" s="445" t="s">
+      <c r="O36" s="444" t="s">
         <v>561</v>
       </c>
-      <c r="P36" s="442"/>
+      <c r="P36" s="441"/>
     </row>
     <row r="37" spans="2:16" ht="17" thickBot="1">
       <c r="B37" s="38"/>
-      <c r="C37" s="607" t="s">
-        <v>751</v>
+      <c r="C37" s="605" t="s">
+        <v>750</v>
       </c>
       <c r="D37" s="386"/>
       <c r="E37" s="380"/>
@@ -25627,15 +25502,15 @@
       <c r="L37" s="344"/>
       <c r="M37" s="342"/>
       <c r="N37" s="75"/>
-      <c r="O37" s="445" t="s">
+      <c r="O37" s="444" t="s">
         <v>563</v>
       </c>
-      <c r="P37" s="442"/>
+      <c r="P37" s="441"/>
     </row>
     <row r="38" spans="2:16" ht="17" thickBot="1">
       <c r="B38" s="38"/>
-      <c r="C38" s="607" t="s">
-        <v>752</v>
+      <c r="C38" s="605" t="s">
+        <v>751</v>
       </c>
       <c r="D38" s="386"/>
       <c r="E38" s="380"/>
@@ -25648,15 +25523,15 @@
       <c r="L38" s="344"/>
       <c r="M38" s="342"/>
       <c r="N38" s="75"/>
-      <c r="O38" s="445" t="s">
+      <c r="O38" s="444" t="s">
         <v>562</v>
       </c>
-      <c r="P38" s="442"/>
+      <c r="P38" s="441"/>
     </row>
     <row r="39" spans="2:16" ht="17" thickBot="1">
       <c r="B39" s="38"/>
-      <c r="C39" s="607" t="s">
-        <v>753</v>
+      <c r="C39" s="605" t="s">
+        <v>752</v>
       </c>
       <c r="D39" s="386"/>
       <c r="E39" s="380"/>
@@ -25668,15 +25543,15 @@
       <c r="K39" s="341"/>
       <c r="L39" s="344"/>
       <c r="M39" s="349"/>
-      <c r="O39" s="445" t="s">
+      <c r="O39" s="444" t="s">
         <v>564</v>
       </c>
-      <c r="P39" s="442"/>
+      <c r="P39" s="441"/>
     </row>
     <row r="40" spans="2:16" ht="17" thickBot="1">
       <c r="B40" s="38"/>
-      <c r="C40" s="607" t="s">
-        <v>794</v>
+      <c r="C40" s="605" t="s">
+        <v>788</v>
       </c>
       <c r="D40" s="386"/>
       <c r="E40" s="380"/>
@@ -25689,10 +25564,10 @@
       <c r="L40" s="75"/>
       <c r="M40" s="342"/>
       <c r="N40" s="75"/>
-      <c r="O40" s="445" t="s">
-        <v>803</v>
-      </c>
-      <c r="P40" s="442"/>
+      <c r="O40" s="444" t="s">
+        <v>797</v>
+      </c>
+      <c r="P40" s="441"/>
     </row>
     <row r="41" spans="2:16">
       <c r="B41" s="110"/>
@@ -25708,8 +25583,8 @@
       <c r="L41" s="346"/>
       <c r="M41" s="343"/>
       <c r="N41" s="75"/>
-      <c r="O41" s="446"/>
-      <c r="P41" s="442"/>
+      <c r="O41" s="445"/>
+      <c r="P41" s="441"/>
     </row>
     <row r="42" spans="2:16" ht="16" customHeight="1">
       <c r="B42" s="38" t="s">
@@ -25723,10 +25598,10 @@
       <c r="H42" s="148"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
-      <c r="K42" s="604" t="s">
+      <c r="K42" s="602" t="s">
         <v>191</v>
       </c>
-      <c r="L42" s="613">
+      <c r="L42" s="611">
         <f>IF(SUM(E44:E53)=1,TRUE,SUM(E44:E53))</f>
         <v>0</v>
       </c>
@@ -25735,16 +25610,16 @@
         <v xml:space="preserve">Please adjust the percentages on the left. You might find it usefule to temporarily define one share as '1-sum( all others )' </v>
       </c>
       <c r="N42" s="425"/>
-      <c r="O42" s="440"/>
-      <c r="P42" s="442">
+      <c r="O42" s="439"/>
+      <c r="P42" s="441">
         <f>IF(L42=TRUE,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:16" ht="16" customHeight="1" thickBot="1">
       <c r="B43" s="38"/>
-      <c r="C43" s="608" t="s">
-        <v>774</v>
+      <c r="C43" s="606" t="s">
+        <v>773</v>
       </c>
       <c r="D43" s="383"/>
       <c r="E43" s="253"/>
@@ -25753,17 +25628,17 @@
       <c r="H43" s="148"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
-      <c r="K43" s="604"/>
+      <c r="K43" s="602"/>
       <c r="L43" s="344"/>
       <c r="M43" s="349"/>
       <c r="N43" s="425"/>
-      <c r="O43" s="440"/>
-      <c r="P43" s="442"/>
+      <c r="O43" s="439"/>
+      <c r="P43" s="441"/>
     </row>
     <row r="44" spans="2:16" ht="17" thickBot="1">
       <c r="B44" s="38"/>
-      <c r="C44" s="607" t="s">
-        <v>746</v>
+      <c r="C44" s="605" t="s">
+        <v>745</v>
       </c>
       <c r="D44" s="386"/>
       <c r="E44" s="380"/>
@@ -25776,15 +25651,15 @@
       <c r="L44" s="344"/>
       <c r="M44" s="342"/>
       <c r="N44" s="425"/>
-      <c r="O44" s="440" t="s">
+      <c r="O44" s="439" t="s">
         <v>565</v>
       </c>
-      <c r="P44" s="442"/>
+      <c r="P44" s="441"/>
     </row>
     <row r="45" spans="2:16" ht="17" thickBot="1">
       <c r="B45" s="38"/>
-      <c r="C45" s="607" t="s">
-        <v>869</v>
+      <c r="C45" s="605" t="s">
+        <v>862</v>
       </c>
       <c r="D45" s="386"/>
       <c r="E45" s="380"/>
@@ -25797,15 +25672,15 @@
       <c r="L45" s="344"/>
       <c r="M45" s="32"/>
       <c r="N45" s="425"/>
-      <c r="O45" s="440" t="s">
+      <c r="O45" s="439" t="s">
         <v>566</v>
       </c>
-      <c r="P45" s="442"/>
+      <c r="P45" s="441"/>
     </row>
     <row r="46" spans="2:16" ht="17" thickBot="1">
       <c r="B46" s="38"/>
-      <c r="C46" s="607" t="s">
-        <v>754</v>
+      <c r="C46" s="605" t="s">
+        <v>753</v>
       </c>
       <c r="D46" s="386"/>
       <c r="E46" s="380"/>
@@ -25818,15 +25693,15 @@
       <c r="L46" s="344"/>
       <c r="M46" s="32"/>
       <c r="N46" s="75"/>
-      <c r="O46" s="440" t="s">
+      <c r="O46" s="439" t="s">
         <v>567</v>
       </c>
-      <c r="P46" s="442"/>
+      <c r="P46" s="441"/>
     </row>
     <row r="47" spans="2:16" ht="17" thickBot="1">
       <c r="B47" s="38"/>
-      <c r="C47" s="607" t="s">
-        <v>786</v>
+      <c r="C47" s="605" t="s">
+        <v>785</v>
       </c>
       <c r="D47" s="386"/>
       <c r="E47" s="380"/>
@@ -25839,15 +25714,15 @@
       <c r="L47" s="344"/>
       <c r="M47" s="32"/>
       <c r="N47" s="75"/>
-      <c r="O47" s="440" t="s">
+      <c r="O47" s="439" t="s">
         <v>568</v>
       </c>
-      <c r="P47" s="442"/>
+      <c r="P47" s="441"/>
     </row>
     <row r="48" spans="2:16" ht="17" thickBot="1">
       <c r="B48" s="38"/>
-      <c r="C48" s="607" t="s">
-        <v>755</v>
+      <c r="C48" s="605" t="s">
+        <v>754</v>
       </c>
       <c r="D48" s="386"/>
       <c r="E48" s="380"/>
@@ -25860,15 +25735,15 @@
       <c r="L48" s="344"/>
       <c r="M48" s="342"/>
       <c r="N48" s="75"/>
-      <c r="O48" s="440" t="s">
+      <c r="O48" s="439" t="s">
         <v>569</v>
       </c>
-      <c r="P48" s="442"/>
+      <c r="P48" s="441"/>
     </row>
     <row r="49" spans="2:16" ht="17" thickBot="1">
       <c r="B49" s="38"/>
-      <c r="C49" s="607" t="s">
-        <v>756</v>
+      <c r="C49" s="605" t="s">
+        <v>755</v>
       </c>
       <c r="D49" s="386"/>
       <c r="E49" s="380"/>
@@ -25881,15 +25756,15 @@
       <c r="L49" s="344"/>
       <c r="M49" s="342"/>
       <c r="N49" s="75"/>
-      <c r="O49" s="445" t="s">
+      <c r="O49" s="444" t="s">
         <v>570</v>
       </c>
-      <c r="P49" s="442"/>
+      <c r="P49" s="441"/>
     </row>
     <row r="50" spans="2:16" ht="17" thickBot="1">
       <c r="B50" s="38"/>
-      <c r="C50" s="607" t="s">
-        <v>757</v>
+      <c r="C50" s="605" t="s">
+        <v>756</v>
       </c>
       <c r="D50" s="386"/>
       <c r="E50" s="380"/>
@@ -25902,15 +25777,15 @@
       <c r="L50" s="344"/>
       <c r="M50" s="342"/>
       <c r="N50" s="75"/>
-      <c r="O50" s="445" t="s">
+      <c r="O50" s="444" t="s">
         <v>571</v>
       </c>
-      <c r="P50" s="442"/>
+      <c r="P50" s="441"/>
     </row>
     <row r="51" spans="2:16" ht="17" thickBot="1">
       <c r="B51" s="38"/>
-      <c r="C51" s="607" t="s">
-        <v>758</v>
+      <c r="C51" s="605" t="s">
+        <v>757</v>
       </c>
       <c r="D51" s="386"/>
       <c r="E51" s="380"/>
@@ -25923,15 +25798,15 @@
       <c r="L51" s="344"/>
       <c r="M51" s="342"/>
       <c r="N51" s="75"/>
-      <c r="O51" s="445" t="s">
+      <c r="O51" s="444" t="s">
         <v>572</v>
       </c>
-      <c r="P51" s="442"/>
+      <c r="P51" s="441"/>
     </row>
     <row r="52" spans="2:16" ht="17" thickBot="1">
       <c r="B52" s="38"/>
-      <c r="C52" s="607" t="s">
-        <v>759</v>
+      <c r="C52" s="605" t="s">
+        <v>758</v>
       </c>
       <c r="D52" s="386"/>
       <c r="E52" s="380"/>
@@ -25944,15 +25819,15 @@
       <c r="L52" s="344"/>
       <c r="M52" s="342"/>
       <c r="N52" s="75"/>
-      <c r="O52" s="445" t="s">
+      <c r="O52" s="444" t="s">
         <v>573</v>
       </c>
-      <c r="P52" s="442"/>
+      <c r="P52" s="441"/>
     </row>
     <row r="53" spans="2:16" ht="17" thickBot="1">
       <c r="B53" s="38"/>
-      <c r="C53" s="607" t="s">
-        <v>794</v>
+      <c r="C53" s="605" t="s">
+        <v>788</v>
       </c>
       <c r="D53" s="386"/>
       <c r="E53" s="380"/>
@@ -25965,10 +25840,10 @@
       <c r="L53" s="341"/>
       <c r="M53" s="342"/>
       <c r="N53" s="75"/>
-      <c r="O53" s="445" t="s">
-        <v>812</v>
-      </c>
-      <c r="P53" s="442"/>
+      <c r="O53" s="444" t="s">
+        <v>806</v>
+      </c>
+      <c r="P53" s="441"/>
     </row>
     <row r="54" spans="2:16">
       <c r="B54" s="110"/>
@@ -25977,15 +25852,15 @@
       <c r="E54" s="254"/>
       <c r="F54" s="254"/>
       <c r="G54" s="414"/>
-      <c r="H54" s="575"/>
+      <c r="H54" s="573"/>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="347"/>
       <c r="L54" s="347"/>
       <c r="M54" s="343"/>
       <c r="N54" s="75"/>
-      <c r="O54" s="440"/>
-      <c r="P54" s="442">
+      <c r="O54" s="439"/>
+      <c r="P54" s="441">
         <f>IF(L55=TRUE,1,0)</f>
         <v>0</v>
       </c>
@@ -25996,50 +25871,50 @@
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="387"/>
-      <c r="E55" s="616"/>
-      <c r="F55" s="616"/>
+      <c r="E55" s="614"/>
+      <c r="F55" s="614"/>
       <c r="G55" s="413"/>
       <c r="H55" s="148"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
-      <c r="K55" s="604" t="s">
+      <c r="K55" s="602" t="s">
         <v>191</v>
       </c>
-      <c r="L55" s="613">
+      <c r="L55" s="611">
         <f>IF(SUM(E57:E59)=1,TRUE,SUM(E57:E59))</f>
         <v>0</v>
       </c>
-      <c r="M55" s="612" t="str">
+      <c r="M55" s="610" t="str">
         <f>IF(L55=TRUE," ","Please adjust the percentages on the left. ")</f>
         <v xml:space="preserve">Please adjust the percentages on the left. </v>
       </c>
       <c r="N55" s="75"/>
-      <c r="O55" s="440"/>
-      <c r="P55" s="442"/>
+      <c r="O55" s="439"/>
+      <c r="P55" s="441"/>
     </row>
     <row r="56" spans="2:16" ht="17" thickBot="1">
       <c r="B56" s="38"/>
-      <c r="C56" s="608" t="s">
-        <v>773</v>
+      <c r="C56" s="606" t="s">
+        <v>772</v>
       </c>
       <c r="D56" s="387"/>
-      <c r="E56" s="616"/>
-      <c r="F56" s="616"/>
+      <c r="E56" s="614"/>
+      <c r="F56" s="614"/>
       <c r="G56" s="413"/>
       <c r="H56" s="148"/>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
-      <c r="K56" s="604"/>
+      <c r="K56" s="602"/>
       <c r="L56" s="344"/>
-      <c r="M56" s="615"/>
+      <c r="M56" s="613"/>
       <c r="N56" s="75"/>
-      <c r="O56" s="440"/>
-      <c r="P56" s="442"/>
+      <c r="O56" s="439"/>
+      <c r="P56" s="441"/>
     </row>
     <row r="57" spans="2:16" ht="17" thickBot="1">
       <c r="B57" s="38"/>
-      <c r="C57" s="607" t="s">
-        <v>760</v>
+      <c r="C57" s="605" t="s">
+        <v>759</v>
       </c>
       <c r="D57" s="388"/>
       <c r="E57" s="381"/>
@@ -26052,15 +25927,15 @@
       <c r="L57" s="344"/>
       <c r="M57" s="342"/>
       <c r="N57" s="75"/>
-      <c r="O57" s="445" t="s">
+      <c r="O57" s="444" t="s">
         <v>574</v>
       </c>
-      <c r="P57" s="442"/>
+      <c r="P57" s="441"/>
     </row>
     <row r="58" spans="2:16" ht="17" thickBot="1">
       <c r="B58" s="38"/>
-      <c r="C58" s="607" t="s">
-        <v>761</v>
+      <c r="C58" s="605" t="s">
+        <v>760</v>
       </c>
       <c r="D58" s="388"/>
       <c r="E58" s="381"/>
@@ -26073,31 +25948,31 @@
       <c r="L58" s="344"/>
       <c r="M58" s="342"/>
       <c r="N58" s="75"/>
-      <c r="O58" s="445" t="s">
+      <c r="O58" s="444" t="s">
         <v>575</v>
       </c>
-      <c r="P58" s="442"/>
+      <c r="P58" s="441"/>
     </row>
     <row r="59" spans="2:16" ht="17" thickBot="1">
       <c r="B59" s="38"/>
-      <c r="C59" s="607" t="s">
-        <v>762</v>
+      <c r="C59" s="605" t="s">
+        <v>761</v>
       </c>
       <c r="D59" s="389"/>
       <c r="E59" s="381"/>
       <c r="F59" s="398"/>
       <c r="G59" s="417"/>
-      <c r="H59" s="617"/>
+      <c r="H59" s="615"/>
       <c r="I59" s="408"/>
       <c r="J59" s="8"/>
       <c r="K59" s="341"/>
       <c r="L59" s="344"/>
       <c r="M59" s="342"/>
       <c r="N59" s="75"/>
-      <c r="O59" s="447" t="s">
+      <c r="O59" s="446" t="s">
         <v>576</v>
       </c>
-      <c r="P59" s="442"/>
+      <c r="P59" s="441"/>
     </row>
     <row r="60" spans="2:16">
       <c r="B60" s="110"/>
@@ -26106,15 +25981,15 @@
       <c r="E60" s="254"/>
       <c r="F60" s="254"/>
       <c r="G60" s="414"/>
-      <c r="H60" s="575"/>
+      <c r="H60" s="573"/>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
       <c r="K60" s="347"/>
       <c r="L60" s="346"/>
       <c r="M60" s="343"/>
       <c r="N60" s="75"/>
-      <c r="O60" s="440"/>
-      <c r="P60" s="442">
+      <c r="O60" s="439"/>
+      <c r="P60" s="441">
         <f>IF(L61=TRUE,1,0)</f>
         <v>0</v>
       </c>
@@ -26125,50 +26000,50 @@
       </c>
       <c r="C61" s="191"/>
       <c r="D61" s="383"/>
-      <c r="E61" s="616"/>
+      <c r="E61" s="614"/>
       <c r="F61" s="398"/>
       <c r="G61" s="415"/>
       <c r="H61" s="401"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
-      <c r="K61" s="604" t="s">
+      <c r="K61" s="602" t="s">
         <v>191</v>
       </c>
-      <c r="L61" s="613">
+      <c r="L61" s="611">
         <f>IF(SUM(E63:E65)=1,TRUE,SUM(E63:E65))</f>
         <v>0</v>
       </c>
-      <c r="M61" s="612" t="str">
+      <c r="M61" s="610" t="str">
         <f>IF(L61=TRUE," ","Please adjust the percentages on the left. ")</f>
         <v xml:space="preserve">Please adjust the percentages on the left. </v>
       </c>
       <c r="N61" s="75"/>
-      <c r="O61" s="440"/>
-      <c r="P61" s="442"/>
+      <c r="O61" s="439"/>
+      <c r="P61" s="441"/>
     </row>
     <row r="62" spans="2:16" ht="17" thickBot="1">
       <c r="B62" s="38"/>
-      <c r="C62" s="608" t="s">
-        <v>772</v>
+      <c r="C62" s="606" t="s">
+        <v>771</v>
       </c>
       <c r="D62" s="383"/>
-      <c r="E62" s="616"/>
+      <c r="E62" s="614"/>
       <c r="F62" s="398"/>
       <c r="G62" s="415"/>
       <c r="H62" s="401"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
-      <c r="K62" s="604"/>
+      <c r="K62" s="602"/>
       <c r="L62" s="344"/>
-      <c r="M62" s="615"/>
+      <c r="M62" s="613"/>
       <c r="N62" s="75"/>
-      <c r="O62" s="440"/>
-      <c r="P62" s="442"/>
+      <c r="O62" s="439"/>
+      <c r="P62" s="441"/>
     </row>
     <row r="63" spans="2:16" ht="17" thickBot="1">
       <c r="B63" s="38"/>
-      <c r="C63" s="607" t="s">
-        <v>763</v>
+      <c r="C63" s="605" t="s">
+        <v>762</v>
       </c>
       <c r="D63" s="388"/>
       <c r="E63" s="381"/>
@@ -26181,15 +26056,15 @@
       <c r="L63" s="341"/>
       <c r="M63" s="342"/>
       <c r="N63" s="75"/>
-      <c r="O63" s="445" t="s">
+      <c r="O63" s="444" t="s">
         <v>577</v>
       </c>
-      <c r="P63" s="442"/>
+      <c r="P63" s="441"/>
     </row>
     <row r="64" spans="2:16" ht="17" thickBot="1">
       <c r="B64" s="38"/>
-      <c r="C64" s="607" t="s">
-        <v>764</v>
+      <c r="C64" s="605" t="s">
+        <v>763</v>
       </c>
       <c r="D64" s="388"/>
       <c r="E64" s="381"/>
@@ -26202,31 +26077,31 @@
       <c r="L64" s="341"/>
       <c r="M64" s="342"/>
       <c r="N64" s="75"/>
-      <c r="O64" s="445" t="s">
+      <c r="O64" s="444" t="s">
         <v>578</v>
       </c>
-      <c r="P64" s="442"/>
+      <c r="P64" s="441"/>
     </row>
     <row r="65" spans="2:16" ht="17" thickBot="1">
       <c r="B65" s="38"/>
-      <c r="C65" s="607" t="s">
+      <c r="C65" s="605" t="s">
         <v>100</v>
       </c>
       <c r="D65" s="388"/>
       <c r="E65" s="381"/>
       <c r="F65" s="398"/>
       <c r="G65" s="417"/>
-      <c r="H65" s="617"/>
+      <c r="H65" s="615"/>
       <c r="I65" s="407"/>
       <c r="J65" s="8"/>
       <c r="K65" s="341"/>
       <c r="L65" s="341"/>
       <c r="M65" s="342"/>
       <c r="N65" s="75"/>
-      <c r="O65" s="447" t="s">
+      <c r="O65" s="446" t="s">
         <v>579</v>
       </c>
-      <c r="P65" s="442"/>
+      <c r="P65" s="441"/>
     </row>
     <row r="66" spans="2:16">
       <c r="B66" s="110"/>
@@ -26235,15 +26110,15 @@
       <c r="E66" s="254"/>
       <c r="F66" s="254"/>
       <c r="G66" s="414"/>
-      <c r="H66" s="575"/>
+      <c r="H66" s="573"/>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
       <c r="K66" s="347"/>
       <c r="L66" s="347"/>
       <c r="M66" s="343"/>
       <c r="N66" s="75"/>
-      <c r="O66" s="440"/>
-      <c r="P66" s="442">
+      <c r="O66" s="439"/>
+      <c r="P66" s="441">
         <f>IF(L67=TRUE,1,0)</f>
         <v>0</v>
       </c>
@@ -26254,50 +26129,50 @@
       </c>
       <c r="C67" s="191"/>
       <c r="D67" s="383"/>
-      <c r="E67" s="616"/>
-      <c r="F67" s="616"/>
+      <c r="E67" s="614"/>
+      <c r="F67" s="614"/>
       <c r="G67" s="413"/>
       <c r="H67" s="148"/>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
-      <c r="K67" s="604" t="s">
+      <c r="K67" s="602" t="s">
         <v>191</v>
       </c>
-      <c r="L67" s="613">
+      <c r="L67" s="611">
         <f>IF(SUM(E69:E73)=1,TRUE,SUM(E69:E73))</f>
         <v>0</v>
       </c>
-      <c r="M67" s="612" t="str">
+      <c r="M67" s="610" t="str">
         <f>IF(L67=TRUE," ","Please adjust the percentages on the left. ")</f>
         <v xml:space="preserve">Please adjust the percentages on the left. </v>
       </c>
       <c r="N67" s="75"/>
-      <c r="O67" s="440"/>
-      <c r="P67" s="442"/>
+      <c r="O67" s="439"/>
+      <c r="P67" s="441"/>
     </row>
     <row r="68" spans="2:16" ht="17" thickBot="1">
       <c r="B68" s="38"/>
-      <c r="C68" s="608" t="s">
-        <v>771</v>
+      <c r="C68" s="606" t="s">
+        <v>770</v>
       </c>
       <c r="D68" s="383"/>
-      <c r="E68" s="616"/>
-      <c r="F68" s="616"/>
+      <c r="E68" s="614"/>
+      <c r="F68" s="614"/>
       <c r="G68" s="413"/>
       <c r="H68" s="148"/>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
-      <c r="K68" s="604"/>
+      <c r="K68" s="602"/>
       <c r="L68" s="344"/>
-      <c r="M68" s="615"/>
+      <c r="M68" s="613"/>
       <c r="N68" s="75"/>
-      <c r="O68" s="440"/>
-      <c r="P68" s="442"/>
+      <c r="O68" s="439"/>
+      <c r="P68" s="441"/>
     </row>
     <row r="69" spans="2:16" ht="17" thickBot="1">
       <c r="B69" s="38"/>
-      <c r="C69" s="607" t="s">
-        <v>765</v>
+      <c r="C69" s="605" t="s">
+        <v>764</v>
       </c>
       <c r="D69" s="388"/>
       <c r="E69" s="381"/>
@@ -26310,15 +26185,15 @@
       <c r="L69" s="341"/>
       <c r="M69" s="342"/>
       <c r="N69" s="75"/>
-      <c r="O69" s="445" t="s">
+      <c r="O69" s="444" t="s">
         <v>581</v>
       </c>
-      <c r="P69" s="442"/>
+      <c r="P69" s="441"/>
     </row>
     <row r="70" spans="2:16" ht="17" thickBot="1">
       <c r="B70" s="38"/>
-      <c r="C70" s="607" t="s">
-        <v>766</v>
+      <c r="C70" s="605" t="s">
+        <v>765</v>
       </c>
       <c r="D70" s="388"/>
       <c r="E70" s="381"/>
@@ -26331,73 +26206,73 @@
       <c r="L70" s="341"/>
       <c r="M70" s="342"/>
       <c r="N70" s="75"/>
-      <c r="O70" s="445" t="s">
+      <c r="O70" s="444" t="s">
         <v>580</v>
       </c>
-      <c r="P70" s="442"/>
+      <c r="P70" s="441"/>
     </row>
     <row r="71" spans="2:16" ht="17" thickBot="1">
       <c r="B71" s="38"/>
-      <c r="C71" s="607" t="s">
-        <v>767</v>
+      <c r="C71" s="605" t="s">
+        <v>766</v>
       </c>
       <c r="D71" s="388"/>
       <c r="E71" s="381"/>
       <c r="F71" s="398"/>
       <c r="G71" s="417"/>
-      <c r="H71" s="617"/>
+      <c r="H71" s="615"/>
       <c r="I71" s="407"/>
       <c r="J71" s="8"/>
       <c r="K71" s="341"/>
       <c r="L71" s="341"/>
       <c r="M71" s="342"/>
       <c r="N71" s="75"/>
-      <c r="O71" s="447" t="s">
+      <c r="O71" s="446" t="s">
         <v>582</v>
       </c>
-      <c r="P71" s="442"/>
+      <c r="P71" s="441"/>
     </row>
     <row r="72" spans="2:16" ht="17" thickBot="1">
       <c r="B72" s="38"/>
-      <c r="C72" s="607" t="s">
-        <v>768</v>
+      <c r="C72" s="605" t="s">
+        <v>767</v>
       </c>
       <c r="D72" s="388"/>
       <c r="E72" s="381"/>
       <c r="F72" s="398"/>
       <c r="G72" s="417"/>
-      <c r="H72" s="617"/>
+      <c r="H72" s="615"/>
       <c r="I72" s="407"/>
       <c r="J72" s="8"/>
       <c r="K72" s="341"/>
       <c r="L72" s="341"/>
       <c r="M72" s="342"/>
       <c r="N72" s="75"/>
-      <c r="O72" s="447" t="s">
+      <c r="O72" s="446" t="s">
         <v>583</v>
       </c>
-      <c r="P72" s="442"/>
+      <c r="P72" s="441"/>
     </row>
     <row r="73" spans="2:16" ht="17" thickBot="1">
       <c r="B73" s="38"/>
-      <c r="C73" s="607" t="s">
-        <v>769</v>
+      <c r="C73" s="605" t="s">
+        <v>768</v>
       </c>
       <c r="D73" s="388"/>
       <c r="E73" s="381"/>
       <c r="F73" s="398"/>
       <c r="G73" s="417"/>
-      <c r="H73" s="617"/>
+      <c r="H73" s="615"/>
       <c r="I73" s="407"/>
       <c r="J73" s="8"/>
       <c r="K73" s="341"/>
       <c r="L73" s="341"/>
       <c r="M73" s="342"/>
       <c r="N73" s="75"/>
-      <c r="O73" s="447" t="s">
+      <c r="O73" s="446" t="s">
         <v>584</v>
       </c>
-      <c r="P73" s="442"/>
+      <c r="P73" s="441"/>
     </row>
     <row r="74" spans="2:16">
       <c r="B74" s="110"/>
@@ -26406,15 +26281,15 @@
       <c r="E74" s="254"/>
       <c r="F74" s="254"/>
       <c r="G74" s="414"/>
-      <c r="H74" s="575"/>
+      <c r="H74" s="573"/>
       <c r="I74" s="10"/>
       <c r="J74" s="10"/>
       <c r="K74" s="347"/>
       <c r="L74" s="347"/>
       <c r="M74" s="343"/>
       <c r="N74" s="75"/>
-      <c r="O74" s="440"/>
-      <c r="P74" s="442">
+      <c r="O74" s="439"/>
+      <c r="P74" s="441">
         <f>IF(L75=TRUE,1,0)</f>
         <v>0</v>
       </c>
@@ -26425,70 +26300,70 @@
       </c>
       <c r="C75" s="191"/>
       <c r="D75" s="383"/>
-      <c r="E75" s="616"/>
-      <c r="F75" s="616"/>
+      <c r="E75" s="614"/>
+      <c r="F75" s="614"/>
       <c r="G75" s="413"/>
       <c r="H75" s="148"/>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
-      <c r="K75" s="604" t="s">
+      <c r="K75" s="602" t="s">
         <v>191</v>
       </c>
-      <c r="L75" s="613">
+      <c r="L75" s="611">
         <f>IF(SUM(E77:E84)=1,TRUE,SUM(E77:E84))</f>
         <v>0</v>
       </c>
-      <c r="M75" s="612" t="str">
+      <c r="M75" s="610" t="str">
         <f>IF(L75=TRUE," ","Please adjust the percentages on the left. ")</f>
         <v xml:space="preserve">Please adjust the percentages on the left. </v>
       </c>
       <c r="N75" s="75"/>
-      <c r="O75" s="440"/>
-      <c r="P75" s="442"/>
+      <c r="O75" s="439"/>
+      <c r="P75" s="441"/>
     </row>
     <row r="76" spans="2:16" ht="17" thickBot="1">
       <c r="B76" s="38"/>
-      <c r="C76" s="608" t="s">
-        <v>770</v>
+      <c r="C76" s="606" t="s">
+        <v>769</v>
       </c>
       <c r="D76" s="383"/>
-      <c r="E76" s="616"/>
-      <c r="F76" s="616"/>
+      <c r="E76" s="614"/>
+      <c r="F76" s="614"/>
       <c r="G76" s="413"/>
       <c r="H76" s="148"/>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
-      <c r="K76" s="604"/>
+      <c r="K76" s="602"/>
       <c r="L76" s="344"/>
-      <c r="M76" s="615"/>
+      <c r="M76" s="613"/>
       <c r="N76" s="75"/>
-      <c r="O76" s="440"/>
-      <c r="P76" s="442"/>
+      <c r="O76" s="439"/>
+      <c r="P76" s="441"/>
     </row>
     <row r="77" spans="2:16" ht="17" thickBot="1">
       <c r="B77" s="38"/>
-      <c r="C77" s="607" t="s">
+      <c r="C77" s="605" t="s">
         <v>526</v>
       </c>
       <c r="D77" s="388"/>
       <c r="E77" s="381"/>
       <c r="F77" s="398"/>
       <c r="G77" s="422"/>
-      <c r="H77" s="618"/>
+      <c r="H77" s="616"/>
       <c r="I77" s="407"/>
       <c r="J77" s="8"/>
       <c r="K77" s="341"/>
       <c r="L77" s="341"/>
       <c r="M77" s="342"/>
       <c r="N77" s="75"/>
-      <c r="O77" s="447" t="s">
+      <c r="O77" s="446" t="s">
         <v>585</v>
       </c>
-      <c r="P77" s="442"/>
+      <c r="P77" s="441"/>
     </row>
     <row r="78" spans="2:16" ht="17" thickBot="1">
       <c r="B78" s="38"/>
-      <c r="C78" s="607" t="s">
+      <c r="C78" s="605" t="s">
         <v>307</v>
       </c>
       <c r="D78" s="388"/>
@@ -26502,14 +26377,14 @@
       <c r="L78" s="341"/>
       <c r="M78" s="342"/>
       <c r="N78" s="75"/>
-      <c r="O78" s="445" t="s">
+      <c r="O78" s="444" t="s">
         <v>586</v>
       </c>
-      <c r="P78" s="442"/>
+      <c r="P78" s="441"/>
     </row>
     <row r="79" spans="2:16" ht="17" thickBot="1">
       <c r="B79" s="38"/>
-      <c r="C79" s="607" t="s">
+      <c r="C79" s="605" t="s">
         <v>308</v>
       </c>
       <c r="D79" s="388"/>
@@ -26523,14 +26398,14 @@
       <c r="L79" s="341"/>
       <c r="M79" s="342"/>
       <c r="N79" s="75"/>
-      <c r="O79" s="445" t="s">
+      <c r="O79" s="444" t="s">
         <v>588</v>
       </c>
-      <c r="P79" s="442"/>
+      <c r="P79" s="441"/>
     </row>
     <row r="80" spans="2:16" ht="17" thickBot="1">
       <c r="B80" s="38"/>
-      <c r="C80" s="607" t="s">
+      <c r="C80" s="605" t="s">
         <v>309</v>
       </c>
       <c r="D80" s="388"/>
@@ -26544,14 +26419,14 @@
       <c r="L80" s="341"/>
       <c r="M80" s="342"/>
       <c r="N80" s="75"/>
-      <c r="O80" s="445" t="s">
+      <c r="O80" s="444" t="s">
         <v>587</v>
       </c>
-      <c r="P80" s="442"/>
+      <c r="P80" s="441"/>
     </row>
     <row r="81" spans="2:16" ht="17" thickBot="1">
       <c r="B81" s="38"/>
-      <c r="C81" s="607" t="s">
+      <c r="C81" s="605" t="s">
         <v>371</v>
       </c>
       <c r="D81" s="388"/>
@@ -26565,14 +26440,14 @@
       <c r="L81" s="341"/>
       <c r="M81" s="342"/>
       <c r="N81" s="75"/>
-      <c r="O81" s="445" t="s">
+      <c r="O81" s="444" t="s">
         <v>589</v>
       </c>
-      <c r="P81" s="442"/>
+      <c r="P81" s="441"/>
     </row>
     <row r="82" spans="2:16" ht="17" thickBot="1">
       <c r="B82" s="38"/>
-      <c r="C82" s="607" t="s">
+      <c r="C82" s="605" t="s">
         <v>372</v>
       </c>
       <c r="D82" s="388"/>
@@ -26586,14 +26461,14 @@
       <c r="L82" s="341"/>
       <c r="M82" s="342"/>
       <c r="N82" s="75"/>
-      <c r="O82" s="445" t="s">
+      <c r="O82" s="444" t="s">
         <v>590</v>
       </c>
-      <c r="P82" s="442"/>
+      <c r="P82" s="441"/>
     </row>
     <row r="83" spans="2:16" ht="17" thickBot="1">
       <c r="B83" s="38"/>
-      <c r="C83" s="607" t="s">
+      <c r="C83" s="605" t="s">
         <v>373</v>
       </c>
       <c r="D83" s="388"/>
@@ -26607,14 +26482,14 @@
       <c r="L83" s="341"/>
       <c r="M83" s="342"/>
       <c r="N83" s="75"/>
-      <c r="O83" s="445" t="s">
+      <c r="O83" s="444" t="s">
         <v>591</v>
       </c>
-      <c r="P83" s="442"/>
+      <c r="P83" s="441"/>
     </row>
     <row r="84" spans="2:16" ht="17" thickBot="1">
       <c r="B84" s="38"/>
-      <c r="C84" s="607" t="s">
+      <c r="C84" s="605" t="s">
         <v>374</v>
       </c>
       <c r="D84" s="388"/>
@@ -26628,10 +26503,10 @@
       <c r="L84" s="341"/>
       <c r="M84" s="342"/>
       <c r="N84" s="75"/>
-      <c r="O84" s="445" t="s">
+      <c r="O84" s="444" t="s">
         <v>592</v>
       </c>
-      <c r="P84" s="442"/>
+      <c r="P84" s="441"/>
     </row>
     <row r="85" spans="2:16">
       <c r="B85" s="110"/>
@@ -26640,53 +26515,53 @@
       <c r="E85" s="259"/>
       <c r="F85" s="259"/>
       <c r="G85" s="414"/>
-      <c r="H85" s="575"/>
+      <c r="H85" s="573"/>
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
       <c r="K85" s="347"/>
       <c r="L85" s="347"/>
       <c r="M85" s="343"/>
       <c r="N85" s="75"/>
-      <c r="O85" s="440"/>
-      <c r="P85" s="442"/>
+      <c r="O85" s="439"/>
+      <c r="P85" s="441"/>
     </row>
     <row r="86" spans="2:16">
       <c r="B86" s="48"/>
       <c r="C86" s="200"/>
       <c r="D86" s="241"/>
-      <c r="E86" s="569"/>
-      <c r="F86" s="569"/>
-      <c r="G86" s="565"/>
-      <c r="H86" s="565"/>
+      <c r="E86" s="567"/>
+      <c r="F86" s="567"/>
+      <c r="G86" s="563"/>
+      <c r="H86" s="563"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="K86" s="566"/>
-      <c r="L86" s="566"/>
-      <c r="M86" s="570"/>
+      <c r="K86" s="564"/>
+      <c r="L86" s="564"/>
+      <c r="M86" s="568"/>
       <c r="N86" s="75"/>
-      <c r="O86" s="440"/>
-      <c r="P86" s="442"/>
+      <c r="O86" s="439"/>
+      <c r="P86" s="441"/>
     </row>
     <row r="87" spans="2:16">
       <c r="B87" s="110"/>
       <c r="C87" s="195"/>
-      <c r="D87" s="571"/>
+      <c r="D87" s="569"/>
       <c r="E87" s="259"/>
       <c r="F87" s="259"/>
-      <c r="G87" s="575"/>
-      <c r="H87" s="575"/>
+      <c r="G87" s="573"/>
+      <c r="H87" s="573"/>
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
       <c r="K87" s="347"/>
       <c r="L87" s="347"/>
-      <c r="M87" s="572"/>
+      <c r="M87" s="570"/>
       <c r="N87" s="75"/>
-      <c r="O87" s="440"/>
-      <c r="P87" s="442"/>
+      <c r="O87" s="439"/>
+      <c r="P87" s="441"/>
     </row>
     <row r="88" spans="2:16" ht="17" thickBot="1">
       <c r="B88" s="38" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="C88" s="191"/>
       <c r="D88" s="383"/>
@@ -26700,13 +26575,13 @@
       <c r="L88" s="341"/>
       <c r="M88" s="342"/>
       <c r="N88" s="75"/>
-      <c r="O88" s="440"/>
-      <c r="P88" s="442"/>
+      <c r="O88" s="439"/>
+      <c r="P88" s="441"/>
     </row>
     <row r="89" spans="2:16" ht="17" thickBot="1">
       <c r="B89" s="38"/>
       <c r="C89" s="71" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="D89" s="388"/>
       <c r="E89" s="381"/>
@@ -26719,10 +26594,10 @@
       <c r="L89" s="341"/>
       <c r="M89" s="342"/>
       <c r="N89" s="75"/>
-      <c r="O89" s="447" t="s">
+      <c r="O89" s="446" t="s">
         <v>652</v>
       </c>
-      <c r="P89" s="442"/>
+      <c r="P89" s="441"/>
     </row>
     <row r="90" spans="2:16">
       <c r="B90" s="38"/>
@@ -26738,8 +26613,8 @@
       <c r="L90" s="341"/>
       <c r="M90" s="342"/>
       <c r="N90" s="75"/>
-      <c r="O90" s="440"/>
-      <c r="P90" s="442"/>
+      <c r="O90" s="439"/>
+      <c r="P90" s="441"/>
     </row>
     <row r="91" spans="2:16">
       <c r="B91" s="110"/>
@@ -26748,34 +26623,34 @@
       <c r="E91" s="259"/>
       <c r="F91" s="259"/>
       <c r="G91" s="414"/>
-      <c r="H91" s="575"/>
+      <c r="H91" s="573"/>
       <c r="I91" s="10"/>
       <c r="J91" s="10"/>
       <c r="K91" s="347"/>
       <c r="L91" s="347"/>
       <c r="M91" s="343"/>
       <c r="N91" s="75"/>
-      <c r="O91" s="440"/>
-      <c r="P91" s="442"/>
+      <c r="O91" s="439"/>
+      <c r="P91" s="441"/>
     </row>
     <row r="92" spans="2:16" ht="17" thickBot="1">
       <c r="B92" s="48" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C92" s="200"/>
-      <c r="D92" s="562"/>
-      <c r="E92" s="563"/>
-      <c r="F92" s="563"/>
-      <c r="G92" s="564"/>
-      <c r="H92" s="565"/>
+      <c r="D92" s="560"/>
+      <c r="E92" s="561"/>
+      <c r="F92" s="561"/>
+      <c r="G92" s="562"/>
+      <c r="H92" s="563"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="K92" s="566"/>
-      <c r="L92" s="614"/>
-      <c r="M92" s="567"/>
+      <c r="K92" s="564"/>
+      <c r="L92" s="612"/>
+      <c r="M92" s="565"/>
       <c r="N92" s="75"/>
-      <c r="O92" s="440"/>
-      <c r="P92" s="442">
+      <c r="O92" s="439"/>
+      <c r="P92" s="441">
         <f>IF(L93=TRUE,1,0)</f>
         <v>0</v>
       </c>
@@ -26783,10 +26658,10 @@
     <row r="93" spans="2:16" ht="18" thickBot="1">
       <c r="B93" s="38"/>
       <c r="C93" s="71" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="D93" s="388" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="E93" s="381"/>
       <c r="F93" s="398"/>
@@ -26794,30 +26669,30 @@
       <c r="H93" s="401"/>
       <c r="I93" s="409"/>
       <c r="J93" s="8"/>
-      <c r="K93" s="604" t="s">
+      <c r="K93" s="602" t="s">
         <v>191</v>
       </c>
-      <c r="L93" s="613">
+      <c r="L93" s="611">
         <f>IF(SUM(E93:E97)=1,TRUE,SUM(E93:E97))</f>
         <v>0</v>
       </c>
-      <c r="M93" s="615" t="str">
+      <c r="M93" s="613" t="str">
         <f>IF(L93=TRUE," ","Please adjust the percentages on the left. ")</f>
         <v xml:space="preserve">Please adjust the percentages on the left. </v>
       </c>
       <c r="N93" s="75"/>
-      <c r="O93" s="445" t="s">
-        <v>838</v>
-      </c>
-      <c r="P93" s="442"/>
+      <c r="O93" s="444" t="s">
+        <v>832</v>
+      </c>
+      <c r="P93" s="441"/>
     </row>
     <row r="94" spans="2:16" ht="17" thickBot="1">
       <c r="B94" s="38"/>
       <c r="C94" s="71" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="D94" s="388" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="E94" s="381"/>
       <c r="F94" s="398"/>
@@ -26825,22 +26700,22 @@
       <c r="H94" s="401"/>
       <c r="I94" s="409"/>
       <c r="J94" s="8"/>
-      <c r="K94" s="604"/>
+      <c r="K94" s="602"/>
       <c r="L94" s="341"/>
-      <c r="M94" s="615"/>
+      <c r="M94" s="613"/>
       <c r="N94" s="75"/>
-      <c r="O94" s="445" t="s">
-        <v>835</v>
-      </c>
-      <c r="P94" s="442"/>
+      <c r="O94" s="444" t="s">
+        <v>829</v>
+      </c>
+      <c r="P94" s="441"/>
     </row>
     <row r="95" spans="2:16" ht="17" thickBot="1">
       <c r="B95" s="38"/>
       <c r="C95" s="71" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="D95" s="388" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="E95" s="381"/>
       <c r="F95" s="398"/>
@@ -26848,22 +26723,22 @@
       <c r="H95" s="401"/>
       <c r="I95" s="409"/>
       <c r="J95" s="8"/>
-      <c r="K95" s="604"/>
+      <c r="K95" s="602"/>
       <c r="L95" s="341"/>
-      <c r="M95" s="615"/>
+      <c r="M95" s="613"/>
       <c r="N95" s="75"/>
-      <c r="O95" s="653" t="s">
-        <v>837</v>
-      </c>
-      <c r="P95" s="442"/>
+      <c r="O95" s="650" t="s">
+        <v>831</v>
+      </c>
+      <c r="P95" s="441"/>
     </row>
     <row r="96" spans="2:16" ht="17" thickBot="1">
       <c r="B96" s="38"/>
       <c r="C96" s="71" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="D96" s="388" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="E96" s="381"/>
       <c r="F96" s="398"/>
@@ -26871,22 +26746,22 @@
       <c r="H96" s="401"/>
       <c r="I96" s="409"/>
       <c r="J96" s="8"/>
-      <c r="K96" s="604"/>
+      <c r="K96" s="602"/>
       <c r="L96" s="341"/>
-      <c r="M96" s="615"/>
+      <c r="M96" s="613"/>
       <c r="N96" s="75"/>
-      <c r="O96" s="653" t="s">
-        <v>836</v>
-      </c>
-      <c r="P96" s="442"/>
+      <c r="O96" s="650" t="s">
+        <v>830</v>
+      </c>
+      <c r="P96" s="441"/>
     </row>
     <row r="97" spans="2:16" ht="17" thickBot="1">
       <c r="B97" s="38"/>
       <c r="C97" s="71" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="D97" s="388" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="E97" s="381"/>
       <c r="F97" s="398"/>
@@ -26898,15 +26773,15 @@
       <c r="L97" s="341"/>
       <c r="M97" s="342"/>
       <c r="N97" s="75"/>
-      <c r="O97" s="445" t="s">
-        <v>834</v>
+      <c r="O97" s="444" t="s">
+        <v>828</v>
       </c>
       <c r="P97" s="7"/>
     </row>
     <row r="98" spans="2:16">
       <c r="B98" s="38"/>
       <c r="C98" s="71"/>
-      <c r="D98" s="640"/>
+      <c r="D98" s="637"/>
       <c r="E98" s="398"/>
       <c r="F98" s="398"/>
       <c r="G98" s="415"/>
@@ -26915,34 +26790,34 @@
       <c r="J98" s="8"/>
       <c r="K98" s="341"/>
       <c r="L98" s="341"/>
-      <c r="M98" s="641"/>
+      <c r="M98" s="638"/>
       <c r="N98" s="75"/>
-      <c r="O98" s="445"/>
+      <c r="O98" s="444"/>
       <c r="P98" s="7"/>
     </row>
     <row r="99" spans="2:16">
-      <c r="B99" s="643" t="s">
-        <v>833</v>
-      </c>
-      <c r="C99" s="644"/>
-      <c r="D99" s="645"/>
-      <c r="E99" s="646"/>
-      <c r="F99" s="646"/>
-      <c r="G99" s="647"/>
-      <c r="H99" s="648"/>
-      <c r="I99" s="649"/>
-      <c r="J99" s="650"/>
-      <c r="K99" s="651"/>
-      <c r="L99" s="651"/>
-      <c r="M99" s="652"/>
+      <c r="B99" s="640" t="s">
+        <v>827</v>
+      </c>
+      <c r="C99" s="641"/>
+      <c r="D99" s="642"/>
+      <c r="E99" s="643"/>
+      <c r="F99" s="643"/>
+      <c r="G99" s="644"/>
+      <c r="H99" s="645"/>
+      <c r="I99" s="646"/>
+      <c r="J99" s="647"/>
+      <c r="K99" s="648"/>
+      <c r="L99" s="648"/>
+      <c r="M99" s="649"/>
       <c r="N99" s="75"/>
-      <c r="O99" s="445"/>
+      <c r="O99" s="444"/>
       <c r="P99" s="7"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1">
       <c r="B100" s="73"/>
       <c r="C100" s="17" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D100" s="243"/>
       <c r="E100" s="239"/>
@@ -26952,20 +26827,20 @@
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="60"/>
-      <c r="L100" s="654"/>
-      <c r="M100" s="615"/>
+      <c r="L100" s="651"/>
+      <c r="M100" s="613"/>
       <c r="O100" s="20"/>
       <c r="P100" s="7"/>
     </row>
     <row r="101" spans="2:16" ht="17" thickBot="1">
       <c r="B101" s="73"/>
-      <c r="C101" s="642" t="s">
-        <v>831</v>
+      <c r="C101" s="639" t="s">
+        <v>825</v>
       </c>
       <c r="D101" s="388" t="s">
         <v>214</v>
       </c>
-      <c r="E101" s="655"/>
+      <c r="E101" s="652"/>
       <c r="F101" s="398"/>
       <c r="G101" s="415"/>
       <c r="H101" s="401"/>
@@ -26974,20 +26849,20 @@
       <c r="K101" s="56"/>
       <c r="L101" s="56"/>
       <c r="M101" s="32"/>
-      <c r="O101" s="445" t="s">
-        <v>862</v>
+      <c r="O101" s="444" t="s">
+        <v>856</v>
       </c>
       <c r="P101" s="7"/>
     </row>
     <row r="102" spans="2:16" ht="17" thickBot="1">
       <c r="B102" s="73"/>
-      <c r="C102" s="642" t="s">
-        <v>828</v>
+      <c r="C102" s="639" t="s">
+        <v>822</v>
       </c>
       <c r="D102" s="388" t="s">
         <v>214</v>
       </c>
-      <c r="E102" s="655"/>
+      <c r="E102" s="652"/>
       <c r="F102" s="398"/>
       <c r="G102" s="415"/>
       <c r="H102" s="401"/>
@@ -26996,20 +26871,20 @@
       <c r="K102" s="56"/>
       <c r="L102" s="56"/>
       <c r="M102" s="32"/>
-      <c r="O102" s="445" t="s">
-        <v>863</v>
+      <c r="O102" s="444" t="s">
+        <v>857</v>
       </c>
       <c r="P102" s="7"/>
     </row>
     <row r="103" spans="2:16" ht="17" thickBot="1">
       <c r="B103" s="73"/>
-      <c r="C103" s="642" t="s">
-        <v>830</v>
+      <c r="C103" s="639" t="s">
+        <v>824</v>
       </c>
       <c r="D103" s="388" t="s">
         <v>214</v>
       </c>
-      <c r="E103" s="655"/>
+      <c r="E103" s="652"/>
       <c r="F103" s="398"/>
       <c r="G103" s="415"/>
       <c r="H103" s="401"/>
@@ -27018,20 +26893,20 @@
       <c r="K103" s="56"/>
       <c r="L103" s="56"/>
       <c r="M103" s="32"/>
-      <c r="O103" s="445" t="s">
-        <v>864</v>
+      <c r="O103" s="444" t="s">
+        <v>858</v>
       </c>
       <c r="P103" s="7"/>
     </row>
     <row r="104" spans="2:16" ht="17" thickBot="1">
       <c r="B104" s="73"/>
-      <c r="C104" s="642" t="s">
-        <v>829</v>
+      <c r="C104" s="639" t="s">
+        <v>823</v>
       </c>
       <c r="D104" s="388" t="s">
         <v>214</v>
       </c>
-      <c r="E104" s="655"/>
+      <c r="E104" s="652"/>
       <c r="F104" s="398"/>
       <c r="G104" s="415"/>
       <c r="H104" s="401"/>
@@ -27040,20 +26915,20 @@
       <c r="K104" s="56"/>
       <c r="L104" s="56"/>
       <c r="M104" s="32"/>
-      <c r="O104" s="445" t="s">
-        <v>865</v>
+      <c r="O104" s="444" t="s">
+        <v>859</v>
       </c>
       <c r="P104" s="7"/>
     </row>
     <row r="105" spans="2:16" ht="17" thickBot="1">
       <c r="B105" s="73"/>
-      <c r="C105" s="642" t="s">
-        <v>827</v>
+      <c r="C105" s="639" t="s">
+        <v>821</v>
       </c>
       <c r="D105" s="388" t="s">
         <v>214</v>
       </c>
-      <c r="E105" s="655"/>
+      <c r="E105" s="652"/>
       <c r="F105" s="398"/>
       <c r="G105" s="415"/>
       <c r="H105" s="401"/>
@@ -27062,12 +26937,12 @@
       <c r="K105" s="56"/>
       <c r="L105" s="56"/>
       <c r="M105" s="32"/>
-      <c r="O105" s="445" t="s">
-        <v>866</v>
+      <c r="O105" s="444" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="106" spans="2:16" ht="17" thickBot="1">
-      <c r="B106" s="568"/>
+      <c r="B106" s="566"/>
       <c r="C106" s="202"/>
       <c r="D106" s="246"/>
       <c r="E106" s="260"/>
@@ -27076,8 +26951,8 @@
       <c r="H106" s="403"/>
       <c r="I106" s="77"/>
       <c r="J106" s="77"/>
-      <c r="K106" s="573"/>
-      <c r="L106" s="573"/>
+      <c r="K106" s="571"/>
+      <c r="L106" s="571"/>
       <c r="M106" s="78"/>
       <c r="O106" s="21"/>
       <c r="P106" s="11"/>
@@ -27092,7 +26967,7 @@
     </row>
     <row r="109" spans="2:16">
       <c r="C109" s="72" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="G109" s="419"/>
     </row>
@@ -27326,7 +27201,7 @@
   <sheetData>
     <row r="2" spans="2:67" ht="21">
       <c r="B2" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3" spans="2:67" ht="15" customHeight="1">
@@ -27344,13 +27219,13 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1">
-      <c r="B5" s="663"/>
-      <c r="C5" s="664"/>
-      <c r="D5" s="664"/>
-      <c r="E5" s="664"/>
-      <c r="F5" s="664"/>
-      <c r="G5" s="664"/>
-      <c r="H5" s="665"/>
+      <c r="B5" s="660"/>
+      <c r="C5" s="661"/>
+      <c r="D5" s="661"/>
+      <c r="E5" s="661"/>
+      <c r="F5" s="661"/>
+      <c r="G5" s="661"/>
+      <c r="H5" s="662"/>
     </row>
     <row r="6" spans="2:67" ht="15" customHeight="1" thickBot="1">
       <c r="B6" s="2"/>
@@ -34191,32 +34066,32 @@
       <c r="K2" s="8"/>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="596" t="s">
+      <c r="B4" s="594" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="597"/>
-      <c r="D4" s="597"/>
-      <c r="E4" s="598"/>
-      <c r="F4" s="600"/>
-      <c r="G4" s="601"/>
-      <c r="H4" s="601"/>
-      <c r="I4" s="601"/>
-      <c r="J4" s="601"/>
-      <c r="K4" s="601"/>
-      <c r="L4" s="601"/>
-      <c r="M4" s="601"/>
+      <c r="C4" s="595"/>
+      <c r="D4" s="595"/>
+      <c r="E4" s="596"/>
+      <c r="F4" s="598"/>
+      <c r="G4" s="599"/>
+      <c r="H4" s="599"/>
+      <c r="I4" s="599"/>
+      <c r="J4" s="599"/>
+      <c r="K4" s="599"/>
+      <c r="L4" s="599"/>
+      <c r="M4" s="599"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="185"/>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="574" t="s">
-        <v>735</v>
-      </c>
-      <c r="C5" s="575"/>
-      <c r="D5" s="575"/>
-      <c r="E5" s="599"/>
-      <c r="F5" s="483"/>
+      <c r="B5" s="572" t="s">
+        <v>734</v>
+      </c>
+      <c r="C5" s="573"/>
+      <c r="D5" s="573"/>
+      <c r="E5" s="597"/>
+      <c r="F5" s="481"/>
       <c r="G5" s="148"/>
       <c r="H5" s="148"/>
       <c r="I5" s="148"/>
@@ -34241,71 +34116,71 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="2:17">
-      <c r="B7" s="553" t="s">
+      <c r="B7" s="551" t="s">
         <v>597</v>
       </c>
-      <c r="C7" s="554"/>
-      <c r="D7" s="554"/>
-      <c r="E7" s="587" t="s">
-        <v>734</v>
-      </c>
-      <c r="F7" s="547" t="s">
+      <c r="C7" s="552"/>
+      <c r="D7" s="552"/>
+      <c r="E7" s="585" t="s">
+        <v>733</v>
+      </c>
+      <c r="F7" s="545" t="s">
+        <v>731</v>
+      </c>
+      <c r="G7" s="545"/>
+      <c r="H7" s="544"/>
+      <c r="I7" s="544"/>
+      <c r="J7" s="545"/>
+      <c r="K7" s="576"/>
+      <c r="L7" s="579"/>
+      <c r="M7" s="580"/>
+      <c r="N7" s="580"/>
+      <c r="O7" s="580"/>
+      <c r="P7" s="581"/>
+    </row>
+    <row r="8" spans="2:17" ht="30" customHeight="1">
+      <c r="B8" s="574" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="575" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="586" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="K8" s="577" t="s">
         <v>732</v>
       </c>
-      <c r="G7" s="547"/>
-      <c r="H7" s="546"/>
-      <c r="I7" s="546"/>
-      <c r="J7" s="547"/>
-      <c r="K7" s="578"/>
-      <c r="L7" s="581"/>
-      <c r="M7" s="582"/>
-      <c r="N7" s="582"/>
-      <c r="O7" s="582"/>
-      <c r="P7" s="583"/>
-    </row>
-    <row r="8" spans="2:17" ht="30" customHeight="1">
-      <c r="B8" s="576" t="s">
-        <v>281</v>
-      </c>
-      <c r="C8" s="577" t="s">
-        <v>183</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="588" t="s">
-        <v>233</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>817</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>698</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>797</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="K8" s="579" t="s">
-        <v>733</v>
-      </c>
-      <c r="L8" s="584" t="s">
+      <c r="L8" s="582" t="s">
+        <v>674</v>
+      </c>
+      <c r="M8" s="583" t="s">
         <v>675</v>
       </c>
-      <c r="M8" s="585" t="s">
+      <c r="N8" s="583" t="s">
+        <v>487</v>
+      </c>
+      <c r="O8" s="583" t="s">
+        <v>813</v>
+      </c>
+      <c r="P8" s="584" t="s">
         <v>676</v>
-      </c>
-      <c r="N8" s="585" t="s">
-        <v>487</v>
-      </c>
-      <c r="O8" s="585" t="s">
-        <v>819</v>
-      </c>
-      <c r="P8" s="586" t="s">
-        <v>677</v>
       </c>
       <c r="Q8" s="261" t="s">
         <v>350</v>
@@ -34315,30 +34190,30 @@
       <c r="B9" s="44"/>
       <c r="C9" s="10"/>
       <c r="D9" s="68"/>
-      <c r="E9" s="588"/>
-      <c r="F9" s="548" t="s">
+      <c r="E9" s="586"/>
+      <c r="F9" s="546" t="s">
+        <v>695</v>
+      </c>
+      <c r="G9" s="546" t="s">
+        <v>812</v>
+      </c>
+      <c r="H9" s="546" t="s">
         <v>696</v>
       </c>
-      <c r="G9" s="548" t="s">
-        <v>818</v>
-      </c>
-      <c r="H9" s="548" t="s">
-        <v>697</v>
-      </c>
-      <c r="I9" s="548" t="s">
-        <v>796</v>
-      </c>
-      <c r="J9" s="548" t="s">
-        <v>693</v>
+      <c r="I9" s="546" t="s">
+        <v>790</v>
+      </c>
+      <c r="J9" s="546" t="s">
+        <v>692</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
-      <c r="P9" s="580"/>
+      <c r="P9" s="578"/>
     </row>
     <row r="10" spans="2:17">
       <c r="B10" s="49" t="s">
@@ -34367,14 +34242,14 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="19" t="s">
-        <v>699</v>
-      </c>
-      <c r="F11" s="555"/>
-      <c r="G11" s="555"/>
-      <c r="H11" s="555"/>
-      <c r="I11" s="555"/>
-      <c r="J11" s="555"/>
-      <c r="K11" s="589"/>
+        <v>698</v>
+      </c>
+      <c r="F11" s="553"/>
+      <c r="G11" s="553"/>
+      <c r="H11" s="553"/>
+      <c r="I11" s="553"/>
+      <c r="J11" s="553"/>
+      <c r="K11" s="587"/>
       <c r="L11" s="214">
         <f>F11</f>
         <v>0</v>
@@ -34397,14 +34272,14 @@
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="19" t="s">
-        <v>700</v>
-      </c>
-      <c r="F12" s="555"/>
-      <c r="G12" s="555"/>
-      <c r="H12" s="555"/>
-      <c r="I12" s="555"/>
-      <c r="J12" s="555"/>
-      <c r="K12" s="589"/>
+        <v>699</v>
+      </c>
+      <c r="F12" s="553"/>
+      <c r="G12" s="553"/>
+      <c r="H12" s="553"/>
+      <c r="I12" s="553"/>
+      <c r="J12" s="553"/>
+      <c r="K12" s="587"/>
       <c r="L12" s="214"/>
       <c r="M12" s="220" t="e">
         <f>1/H12</f>
@@ -34427,14 +34302,14 @@
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="19" t="s">
-        <v>701</v>
-      </c>
-      <c r="F13" s="555"/>
-      <c r="G13" s="555"/>
-      <c r="H13" s="555"/>
-      <c r="I13" s="555"/>
-      <c r="J13" s="555"/>
-      <c r="K13" s="589"/>
+        <v>700</v>
+      </c>
+      <c r="F13" s="553"/>
+      <c r="G13" s="553"/>
+      <c r="H13" s="553"/>
+      <c r="I13" s="553"/>
+      <c r="J13" s="553"/>
+      <c r="K13" s="587"/>
       <c r="L13" s="214">
         <f>F13</f>
         <v>0</v>
@@ -34457,14 +34332,14 @@
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="19" t="s">
-        <v>702</v>
-      </c>
-      <c r="F14" s="555"/>
-      <c r="G14" s="555"/>
-      <c r="H14" s="555"/>
-      <c r="I14" s="555"/>
-      <c r="J14" s="555"/>
-      <c r="K14" s="589"/>
+        <v>701</v>
+      </c>
+      <c r="F14" s="553"/>
+      <c r="G14" s="553"/>
+      <c r="H14" s="553"/>
+      <c r="I14" s="553"/>
+      <c r="J14" s="553"/>
+      <c r="K14" s="587"/>
       <c r="L14" s="214"/>
       <c r="M14" s="220" t="e">
         <f>1/H14</f>
@@ -34487,14 +34362,14 @@
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="19" t="s">
-        <v>703</v>
-      </c>
-      <c r="F15" s="555"/>
-      <c r="G15" s="555"/>
-      <c r="H15" s="555"/>
-      <c r="I15" s="555"/>
-      <c r="J15" s="555"/>
-      <c r="K15" s="589"/>
+        <v>702</v>
+      </c>
+      <c r="F15" s="553"/>
+      <c r="G15" s="553"/>
+      <c r="H15" s="553"/>
+      <c r="I15" s="553"/>
+      <c r="J15" s="553"/>
+      <c r="K15" s="587"/>
       <c r="L15" s="214">
         <f>F15</f>
         <v>0</v>
@@ -34517,14 +34392,14 @@
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="19" t="s">
-        <v>704</v>
-      </c>
-      <c r="F16" s="555"/>
-      <c r="G16" s="555"/>
-      <c r="H16" s="555"/>
-      <c r="I16" s="555"/>
-      <c r="J16" s="555"/>
-      <c r="K16" s="589"/>
+        <v>703</v>
+      </c>
+      <c r="F16" s="553"/>
+      <c r="G16" s="553"/>
+      <c r="H16" s="553"/>
+      <c r="I16" s="553"/>
+      <c r="J16" s="553"/>
+      <c r="K16" s="587"/>
       <c r="L16" s="214">
         <f>F16</f>
         <v>0</v>
@@ -34547,14 +34422,14 @@
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="19" t="s">
-        <v>705</v>
-      </c>
-      <c r="F17" s="555"/>
-      <c r="G17" s="555"/>
-      <c r="H17" s="555"/>
-      <c r="I17" s="555"/>
-      <c r="J17" s="555"/>
-      <c r="K17" s="589"/>
+        <v>704</v>
+      </c>
+      <c r="F17" s="553"/>
+      <c r="G17" s="553"/>
+      <c r="H17" s="553"/>
+      <c r="I17" s="553"/>
+      <c r="J17" s="553"/>
+      <c r="K17" s="587"/>
       <c r="L17" s="214">
         <f>F17</f>
         <v>0</v>
@@ -34577,14 +34452,14 @@
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="19" t="s">
-        <v>706</v>
-      </c>
-      <c r="F18" s="555"/>
-      <c r="G18" s="555"/>
-      <c r="H18" s="555"/>
-      <c r="I18" s="555"/>
-      <c r="J18" s="555"/>
-      <c r="K18" s="589"/>
+        <v>705</v>
+      </c>
+      <c r="F18" s="553"/>
+      <c r="G18" s="553"/>
+      <c r="H18" s="553"/>
+      <c r="I18" s="553"/>
+      <c r="J18" s="553"/>
+      <c r="K18" s="587"/>
       <c r="L18" s="214">
         <f>F18</f>
         <v>0</v>
@@ -34607,14 +34482,14 @@
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="19" t="s">
-        <v>707</v>
-      </c>
-      <c r="F19" s="555"/>
-      <c r="G19" s="555"/>
-      <c r="H19" s="555"/>
-      <c r="I19" s="555"/>
-      <c r="J19" s="555"/>
-      <c r="K19" s="589"/>
+        <v>706</v>
+      </c>
+      <c r="F19" s="553"/>
+      <c r="G19" s="553"/>
+      <c r="H19" s="553"/>
+      <c r="I19" s="553"/>
+      <c r="J19" s="553"/>
+      <c r="K19" s="587"/>
       <c r="L19" s="214">
         <f>F19</f>
         <v>0</v>
@@ -34633,18 +34508,18 @@
     <row r="20" spans="2:17">
       <c r="B20" s="67"/>
       <c r="C20" s="17" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="19" t="s">
-        <v>792</v>
-      </c>
-      <c r="F20" s="555"/>
-      <c r="G20" s="555"/>
-      <c r="H20" s="555"/>
-      <c r="I20" s="555"/>
-      <c r="J20" s="555"/>
-      <c r="K20" s="589"/>
+        <v>786</v>
+      </c>
+      <c r="F20" s="553"/>
+      <c r="G20" s="553"/>
+      <c r="H20" s="553"/>
+      <c r="I20" s="553"/>
+      <c r="J20" s="553"/>
+      <c r="K20" s="587"/>
       <c r="L20" s="214"/>
       <c r="M20" s="220" t="e">
         <f>(1-I20)/H20</f>
@@ -34657,37 +34532,37 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q20" s="261" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="21" spans="2:17">
       <c r="B21" s="67"/>
       <c r="C21" s="17" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="555">
+      <c r="F21" s="553">
         <f t="shared" ref="F21:K21" si="0">F20</f>
         <v>0</v>
       </c>
-      <c r="G21" s="555">
+      <c r="G21" s="553">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="555">
+      <c r="H21" s="553">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="555">
+      <c r="I21" s="553">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="555">
+      <c r="J21" s="553">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="589">
+      <c r="K21" s="587">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -34697,7 +34572,7 @@
       </c>
       <c r="M21" s="220"/>
       <c r="N21" s="71"/>
-      <c r="O21" s="555">
+      <c r="O21" s="553">
         <f>G21*I21/((G21*I21)+((1-(SUM(H21:I21))+H21)))</f>
         <v>0</v>
       </c>
@@ -34706,7 +34581,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="261" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="22" spans="2:17">
@@ -34714,12 +34589,12 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="21"/>
-      <c r="F22" s="556"/>
-      <c r="G22" s="556"/>
-      <c r="H22" s="556"/>
-      <c r="I22" s="556"/>
-      <c r="J22" s="556"/>
-      <c r="K22" s="590"/>
+      <c r="F22" s="554"/>
+      <c r="G22" s="554"/>
+      <c r="H22" s="554"/>
+      <c r="I22" s="554"/>
+      <c r="J22" s="554"/>
+      <c r="K22" s="588"/>
       <c r="L22" s="215"/>
       <c r="M22" s="222"/>
       <c r="N22" s="195"/>
@@ -34734,12 +34609,12 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="557"/>
-      <c r="G23" s="557"/>
-      <c r="H23" s="557"/>
-      <c r="I23" s="557"/>
-      <c r="J23" s="557"/>
-      <c r="K23" s="591"/>
+      <c r="F23" s="555"/>
+      <c r="G23" s="555"/>
+      <c r="H23" s="555"/>
+      <c r="I23" s="555"/>
+      <c r="J23" s="555"/>
+      <c r="K23" s="589"/>
       <c r="L23" s="216"/>
       <c r="M23" s="224"/>
       <c r="N23" s="191"/>
@@ -34754,14 +34629,14 @@
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="19" t="s">
-        <v>708</v>
-      </c>
-      <c r="F24" s="555"/>
-      <c r="G24" s="555"/>
-      <c r="H24" s="555"/>
-      <c r="I24" s="555"/>
-      <c r="J24" s="555"/>
-      <c r="K24" s="589"/>
+        <v>707</v>
+      </c>
+      <c r="F24" s="553"/>
+      <c r="G24" s="553"/>
+      <c r="H24" s="553"/>
+      <c r="I24" s="553"/>
+      <c r="J24" s="553"/>
+      <c r="K24" s="587"/>
       <c r="L24" s="214">
         <f>F24</f>
         <v>0</v>
@@ -34784,14 +34659,14 @@
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="19" t="s">
-        <v>709</v>
-      </c>
-      <c r="F25" s="555"/>
-      <c r="G25" s="555"/>
-      <c r="H25" s="555"/>
-      <c r="I25" s="555"/>
-      <c r="J25" s="555"/>
-      <c r="K25" s="589"/>
+        <v>708</v>
+      </c>
+      <c r="F25" s="553"/>
+      <c r="G25" s="553"/>
+      <c r="H25" s="553"/>
+      <c r="I25" s="553"/>
+      <c r="J25" s="553"/>
+      <c r="K25" s="587"/>
       <c r="L25" s="214"/>
       <c r="M25" s="220" t="e">
         <f>1/H25</f>
@@ -34814,14 +34689,14 @@
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="19" t="s">
-        <v>710</v>
-      </c>
-      <c r="F26" s="555"/>
-      <c r="G26" s="555"/>
-      <c r="H26" s="555"/>
-      <c r="I26" s="555"/>
-      <c r="J26" s="555"/>
-      <c r="K26" s="589"/>
+        <v>709</v>
+      </c>
+      <c r="F26" s="553"/>
+      <c r="G26" s="553"/>
+      <c r="H26" s="553"/>
+      <c r="I26" s="553"/>
+      <c r="J26" s="553"/>
+      <c r="K26" s="587"/>
       <c r="L26" s="214">
         <f>F26</f>
         <v>0</v>
@@ -34844,14 +34719,14 @@
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="19" t="s">
-        <v>711</v>
-      </c>
-      <c r="F27" s="555"/>
-      <c r="G27" s="555"/>
-      <c r="H27" s="555"/>
-      <c r="I27" s="555"/>
-      <c r="J27" s="555"/>
-      <c r="K27" s="589"/>
+        <v>710</v>
+      </c>
+      <c r="F27" s="553"/>
+      <c r="G27" s="553"/>
+      <c r="H27" s="553"/>
+      <c r="I27" s="553"/>
+      <c r="J27" s="553"/>
+      <c r="K27" s="587"/>
       <c r="L27" s="214"/>
       <c r="M27" s="220" t="e">
         <f>1/H27</f>
@@ -34874,14 +34749,14 @@
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="19" t="s">
-        <v>712</v>
-      </c>
-      <c r="F28" s="555"/>
-      <c r="G28" s="555"/>
-      <c r="H28" s="555"/>
-      <c r="I28" s="555"/>
-      <c r="J28" s="555"/>
-      <c r="K28" s="589"/>
+        <v>711</v>
+      </c>
+      <c r="F28" s="553"/>
+      <c r="G28" s="553"/>
+      <c r="H28" s="553"/>
+      <c r="I28" s="553"/>
+      <c r="J28" s="553"/>
+      <c r="K28" s="587"/>
       <c r="L28" s="214">
         <f t="shared" ref="L28:L32" si="1">F28</f>
         <v>0</v>
@@ -34904,14 +34779,14 @@
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="19" t="s">
-        <v>713</v>
-      </c>
-      <c r="F29" s="555"/>
-      <c r="G29" s="555"/>
-      <c r="H29" s="555"/>
-      <c r="I29" s="555"/>
-      <c r="J29" s="555"/>
-      <c r="K29" s="589"/>
+        <v>712</v>
+      </c>
+      <c r="F29" s="553"/>
+      <c r="G29" s="553"/>
+      <c r="H29" s="553"/>
+      <c r="I29" s="553"/>
+      <c r="J29" s="553"/>
+      <c r="K29" s="587"/>
       <c r="L29" s="214">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -34934,14 +34809,14 @@
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="F30" s="555"/>
-      <c r="G30" s="555"/>
-      <c r="H30" s="555"/>
-      <c r="I30" s="555"/>
-      <c r="J30" s="555"/>
-      <c r="K30" s="589"/>
+        <v>713</v>
+      </c>
+      <c r="F30" s="553"/>
+      <c r="G30" s="553"/>
+      <c r="H30" s="553"/>
+      <c r="I30" s="553"/>
+      <c r="J30" s="553"/>
+      <c r="K30" s="587"/>
       <c r="L30" s="214">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -34964,14 +34839,14 @@
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="19" t="s">
-        <v>715</v>
-      </c>
-      <c r="F31" s="555"/>
-      <c r="G31" s="555"/>
-      <c r="H31" s="555"/>
-      <c r="I31" s="555"/>
-      <c r="J31" s="555"/>
-      <c r="K31" s="589"/>
+        <v>714</v>
+      </c>
+      <c r="F31" s="553"/>
+      <c r="G31" s="553"/>
+      <c r="H31" s="553"/>
+      <c r="I31" s="553"/>
+      <c r="J31" s="553"/>
+      <c r="K31" s="587"/>
       <c r="L31" s="214">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -34994,14 +34869,14 @@
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="19" t="s">
-        <v>716</v>
-      </c>
-      <c r="F32" s="555"/>
-      <c r="G32" s="555"/>
-      <c r="H32" s="555"/>
-      <c r="I32" s="555"/>
-      <c r="J32" s="555"/>
-      <c r="K32" s="589"/>
+        <v>715</v>
+      </c>
+      <c r="F32" s="553"/>
+      <c r="G32" s="553"/>
+      <c r="H32" s="553"/>
+      <c r="I32" s="553"/>
+      <c r="J32" s="553"/>
+      <c r="K32" s="587"/>
       <c r="L32" s="214">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -35020,61 +34895,61 @@
     <row r="33" spans="2:17">
       <c r="B33" s="67"/>
       <c r="C33" s="17" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="19" t="s">
-        <v>808</v>
-      </c>
-      <c r="F33" s="555"/>
-      <c r="G33" s="555"/>
-      <c r="H33" s="555"/>
-      <c r="I33" s="555"/>
-      <c r="J33" s="555"/>
-      <c r="K33" s="589"/>
+        <v>802</v>
+      </c>
+      <c r="F33" s="553"/>
+      <c r="G33" s="553"/>
+      <c r="H33" s="553"/>
+      <c r="I33" s="553"/>
+      <c r="J33" s="553"/>
+      <c r="K33" s="587"/>
       <c r="L33" s="214"/>
       <c r="M33" s="220" t="e">
         <f>(1-I33)/H33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N33" s="484"/>
-      <c r="O33" s="484"/>
+      <c r="N33" s="482"/>
+      <c r="O33" s="482"/>
       <c r="P33" s="221" t="e">
         <f>M33</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q33" s="261" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="34" spans="2:17">
       <c r="B34" s="67"/>
       <c r="C34" s="17" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="19"/>
-      <c r="F34" s="555">
+      <c r="F34" s="553">
         <f t="shared" ref="F34:K34" si="3">F33</f>
         <v>0</v>
       </c>
-      <c r="G34" s="555">
+      <c r="G34" s="553">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H34" s="555">
+      <c r="H34" s="553">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I34" s="555">
+      <c r="I34" s="553">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J34" s="555">
+      <c r="J34" s="553">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K34" s="589">
+      <c r="K34" s="587">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -35084,7 +34959,7 @@
       </c>
       <c r="M34" s="220"/>
       <c r="N34" s="71"/>
-      <c r="O34" s="555">
+      <c r="O34" s="553">
         <f>G34*I34/((G34*I34)+((1-(SUM(H34:I34))+H34)))</f>
         <v>0</v>
       </c>
@@ -35093,7 +34968,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="261" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="35" spans="2:17">
@@ -35101,12 +34976,12 @@
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="557"/>
-      <c r="G35" s="557"/>
-      <c r="H35" s="557"/>
-      <c r="I35" s="557"/>
-      <c r="J35" s="557"/>
-      <c r="K35" s="591"/>
+      <c r="F35" s="555"/>
+      <c r="G35" s="555"/>
+      <c r="H35" s="555"/>
+      <c r="I35" s="555"/>
+      <c r="J35" s="555"/>
+      <c r="K35" s="589"/>
       <c r="L35" s="217"/>
       <c r="M35" s="224"/>
       <c r="N35" s="191"/>
@@ -35121,12 +34996,12 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="326"/>
-      <c r="F36" s="558"/>
-      <c r="G36" s="558"/>
-      <c r="H36" s="558"/>
-      <c r="I36" s="558"/>
-      <c r="J36" s="558"/>
-      <c r="K36" s="592"/>
+      <c r="F36" s="556"/>
+      <c r="G36" s="556"/>
+      <c r="H36" s="556"/>
+      <c r="I36" s="556"/>
+      <c r="J36" s="556"/>
+      <c r="K36" s="590"/>
       <c r="L36" s="218"/>
       <c r="M36" s="227"/>
       <c r="N36" s="200"/>
@@ -35141,14 +35016,14 @@
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="19" t="s">
-        <v>717</v>
-      </c>
-      <c r="F37" s="555"/>
-      <c r="G37" s="555"/>
-      <c r="H37" s="555"/>
-      <c r="I37" s="555"/>
-      <c r="J37" s="555"/>
-      <c r="K37" s="589"/>
+        <v>716</v>
+      </c>
+      <c r="F37" s="553"/>
+      <c r="G37" s="553"/>
+      <c r="H37" s="553"/>
+      <c r="I37" s="553"/>
+      <c r="J37" s="553"/>
+      <c r="K37" s="587"/>
       <c r="L37" s="214"/>
       <c r="M37" s="220" t="e">
         <f>1/H37</f>
@@ -35171,14 +35046,14 @@
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="19" t="s">
-        <v>718</v>
-      </c>
-      <c r="F38" s="555"/>
-      <c r="G38" s="555"/>
-      <c r="H38" s="555"/>
-      <c r="I38" s="555"/>
-      <c r="J38" s="555"/>
-      <c r="K38" s="589"/>
+        <v>717</v>
+      </c>
+      <c r="F38" s="553"/>
+      <c r="G38" s="553"/>
+      <c r="H38" s="553"/>
+      <c r="I38" s="553"/>
+      <c r="J38" s="553"/>
+      <c r="K38" s="587"/>
       <c r="L38" s="214"/>
       <c r="M38" s="220" t="e">
         <f>1/H38</f>
@@ -35201,14 +35076,14 @@
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="19" t="s">
-        <v>719</v>
-      </c>
-      <c r="F39" s="555"/>
-      <c r="G39" s="555"/>
-      <c r="H39" s="555"/>
-      <c r="I39" s="555"/>
-      <c r="J39" s="555"/>
-      <c r="K39" s="589"/>
+        <v>718</v>
+      </c>
+      <c r="F39" s="553"/>
+      <c r="G39" s="553"/>
+      <c r="H39" s="553"/>
+      <c r="I39" s="553"/>
+      <c r="J39" s="553"/>
+      <c r="K39" s="587"/>
       <c r="L39" s="214"/>
       <c r="M39" s="220" t="e">
         <f>1/H39</f>
@@ -35229,12 +35104,12 @@
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="21"/>
-      <c r="F40" s="556"/>
-      <c r="G40" s="556"/>
-      <c r="H40" s="556"/>
-      <c r="I40" s="556"/>
-      <c r="J40" s="556"/>
-      <c r="K40" s="590"/>
+      <c r="F40" s="554"/>
+      <c r="G40" s="554"/>
+      <c r="H40" s="554"/>
+      <c r="I40" s="554"/>
+      <c r="J40" s="554"/>
+      <c r="K40" s="588"/>
       <c r="L40" s="215"/>
       <c r="M40" s="222"/>
       <c r="N40" s="195"/>
@@ -35249,12 +35124,12 @@
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="20"/>
-      <c r="F41" s="557"/>
-      <c r="G41" s="557"/>
-      <c r="H41" s="557"/>
-      <c r="I41" s="557"/>
-      <c r="J41" s="557"/>
-      <c r="K41" s="591"/>
+      <c r="F41" s="555"/>
+      <c r="G41" s="555"/>
+      <c r="H41" s="555"/>
+      <c r="I41" s="555"/>
+      <c r="J41" s="555"/>
+      <c r="K41" s="589"/>
       <c r="L41" s="216"/>
       <c r="M41" s="224"/>
       <c r="N41" s="191"/>
@@ -35269,14 +35144,14 @@
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="19" t="s">
-        <v>720</v>
-      </c>
-      <c r="F42" s="555"/>
-      <c r="G42" s="555"/>
-      <c r="H42" s="555"/>
-      <c r="I42" s="555"/>
-      <c r="J42" s="555"/>
-      <c r="K42" s="589"/>
+        <v>719</v>
+      </c>
+      <c r="F42" s="553"/>
+      <c r="G42" s="553"/>
+      <c r="H42" s="553"/>
+      <c r="I42" s="553"/>
+      <c r="J42" s="553"/>
+      <c r="K42" s="587"/>
       <c r="L42" s="214">
         <f>F42</f>
         <v>0</v>
@@ -35299,14 +35174,14 @@
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="19" t="s">
-        <v>721</v>
-      </c>
-      <c r="F43" s="555"/>
-      <c r="G43" s="555"/>
-      <c r="H43" s="555"/>
-      <c r="I43" s="555"/>
-      <c r="J43" s="555"/>
-      <c r="K43" s="589"/>
+        <v>720</v>
+      </c>
+      <c r="F43" s="553"/>
+      <c r="G43" s="553"/>
+      <c r="H43" s="553"/>
+      <c r="I43" s="553"/>
+      <c r="J43" s="553"/>
+      <c r="K43" s="587"/>
       <c r="L43" s="214">
         <f>F43</f>
         <v>0</v>
@@ -35329,14 +35204,14 @@
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="19" t="s">
-        <v>722</v>
-      </c>
-      <c r="F44" s="555"/>
-      <c r="G44" s="555"/>
-      <c r="H44" s="555"/>
-      <c r="I44" s="555"/>
-      <c r="J44" s="555"/>
-      <c r="K44" s="589"/>
+        <v>721</v>
+      </c>
+      <c r="F44" s="553"/>
+      <c r="G44" s="553"/>
+      <c r="H44" s="553"/>
+      <c r="I44" s="553"/>
+      <c r="J44" s="553"/>
+      <c r="K44" s="587"/>
       <c r="L44" s="214">
         <f>F44</f>
         <v>0</v>
@@ -35359,14 +35234,14 @@
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="19" t="s">
-        <v>723</v>
-      </c>
-      <c r="F45" s="555"/>
-      <c r="G45" s="555"/>
-      <c r="H45" s="555"/>
-      <c r="I45" s="555"/>
-      <c r="J45" s="555"/>
-      <c r="K45" s="589"/>
+        <v>722</v>
+      </c>
+      <c r="F45" s="553"/>
+      <c r="G45" s="553"/>
+      <c r="H45" s="553"/>
+      <c r="I45" s="553"/>
+      <c r="J45" s="553"/>
+      <c r="K45" s="587"/>
       <c r="L45" s="214">
         <f>F45</f>
         <v>0</v>
@@ -35389,14 +35264,14 @@
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="19" t="s">
-        <v>724</v>
-      </c>
-      <c r="F46" s="555"/>
-      <c r="G46" s="555"/>
-      <c r="H46" s="555"/>
-      <c r="I46" s="555"/>
-      <c r="J46" s="555"/>
-      <c r="K46" s="589"/>
+        <v>723</v>
+      </c>
+      <c r="F46" s="553"/>
+      <c r="G46" s="553"/>
+      <c r="H46" s="553"/>
+      <c r="I46" s="553"/>
+      <c r="J46" s="553"/>
+      <c r="K46" s="587"/>
       <c r="L46" s="214">
         <f>F46</f>
         <v>0</v>
@@ -35416,13 +35291,13 @@
       <c r="B47" s="117"/>
       <c r="C47" s="45"/>
       <c r="D47" s="45"/>
-      <c r="E47" s="593"/>
-      <c r="F47" s="559"/>
-      <c r="G47" s="559"/>
-      <c r="H47" s="559"/>
-      <c r="I47" s="559"/>
-      <c r="J47" s="559"/>
-      <c r="K47" s="594"/>
+      <c r="E47" s="591"/>
+      <c r="F47" s="557"/>
+      <c r="G47" s="557"/>
+      <c r="H47" s="557"/>
+      <c r="I47" s="557"/>
+      <c r="J47" s="557"/>
+      <c r="K47" s="592"/>
       <c r="L47" s="219"/>
       <c r="M47" s="229"/>
       <c r="N47" s="230"/>
@@ -35437,12 +35312,12 @@
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="20"/>
-      <c r="F48" s="557"/>
-      <c r="G48" s="557"/>
-      <c r="H48" s="557"/>
-      <c r="I48" s="557"/>
-      <c r="J48" s="557"/>
-      <c r="K48" s="591"/>
+      <c r="F48" s="555"/>
+      <c r="G48" s="555"/>
+      <c r="H48" s="555"/>
+      <c r="I48" s="555"/>
+      <c r="J48" s="555"/>
+      <c r="K48" s="589"/>
       <c r="L48" s="217"/>
       <c r="M48" s="224"/>
       <c r="N48" s="191"/>
@@ -35457,19 +35332,19 @@
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="19" t="s">
-        <v>725</v>
-      </c>
-      <c r="F49" s="555"/>
-      <c r="G49" s="555"/>
-      <c r="H49" s="555"/>
-      <c r="I49" s="555"/>
-      <c r="J49" s="555"/>
-      <c r="K49" s="589"/>
+        <v>724</v>
+      </c>
+      <c r="F49" s="553"/>
+      <c r="G49" s="553"/>
+      <c r="H49" s="553"/>
+      <c r="I49" s="553"/>
+      <c r="J49" s="553"/>
+      <c r="K49" s="587"/>
       <c r="L49" s="214"/>
       <c r="M49" s="220"/>
       <c r="N49" s="71"/>
       <c r="O49" s="71"/>
-      <c r="P49" s="549">
+      <c r="P49" s="547">
         <f>K49</f>
         <v>0</v>
       </c>
@@ -35484,19 +35359,19 @@
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="19" t="s">
-        <v>726</v>
-      </c>
-      <c r="F50" s="555"/>
-      <c r="G50" s="555"/>
-      <c r="H50" s="555"/>
-      <c r="I50" s="555"/>
-      <c r="J50" s="555"/>
-      <c r="K50" s="589"/>
+        <v>725</v>
+      </c>
+      <c r="F50" s="553"/>
+      <c r="G50" s="553"/>
+      <c r="H50" s="553"/>
+      <c r="I50" s="553"/>
+      <c r="J50" s="553"/>
+      <c r="K50" s="587"/>
       <c r="L50" s="214"/>
       <c r="M50" s="220"/>
       <c r="N50" s="71"/>
       <c r="O50" s="71"/>
-      <c r="P50" s="549">
+      <c r="P50" s="547">
         <f>K50</f>
         <v>0</v>
       </c>
@@ -35511,19 +35386,19 @@
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="19" t="s">
-        <v>727</v>
-      </c>
-      <c r="F51" s="555"/>
-      <c r="G51" s="555"/>
-      <c r="H51" s="555"/>
-      <c r="I51" s="555"/>
-      <c r="J51" s="555"/>
-      <c r="K51" s="589"/>
+        <v>726</v>
+      </c>
+      <c r="F51" s="553"/>
+      <c r="G51" s="553"/>
+      <c r="H51" s="553"/>
+      <c r="I51" s="553"/>
+      <c r="J51" s="553"/>
+      <c r="K51" s="587"/>
       <c r="L51" s="214"/>
       <c r="M51" s="220"/>
       <c r="N51" s="71"/>
       <c r="O51" s="71"/>
-      <c r="P51" s="549">
+      <c r="P51" s="547">
         <f>K51</f>
         <v>0</v>
       </c>
@@ -35536,12 +35411,12 @@
       <c r="C52" s="77"/>
       <c r="D52" s="77"/>
       <c r="E52" s="128"/>
-      <c r="F52" s="560"/>
-      <c r="G52" s="560"/>
-      <c r="H52" s="560"/>
-      <c r="I52" s="560"/>
-      <c r="J52" s="560"/>
-      <c r="K52" s="595"/>
+      <c r="F52" s="558"/>
+      <c r="G52" s="558"/>
+      <c r="H52" s="558"/>
+      <c r="I52" s="558"/>
+      <c r="J52" s="558"/>
+      <c r="K52" s="593"/>
       <c r="L52" s="128"/>
       <c r="M52" s="77"/>
       <c r="N52" s="77"/>
@@ -35549,12 +35424,12 @@
       <c r="P52" s="138"/>
     </row>
     <row r="53" spans="2:17">
-      <c r="F53" s="561"/>
-      <c r="G53" s="561"/>
-      <c r="H53" s="561"/>
-      <c r="I53" s="561"/>
-      <c r="J53" s="561"/>
-      <c r="K53" s="561"/>
+      <c r="F53" s="559"/>
+      <c r="G53" s="559"/>
+      <c r="H53" s="559"/>
+      <c r="I53" s="559"/>
+      <c r="J53" s="559"/>
+      <c r="K53" s="559"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/analyses/6_residences_analysis.xlsx
+++ b/analyses/6_residences_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Code/etdataset/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EBC9CD-C28A-A34F-9F66-C64AAEE81665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CB4B9D-08AF-E049-BAB4-418D07E4FB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="50080" windowHeight="28340" tabRatio="932" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="50060" windowHeight="28300" tabRatio="932" firstSheet="30" activeTab="40" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -57,6 +57,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId42"/>
+    <externalReference r:id="rId43"/>
   </externalReferences>
   <definedNames>
     <definedName name="base_year">Dashboard!$E$12</definedName>
@@ -2730,9 +2731,6 @@
     <t>Electric Heat Pump  (ground)</t>
   </si>
   <si>
-    <t>nl</t>
-  </si>
-  <si>
     <t>Final demand for ambient_heat</t>
   </si>
   <si>
@@ -2803,6 +2801,9 @@
   </si>
   <si>
     <t>Input shares HHP node</t>
+  </si>
+  <si>
+    <t>eu</t>
   </si>
 </sst>
 </file>
@@ -13670,6 +13671,28 @@
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
+      <sheetName val="analysis_manager"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="export_data_button"/>
+      <definedName name="import_data_button"/>
+      <definedName name="select_dashboard_values"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover sheet"/>
+      <sheetName val="Dashboard"/>
     </sheetNames>
     <definedNames>
       <definedName name="export_data_button"/>
@@ -14035,7 +14058,7 @@
       </c>
       <c r="C4" s="4" t="str">
         <f>"Residence analysis "&amp;C6&amp;" "&amp;C7</f>
-        <v>Residence analysis nl 2019</v>
+        <v>Residence analysis eu 2011</v>
       </c>
       <c r="D4" s="5"/>
     </row>
@@ -14055,7 +14078,7 @@
       </c>
       <c r="C6" s="146" t="str">
         <f>Dashboard!E11</f>
-        <v>nl</v>
+        <v>eu</v>
       </c>
       <c r="D6" s="7"/>
     </row>
@@ -14065,7 +14088,7 @@
       </c>
       <c r="C7" s="147">
         <f>Dashboard!E12</f>
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -16015,7 +16038,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="30"/>
       <c r="M7" s="666" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="N7" s="668"/>
       <c r="O7" s="668"/>
@@ -16073,13 +16096,13 @@
         <v>680</v>
       </c>
       <c r="M9" s="670" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="N9" s="671" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="O9" s="671" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="P9" s="656" t="s">
         <v>696</v>
@@ -16088,7 +16111,7 @@
         <v>790</v>
       </c>
       <c r="R9" s="667" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
@@ -19366,7 +19389,7 @@
   </sheetPr>
   <dimension ref="A2:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -19383,12 +19406,12 @@
   <sheetData>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="699" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C4" s="700"/>
       <c r="D4" s="20"/>
@@ -19445,22 +19468,22 @@
       <c r="B8" s="679"/>
       <c r="C8" s="680"/>
       <c r="D8" s="681" t="s">
+        <v>880</v>
+      </c>
+      <c r="E8" s="682" t="s">
         <v>881</v>
       </c>
-      <c r="E8" s="682" t="s">
-        <v>882</v>
-      </c>
       <c r="F8" s="681" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G8" s="681" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H8" s="682" t="s">
+        <v>885</v>
+      </c>
+      <c r="I8" s="683" t="s">
         <v>886</v>
-      </c>
-      <c r="I8" s="683" t="s">
-        <v>887</v>
       </c>
       <c r="J8" s="59"/>
       <c r="K8" s="59"/>
@@ -19471,7 +19494,7 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="163"/>
       <c r="B9" s="678" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C9" s="105" t="s">
         <v>388</v>
@@ -19543,7 +19566,7 @@
       <c r="A11" s="163"/>
       <c r="B11" s="678"/>
       <c r="C11" s="59" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D11" s="59"/>
       <c r="E11" s="59"/>
@@ -19585,17 +19608,17 @@
       <c r="C13" s="680"/>
       <c r="D13" s="680"/>
       <c r="E13" s="682" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F13" s="682" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G13" s="682"/>
       <c r="H13" s="682" t="s">
+        <v>885</v>
+      </c>
+      <c r="I13" s="683" t="s">
         <v>886</v>
-      </c>
-      <c r="I13" s="683" t="s">
-        <v>887</v>
       </c>
       <c r="J13" s="59"/>
       <c r="K13" s="59"/>
@@ -19606,7 +19629,7 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="163"/>
       <c r="B14" s="539" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C14" s="59" t="s">
         <v>388</v>
@@ -19672,7 +19695,7 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="31"/>
       <c r="C16" s="59" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D16" s="537"/>
       <c r="E16" s="537"/>
@@ -21935,10 +21958,10 @@
     </row>
     <row r="38" spans="2:4" ht="85" x14ac:dyDescent="0.2">
       <c r="B38" s="21" t="s">
+        <v>872</v>
+      </c>
+      <c r="C38" s="677" t="s">
         <v>873</v>
-      </c>
-      <c r="C38" s="677" t="s">
-        <v>874</v>
       </c>
       <c r="D38" s="11">
         <v>2.21</v>
@@ -23828,7 +23851,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23839,7 +23862,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -23854,27 +23877,27 @@
       <c r="A3" t="s">
         <v>790</v>
       </c>
-      <c r="B3" t="e">
-        <f>'HHP input shares'!I9</f>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <f>IFERROR('HHP input shares'!I9,0.187)</f>
+        <v>0.187</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>696</v>
       </c>
-      <c r="B4" t="e">
-        <f>'HHP input shares'!I10</f>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <f>IFERROR('HHP input shares'!I10,0.18)</f>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>866</v>
-      </c>
-      <c r="B5" t="e">
-        <f>'HHP input shares'!I11</f>
-        <v>#DIV/0!</v>
+        <v>865</v>
+      </c>
+      <c r="B5">
+        <f>1-B4-B3</f>
+        <v>0.63300000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -23889,8 +23912,8 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23900,7 +23923,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -23915,27 +23938,27 @@
       <c r="A3" t="s">
         <v>790</v>
       </c>
-      <c r="B3" t="e">
-        <f>'HHP input shares'!I14</f>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <f>IFERROR('HHP input shares'!I14,0.33)</f>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>696</v>
       </c>
-      <c r="B4" t="e">
-        <f>'HHP input shares'!I15</f>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <f>IFERROR('HHP input shares'!I15,0.22)</f>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>866</v>
-      </c>
-      <c r="B5" t="e">
-        <f>'HHP input shares'!I16</f>
-        <v>#DIV/0!</v>
+        <v>865</v>
+      </c>
+      <c r="B5">
+        <f>1-B4-B3</f>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -25917,7 +25940,7 @@
       </c>
       <c r="D11" s="421"/>
       <c r="E11" s="71" t="s">
-        <v>863</v>
+        <v>887</v>
       </c>
       <c r="F11" s="191"/>
       <c r="G11" s="23" t="s">
@@ -25942,7 +25965,7 @@
       </c>
       <c r="D12" s="421"/>
       <c r="E12" s="71">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="F12" s="191"/>
       <c r="G12" s="23" t="s">
@@ -28163,7 +28186,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="3073" r:id="rId3" name="import_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!import_data_button">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!import_data_button">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
@@ -28185,7 +28208,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="3074" r:id="rId4" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!export_data_button">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!export_data_button">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
@@ -28207,7 +28230,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="3076" r:id="rId5" name="select_dashboard">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!select_dashboard_values">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!select_dashboard_values">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
@@ -35200,7 +35223,7 @@
       <c r="J7" s="545"/>
       <c r="K7" s="576"/>
       <c r="L7" s="653" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="M7" s="653"/>
       <c r="N7" s="579"/>
@@ -35239,10 +35262,10 @@
         <v>732</v>
       </c>
       <c r="L8" s="658" t="s">
+        <v>870</v>
+      </c>
+      <c r="M8" s="658" t="s">
         <v>871</v>
-      </c>
-      <c r="M8" s="658" t="s">
-        <v>872</v>
       </c>
       <c r="N8" s="582" t="s">
         <v>674</v>

--- a/analyses/6_residences_analysis.xlsx
+++ b/analyses/6_residences_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Github/etdataset/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815A37D5-40ED-5B47-9B6A-64014FFCE42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177A9909-FF8D-5D4E-BA8D-A632A8C7BE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21160" yWindow="-33340" windowWidth="60160" windowHeight="32200" tabRatio="932" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15600" yWindow="-33340" windowWidth="30080" windowHeight="16200" tabRatio="932" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="934">
   <si>
     <t>Changelog</t>
   </si>
@@ -2918,6 +2918,21 @@
   </si>
   <si>
     <t>present_number_of_residences</t>
+  </si>
+  <si>
+    <t>households_cooling_heatpump_surface_water_water_ts_electricity</t>
+  </si>
+  <si>
+    <t>households_space_heater_heatpump_surface_water_water_ts_electricity</t>
+  </si>
+  <si>
+    <t>households_water_heater_heatpump_surface_water_water_ts_electricity</t>
+  </si>
+  <si>
+    <t>July 17, 2025</t>
+  </si>
+  <si>
+    <t>Add surface water technologies to export CSVs with zero share.</t>
   </si>
 </sst>
 </file>
@@ -6634,7 +6649,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="605">
+  <cellXfs count="606">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -7676,6 +7691,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2404">
     <cellStyle name="Calculation" xfId="1524" builtinId="22" customBuiltin="1"/>
@@ -10086,16 +10102,6 @@
   <dxfs count="18">
     <dxf>
       <font>
-        <color rgb="FFCCFFCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -10151,6 +10157,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFFCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13943,7 +13959,7 @@
   <dimension ref="B2:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13976,7 +13992,7 @@
       </c>
       <c r="C5" s="365">
         <f>MAX(Changelog!D:D)</f>
-        <v>2.2400000000000002</v>
+        <v>2.25</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -14003,7 +14019,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="335" t="s">
-        <v>805</v>
+        <v>932</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -16983,7 +16999,7 @@
     <mergeCell ref="B5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="J71">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18663,20 +18679,20 @@
     <mergeCell ref="K24:L24"/>
   </mergeCells>
   <conditionalFormatting sqref="C13:F13">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:L13">
-    <cfRule type="uniqueValues" dxfId="4" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="uniqueValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="notBetween">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="notBetween">
       <formula>-1</formula>
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="between">
       <formula>-1</formula>
       <formula>1</formula>
     </cfRule>
@@ -20937,8 +20953,8 @@
   </sheetPr>
   <dimension ref="B2:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21345,10 +21361,16 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="334"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="15"/>
+    <row r="42" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B42" s="334" t="s">
+        <v>932</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>933</v>
+      </c>
+      <c r="D42" s="15">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="334"/>
@@ -21586,10 +21608,10 @@
   <sheetPr codeName="Sheet24">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21636,6 +21658,14 @@
       <c r="B5" s="171" t="e">
         <f>'Technology Shares'!F34</f>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>929</v>
+      </c>
+      <c r="B6" s="605">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -21712,10 +21742,10 @@
   <sheetPr codeName="Sheet26">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21771,6 +21801,14 @@
       <c r="B6" s="171" t="e">
         <f>'Technology Shares'!F16</f>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>930</v>
+      </c>
+      <c r="B7" s="605">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -21848,10 +21886,10 @@
   <sheetPr codeName="Sheet29">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21907,6 +21945,14 @@
       <c r="B6" s="171" t="e">
         <f>'Technology Shares'!F26</f>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>931</v>
+      </c>
+      <c r="B7" s="605">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -24813,7 +24859,7 @@
   <dimension ref="B2:P143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27714,13 +27760,13 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L111">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+  <conditionalFormatting sqref="L86">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L86">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="L111">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
